--- a/Solution.xlsx
+++ b/Solution.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="44">
   <si>
     <t>Employee</t>
   </si>
@@ -92,34 +92,43 @@
     <t>Saturday</t>
   </si>
   <si>
+    <t>08:00</t>
+  </si>
+  <si>
     <t>12:00</t>
   </si>
   <si>
     <t>15:00</t>
   </si>
   <si>
-    <t>08:00</t>
-  </si>
-  <si>
     <t>12:30</t>
   </si>
   <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>14:30</t>
+  </si>
+  <si>
     <t>14:00</t>
   </si>
   <si>
-    <t>16:00</t>
+    <t>10:30</t>
+  </si>
+  <si>
+    <t>08:30</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>13:30</t>
   </si>
   <si>
     <t>15:30</t>
   </si>
   <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>20:00</t>
-  </si>
-  <si>
-    <t>14:30</t>
+    <t>13:00</t>
   </si>
   <si>
     <t>min_hours_per_week</t>
@@ -569,7 +578,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -586,7 +595,7 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +609,10 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,10 +626,10 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -634,10 +643,10 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
         <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -654,7 +663,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -679,10 +688,10 @@
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -696,10 +705,10 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -713,10 +722,10 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -730,10 +739,10 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -750,7 +759,7 @@
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -764,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -781,10 +790,10 @@
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -798,10 +807,10 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -815,10 +824,10 @@
         <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -832,10 +841,10 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -849,10 +858,10 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -866,10 +875,10 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -883,10 +892,10 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -899,12 +908,6 @@
       <c r="C23" t="s">
         <v>22</v>
       </c>
-      <c r="D23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
@@ -917,10 +920,10 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -933,6 +936,12 @@
       <c r="C25" t="s">
         <v>24</v>
       </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
@@ -945,10 +954,10 @@
         <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -962,10 +971,10 @@
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -979,10 +988,10 @@
         <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1007,10 +1016,10 @@
         <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1027,7 +1036,7 @@
         <v>27</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1110,7 +1119,7 @@
         <v>27</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1124,10 +1133,10 @@
         <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1152,10 +1161,10 @@
         <v>22</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1179,6 +1188,12 @@
       <c r="C43" t="s">
         <v>24</v>
       </c>
+      <c r="D43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
@@ -1191,10 +1206,10 @@
         <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E44" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1272,22 +1287,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1341,7 +1356,7 @@
         <v>40</v>
       </c>
       <c r="D4">
-        <v>31.5</v>
+        <v>30.5</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1381,7 +1396,7 @@
         <v>37.5</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>27.5</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1421,7 +1436,7 @@
         <v>20</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>

--- a/Solution.xlsx
+++ b/Solution.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="113">
   <si>
     <t>Employee</t>
   </si>
@@ -56,6 +56,168 @@
     <t>Ruth</t>
   </si>
   <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Helen</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Julie</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Sophie</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>Nora</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>Megan</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
+    <t>Irene</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>Ella</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>Isabel</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Lucy</t>
+  </si>
+  <si>
+    <t>Philip</t>
+  </si>
+  <si>
+    <t>Tina</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>Nicole</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>Leah</t>
+  </si>
+  <si>
     <t>13.04.2020</t>
   </si>
   <si>
@@ -74,6 +236,9 @@
     <t>18.04.2020</t>
   </si>
   <si>
+    <t>19.04.2020</t>
+  </si>
+  <si>
     <t>Monday</t>
   </si>
   <si>
@@ -92,43 +257,85 @@
     <t>Saturday</t>
   </si>
   <si>
-    <t>08:00</t>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>09:00</t>
   </si>
   <si>
     <t>12:00</t>
   </si>
   <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>09:30</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>10:30</t>
+  </si>
+  <si>
     <t>15:00</t>
   </si>
   <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>11:30</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
     <t>12:30</t>
   </si>
   <si>
-    <t>16:00</t>
-  </si>
-  <si>
     <t>14:30</t>
   </si>
   <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>10:30</t>
-  </si>
-  <si>
-    <t>08:30</t>
+    <t>17:30</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>21:30</t>
+  </si>
+  <si>
+    <t>18:30</t>
+  </si>
+  <si>
+    <t>19:30</t>
+  </si>
+  <si>
+    <t>20:30</t>
+  </si>
+  <si>
+    <t>19:00</t>
   </si>
   <si>
     <t>20:00</t>
-  </si>
-  <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t>15:30</t>
-  </si>
-  <si>
-    <t>13:00</t>
   </si>
   <si>
     <t>min_hours_per_week</t>
@@ -525,7 +732,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E435"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,10 +765,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -569,16 +782,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -586,16 +799,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -603,16 +816,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -620,16 +833,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -637,33 +850,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -671,10 +884,16 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -682,16 +901,16 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -699,16 +918,16 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -716,16 +935,16 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -733,50 +952,50 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -784,16 +1003,16 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -801,16 +1020,16 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -818,16 +1037,16 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -835,67 +1054,67 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -903,10 +1122,16 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>74</v>
+      </c>
+      <c r="D23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -914,16 +1139,16 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -931,78 +1156,78 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>80</v>
+      </c>
+      <c r="D29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1010,16 +1235,16 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1027,71 +1252,101 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>76</v>
+      </c>
+      <c r="D32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>77</v>
+      </c>
+      <c r="D33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>78</v>
+      </c>
+      <c r="D34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>79</v>
+      </c>
+      <c r="D35" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>80</v>
+      </c>
+      <c r="D36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1099,172 +1354,6680 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>74</v>
+      </c>
+      <c r="D37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="E39" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>77</v>
+      </c>
+      <c r="D40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="C41" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="E41" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>79</v>
+      </c>
+      <c r="D42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="E43" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="E44" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>75</v>
+      </c>
+      <c r="D45" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
+        <v>76</v>
+      </c>
+      <c r="D46" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="C47" t="s">
-        <v>22</v>
+        <v>77</v>
+      </c>
+      <c r="D47" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
         <v>12</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" t="s">
+        <v>81</v>
+      </c>
+      <c r="E60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" t="s">
+        <v>81</v>
+      </c>
+      <c r="E61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" t="s">
+        <v>94</v>
+      </c>
+      <c r="E62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" t="s">
+        <v>79</v>
+      </c>
+      <c r="D63" t="s">
+        <v>81</v>
+      </c>
+      <c r="E63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67" t="s">
+        <v>81</v>
+      </c>
+      <c r="E67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68" t="s">
+        <v>81</v>
+      </c>
+      <c r="E68" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" t="s">
+        <v>81</v>
+      </c>
+      <c r="E69" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70" t="s">
+        <v>82</v>
+      </c>
+      <c r="E70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" t="s">
+        <v>80</v>
+      </c>
+      <c r="D71" t="s">
+        <v>96</v>
+      </c>
+      <c r="E71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" t="s">
+        <v>74</v>
+      </c>
+      <c r="D72" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" t="s">
+        <v>75</v>
+      </c>
+      <c r="D73" t="s">
+        <v>88</v>
+      </c>
+      <c r="E73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" t="s">
+        <v>69</v>
+      </c>
+      <c r="C74" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74" t="s">
+        <v>81</v>
+      </c>
+      <c r="E74" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" t="s">
+        <v>96</v>
+      </c>
+      <c r="E75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76" t="s">
+        <v>78</v>
+      </c>
+      <c r="D76" t="s">
+        <v>81</v>
+      </c>
+      <c r="E76" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" t="s">
+        <v>96</v>
+      </c>
+      <c r="E77" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78" t="s">
+        <v>80</v>
+      </c>
+      <c r="D78" t="s">
+        <v>87</v>
+      </c>
+      <c r="E78" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" t="s">
+        <v>74</v>
+      </c>
+      <c r="D79" t="s">
+        <v>87</v>
+      </c>
+      <c r="E79" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" t="s">
+        <v>75</v>
+      </c>
+      <c r="D80" t="s">
+        <v>93</v>
+      </c>
+      <c r="E80" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" t="s">
+        <v>69</v>
+      </c>
+      <c r="C81" t="s">
+        <v>76</v>
+      </c>
+      <c r="D81" t="s">
+        <v>81</v>
+      </c>
+      <c r="E81" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" t="s">
+        <v>70</v>
+      </c>
+      <c r="C82" t="s">
+        <v>77</v>
+      </c>
+      <c r="D82" t="s">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" t="s">
+        <v>78</v>
+      </c>
+      <c r="D83" t="s">
+        <v>94</v>
+      </c>
+      <c r="E83" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" t="s">
+        <v>72</v>
+      </c>
+      <c r="C84" t="s">
+        <v>79</v>
+      </c>
+      <c r="D84" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" t="s">
+        <v>73</v>
+      </c>
+      <c r="C85" t="s">
+        <v>80</v>
+      </c>
+      <c r="D85" t="s">
+        <v>82</v>
+      </c>
+      <c r="E85" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
         <v>17</v>
       </c>
-      <c r="C48" t="s">
+      <c r="B86" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" t="s">
+        <v>74</v>
+      </c>
+      <c r="D86" t="s">
+        <v>81</v>
+      </c>
+      <c r="E86" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" t="s">
+        <v>68</v>
+      </c>
+      <c r="C87" t="s">
+        <v>75</v>
+      </c>
+      <c r="D87" t="s">
+        <v>81</v>
+      </c>
+      <c r="E87" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" t="s">
+        <v>69</v>
+      </c>
+      <c r="C88" t="s">
+        <v>76</v>
+      </c>
+      <c r="D88" t="s">
+        <v>81</v>
+      </c>
+      <c r="E88" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89" t="s">
+        <v>70</v>
+      </c>
+      <c r="C89" t="s">
+        <v>77</v>
+      </c>
+      <c r="D89" t="s">
+        <v>81</v>
+      </c>
+      <c r="E89" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" t="s">
+        <v>71</v>
+      </c>
+      <c r="C90" t="s">
+        <v>78</v>
+      </c>
+      <c r="D90" t="s">
+        <v>81</v>
+      </c>
+      <c r="E90" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" t="s">
+        <v>72</v>
+      </c>
+      <c r="C91" t="s">
+        <v>79</v>
+      </c>
+      <c r="D91" t="s">
+        <v>89</v>
+      </c>
+      <c r="E91" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" t="s">
+        <v>73</v>
+      </c>
+      <c r="C92" t="s">
+        <v>80</v>
+      </c>
+      <c r="D92" t="s">
+        <v>82</v>
+      </c>
+      <c r="E92" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93" t="s">
+        <v>67</v>
+      </c>
+      <c r="C93" t="s">
+        <v>74</v>
+      </c>
+      <c r="D93" t="s">
+        <v>91</v>
+      </c>
+      <c r="E93" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>18</v>
+      </c>
+      <c r="B94" t="s">
+        <v>68</v>
+      </c>
+      <c r="C94" t="s">
+        <v>75</v>
+      </c>
+      <c r="D94" t="s">
+        <v>81</v>
+      </c>
+      <c r="E94" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95" t="s">
+        <v>69</v>
+      </c>
+      <c r="C95" t="s">
+        <v>76</v>
+      </c>
+      <c r="D95" t="s">
+        <v>81</v>
+      </c>
+      <c r="E95" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>18</v>
+      </c>
+      <c r="B96" t="s">
+        <v>70</v>
+      </c>
+      <c r="C96" t="s">
+        <v>77</v>
+      </c>
+      <c r="D96" t="s">
+        <v>87</v>
+      </c>
+      <c r="E96" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>18</v>
+      </c>
+      <c r="B97" t="s">
+        <v>71</v>
+      </c>
+      <c r="C97" t="s">
+        <v>78</v>
+      </c>
+      <c r="D97" t="s">
+        <v>81</v>
+      </c>
+      <c r="E97" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98" t="s">
+        <v>72</v>
+      </c>
+      <c r="C98" t="s">
+        <v>79</v>
+      </c>
+      <c r="D98" t="s">
+        <v>88</v>
+      </c>
+      <c r="E98" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99" t="s">
+        <v>73</v>
+      </c>
+      <c r="C99" t="s">
+        <v>80</v>
+      </c>
+      <c r="D99" t="s">
+        <v>96</v>
+      </c>
+      <c r="E99" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>19</v>
+      </c>
+      <c r="B100" t="s">
+        <v>67</v>
+      </c>
+      <c r="C100" t="s">
+        <v>74</v>
+      </c>
+      <c r="D100" t="s">
+        <v>81</v>
+      </c>
+      <c r="E100" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>19</v>
+      </c>
+      <c r="B101" t="s">
+        <v>68</v>
+      </c>
+      <c r="C101" t="s">
+        <v>75</v>
+      </c>
+      <c r="D101" t="s">
+        <v>81</v>
+      </c>
+      <c r="E101" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>19</v>
+      </c>
+      <c r="B102" t="s">
+        <v>69</v>
+      </c>
+      <c r="C102" t="s">
+        <v>76</v>
+      </c>
+      <c r="D102" t="s">
+        <v>81</v>
+      </c>
+      <c r="E102" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>19</v>
+      </c>
+      <c r="B103" t="s">
+        <v>70</v>
+      </c>
+      <c r="C103" t="s">
+        <v>77</v>
+      </c>
+      <c r="D103" t="s">
+        <v>81</v>
+      </c>
+      <c r="E103" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>19</v>
+      </c>
+      <c r="B104" t="s">
+        <v>71</v>
+      </c>
+      <c r="C104" t="s">
+        <v>78</v>
+      </c>
+      <c r="D104" t="s">
+        <v>92</v>
+      </c>
+      <c r="E104" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>19</v>
+      </c>
+      <c r="B105" t="s">
+        <v>72</v>
+      </c>
+      <c r="C105" t="s">
+        <v>79</v>
+      </c>
+      <c r="D105" t="s">
+        <v>91</v>
+      </c>
+      <c r="E105" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>19</v>
+      </c>
+      <c r="B106" t="s">
+        <v>73</v>
+      </c>
+      <c r="C106" t="s">
+        <v>80</v>
+      </c>
+      <c r="D106" t="s">
+        <v>81</v>
+      </c>
+      <c r="E106" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>20</v>
+      </c>
+      <c r="B107" t="s">
+        <v>67</v>
+      </c>
+      <c r="C107" t="s">
+        <v>74</v>
+      </c>
+      <c r="D107" t="s">
+        <v>81</v>
+      </c>
+      <c r="E107" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>20</v>
+      </c>
+      <c r="B108" t="s">
+        <v>68</v>
+      </c>
+      <c r="C108" t="s">
+        <v>75</v>
+      </c>
+      <c r="D108" t="s">
+        <v>81</v>
+      </c>
+      <c r="E108" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>20</v>
+      </c>
+      <c r="B109" t="s">
+        <v>69</v>
+      </c>
+      <c r="C109" t="s">
+        <v>76</v>
+      </c>
+      <c r="D109" t="s">
+        <v>81</v>
+      </c>
+      <c r="E109" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>20</v>
+      </c>
+      <c r="B110" t="s">
+        <v>70</v>
+      </c>
+      <c r="C110" t="s">
+        <v>77</v>
+      </c>
+      <c r="D110" t="s">
+        <v>81</v>
+      </c>
+      <c r="E110" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>20</v>
+      </c>
+      <c r="B111" t="s">
+        <v>71</v>
+      </c>
+      <c r="C111" t="s">
+        <v>78</v>
+      </c>
+      <c r="D111" t="s">
+        <v>81</v>
+      </c>
+      <c r="E111" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>20</v>
+      </c>
+      <c r="B112" t="s">
+        <v>72</v>
+      </c>
+      <c r="C112" t="s">
+        <v>79</v>
+      </c>
+      <c r="D112" t="s">
+        <v>86</v>
+      </c>
+      <c r="E112" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>20</v>
+      </c>
+      <c r="B113" t="s">
+        <v>73</v>
+      </c>
+      <c r="C113" t="s">
+        <v>80</v>
+      </c>
+      <c r="D113" t="s">
+        <v>97</v>
+      </c>
+      <c r="E113" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>21</v>
+      </c>
+      <c r="B114" t="s">
+        <v>67</v>
+      </c>
+      <c r="C114" t="s">
+        <v>74</v>
+      </c>
+      <c r="D114" t="s">
+        <v>81</v>
+      </c>
+      <c r="E114" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>21</v>
+      </c>
+      <c r="B115" t="s">
+        <v>68</v>
+      </c>
+      <c r="C115" t="s">
+        <v>75</v>
+      </c>
+      <c r="D115" t="s">
+        <v>81</v>
+      </c>
+      <c r="E115" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>21</v>
+      </c>
+      <c r="B116" t="s">
+        <v>69</v>
+      </c>
+      <c r="C116" t="s">
+        <v>76</v>
+      </c>
+      <c r="D116" t="s">
+        <v>81</v>
+      </c>
+      <c r="E116" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>21</v>
+      </c>
+      <c r="B117" t="s">
+        <v>70</v>
+      </c>
+      <c r="C117" t="s">
+        <v>77</v>
+      </c>
+      <c r="D117" t="s">
+        <v>81</v>
+      </c>
+      <c r="E117" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>21</v>
+      </c>
+      <c r="B118" t="s">
+        <v>71</v>
+      </c>
+      <c r="C118" t="s">
+        <v>78</v>
+      </c>
+      <c r="D118" t="s">
+        <v>81</v>
+      </c>
+      <c r="E118" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>21</v>
+      </c>
+      <c r="B119" t="s">
+        <v>72</v>
+      </c>
+      <c r="C119" t="s">
+        <v>79</v>
+      </c>
+      <c r="D119" t="s">
+        <v>81</v>
+      </c>
+      <c r="E119" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>21</v>
+      </c>
+      <c r="B120" t="s">
+        <v>73</v>
+      </c>
+      <c r="C120" t="s">
+        <v>80</v>
+      </c>
+      <c r="D120" t="s">
+        <v>90</v>
+      </c>
+      <c r="E120" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>22</v>
+      </c>
+      <c r="B121" t="s">
+        <v>67</v>
+      </c>
+      <c r="C121" t="s">
+        <v>74</v>
+      </c>
+      <c r="D121" t="s">
+        <v>81</v>
+      </c>
+      <c r="E121" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>22</v>
+      </c>
+      <c r="B122" t="s">
+        <v>68</v>
+      </c>
+      <c r="C122" t="s">
+        <v>75</v>
+      </c>
+      <c r="D122" t="s">
+        <v>82</v>
+      </c>
+      <c r="E122" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>22</v>
+      </c>
+      <c r="B123" t="s">
+        <v>69</v>
+      </c>
+      <c r="C123" t="s">
+        <v>76</v>
+      </c>
+      <c r="D123" t="s">
+        <v>89</v>
+      </c>
+      <c r="E123" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>22</v>
+      </c>
+      <c r="B124" t="s">
+        <v>70</v>
+      </c>
+      <c r="C124" t="s">
+        <v>77</v>
+      </c>
+      <c r="D124" t="s">
+        <v>89</v>
+      </c>
+      <c r="E124" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>22</v>
+      </c>
+      <c r="B125" t="s">
+        <v>71</v>
+      </c>
+      <c r="C125" t="s">
+        <v>78</v>
+      </c>
+      <c r="D125" t="s">
+        <v>90</v>
+      </c>
+      <c r="E125" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>22</v>
+      </c>
+      <c r="B126" t="s">
+        <v>72</v>
+      </c>
+      <c r="C126" t="s">
+        <v>79</v>
+      </c>
+      <c r="D126" t="s">
+        <v>88</v>
+      </c>
+      <c r="E126" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>22</v>
+      </c>
+      <c r="B127" t="s">
+        <v>73</v>
+      </c>
+      <c r="C127" t="s">
+        <v>80</v>
+      </c>
+      <c r="D127" t="s">
+        <v>81</v>
+      </c>
+      <c r="E127" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B128" t="s">
+        <v>67</v>
+      </c>
+      <c r="C128" t="s">
+        <v>74</v>
+      </c>
+      <c r="D128" t="s">
+        <v>81</v>
+      </c>
+      <c r="E128" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>23</v>
+      </c>
+      <c r="B129" t="s">
+        <v>68</v>
+      </c>
+      <c r="C129" t="s">
+        <v>75</v>
+      </c>
+      <c r="D129" t="s">
+        <v>96</v>
+      </c>
+      <c r="E129" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>23</v>
+      </c>
+      <c r="B130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C130" t="s">
+        <v>76</v>
+      </c>
+      <c r="D130" t="s">
+        <v>81</v>
+      </c>
+      <c r="E130" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>23</v>
+      </c>
+      <c r="B131" t="s">
+        <v>70</v>
+      </c>
+      <c r="C131" t="s">
+        <v>77</v>
+      </c>
+      <c r="D131" t="s">
+        <v>81</v>
+      </c>
+      <c r="E131" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>23</v>
+      </c>
+      <c r="B132" t="s">
+        <v>71</v>
+      </c>
+      <c r="C132" t="s">
+        <v>78</v>
+      </c>
+      <c r="D132" t="s">
+        <v>81</v>
+      </c>
+      <c r="E132" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>23</v>
+      </c>
+      <c r="B133" t="s">
+        <v>72</v>
+      </c>
+      <c r="C133" t="s">
+        <v>79</v>
+      </c>
+      <c r="D133" t="s">
+        <v>91</v>
+      </c>
+      <c r="E133" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>23</v>
+      </c>
+      <c r="B134" t="s">
+        <v>73</v>
+      </c>
+      <c r="C134" t="s">
+        <v>80</v>
+      </c>
+      <c r="D134" t="s">
+        <v>96</v>
+      </c>
+      <c r="E134" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
         <v>24</v>
+      </c>
+      <c r="B135" t="s">
+        <v>67</v>
+      </c>
+      <c r="C135" t="s">
+        <v>74</v>
+      </c>
+      <c r="D135" t="s">
+        <v>81</v>
+      </c>
+      <c r="E135" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>24</v>
+      </c>
+      <c r="B136" t="s">
+        <v>68</v>
+      </c>
+      <c r="C136" t="s">
+        <v>75</v>
+      </c>
+      <c r="D136" t="s">
+        <v>94</v>
+      </c>
+      <c r="E136" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>24</v>
+      </c>
+      <c r="B137" t="s">
+        <v>69</v>
+      </c>
+      <c r="C137" t="s">
+        <v>76</v>
+      </c>
+      <c r="D137" t="s">
+        <v>91</v>
+      </c>
+      <c r="E137" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>24</v>
+      </c>
+      <c r="B138" t="s">
+        <v>70</v>
+      </c>
+      <c r="C138" t="s">
+        <v>77</v>
+      </c>
+      <c r="D138" t="s">
+        <v>81</v>
+      </c>
+      <c r="E138" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>24</v>
+      </c>
+      <c r="B139" t="s">
+        <v>71</v>
+      </c>
+      <c r="C139" t="s">
+        <v>78</v>
+      </c>
+      <c r="D139" t="s">
+        <v>81</v>
+      </c>
+      <c r="E139" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>24</v>
+      </c>
+      <c r="B140" t="s">
+        <v>72</v>
+      </c>
+      <c r="C140" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>24</v>
+      </c>
+      <c r="B141" t="s">
+        <v>73</v>
+      </c>
+      <c r="C141" t="s">
+        <v>80</v>
+      </c>
+      <c r="D141" t="s">
+        <v>81</v>
+      </c>
+      <c r="E141" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>25</v>
+      </c>
+      <c r="B142" t="s">
+        <v>67</v>
+      </c>
+      <c r="C142" t="s">
+        <v>74</v>
+      </c>
+      <c r="D142" t="s">
+        <v>81</v>
+      </c>
+      <c r="E142" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>25</v>
+      </c>
+      <c r="B143" t="s">
+        <v>68</v>
+      </c>
+      <c r="C143" t="s">
+        <v>75</v>
+      </c>
+      <c r="D143" t="s">
+        <v>81</v>
+      </c>
+      <c r="E143" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>25</v>
+      </c>
+      <c r="B144" t="s">
+        <v>69</v>
+      </c>
+      <c r="C144" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>25</v>
+      </c>
+      <c r="B145" t="s">
+        <v>70</v>
+      </c>
+      <c r="C145" t="s">
+        <v>77</v>
+      </c>
+      <c r="D145" t="s">
+        <v>81</v>
+      </c>
+      <c r="E145" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>25</v>
+      </c>
+      <c r="B146" t="s">
+        <v>71</v>
+      </c>
+      <c r="C146" t="s">
+        <v>78</v>
+      </c>
+      <c r="D146" t="s">
+        <v>91</v>
+      </c>
+      <c r="E146" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>25</v>
+      </c>
+      <c r="B147" t="s">
+        <v>72</v>
+      </c>
+      <c r="C147" t="s">
+        <v>79</v>
+      </c>
+      <c r="D147" t="s">
+        <v>90</v>
+      </c>
+      <c r="E147" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>25</v>
+      </c>
+      <c r="B148" t="s">
+        <v>73</v>
+      </c>
+      <c r="C148" t="s">
+        <v>80</v>
+      </c>
+      <c r="D148" t="s">
+        <v>92</v>
+      </c>
+      <c r="E148" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>26</v>
+      </c>
+      <c r="B149" t="s">
+        <v>67</v>
+      </c>
+      <c r="C149" t="s">
+        <v>74</v>
+      </c>
+      <c r="D149" t="s">
+        <v>81</v>
+      </c>
+      <c r="E149" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>26</v>
+      </c>
+      <c r="B150" t="s">
+        <v>68</v>
+      </c>
+      <c r="C150" t="s">
+        <v>75</v>
+      </c>
+      <c r="D150" t="s">
+        <v>81</v>
+      </c>
+      <c r="E150" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>26</v>
+      </c>
+      <c r="B151" t="s">
+        <v>69</v>
+      </c>
+      <c r="C151" t="s">
+        <v>76</v>
+      </c>
+      <c r="D151" t="s">
+        <v>86</v>
+      </c>
+      <c r="E151" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>26</v>
+      </c>
+      <c r="B152" t="s">
+        <v>70</v>
+      </c>
+      <c r="C152" t="s">
+        <v>77</v>
+      </c>
+      <c r="D152" t="s">
+        <v>83</v>
+      </c>
+      <c r="E152" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>26</v>
+      </c>
+      <c r="B153" t="s">
+        <v>71</v>
+      </c>
+      <c r="C153" t="s">
+        <v>78</v>
+      </c>
+      <c r="D153" t="s">
+        <v>88</v>
+      </c>
+      <c r="E153" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>26</v>
+      </c>
+      <c r="B154" t="s">
+        <v>72</v>
+      </c>
+      <c r="C154" t="s">
+        <v>79</v>
+      </c>
+      <c r="D154" t="s">
+        <v>89</v>
+      </c>
+      <c r="E154" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>26</v>
+      </c>
+      <c r="B155" t="s">
+        <v>73</v>
+      </c>
+      <c r="C155" t="s">
+        <v>80</v>
+      </c>
+      <c r="D155" t="s">
+        <v>81</v>
+      </c>
+      <c r="E155" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>27</v>
+      </c>
+      <c r="B156" t="s">
+        <v>67</v>
+      </c>
+      <c r="C156" t="s">
+        <v>74</v>
+      </c>
+      <c r="D156" t="s">
+        <v>81</v>
+      </c>
+      <c r="E156" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>27</v>
+      </c>
+      <c r="B157" t="s">
+        <v>68</v>
+      </c>
+      <c r="C157" t="s">
+        <v>75</v>
+      </c>
+      <c r="D157" t="s">
+        <v>81</v>
+      </c>
+      <c r="E157" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>27</v>
+      </c>
+      <c r="B158" t="s">
+        <v>69</v>
+      </c>
+      <c r="C158" t="s">
+        <v>76</v>
+      </c>
+      <c r="D158" t="s">
+        <v>97</v>
+      </c>
+      <c r="E158" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>27</v>
+      </c>
+      <c r="B159" t="s">
+        <v>70</v>
+      </c>
+      <c r="C159" t="s">
+        <v>77</v>
+      </c>
+      <c r="D159" t="s">
+        <v>82</v>
+      </c>
+      <c r="E159" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>27</v>
+      </c>
+      <c r="B160" t="s">
+        <v>71</v>
+      </c>
+      <c r="C160" t="s">
+        <v>78</v>
+      </c>
+      <c r="D160" t="s">
+        <v>81</v>
+      </c>
+      <c r="E160" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>27</v>
+      </c>
+      <c r="B161" t="s">
+        <v>72</v>
+      </c>
+      <c r="C161" t="s">
+        <v>79</v>
+      </c>
+      <c r="D161" t="s">
+        <v>81</v>
+      </c>
+      <c r="E161" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>27</v>
+      </c>
+      <c r="B162" t="s">
+        <v>73</v>
+      </c>
+      <c r="C162" t="s">
+        <v>80</v>
+      </c>
+      <c r="D162" t="s">
+        <v>81</v>
+      </c>
+      <c r="E162" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>28</v>
+      </c>
+      <c r="B163" t="s">
+        <v>67</v>
+      </c>
+      <c r="C163" t="s">
+        <v>74</v>
+      </c>
+      <c r="D163" t="s">
+        <v>81</v>
+      </c>
+      <c r="E163" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>28</v>
+      </c>
+      <c r="B164" t="s">
+        <v>68</v>
+      </c>
+      <c r="C164" t="s">
+        <v>75</v>
+      </c>
+      <c r="D164" t="s">
+        <v>81</v>
+      </c>
+      <c r="E164" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>28</v>
+      </c>
+      <c r="B165" t="s">
+        <v>69</v>
+      </c>
+      <c r="C165" t="s">
+        <v>76</v>
+      </c>
+      <c r="D165" t="s">
+        <v>81</v>
+      </c>
+      <c r="E165" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>28</v>
+      </c>
+      <c r="B166" t="s">
+        <v>70</v>
+      </c>
+      <c r="C166" t="s">
+        <v>77</v>
+      </c>
+      <c r="D166" t="s">
+        <v>82</v>
+      </c>
+      <c r="E166" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>28</v>
+      </c>
+      <c r="B167" t="s">
+        <v>71</v>
+      </c>
+      <c r="C167" t="s">
+        <v>78</v>
+      </c>
+      <c r="D167" t="s">
+        <v>81</v>
+      </c>
+      <c r="E167" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>28</v>
+      </c>
+      <c r="B168" t="s">
+        <v>72</v>
+      </c>
+      <c r="C168" t="s">
+        <v>79</v>
+      </c>
+      <c r="D168" t="s">
+        <v>86</v>
+      </c>
+      <c r="E168" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>28</v>
+      </c>
+      <c r="B169" t="s">
+        <v>73</v>
+      </c>
+      <c r="C169" t="s">
+        <v>80</v>
+      </c>
+      <c r="D169" t="s">
+        <v>81</v>
+      </c>
+      <c r="E169" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>29</v>
+      </c>
+      <c r="B170" t="s">
+        <v>67</v>
+      </c>
+      <c r="C170" t="s">
+        <v>74</v>
+      </c>
+      <c r="D170" t="s">
+        <v>91</v>
+      </c>
+      <c r="E170" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>29</v>
+      </c>
+      <c r="B171" t="s">
+        <v>68</v>
+      </c>
+      <c r="C171" t="s">
+        <v>75</v>
+      </c>
+      <c r="D171" t="s">
+        <v>86</v>
+      </c>
+      <c r="E171" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>29</v>
+      </c>
+      <c r="B172" t="s">
+        <v>69</v>
+      </c>
+      <c r="C172" t="s">
+        <v>76</v>
+      </c>
+      <c r="D172" t="s">
+        <v>91</v>
+      </c>
+      <c r="E172" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>29</v>
+      </c>
+      <c r="B173" t="s">
+        <v>70</v>
+      </c>
+      <c r="C173" t="s">
+        <v>77</v>
+      </c>
+      <c r="D173" t="s">
+        <v>86</v>
+      </c>
+      <c r="E173" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>29</v>
+      </c>
+      <c r="B174" t="s">
+        <v>71</v>
+      </c>
+      <c r="C174" t="s">
+        <v>78</v>
+      </c>
+      <c r="D174" t="s">
+        <v>81</v>
+      </c>
+      <c r="E174" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>29</v>
+      </c>
+      <c r="B175" t="s">
+        <v>72</v>
+      </c>
+      <c r="C175" t="s">
+        <v>79</v>
+      </c>
+      <c r="D175" t="s">
+        <v>82</v>
+      </c>
+      <c r="E175" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>29</v>
+      </c>
+      <c r="B176" t="s">
+        <v>73</v>
+      </c>
+      <c r="C176" t="s">
+        <v>80</v>
+      </c>
+      <c r="D176" t="s">
+        <v>82</v>
+      </c>
+      <c r="E176" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>30</v>
+      </c>
+      <c r="B177" t="s">
+        <v>67</v>
+      </c>
+      <c r="C177" t="s">
+        <v>74</v>
+      </c>
+      <c r="D177" t="s">
+        <v>81</v>
+      </c>
+      <c r="E177" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>30</v>
+      </c>
+      <c r="B178" t="s">
+        <v>68</v>
+      </c>
+      <c r="C178" t="s">
+        <v>75</v>
+      </c>
+      <c r="D178" t="s">
+        <v>81</v>
+      </c>
+      <c r="E178" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>30</v>
+      </c>
+      <c r="B179" t="s">
+        <v>69</v>
+      </c>
+      <c r="C179" t="s">
+        <v>76</v>
+      </c>
+      <c r="D179" t="s">
+        <v>89</v>
+      </c>
+      <c r="E179" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>30</v>
+      </c>
+      <c r="B180" t="s">
+        <v>70</v>
+      </c>
+      <c r="C180" t="s">
+        <v>77</v>
+      </c>
+      <c r="D180" t="s">
+        <v>82</v>
+      </c>
+      <c r="E180" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>30</v>
+      </c>
+      <c r="B181" t="s">
+        <v>71</v>
+      </c>
+      <c r="C181" t="s">
+        <v>78</v>
+      </c>
+      <c r="D181" t="s">
+        <v>82</v>
+      </c>
+      <c r="E181" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>30</v>
+      </c>
+      <c r="B182" t="s">
+        <v>72</v>
+      </c>
+      <c r="C182" t="s">
+        <v>79</v>
+      </c>
+      <c r="D182" t="s">
+        <v>82</v>
+      </c>
+      <c r="E182" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>30</v>
+      </c>
+      <c r="B183" t="s">
+        <v>73</v>
+      </c>
+      <c r="C183" t="s">
+        <v>80</v>
+      </c>
+      <c r="D183" t="s">
+        <v>81</v>
+      </c>
+      <c r="E183" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>31</v>
+      </c>
+      <c r="B184" t="s">
+        <v>67</v>
+      </c>
+      <c r="C184" t="s">
+        <v>74</v>
+      </c>
+      <c r="D184" t="s">
+        <v>96</v>
+      </c>
+      <c r="E184" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>31</v>
+      </c>
+      <c r="B185" t="s">
+        <v>68</v>
+      </c>
+      <c r="C185" t="s">
+        <v>75</v>
+      </c>
+      <c r="D185" t="s">
+        <v>88</v>
+      </c>
+      <c r="E185" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>31</v>
+      </c>
+      <c r="B186" t="s">
+        <v>69</v>
+      </c>
+      <c r="C186" t="s">
+        <v>76</v>
+      </c>
+      <c r="D186" t="s">
+        <v>81</v>
+      </c>
+      <c r="E186" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>31</v>
+      </c>
+      <c r="B187" t="s">
+        <v>70</v>
+      </c>
+      <c r="C187" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>31</v>
+      </c>
+      <c r="B188" t="s">
+        <v>71</v>
+      </c>
+      <c r="C188" t="s">
+        <v>78</v>
+      </c>
+      <c r="D188" t="s">
+        <v>83</v>
+      </c>
+      <c r="E188" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>31</v>
+      </c>
+      <c r="B189" t="s">
+        <v>72</v>
+      </c>
+      <c r="C189" t="s">
+        <v>79</v>
+      </c>
+      <c r="D189" t="s">
+        <v>81</v>
+      </c>
+      <c r="E189" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>31</v>
+      </c>
+      <c r="B190" t="s">
+        <v>73</v>
+      </c>
+      <c r="C190" t="s">
+        <v>80</v>
+      </c>
+      <c r="D190" t="s">
+        <v>81</v>
+      </c>
+      <c r="E190" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>32</v>
+      </c>
+      <c r="B191" t="s">
+        <v>67</v>
+      </c>
+      <c r="C191" t="s">
+        <v>74</v>
+      </c>
+      <c r="D191" t="s">
+        <v>85</v>
+      </c>
+      <c r="E191" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>32</v>
+      </c>
+      <c r="B192" t="s">
+        <v>68</v>
+      </c>
+      <c r="C192" t="s">
+        <v>75</v>
+      </c>
+      <c r="D192" t="s">
+        <v>85</v>
+      </c>
+      <c r="E192" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>32</v>
+      </c>
+      <c r="B193" t="s">
+        <v>69</v>
+      </c>
+      <c r="C193" t="s">
+        <v>76</v>
+      </c>
+      <c r="D193" t="s">
+        <v>91</v>
+      </c>
+      <c r="E193" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>32</v>
+      </c>
+      <c r="B194" t="s">
+        <v>70</v>
+      </c>
+      <c r="C194" t="s">
+        <v>77</v>
+      </c>
+      <c r="D194" t="s">
+        <v>81</v>
+      </c>
+      <c r="E194" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>32</v>
+      </c>
+      <c r="B195" t="s">
+        <v>71</v>
+      </c>
+      <c r="C195" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>32</v>
+      </c>
+      <c r="B196" t="s">
+        <v>72</v>
+      </c>
+      <c r="C196" t="s">
+        <v>79</v>
+      </c>
+      <c r="D196" t="s">
+        <v>81</v>
+      </c>
+      <c r="E196" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>32</v>
+      </c>
+      <c r="B197" t="s">
+        <v>73</v>
+      </c>
+      <c r="C197" t="s">
+        <v>80</v>
+      </c>
+      <c r="D197" t="s">
+        <v>95</v>
+      </c>
+      <c r="E197" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>33</v>
+      </c>
+      <c r="B198" t="s">
+        <v>67</v>
+      </c>
+      <c r="C198" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>33</v>
+      </c>
+      <c r="B199" t="s">
+        <v>68</v>
+      </c>
+      <c r="C199" t="s">
+        <v>75</v>
+      </c>
+      <c r="D199" t="s">
+        <v>81</v>
+      </c>
+      <c r="E199" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>33</v>
+      </c>
+      <c r="B200" t="s">
+        <v>69</v>
+      </c>
+      <c r="C200" t="s">
+        <v>76</v>
+      </c>
+      <c r="D200" t="s">
+        <v>89</v>
+      </c>
+      <c r="E200" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>33</v>
+      </c>
+      <c r="B201" t="s">
+        <v>70</v>
+      </c>
+      <c r="C201" t="s">
+        <v>77</v>
+      </c>
+      <c r="D201" t="s">
+        <v>81</v>
+      </c>
+      <c r="E201" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>33</v>
+      </c>
+      <c r="B202" t="s">
+        <v>71</v>
+      </c>
+      <c r="C202" t="s">
+        <v>78</v>
+      </c>
+      <c r="D202" t="s">
+        <v>81</v>
+      </c>
+      <c r="E202" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>33</v>
+      </c>
+      <c r="B203" t="s">
+        <v>72</v>
+      </c>
+      <c r="C203" t="s">
+        <v>79</v>
+      </c>
+      <c r="D203" t="s">
+        <v>81</v>
+      </c>
+      <c r="E203" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>33</v>
+      </c>
+      <c r="B204" t="s">
+        <v>73</v>
+      </c>
+      <c r="C204" t="s">
+        <v>80</v>
+      </c>
+      <c r="D204" t="s">
+        <v>81</v>
+      </c>
+      <c r="E204" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>34</v>
+      </c>
+      <c r="B205" t="s">
+        <v>67</v>
+      </c>
+      <c r="C205" t="s">
+        <v>74</v>
+      </c>
+      <c r="D205" t="s">
+        <v>81</v>
+      </c>
+      <c r="E205" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>34</v>
+      </c>
+      <c r="B206" t="s">
+        <v>68</v>
+      </c>
+      <c r="C206" t="s">
+        <v>75</v>
+      </c>
+      <c r="D206" t="s">
+        <v>88</v>
+      </c>
+      <c r="E206" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>34</v>
+      </c>
+      <c r="B207" t="s">
+        <v>69</v>
+      </c>
+      <c r="C207" t="s">
+        <v>76</v>
+      </c>
+      <c r="D207" t="s">
+        <v>81</v>
+      </c>
+      <c r="E207" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>34</v>
+      </c>
+      <c r="B208" t="s">
+        <v>70</v>
+      </c>
+      <c r="C208" t="s">
+        <v>77</v>
+      </c>
+      <c r="D208" t="s">
+        <v>93</v>
+      </c>
+      <c r="E208" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>34</v>
+      </c>
+      <c r="B209" t="s">
+        <v>71</v>
+      </c>
+      <c r="C209" t="s">
+        <v>78</v>
+      </c>
+      <c r="D209" t="s">
+        <v>81</v>
+      </c>
+      <c r="E209" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>34</v>
+      </c>
+      <c r="B210" t="s">
+        <v>72</v>
+      </c>
+      <c r="C210" t="s">
+        <v>79</v>
+      </c>
+      <c r="D210" t="s">
+        <v>84</v>
+      </c>
+      <c r="E210" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>34</v>
+      </c>
+      <c r="B211" t="s">
+        <v>73</v>
+      </c>
+      <c r="C211" t="s">
+        <v>80</v>
+      </c>
+      <c r="D211" t="s">
+        <v>81</v>
+      </c>
+      <c r="E211" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>35</v>
+      </c>
+      <c r="B212" t="s">
+        <v>67</v>
+      </c>
+      <c r="C212" t="s">
+        <v>74</v>
+      </c>
+      <c r="D212" t="s">
+        <v>85</v>
+      </c>
+      <c r="E212" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>35</v>
+      </c>
+      <c r="B213" t="s">
+        <v>68</v>
+      </c>
+      <c r="C213" t="s">
+        <v>75</v>
+      </c>
+      <c r="D213" t="s">
+        <v>81</v>
+      </c>
+      <c r="E213" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>35</v>
+      </c>
+      <c r="B214" t="s">
+        <v>69</v>
+      </c>
+      <c r="C214" t="s">
+        <v>76</v>
+      </c>
+      <c r="D214" t="s">
+        <v>98</v>
+      </c>
+      <c r="E214" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>35</v>
+      </c>
+      <c r="B215" t="s">
+        <v>70</v>
+      </c>
+      <c r="C215" t="s">
+        <v>77</v>
+      </c>
+      <c r="D215" t="s">
+        <v>81</v>
+      </c>
+      <c r="E215" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>35</v>
+      </c>
+      <c r="B216" t="s">
+        <v>71</v>
+      </c>
+      <c r="C216" t="s">
+        <v>78</v>
+      </c>
+      <c r="D216" t="s">
+        <v>81</v>
+      </c>
+      <c r="E216" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>35</v>
+      </c>
+      <c r="B217" t="s">
+        <v>72</v>
+      </c>
+      <c r="C217" t="s">
+        <v>79</v>
+      </c>
+      <c r="D217" t="s">
+        <v>84</v>
+      </c>
+      <c r="E217" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
+        <v>35</v>
+      </c>
+      <c r="B218" t="s">
+        <v>73</v>
+      </c>
+      <c r="C218" t="s">
+        <v>80</v>
+      </c>
+      <c r="D218" t="s">
+        <v>86</v>
+      </c>
+      <c r="E218" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>36</v>
+      </c>
+      <c r="B219" t="s">
+        <v>67</v>
+      </c>
+      <c r="C219" t="s">
+        <v>74</v>
+      </c>
+      <c r="D219" t="s">
+        <v>98</v>
+      </c>
+      <c r="E219" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>36</v>
+      </c>
+      <c r="B220" t="s">
+        <v>68</v>
+      </c>
+      <c r="C220" t="s">
+        <v>75</v>
+      </c>
+      <c r="D220" t="s">
+        <v>88</v>
+      </c>
+      <c r="E220" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>36</v>
+      </c>
+      <c r="B221" t="s">
+        <v>69</v>
+      </c>
+      <c r="C221" t="s">
+        <v>76</v>
+      </c>
+      <c r="D221" t="s">
+        <v>96</v>
+      </c>
+      <c r="E221" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>36</v>
+      </c>
+      <c r="B222" t="s">
+        <v>70</v>
+      </c>
+      <c r="C222" t="s">
+        <v>77</v>
+      </c>
+      <c r="D222" t="s">
+        <v>82</v>
+      </c>
+      <c r="E222" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>36</v>
+      </c>
+      <c r="B223" t="s">
+        <v>71</v>
+      </c>
+      <c r="C223" t="s">
+        <v>78</v>
+      </c>
+      <c r="D223" t="s">
+        <v>81</v>
+      </c>
+      <c r="E223" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>36</v>
+      </c>
+      <c r="B224" t="s">
+        <v>72</v>
+      </c>
+      <c r="C224" t="s">
+        <v>79</v>
+      </c>
+      <c r="D224" t="s">
+        <v>81</v>
+      </c>
+      <c r="E224" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>36</v>
+      </c>
+      <c r="B225" t="s">
+        <v>73</v>
+      </c>
+      <c r="C225" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>37</v>
+      </c>
+      <c r="B226" t="s">
+        <v>67</v>
+      </c>
+      <c r="C226" t="s">
+        <v>74</v>
+      </c>
+      <c r="D226" t="s">
+        <v>81</v>
+      </c>
+      <c r="E226" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>37</v>
+      </c>
+      <c r="B227" t="s">
+        <v>68</v>
+      </c>
+      <c r="C227" t="s">
+        <v>75</v>
+      </c>
+      <c r="D227" t="s">
+        <v>81</v>
+      </c>
+      <c r="E227" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>37</v>
+      </c>
+      <c r="B228" t="s">
+        <v>69</v>
+      </c>
+      <c r="C228" t="s">
+        <v>76</v>
+      </c>
+      <c r="D228" t="s">
+        <v>96</v>
+      </c>
+      <c r="E228" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>37</v>
+      </c>
+      <c r="B229" t="s">
+        <v>70</v>
+      </c>
+      <c r="C229" t="s">
+        <v>77</v>
+      </c>
+      <c r="D229" t="s">
+        <v>94</v>
+      </c>
+      <c r="E229" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>37</v>
+      </c>
+      <c r="B230" t="s">
+        <v>71</v>
+      </c>
+      <c r="C230" t="s">
+        <v>78</v>
+      </c>
+      <c r="D230" t="s">
+        <v>81</v>
+      </c>
+      <c r="E230" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>37</v>
+      </c>
+      <c r="B231" t="s">
+        <v>72</v>
+      </c>
+      <c r="C231" t="s">
+        <v>79</v>
+      </c>
+      <c r="D231" t="s">
+        <v>84</v>
+      </c>
+      <c r="E231" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>37</v>
+      </c>
+      <c r="B232" t="s">
+        <v>73</v>
+      </c>
+      <c r="C232" t="s">
+        <v>80</v>
+      </c>
+      <c r="D232" t="s">
+        <v>95</v>
+      </c>
+      <c r="E232" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>38</v>
+      </c>
+      <c r="B233" t="s">
+        <v>67</v>
+      </c>
+      <c r="C233" t="s">
+        <v>74</v>
+      </c>
+      <c r="D233" t="s">
+        <v>81</v>
+      </c>
+      <c r="E233" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>38</v>
+      </c>
+      <c r="B234" t="s">
+        <v>68</v>
+      </c>
+      <c r="C234" t="s">
+        <v>75</v>
+      </c>
+      <c r="D234" t="s">
+        <v>93</v>
+      </c>
+      <c r="E234" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>38</v>
+      </c>
+      <c r="B235" t="s">
+        <v>69</v>
+      </c>
+      <c r="C235" t="s">
+        <v>76</v>
+      </c>
+      <c r="D235" t="s">
+        <v>98</v>
+      </c>
+      <c r="E235" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>38</v>
+      </c>
+      <c r="B236" t="s">
+        <v>70</v>
+      </c>
+      <c r="C236" t="s">
+        <v>77</v>
+      </c>
+      <c r="D236" t="s">
+        <v>90</v>
+      </c>
+      <c r="E236" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>38</v>
+      </c>
+      <c r="B237" t="s">
+        <v>71</v>
+      </c>
+      <c r="C237" t="s">
+        <v>78</v>
+      </c>
+      <c r="D237" t="s">
+        <v>81</v>
+      </c>
+      <c r="E237" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
+        <v>38</v>
+      </c>
+      <c r="B238" t="s">
+        <v>72</v>
+      </c>
+      <c r="C238" t="s">
+        <v>79</v>
+      </c>
+      <c r="D238" t="s">
+        <v>82</v>
+      </c>
+      <c r="E238" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>38</v>
+      </c>
+      <c r="B239" t="s">
+        <v>73</v>
+      </c>
+      <c r="C239" t="s">
+        <v>80</v>
+      </c>
+      <c r="D239" t="s">
+        <v>82</v>
+      </c>
+      <c r="E239" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="s">
+        <v>39</v>
+      </c>
+      <c r="B240" t="s">
+        <v>67</v>
+      </c>
+      <c r="C240" t="s">
+        <v>74</v>
+      </c>
+      <c r="D240" t="s">
+        <v>81</v>
+      </c>
+      <c r="E240" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" t="s">
+        <v>39</v>
+      </c>
+      <c r="B241" t="s">
+        <v>68</v>
+      </c>
+      <c r="C241" t="s">
+        <v>75</v>
+      </c>
+      <c r="D241" t="s">
+        <v>81</v>
+      </c>
+      <c r="E241" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>39</v>
+      </c>
+      <c r="B242" t="s">
+        <v>69</v>
+      </c>
+      <c r="C242" t="s">
+        <v>76</v>
+      </c>
+      <c r="D242" t="s">
+        <v>81</v>
+      </c>
+      <c r="E242" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
+        <v>39</v>
+      </c>
+      <c r="B243" t="s">
+        <v>70</v>
+      </c>
+      <c r="C243" t="s">
+        <v>77</v>
+      </c>
+      <c r="D243" t="s">
+        <v>90</v>
+      </c>
+      <c r="E243" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
+        <v>39</v>
+      </c>
+      <c r="B244" t="s">
+        <v>71</v>
+      </c>
+      <c r="C244" t="s">
+        <v>78</v>
+      </c>
+      <c r="D244" t="s">
+        <v>91</v>
+      </c>
+      <c r="E244" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" t="s">
+        <v>39</v>
+      </c>
+      <c r="B245" t="s">
+        <v>72</v>
+      </c>
+      <c r="C245" t="s">
+        <v>79</v>
+      </c>
+      <c r="D245" t="s">
+        <v>81</v>
+      </c>
+      <c r="E245" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" t="s">
+        <v>39</v>
+      </c>
+      <c r="B246" t="s">
+        <v>73</v>
+      </c>
+      <c r="C246" t="s">
+        <v>80</v>
+      </c>
+      <c r="D246" t="s">
+        <v>90</v>
+      </c>
+      <c r="E246" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" t="s">
+        <v>40</v>
+      </c>
+      <c r="B247" t="s">
+        <v>67</v>
+      </c>
+      <c r="C247" t="s">
+        <v>74</v>
+      </c>
+      <c r="D247" t="s">
+        <v>97</v>
+      </c>
+      <c r="E247" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" t="s">
+        <v>40</v>
+      </c>
+      <c r="B248" t="s">
+        <v>68</v>
+      </c>
+      <c r="C248" t="s">
+        <v>75</v>
+      </c>
+      <c r="D248" t="s">
+        <v>90</v>
+      </c>
+      <c r="E248" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" t="s">
+        <v>40</v>
+      </c>
+      <c r="B249" t="s">
+        <v>69</v>
+      </c>
+      <c r="C249" t="s">
+        <v>76</v>
+      </c>
+      <c r="D249" t="s">
+        <v>89</v>
+      </c>
+      <c r="E249" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" t="s">
+        <v>40</v>
+      </c>
+      <c r="B250" t="s">
+        <v>70</v>
+      </c>
+      <c r="C250" t="s">
+        <v>77</v>
+      </c>
+      <c r="D250" t="s">
+        <v>89</v>
+      </c>
+      <c r="E250" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" t="s">
+        <v>40</v>
+      </c>
+      <c r="B251" t="s">
+        <v>71</v>
+      </c>
+      <c r="C251" t="s">
+        <v>78</v>
+      </c>
+      <c r="D251" t="s">
+        <v>81</v>
+      </c>
+      <c r="E251" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" t="s">
+        <v>40</v>
+      </c>
+      <c r="B252" t="s">
+        <v>72</v>
+      </c>
+      <c r="C252" t="s">
+        <v>79</v>
+      </c>
+      <c r="D252" t="s">
+        <v>95</v>
+      </c>
+      <c r="E252" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" t="s">
+        <v>40</v>
+      </c>
+      <c r="B253" t="s">
+        <v>73</v>
+      </c>
+      <c r="C253" t="s">
+        <v>80</v>
+      </c>
+      <c r="D253" t="s">
+        <v>94</v>
+      </c>
+      <c r="E253" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" t="s">
+        <v>41</v>
+      </c>
+      <c r="B254" t="s">
+        <v>67</v>
+      </c>
+      <c r="C254" t="s">
+        <v>74</v>
+      </c>
+      <c r="D254" t="s">
+        <v>81</v>
+      </c>
+      <c r="E254" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" t="s">
+        <v>41</v>
+      </c>
+      <c r="B255" t="s">
+        <v>68</v>
+      </c>
+      <c r="C255" t="s">
+        <v>75</v>
+      </c>
+      <c r="D255" t="s">
+        <v>81</v>
+      </c>
+      <c r="E255" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" t="s">
+        <v>41</v>
+      </c>
+      <c r="B256" t="s">
+        <v>69</v>
+      </c>
+      <c r="C256" t="s">
+        <v>76</v>
+      </c>
+      <c r="D256" t="s">
+        <v>81</v>
+      </c>
+      <c r="E256" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" t="s">
+        <v>41</v>
+      </c>
+      <c r="B257" t="s">
+        <v>70</v>
+      </c>
+      <c r="C257" t="s">
+        <v>77</v>
+      </c>
+      <c r="D257" t="s">
+        <v>88</v>
+      </c>
+      <c r="E257" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" t="s">
+        <v>41</v>
+      </c>
+      <c r="B258" t="s">
+        <v>71</v>
+      </c>
+      <c r="C258" t="s">
+        <v>78</v>
+      </c>
+      <c r="D258" t="s">
+        <v>81</v>
+      </c>
+      <c r="E258" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" t="s">
+        <v>41</v>
+      </c>
+      <c r="B259" t="s">
+        <v>72</v>
+      </c>
+      <c r="C259" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" t="s">
+        <v>41</v>
+      </c>
+      <c r="B260" t="s">
+        <v>73</v>
+      </c>
+      <c r="C260" t="s">
+        <v>80</v>
+      </c>
+      <c r="D260" t="s">
+        <v>82</v>
+      </c>
+      <c r="E260" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" t="s">
+        <v>42</v>
+      </c>
+      <c r="B261" t="s">
+        <v>67</v>
+      </c>
+      <c r="C261" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" t="s">
+        <v>42</v>
+      </c>
+      <c r="B262" t="s">
+        <v>68</v>
+      </c>
+      <c r="C262" t="s">
+        <v>75</v>
+      </c>
+      <c r="D262" t="s">
+        <v>89</v>
+      </c>
+      <c r="E262" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" t="s">
+        <v>42</v>
+      </c>
+      <c r="B263" t="s">
+        <v>69</v>
+      </c>
+      <c r="C263" t="s">
+        <v>76</v>
+      </c>
+      <c r="D263" t="s">
+        <v>98</v>
+      </c>
+      <c r="E263" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" t="s">
+        <v>42</v>
+      </c>
+      <c r="B264" t="s">
+        <v>70</v>
+      </c>
+      <c r="C264" t="s">
+        <v>77</v>
+      </c>
+      <c r="D264" t="s">
+        <v>90</v>
+      </c>
+      <c r="E264" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" t="s">
+        <v>42</v>
+      </c>
+      <c r="B265" t="s">
+        <v>71</v>
+      </c>
+      <c r="C265" t="s">
+        <v>78</v>
+      </c>
+      <c r="D265" t="s">
+        <v>81</v>
+      </c>
+      <c r="E265" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" t="s">
+        <v>42</v>
+      </c>
+      <c r="B266" t="s">
+        <v>72</v>
+      </c>
+      <c r="C266" t="s">
+        <v>79</v>
+      </c>
+      <c r="D266" t="s">
+        <v>81</v>
+      </c>
+      <c r="E266" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" t="s">
+        <v>42</v>
+      </c>
+      <c r="B267" t="s">
+        <v>73</v>
+      </c>
+      <c r="C267" t="s">
+        <v>80</v>
+      </c>
+      <c r="D267" t="s">
+        <v>81</v>
+      </c>
+      <c r="E267" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" t="s">
+        <v>43</v>
+      </c>
+      <c r="B268" t="s">
+        <v>67</v>
+      </c>
+      <c r="C268" t="s">
+        <v>74</v>
+      </c>
+      <c r="D268" t="s">
+        <v>81</v>
+      </c>
+      <c r="E268" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" t="s">
+        <v>43</v>
+      </c>
+      <c r="B269" t="s">
+        <v>68</v>
+      </c>
+      <c r="C269" t="s">
+        <v>75</v>
+      </c>
+      <c r="D269" t="s">
+        <v>81</v>
+      </c>
+      <c r="E269" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" t="s">
+        <v>43</v>
+      </c>
+      <c r="B270" t="s">
+        <v>69</v>
+      </c>
+      <c r="C270" t="s">
+        <v>76</v>
+      </c>
+      <c r="D270" t="s">
+        <v>81</v>
+      </c>
+      <c r="E270" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" t="s">
+        <v>43</v>
+      </c>
+      <c r="B271" t="s">
+        <v>70</v>
+      </c>
+      <c r="C271" t="s">
+        <v>77</v>
+      </c>
+      <c r="D271" t="s">
+        <v>81</v>
+      </c>
+      <c r="E271" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" t="s">
+        <v>43</v>
+      </c>
+      <c r="B272" t="s">
+        <v>71</v>
+      </c>
+      <c r="C272" t="s">
+        <v>78</v>
+      </c>
+      <c r="D272" t="s">
+        <v>83</v>
+      </c>
+      <c r="E272" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" t="s">
+        <v>43</v>
+      </c>
+      <c r="B273" t="s">
+        <v>72</v>
+      </c>
+      <c r="C273" t="s">
+        <v>79</v>
+      </c>
+      <c r="D273" t="s">
+        <v>81</v>
+      </c>
+      <c r="E273" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" t="s">
+        <v>43</v>
+      </c>
+      <c r="B274" t="s">
+        <v>73</v>
+      </c>
+      <c r="C274" t="s">
+        <v>80</v>
+      </c>
+      <c r="D274" t="s">
+        <v>81</v>
+      </c>
+      <c r="E274" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" t="s">
+        <v>44</v>
+      </c>
+      <c r="B275" t="s">
+        <v>67</v>
+      </c>
+      <c r="C275" t="s">
+        <v>74</v>
+      </c>
+      <c r="D275" t="s">
+        <v>88</v>
+      </c>
+      <c r="E275" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" t="s">
+        <v>44</v>
+      </c>
+      <c r="B276" t="s">
+        <v>68</v>
+      </c>
+      <c r="C276" t="s">
+        <v>75</v>
+      </c>
+      <c r="D276" t="s">
+        <v>86</v>
+      </c>
+      <c r="E276" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" t="s">
+        <v>44</v>
+      </c>
+      <c r="B277" t="s">
+        <v>69</v>
+      </c>
+      <c r="C277" t="s">
+        <v>76</v>
+      </c>
+      <c r="D277" t="s">
+        <v>81</v>
+      </c>
+      <c r="E277" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" t="s">
+        <v>44</v>
+      </c>
+      <c r="B278" t="s">
+        <v>70</v>
+      </c>
+      <c r="C278" t="s">
+        <v>77</v>
+      </c>
+      <c r="D278" t="s">
+        <v>81</v>
+      </c>
+      <c r="E278" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" t="s">
+        <v>44</v>
+      </c>
+      <c r="B279" t="s">
+        <v>71</v>
+      </c>
+      <c r="C279" t="s">
+        <v>78</v>
+      </c>
+      <c r="D279" t="s">
+        <v>81</v>
+      </c>
+      <c r="E279" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" t="s">
+        <v>44</v>
+      </c>
+      <c r="B280" t="s">
+        <v>72</v>
+      </c>
+      <c r="C280" t="s">
+        <v>79</v>
+      </c>
+      <c r="D280" t="s">
+        <v>84</v>
+      </c>
+      <c r="E280" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" t="s">
+        <v>44</v>
+      </c>
+      <c r="B281" t="s">
+        <v>73</v>
+      </c>
+      <c r="C281" t="s">
+        <v>80</v>
+      </c>
+      <c r="D281" t="s">
+        <v>81</v>
+      </c>
+      <c r="E281" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" t="s">
+        <v>45</v>
+      </c>
+      <c r="B282" t="s">
+        <v>67</v>
+      </c>
+      <c r="C282" t="s">
+        <v>74</v>
+      </c>
+      <c r="D282" t="s">
+        <v>82</v>
+      </c>
+      <c r="E282" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" t="s">
+        <v>45</v>
+      </c>
+      <c r="B283" t="s">
+        <v>68</v>
+      </c>
+      <c r="C283" t="s">
+        <v>75</v>
+      </c>
+      <c r="D283" t="s">
+        <v>93</v>
+      </c>
+      <c r="E283" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" t="s">
+        <v>45</v>
+      </c>
+      <c r="B284" t="s">
+        <v>69</v>
+      </c>
+      <c r="C284" t="s">
+        <v>76</v>
+      </c>
+      <c r="D284" t="s">
+        <v>98</v>
+      </c>
+      <c r="E284" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" t="s">
+        <v>45</v>
+      </c>
+      <c r="B285" t="s">
+        <v>70</v>
+      </c>
+      <c r="C285" t="s">
+        <v>77</v>
+      </c>
+      <c r="D285" t="s">
+        <v>81</v>
+      </c>
+      <c r="E285" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" t="s">
+        <v>45</v>
+      </c>
+      <c r="B286" t="s">
+        <v>71</v>
+      </c>
+      <c r="C286" t="s">
+        <v>78</v>
+      </c>
+      <c r="D286" t="s">
+        <v>94</v>
+      </c>
+      <c r="E286" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" t="s">
+        <v>45</v>
+      </c>
+      <c r="B287" t="s">
+        <v>72</v>
+      </c>
+      <c r="C287" t="s">
+        <v>79</v>
+      </c>
+      <c r="D287" t="s">
+        <v>94</v>
+      </c>
+      <c r="E287" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" t="s">
+        <v>45</v>
+      </c>
+      <c r="B288" t="s">
+        <v>73</v>
+      </c>
+      <c r="C288" t="s">
+        <v>80</v>
+      </c>
+      <c r="D288" t="s">
+        <v>82</v>
+      </c>
+      <c r="E288" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" t="s">
+        <v>46</v>
+      </c>
+      <c r="B289" t="s">
+        <v>67</v>
+      </c>
+      <c r="C289" t="s">
+        <v>74</v>
+      </c>
+      <c r="D289" t="s">
+        <v>91</v>
+      </c>
+      <c r="E289" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" t="s">
+        <v>46</v>
+      </c>
+      <c r="B290" t="s">
+        <v>68</v>
+      </c>
+      <c r="C290" t="s">
+        <v>75</v>
+      </c>
+      <c r="D290" t="s">
+        <v>94</v>
+      </c>
+      <c r="E290" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" t="s">
+        <v>46</v>
+      </c>
+      <c r="B291" t="s">
+        <v>69</v>
+      </c>
+      <c r="C291" t="s">
+        <v>76</v>
+      </c>
+      <c r="D291" t="s">
+        <v>81</v>
+      </c>
+      <c r="E291" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" t="s">
+        <v>46</v>
+      </c>
+      <c r="B292" t="s">
+        <v>70</v>
+      </c>
+      <c r="C292" t="s">
+        <v>77</v>
+      </c>
+      <c r="D292" t="s">
+        <v>81</v>
+      </c>
+      <c r="E292" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" t="s">
+        <v>46</v>
+      </c>
+      <c r="B293" t="s">
+        <v>71</v>
+      </c>
+      <c r="C293" t="s">
+        <v>78</v>
+      </c>
+      <c r="D293" t="s">
+        <v>81</v>
+      </c>
+      <c r="E293" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" t="s">
+        <v>46</v>
+      </c>
+      <c r="B294" t="s">
+        <v>72</v>
+      </c>
+      <c r="C294" t="s">
+        <v>79</v>
+      </c>
+      <c r="D294" t="s">
+        <v>81</v>
+      </c>
+      <c r="E294" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" t="s">
+        <v>46</v>
+      </c>
+      <c r="B295" t="s">
+        <v>73</v>
+      </c>
+      <c r="C295" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" t="s">
+        <v>47</v>
+      </c>
+      <c r="B296" t="s">
+        <v>67</v>
+      </c>
+      <c r="C296" t="s">
+        <v>74</v>
+      </c>
+      <c r="D296" t="s">
+        <v>81</v>
+      </c>
+      <c r="E296" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" t="s">
+        <v>47</v>
+      </c>
+      <c r="B297" t="s">
+        <v>68</v>
+      </c>
+      <c r="C297" t="s">
+        <v>75</v>
+      </c>
+      <c r="D297" t="s">
+        <v>81</v>
+      </c>
+      <c r="E297" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" t="s">
+        <v>47</v>
+      </c>
+      <c r="B298" t="s">
+        <v>69</v>
+      </c>
+      <c r="C298" t="s">
+        <v>76</v>
+      </c>
+      <c r="D298" t="s">
+        <v>97</v>
+      </c>
+      <c r="E298" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" t="s">
+        <v>47</v>
+      </c>
+      <c r="B299" t="s">
+        <v>70</v>
+      </c>
+      <c r="C299" t="s">
+        <v>77</v>
+      </c>
+      <c r="D299" t="s">
+        <v>94</v>
+      </c>
+      <c r="E299" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" t="s">
+        <v>47</v>
+      </c>
+      <c r="B300" t="s">
+        <v>71</v>
+      </c>
+      <c r="C300" t="s">
+        <v>78</v>
+      </c>
+      <c r="D300" t="s">
+        <v>81</v>
+      </c>
+      <c r="E300" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" t="s">
+        <v>47</v>
+      </c>
+      <c r="B301" t="s">
+        <v>72</v>
+      </c>
+      <c r="C301" t="s">
+        <v>79</v>
+      </c>
+      <c r="D301" t="s">
+        <v>81</v>
+      </c>
+      <c r="E301" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" t="s">
+        <v>47</v>
+      </c>
+      <c r="B302" t="s">
+        <v>73</v>
+      </c>
+      <c r="C302" t="s">
+        <v>80</v>
+      </c>
+      <c r="D302" t="s">
+        <v>82</v>
+      </c>
+      <c r="E302" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" t="s">
+        <v>48</v>
+      </c>
+      <c r="B303" t="s">
+        <v>67</v>
+      </c>
+      <c r="C303" t="s">
+        <v>74</v>
+      </c>
+      <c r="D303" t="s">
+        <v>82</v>
+      </c>
+      <c r="E303" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" t="s">
+        <v>48</v>
+      </c>
+      <c r="B304" t="s">
+        <v>68</v>
+      </c>
+      <c r="C304" t="s">
+        <v>75</v>
+      </c>
+      <c r="D304" t="s">
+        <v>90</v>
+      </c>
+      <c r="E304" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" t="s">
+        <v>48</v>
+      </c>
+      <c r="B305" t="s">
+        <v>69</v>
+      </c>
+      <c r="C305" t="s">
+        <v>76</v>
+      </c>
+      <c r="D305" t="s">
+        <v>81</v>
+      </c>
+      <c r="E305" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" t="s">
+        <v>48</v>
+      </c>
+      <c r="B306" t="s">
+        <v>70</v>
+      </c>
+      <c r="C306" t="s">
+        <v>77</v>
+      </c>
+      <c r="D306" t="s">
+        <v>81</v>
+      </c>
+      <c r="E306" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" t="s">
+        <v>48</v>
+      </c>
+      <c r="B307" t="s">
+        <v>71</v>
+      </c>
+      <c r="C307" t="s">
+        <v>78</v>
+      </c>
+      <c r="D307" t="s">
+        <v>81</v>
+      </c>
+      <c r="E307" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" t="s">
+        <v>48</v>
+      </c>
+      <c r="B308" t="s">
+        <v>72</v>
+      </c>
+      <c r="C308" t="s">
+        <v>79</v>
+      </c>
+      <c r="D308" t="s">
+        <v>81</v>
+      </c>
+      <c r="E308" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" t="s">
+        <v>48</v>
+      </c>
+      <c r="B309" t="s">
+        <v>73</v>
+      </c>
+      <c r="C309" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" t="s">
+        <v>49</v>
+      </c>
+      <c r="B310" t="s">
+        <v>67</v>
+      </c>
+      <c r="C310" t="s">
+        <v>74</v>
+      </c>
+      <c r="D310" t="s">
+        <v>88</v>
+      </c>
+      <c r="E310" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" t="s">
+        <v>49</v>
+      </c>
+      <c r="B311" t="s">
+        <v>68</v>
+      </c>
+      <c r="C311" t="s">
+        <v>75</v>
+      </c>
+      <c r="D311" t="s">
+        <v>81</v>
+      </c>
+      <c r="E311" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" t="s">
+        <v>49</v>
+      </c>
+      <c r="B312" t="s">
+        <v>69</v>
+      </c>
+      <c r="C312" t="s">
+        <v>76</v>
+      </c>
+      <c r="D312" t="s">
+        <v>94</v>
+      </c>
+      <c r="E312" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" t="s">
+        <v>49</v>
+      </c>
+      <c r="B313" t="s">
+        <v>70</v>
+      </c>
+      <c r="C313" t="s">
+        <v>77</v>
+      </c>
+      <c r="D313" t="s">
+        <v>81</v>
+      </c>
+      <c r="E313" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" t="s">
+        <v>49</v>
+      </c>
+      <c r="B314" t="s">
+        <v>71</v>
+      </c>
+      <c r="C314" t="s">
+        <v>78</v>
+      </c>
+      <c r="D314" t="s">
+        <v>85</v>
+      </c>
+      <c r="E314" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" t="s">
+        <v>49</v>
+      </c>
+      <c r="B315" t="s">
+        <v>72</v>
+      </c>
+      <c r="C315" t="s">
+        <v>79</v>
+      </c>
+      <c r="D315" t="s">
+        <v>82</v>
+      </c>
+      <c r="E315" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" t="s">
+        <v>49</v>
+      </c>
+      <c r="B316" t="s">
+        <v>73</v>
+      </c>
+      <c r="C316" t="s">
+        <v>80</v>
+      </c>
+      <c r="D316" t="s">
+        <v>94</v>
+      </c>
+      <c r="E316" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" t="s">
+        <v>50</v>
+      </c>
+      <c r="B317" t="s">
+        <v>67</v>
+      </c>
+      <c r="C317" t="s">
+        <v>74</v>
+      </c>
+      <c r="D317" t="s">
+        <v>81</v>
+      </c>
+      <c r="E317" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" t="s">
+        <v>50</v>
+      </c>
+      <c r="B318" t="s">
+        <v>68</v>
+      </c>
+      <c r="C318" t="s">
+        <v>75</v>
+      </c>
+      <c r="D318" t="s">
+        <v>81</v>
+      </c>
+      <c r="E318" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" t="s">
+        <v>50</v>
+      </c>
+      <c r="B319" t="s">
+        <v>69</v>
+      </c>
+      <c r="C319" t="s">
+        <v>76</v>
+      </c>
+      <c r="D319" t="s">
+        <v>81</v>
+      </c>
+      <c r="E319" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" t="s">
+        <v>50</v>
+      </c>
+      <c r="B320" t="s">
+        <v>70</v>
+      </c>
+      <c r="C320" t="s">
+        <v>77</v>
+      </c>
+      <c r="D320" t="s">
+        <v>82</v>
+      </c>
+      <c r="E320" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" t="s">
+        <v>50</v>
+      </c>
+      <c r="B321" t="s">
+        <v>71</v>
+      </c>
+      <c r="C321" t="s">
+        <v>78</v>
+      </c>
+      <c r="D321" t="s">
+        <v>81</v>
+      </c>
+      <c r="E321" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" t="s">
+        <v>50</v>
+      </c>
+      <c r="B322" t="s">
+        <v>72</v>
+      </c>
+      <c r="C322" t="s">
+        <v>79</v>
+      </c>
+      <c r="D322" t="s">
+        <v>82</v>
+      </c>
+      <c r="E322" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" t="s">
+        <v>50</v>
+      </c>
+      <c r="B323" t="s">
+        <v>73</v>
+      </c>
+      <c r="C323" t="s">
+        <v>80</v>
+      </c>
+      <c r="D323" t="s">
+        <v>84</v>
+      </c>
+      <c r="E323" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" t="s">
+        <v>51</v>
+      </c>
+      <c r="B324" t="s">
+        <v>67</v>
+      </c>
+      <c r="C324" t="s">
+        <v>74</v>
+      </c>
+      <c r="D324" t="s">
+        <v>82</v>
+      </c>
+      <c r="E324" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" t="s">
+        <v>51</v>
+      </c>
+      <c r="B325" t="s">
+        <v>68</v>
+      </c>
+      <c r="C325" t="s">
+        <v>75</v>
+      </c>
+      <c r="D325" t="s">
+        <v>88</v>
+      </c>
+      <c r="E325" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" t="s">
+        <v>51</v>
+      </c>
+      <c r="B326" t="s">
+        <v>69</v>
+      </c>
+      <c r="C326" t="s">
+        <v>76</v>
+      </c>
+      <c r="D326" t="s">
+        <v>82</v>
+      </c>
+      <c r="E326" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" t="s">
+        <v>51</v>
+      </c>
+      <c r="B327" t="s">
+        <v>70</v>
+      </c>
+      <c r="C327" t="s">
+        <v>77</v>
+      </c>
+      <c r="D327" t="s">
+        <v>90</v>
+      </c>
+      <c r="E327" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" t="s">
+        <v>51</v>
+      </c>
+      <c r="B328" t="s">
+        <v>71</v>
+      </c>
+      <c r="C328" t="s">
+        <v>78</v>
+      </c>
+      <c r="D328" t="s">
+        <v>95</v>
+      </c>
+      <c r="E328" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" t="s">
+        <v>51</v>
+      </c>
+      <c r="B329" t="s">
+        <v>72</v>
+      </c>
+      <c r="C329" t="s">
+        <v>79</v>
+      </c>
+      <c r="D329" t="s">
+        <v>81</v>
+      </c>
+      <c r="E329" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" t="s">
+        <v>51</v>
+      </c>
+      <c r="B330" t="s">
+        <v>73</v>
+      </c>
+      <c r="C330" t="s">
+        <v>80</v>
+      </c>
+      <c r="D330" t="s">
+        <v>96</v>
+      </c>
+      <c r="E330" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" t="s">
+        <v>52</v>
+      </c>
+      <c r="B331" t="s">
+        <v>67</v>
+      </c>
+      <c r="C331" t="s">
+        <v>74</v>
+      </c>
+      <c r="D331" t="s">
+        <v>81</v>
+      </c>
+      <c r="E331" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" t="s">
+        <v>52</v>
+      </c>
+      <c r="B332" t="s">
+        <v>68</v>
+      </c>
+      <c r="C332" t="s">
+        <v>75</v>
+      </c>
+      <c r="D332" t="s">
+        <v>81</v>
+      </c>
+      <c r="E332" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" t="s">
+        <v>52</v>
+      </c>
+      <c r="B333" t="s">
+        <v>69</v>
+      </c>
+      <c r="C333" t="s">
+        <v>76</v>
+      </c>
+      <c r="D333" t="s">
+        <v>81</v>
+      </c>
+      <c r="E333" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" t="s">
+        <v>52</v>
+      </c>
+      <c r="B334" t="s">
+        <v>70</v>
+      </c>
+      <c r="C334" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" t="s">
+        <v>52</v>
+      </c>
+      <c r="B335" t="s">
+        <v>71</v>
+      </c>
+      <c r="C335" t="s">
+        <v>78</v>
+      </c>
+      <c r="D335" t="s">
+        <v>81</v>
+      </c>
+      <c r="E335" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" t="s">
+        <v>52</v>
+      </c>
+      <c r="B336" t="s">
+        <v>72</v>
+      </c>
+      <c r="C336" t="s">
+        <v>79</v>
+      </c>
+      <c r="D336" t="s">
+        <v>81</v>
+      </c>
+      <c r="E336" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" t="s">
+        <v>52</v>
+      </c>
+      <c r="B337" t="s">
+        <v>73</v>
+      </c>
+      <c r="C337" t="s">
+        <v>80</v>
+      </c>
+      <c r="D337" t="s">
+        <v>81</v>
+      </c>
+      <c r="E337" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" t="s">
+        <v>53</v>
+      </c>
+      <c r="B338" t="s">
+        <v>67</v>
+      </c>
+      <c r="C338" t="s">
+        <v>74</v>
+      </c>
+      <c r="D338" t="s">
+        <v>95</v>
+      </c>
+      <c r="E338" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" t="s">
+        <v>53</v>
+      </c>
+      <c r="B339" t="s">
+        <v>68</v>
+      </c>
+      <c r="C339" t="s">
+        <v>75</v>
+      </c>
+      <c r="D339" t="s">
+        <v>87</v>
+      </c>
+      <c r="E339" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" t="s">
+        <v>53</v>
+      </c>
+      <c r="B340" t="s">
+        <v>69</v>
+      </c>
+      <c r="C340" t="s">
+        <v>76</v>
+      </c>
+      <c r="D340" t="s">
+        <v>98</v>
+      </c>
+      <c r="E340" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" t="s">
+        <v>53</v>
+      </c>
+      <c r="B341" t="s">
+        <v>70</v>
+      </c>
+      <c r="C341" t="s">
+        <v>77</v>
+      </c>
+      <c r="D341" t="s">
+        <v>81</v>
+      </c>
+      <c r="E341" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" t="s">
+        <v>53</v>
+      </c>
+      <c r="B342" t="s">
+        <v>71</v>
+      </c>
+      <c r="C342" t="s">
+        <v>78</v>
+      </c>
+      <c r="D342" t="s">
+        <v>97</v>
+      </c>
+      <c r="E342" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" t="s">
+        <v>53</v>
+      </c>
+      <c r="B343" t="s">
+        <v>72</v>
+      </c>
+      <c r="C343" t="s">
+        <v>79</v>
+      </c>
+      <c r="D343" t="s">
+        <v>95</v>
+      </c>
+      <c r="E343" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" t="s">
+        <v>53</v>
+      </c>
+      <c r="B344" t="s">
+        <v>73</v>
+      </c>
+      <c r="C344" t="s">
+        <v>80</v>
+      </c>
+      <c r="D344" t="s">
+        <v>81</v>
+      </c>
+      <c r="E344" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" t="s">
+        <v>54</v>
+      </c>
+      <c r="B345" t="s">
+        <v>67</v>
+      </c>
+      <c r="C345" t="s">
+        <v>74</v>
+      </c>
+      <c r="D345" t="s">
+        <v>92</v>
+      </c>
+      <c r="E345" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" t="s">
+        <v>54</v>
+      </c>
+      <c r="B346" t="s">
+        <v>68</v>
+      </c>
+      <c r="C346" t="s">
+        <v>75</v>
+      </c>
+      <c r="D346" t="s">
+        <v>81</v>
+      </c>
+      <c r="E346" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" t="s">
+        <v>54</v>
+      </c>
+      <c r="B347" t="s">
+        <v>69</v>
+      </c>
+      <c r="C347" t="s">
+        <v>76</v>
+      </c>
+      <c r="D347" t="s">
+        <v>87</v>
+      </c>
+      <c r="E347" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" t="s">
+        <v>54</v>
+      </c>
+      <c r="B348" t="s">
+        <v>70</v>
+      </c>
+      <c r="C348" t="s">
+        <v>77</v>
+      </c>
+      <c r="D348" t="s">
+        <v>81</v>
+      </c>
+      <c r="E348" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" t="s">
+        <v>54</v>
+      </c>
+      <c r="B349" t="s">
+        <v>71</v>
+      </c>
+      <c r="C349" t="s">
+        <v>78</v>
+      </c>
+      <c r="D349" t="s">
+        <v>93</v>
+      </c>
+      <c r="E349" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" t="s">
+        <v>54</v>
+      </c>
+      <c r="B350" t="s">
+        <v>72</v>
+      </c>
+      <c r="C350" t="s">
+        <v>79</v>
+      </c>
+      <c r="D350" t="s">
+        <v>81</v>
+      </c>
+      <c r="E350" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" t="s">
+        <v>54</v>
+      </c>
+      <c r="B351" t="s">
+        <v>73</v>
+      </c>
+      <c r="C351" t="s">
+        <v>80</v>
+      </c>
+      <c r="D351" t="s">
+        <v>88</v>
+      </c>
+      <c r="E351" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" t="s">
+        <v>55</v>
+      </c>
+      <c r="B352" t="s">
+        <v>67</v>
+      </c>
+      <c r="C352" t="s">
+        <v>74</v>
+      </c>
+      <c r="D352" t="s">
+        <v>81</v>
+      </c>
+      <c r="E352" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" t="s">
+        <v>55</v>
+      </c>
+      <c r="B353" t="s">
+        <v>68</v>
+      </c>
+      <c r="C353" t="s">
+        <v>75</v>
+      </c>
+      <c r="D353" t="s">
+        <v>91</v>
+      </c>
+      <c r="E353" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" t="s">
+        <v>55</v>
+      </c>
+      <c r="B354" t="s">
+        <v>69</v>
+      </c>
+      <c r="C354" t="s">
+        <v>76</v>
+      </c>
+      <c r="D354" t="s">
+        <v>81</v>
+      </c>
+      <c r="E354" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" t="s">
+        <v>55</v>
+      </c>
+      <c r="B355" t="s">
+        <v>70</v>
+      </c>
+      <c r="C355" t="s">
+        <v>77</v>
+      </c>
+      <c r="D355" t="s">
+        <v>88</v>
+      </c>
+      <c r="E355" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" t="s">
+        <v>55</v>
+      </c>
+      <c r="B356" t="s">
+        <v>71</v>
+      </c>
+      <c r="C356" t="s">
+        <v>78</v>
+      </c>
+      <c r="D356" t="s">
+        <v>85</v>
+      </c>
+      <c r="E356" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" t="s">
+        <v>55</v>
+      </c>
+      <c r="B357" t="s">
+        <v>72</v>
+      </c>
+      <c r="C357" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" t="s">
+        <v>55</v>
+      </c>
+      <c r="B358" t="s">
+        <v>73</v>
+      </c>
+      <c r="C358" t="s">
+        <v>80</v>
+      </c>
+      <c r="D358" t="s">
+        <v>81</v>
+      </c>
+      <c r="E358" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" t="s">
+        <v>56</v>
+      </c>
+      <c r="B359" t="s">
+        <v>67</v>
+      </c>
+      <c r="C359" t="s">
+        <v>74</v>
+      </c>
+      <c r="D359" t="s">
+        <v>81</v>
+      </c>
+      <c r="E359" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" t="s">
+        <v>56</v>
+      </c>
+      <c r="B360" t="s">
+        <v>68</v>
+      </c>
+      <c r="C360" t="s">
+        <v>75</v>
+      </c>
+      <c r="D360" t="s">
+        <v>92</v>
+      </c>
+      <c r="E360" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" t="s">
+        <v>56</v>
+      </c>
+      <c r="B361" t="s">
+        <v>69</v>
+      </c>
+      <c r="C361" t="s">
+        <v>76</v>
+      </c>
+      <c r="D361" t="s">
+        <v>94</v>
+      </c>
+      <c r="E361" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" t="s">
+        <v>56</v>
+      </c>
+      <c r="B362" t="s">
+        <v>70</v>
+      </c>
+      <c r="C362" t="s">
+        <v>77</v>
+      </c>
+      <c r="D362" t="s">
+        <v>96</v>
+      </c>
+      <c r="E362" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" t="s">
+        <v>56</v>
+      </c>
+      <c r="B363" t="s">
+        <v>71</v>
+      </c>
+      <c r="C363" t="s">
+        <v>78</v>
+      </c>
+      <c r="D363" t="s">
+        <v>81</v>
+      </c>
+      <c r="E363" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" t="s">
+        <v>56</v>
+      </c>
+      <c r="B364" t="s">
+        <v>72</v>
+      </c>
+      <c r="C364" t="s">
+        <v>79</v>
+      </c>
+      <c r="D364" t="s">
+        <v>87</v>
+      </c>
+      <c r="E364" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" t="s">
+        <v>56</v>
+      </c>
+      <c r="B365" t="s">
+        <v>73</v>
+      </c>
+      <c r="C365" t="s">
+        <v>80</v>
+      </c>
+      <c r="D365" t="s">
+        <v>85</v>
+      </c>
+      <c r="E365" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" t="s">
+        <v>57</v>
+      </c>
+      <c r="B366" t="s">
+        <v>67</v>
+      </c>
+      <c r="C366" t="s">
+        <v>74</v>
+      </c>
+      <c r="D366" t="s">
+        <v>95</v>
+      </c>
+      <c r="E366" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" t="s">
+        <v>57</v>
+      </c>
+      <c r="B367" t="s">
+        <v>68</v>
+      </c>
+      <c r="C367" t="s">
+        <v>75</v>
+      </c>
+      <c r="D367" t="s">
+        <v>94</v>
+      </c>
+      <c r="E367" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" t="s">
+        <v>57</v>
+      </c>
+      <c r="B368" t="s">
+        <v>69</v>
+      </c>
+      <c r="C368" t="s">
+        <v>76</v>
+      </c>
+      <c r="D368" t="s">
+        <v>91</v>
+      </c>
+      <c r="E368" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" t="s">
+        <v>57</v>
+      </c>
+      <c r="B369" t="s">
+        <v>70</v>
+      </c>
+      <c r="C369" t="s">
+        <v>77</v>
+      </c>
+      <c r="D369" t="s">
+        <v>81</v>
+      </c>
+      <c r="E369" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" t="s">
+        <v>57</v>
+      </c>
+      <c r="B370" t="s">
+        <v>71</v>
+      </c>
+      <c r="C370" t="s">
+        <v>78</v>
+      </c>
+      <c r="D370" t="s">
+        <v>96</v>
+      </c>
+      <c r="E370" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" t="s">
+        <v>57</v>
+      </c>
+      <c r="B371" t="s">
+        <v>72</v>
+      </c>
+      <c r="C371" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" t="s">
+        <v>57</v>
+      </c>
+      <c r="B372" t="s">
+        <v>73</v>
+      </c>
+      <c r="C372" t="s">
+        <v>80</v>
+      </c>
+      <c r="D372" t="s">
+        <v>81</v>
+      </c>
+      <c r="E372" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" t="s">
+        <v>58</v>
+      </c>
+      <c r="B373" t="s">
+        <v>67</v>
+      </c>
+      <c r="C373" t="s">
+        <v>74</v>
+      </c>
+      <c r="D373" t="s">
+        <v>81</v>
+      </c>
+      <c r="E373" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" t="s">
+        <v>58</v>
+      </c>
+      <c r="B374" t="s">
+        <v>68</v>
+      </c>
+      <c r="C374" t="s">
+        <v>75</v>
+      </c>
+      <c r="D374" t="s">
+        <v>81</v>
+      </c>
+      <c r="E374" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" t="s">
+        <v>58</v>
+      </c>
+      <c r="B375" t="s">
+        <v>69</v>
+      </c>
+      <c r="C375" t="s">
+        <v>76</v>
+      </c>
+      <c r="D375" t="s">
+        <v>94</v>
+      </c>
+      <c r="E375" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" t="s">
+        <v>58</v>
+      </c>
+      <c r="B376" t="s">
+        <v>70</v>
+      </c>
+      <c r="C376" t="s">
+        <v>77</v>
+      </c>
+      <c r="D376" t="s">
+        <v>98</v>
+      </c>
+      <c r="E376" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" t="s">
+        <v>58</v>
+      </c>
+      <c r="B377" t="s">
+        <v>71</v>
+      </c>
+      <c r="C377" t="s">
+        <v>78</v>
+      </c>
+      <c r="D377" t="s">
+        <v>82</v>
+      </c>
+      <c r="E377" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" t="s">
+        <v>58</v>
+      </c>
+      <c r="B378" t="s">
+        <v>72</v>
+      </c>
+      <c r="C378" t="s">
+        <v>79</v>
+      </c>
+      <c r="D378" t="s">
+        <v>84</v>
+      </c>
+      <c r="E378" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" t="s">
+        <v>58</v>
+      </c>
+      <c r="B379" t="s">
+        <v>73</v>
+      </c>
+      <c r="C379" t="s">
+        <v>80</v>
+      </c>
+      <c r="D379" t="s">
+        <v>84</v>
+      </c>
+      <c r="E379" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" t="s">
+        <v>59</v>
+      </c>
+      <c r="B380" t="s">
+        <v>67</v>
+      </c>
+      <c r="C380" t="s">
+        <v>74</v>
+      </c>
+      <c r="D380" t="s">
+        <v>98</v>
+      </c>
+      <c r="E380" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" t="s">
+        <v>59</v>
+      </c>
+      <c r="B381" t="s">
+        <v>68</v>
+      </c>
+      <c r="C381" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" t="s">
+        <v>59</v>
+      </c>
+      <c r="B382" t="s">
+        <v>69</v>
+      </c>
+      <c r="C382" t="s">
+        <v>76</v>
+      </c>
+      <c r="D382" t="s">
+        <v>83</v>
+      </c>
+      <c r="E382" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" t="s">
+        <v>59</v>
+      </c>
+      <c r="B383" t="s">
+        <v>70</v>
+      </c>
+      <c r="C383" t="s">
+        <v>77</v>
+      </c>
+      <c r="D383" t="s">
+        <v>81</v>
+      </c>
+      <c r="E383" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" t="s">
+        <v>59</v>
+      </c>
+      <c r="B384" t="s">
+        <v>71</v>
+      </c>
+      <c r="C384" t="s">
+        <v>78</v>
+      </c>
+      <c r="D384" t="s">
+        <v>96</v>
+      </c>
+      <c r="E384" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" t="s">
+        <v>59</v>
+      </c>
+      <c r="B385" t="s">
+        <v>72</v>
+      </c>
+      <c r="C385" t="s">
+        <v>79</v>
+      </c>
+      <c r="D385" t="s">
+        <v>81</v>
+      </c>
+      <c r="E385" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" t="s">
+        <v>59</v>
+      </c>
+      <c r="B386" t="s">
+        <v>73</v>
+      </c>
+      <c r="C386" t="s">
+        <v>80</v>
+      </c>
+      <c r="D386" t="s">
+        <v>91</v>
+      </c>
+      <c r="E386" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" t="s">
+        <v>60</v>
+      </c>
+      <c r="B387" t="s">
+        <v>67</v>
+      </c>
+      <c r="C387" t="s">
+        <v>74</v>
+      </c>
+      <c r="D387" t="s">
+        <v>81</v>
+      </c>
+      <c r="E387" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" t="s">
+        <v>60</v>
+      </c>
+      <c r="B388" t="s">
+        <v>68</v>
+      </c>
+      <c r="C388" t="s">
+        <v>75</v>
+      </c>
+      <c r="D388" t="s">
+        <v>88</v>
+      </c>
+      <c r="E388" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" t="s">
+        <v>60</v>
+      </c>
+      <c r="B389" t="s">
+        <v>69</v>
+      </c>
+      <c r="C389" t="s">
+        <v>76</v>
+      </c>
+      <c r="D389" t="s">
+        <v>81</v>
+      </c>
+      <c r="E389" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" t="s">
+        <v>60</v>
+      </c>
+      <c r="B390" t="s">
+        <v>70</v>
+      </c>
+      <c r="C390" t="s">
+        <v>77</v>
+      </c>
+      <c r="D390" t="s">
+        <v>81</v>
+      </c>
+      <c r="E390" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" t="s">
+        <v>60</v>
+      </c>
+      <c r="B391" t="s">
+        <v>71</v>
+      </c>
+      <c r="C391" t="s">
+        <v>78</v>
+      </c>
+      <c r="D391" t="s">
+        <v>81</v>
+      </c>
+      <c r="E391" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" t="s">
+        <v>60</v>
+      </c>
+      <c r="B392" t="s">
+        <v>72</v>
+      </c>
+      <c r="C392" t="s">
+        <v>79</v>
+      </c>
+      <c r="D392" t="s">
+        <v>81</v>
+      </c>
+      <c r="E392" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" t="s">
+        <v>60</v>
+      </c>
+      <c r="B393" t="s">
+        <v>73</v>
+      </c>
+      <c r="C393" t="s">
+        <v>80</v>
+      </c>
+      <c r="D393" t="s">
+        <v>84</v>
+      </c>
+      <c r="E393" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" t="s">
+        <v>61</v>
+      </c>
+      <c r="B394" t="s">
+        <v>67</v>
+      </c>
+      <c r="C394" t="s">
+        <v>74</v>
+      </c>
+      <c r="D394" t="s">
+        <v>82</v>
+      </c>
+      <c r="E394" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" t="s">
+        <v>61</v>
+      </c>
+      <c r="B395" t="s">
+        <v>68</v>
+      </c>
+      <c r="C395" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" t="s">
+        <v>61</v>
+      </c>
+      <c r="B396" t="s">
+        <v>69</v>
+      </c>
+      <c r="C396" t="s">
+        <v>76</v>
+      </c>
+      <c r="D396" t="s">
+        <v>81</v>
+      </c>
+      <c r="E396" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" t="s">
+        <v>61</v>
+      </c>
+      <c r="B397" t="s">
+        <v>70</v>
+      </c>
+      <c r="C397" t="s">
+        <v>77</v>
+      </c>
+      <c r="D397" t="s">
+        <v>88</v>
+      </c>
+      <c r="E397" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" t="s">
+        <v>61</v>
+      </c>
+      <c r="B398" t="s">
+        <v>71</v>
+      </c>
+      <c r="C398" t="s">
+        <v>78</v>
+      </c>
+      <c r="D398" t="s">
+        <v>83</v>
+      </c>
+      <c r="E398" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" t="s">
+        <v>61</v>
+      </c>
+      <c r="B399" t="s">
+        <v>72</v>
+      </c>
+      <c r="C399" t="s">
+        <v>79</v>
+      </c>
+      <c r="D399" t="s">
+        <v>92</v>
+      </c>
+      <c r="E399" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" t="s">
+        <v>61</v>
+      </c>
+      <c r="B400" t="s">
+        <v>73</v>
+      </c>
+      <c r="C400" t="s">
+        <v>80</v>
+      </c>
+      <c r="D400" t="s">
+        <v>81</v>
+      </c>
+      <c r="E400" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" t="s">
+        <v>62</v>
+      </c>
+      <c r="B401" t="s">
+        <v>67</v>
+      </c>
+      <c r="C401" t="s">
+        <v>74</v>
+      </c>
+      <c r="D401" t="s">
+        <v>84</v>
+      </c>
+      <c r="E401" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" t="s">
+        <v>62</v>
+      </c>
+      <c r="B402" t="s">
+        <v>68</v>
+      </c>
+      <c r="C402" t="s">
+        <v>75</v>
+      </c>
+      <c r="D402" t="s">
+        <v>81</v>
+      </c>
+      <c r="E402" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" t="s">
+        <v>62</v>
+      </c>
+      <c r="B403" t="s">
+        <v>69</v>
+      </c>
+      <c r="C403" t="s">
+        <v>76</v>
+      </c>
+      <c r="D403" t="s">
+        <v>95</v>
+      </c>
+      <c r="E403" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" t="s">
+        <v>62</v>
+      </c>
+      <c r="B404" t="s">
+        <v>70</v>
+      </c>
+      <c r="C404" t="s">
+        <v>77</v>
+      </c>
+      <c r="D404" t="s">
+        <v>81</v>
+      </c>
+      <c r="E404" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" t="s">
+        <v>62</v>
+      </c>
+      <c r="B405" t="s">
+        <v>71</v>
+      </c>
+      <c r="C405" t="s">
+        <v>78</v>
+      </c>
+      <c r="D405" t="s">
+        <v>92</v>
+      </c>
+      <c r="E405" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" t="s">
+        <v>62</v>
+      </c>
+      <c r="B406" t="s">
+        <v>72</v>
+      </c>
+      <c r="C406" t="s">
+        <v>79</v>
+      </c>
+      <c r="D406" t="s">
+        <v>81</v>
+      </c>
+      <c r="E406" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" t="s">
+        <v>62</v>
+      </c>
+      <c r="B407" t="s">
+        <v>73</v>
+      </c>
+      <c r="C407" t="s">
+        <v>80</v>
+      </c>
+      <c r="D407" t="s">
+        <v>93</v>
+      </c>
+      <c r="E407" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" t="s">
+        <v>63</v>
+      </c>
+      <c r="B408" t="s">
+        <v>67</v>
+      </c>
+      <c r="C408" t="s">
+        <v>74</v>
+      </c>
+      <c r="D408" t="s">
+        <v>90</v>
+      </c>
+      <c r="E408" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" t="s">
+        <v>63</v>
+      </c>
+      <c r="B409" t="s">
+        <v>68</v>
+      </c>
+      <c r="C409" t="s">
+        <v>75</v>
+      </c>
+      <c r="D409" t="s">
+        <v>91</v>
+      </c>
+      <c r="E409" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" t="s">
+        <v>63</v>
+      </c>
+      <c r="B410" t="s">
+        <v>69</v>
+      </c>
+      <c r="C410" t="s">
+        <v>76</v>
+      </c>
+      <c r="D410" t="s">
+        <v>81</v>
+      </c>
+      <c r="E410" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" t="s">
+        <v>63</v>
+      </c>
+      <c r="B411" t="s">
+        <v>70</v>
+      </c>
+      <c r="C411" t="s">
+        <v>77</v>
+      </c>
+      <c r="D411" t="s">
+        <v>81</v>
+      </c>
+      <c r="E411" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" t="s">
+        <v>63</v>
+      </c>
+      <c r="B412" t="s">
+        <v>71</v>
+      </c>
+      <c r="C412" t="s">
+        <v>78</v>
+      </c>
+      <c r="D412" t="s">
+        <v>92</v>
+      </c>
+      <c r="E412" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" t="s">
+        <v>63</v>
+      </c>
+      <c r="B413" t="s">
+        <v>72</v>
+      </c>
+      <c r="C413" t="s">
+        <v>79</v>
+      </c>
+      <c r="D413" t="s">
+        <v>92</v>
+      </c>
+      <c r="E413" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" t="s">
+        <v>63</v>
+      </c>
+      <c r="B414" t="s">
+        <v>73</v>
+      </c>
+      <c r="C414" t="s">
+        <v>80</v>
+      </c>
+      <c r="D414" t="s">
+        <v>92</v>
+      </c>
+      <c r="E414" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" t="s">
+        <v>64</v>
+      </c>
+      <c r="B415" t="s">
+        <v>67</v>
+      </c>
+      <c r="C415" t="s">
+        <v>74</v>
+      </c>
+      <c r="D415" t="s">
+        <v>81</v>
+      </c>
+      <c r="E415" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" t="s">
+        <v>64</v>
+      </c>
+      <c r="B416" t="s">
+        <v>68</v>
+      </c>
+      <c r="C416" t="s">
+        <v>75</v>
+      </c>
+      <c r="D416" t="s">
+        <v>81</v>
+      </c>
+      <c r="E416" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" t="s">
+        <v>64</v>
+      </c>
+      <c r="B417" t="s">
+        <v>69</v>
+      </c>
+      <c r="C417" t="s">
+        <v>76</v>
+      </c>
+      <c r="D417" t="s">
+        <v>81</v>
+      </c>
+      <c r="E417" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" t="s">
+        <v>64</v>
+      </c>
+      <c r="B418" t="s">
+        <v>70</v>
+      </c>
+      <c r="C418" t="s">
+        <v>77</v>
+      </c>
+      <c r="D418" t="s">
+        <v>81</v>
+      </c>
+      <c r="E418" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" t="s">
+        <v>64</v>
+      </c>
+      <c r="B419" t="s">
+        <v>71</v>
+      </c>
+      <c r="C419" t="s">
+        <v>78</v>
+      </c>
+      <c r="D419" t="s">
+        <v>81</v>
+      </c>
+      <c r="E419" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" t="s">
+        <v>64</v>
+      </c>
+      <c r="B420" t="s">
+        <v>72</v>
+      </c>
+      <c r="C420" t="s">
+        <v>79</v>
+      </c>
+      <c r="D420" t="s">
+        <v>81</v>
+      </c>
+      <c r="E420" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" t="s">
+        <v>64</v>
+      </c>
+      <c r="B421" t="s">
+        <v>73</v>
+      </c>
+      <c r="C421" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" t="s">
+        <v>65</v>
+      </c>
+      <c r="B422" t="s">
+        <v>67</v>
+      </c>
+      <c r="C422" t="s">
+        <v>74</v>
+      </c>
+      <c r="D422" t="s">
+        <v>96</v>
+      </c>
+      <c r="E422" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" t="s">
+        <v>65</v>
+      </c>
+      <c r="B423" t="s">
+        <v>68</v>
+      </c>
+      <c r="C423" t="s">
+        <v>75</v>
+      </c>
+      <c r="D423" t="s">
+        <v>96</v>
+      </c>
+      <c r="E423" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" t="s">
+        <v>65</v>
+      </c>
+      <c r="B424" t="s">
+        <v>69</v>
+      </c>
+      <c r="C424" t="s">
+        <v>76</v>
+      </c>
+      <c r="D424" t="s">
+        <v>91</v>
+      </c>
+      <c r="E424" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" t="s">
+        <v>65</v>
+      </c>
+      <c r="B425" t="s">
+        <v>70</v>
+      </c>
+      <c r="C425" t="s">
+        <v>77</v>
+      </c>
+      <c r="D425" t="s">
+        <v>94</v>
+      </c>
+      <c r="E425" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" t="s">
+        <v>65</v>
+      </c>
+      <c r="B426" t="s">
+        <v>71</v>
+      </c>
+      <c r="C426" t="s">
+        <v>78</v>
+      </c>
+      <c r="D426" t="s">
+        <v>85</v>
+      </c>
+      <c r="E426" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" t="s">
+        <v>65</v>
+      </c>
+      <c r="B427" t="s">
+        <v>72</v>
+      </c>
+      <c r="C427" t="s">
+        <v>79</v>
+      </c>
+      <c r="D427" t="s">
+        <v>88</v>
+      </c>
+      <c r="E427" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" t="s">
+        <v>65</v>
+      </c>
+      <c r="B428" t="s">
+        <v>73</v>
+      </c>
+      <c r="C428" t="s">
+        <v>80</v>
+      </c>
+      <c r="D428" t="s">
+        <v>81</v>
+      </c>
+      <c r="E428" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" t="s">
+        <v>66</v>
+      </c>
+      <c r="B429" t="s">
+        <v>67</v>
+      </c>
+      <c r="C429" t="s">
+        <v>74</v>
+      </c>
+      <c r="D429" t="s">
+        <v>83</v>
+      </c>
+      <c r="E429" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" t="s">
+        <v>66</v>
+      </c>
+      <c r="B430" t="s">
+        <v>68</v>
+      </c>
+      <c r="C430" t="s">
+        <v>75</v>
+      </c>
+      <c r="D430" t="s">
+        <v>81</v>
+      </c>
+      <c r="E430" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" t="s">
+        <v>66</v>
+      </c>
+      <c r="B431" t="s">
+        <v>69</v>
+      </c>
+      <c r="C431" t="s">
+        <v>76</v>
+      </c>
+      <c r="D431" t="s">
+        <v>81</v>
+      </c>
+      <c r="E431" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432" t="s">
+        <v>66</v>
+      </c>
+      <c r="B432" t="s">
+        <v>70</v>
+      </c>
+      <c r="C432" t="s">
+        <v>77</v>
+      </c>
+      <c r="D432" t="s">
+        <v>81</v>
+      </c>
+      <c r="E432" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" t="s">
+        <v>66</v>
+      </c>
+      <c r="B433" t="s">
+        <v>71</v>
+      </c>
+      <c r="C433" t="s">
+        <v>78</v>
+      </c>
+      <c r="D433" t="s">
+        <v>85</v>
+      </c>
+      <c r="E433" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" t="s">
+        <v>66</v>
+      </c>
+      <c r="B434" t="s">
+        <v>72</v>
+      </c>
+      <c r="C434" t="s">
+        <v>79</v>
+      </c>
+      <c r="D434" t="s">
+        <v>97</v>
+      </c>
+      <c r="E434" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435" t="s">
+        <v>66</v>
+      </c>
+      <c r="B435" t="s">
+        <v>73</v>
+      </c>
+      <c r="C435" t="s">
+        <v>80</v>
+      </c>
+      <c r="D435" t="s">
+        <v>84</v>
+      </c>
+      <c r="E435" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1274,7 +8037,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1287,22 +8050,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1310,13 +8073,13 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1330,13 +8093,13 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1350,13 +8113,13 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D4">
-        <v>30.5</v>
+        <v>44</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1370,13 +8133,13 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C5">
-        <v>37.5</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1390,13 +8153,13 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C6">
-        <v>37.5</v>
+        <v>56</v>
       </c>
       <c r="D6">
-        <v>27.5</v>
+        <v>44</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1410,13 +8173,13 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1430,13 +8193,13 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1450,18 +8213,1098 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C9">
+        <v>56</v>
+      </c>
+      <c r="D9">
+        <v>44</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>44</v>
+      </c>
+      <c r="C10">
+        <v>56</v>
+      </c>
+      <c r="D10">
+        <v>44</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>56</v>
+      </c>
+      <c r="D11">
+        <v>44</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>44</v>
+      </c>
+      <c r="C12">
+        <v>56</v>
+      </c>
+      <c r="D12">
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>44</v>
+      </c>
+      <c r="C13">
+        <v>56</v>
+      </c>
+      <c r="D13">
+        <v>44</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="C14">
+        <v>56</v>
+      </c>
+      <c r="D14">
+        <v>44</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>44</v>
+      </c>
+      <c r="C15">
+        <v>56</v>
+      </c>
+      <c r="D15">
+        <v>44</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>44</v>
+      </c>
+      <c r="C16">
+        <v>56</v>
+      </c>
+      <c r="D16">
+        <v>44</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
+      <c r="B17">
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <v>56</v>
+      </c>
+      <c r="D17">
+        <v>44</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>44</v>
+      </c>
+      <c r="C18">
+        <v>56</v>
+      </c>
+      <c r="D18">
+        <v>44</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <v>56</v>
+      </c>
+      <c r="D19">
+        <v>44</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>44</v>
+      </c>
+      <c r="C20">
+        <v>56</v>
+      </c>
+      <c r="D20">
+        <v>44</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>44</v>
+      </c>
+      <c r="C21">
+        <v>56</v>
+      </c>
+      <c r="D21">
+        <v>44</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>56</v>
+      </c>
+      <c r="D22">
+        <v>44</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>44</v>
+      </c>
+      <c r="C23">
+        <v>56</v>
+      </c>
+      <c r="D23">
+        <v>44</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>44</v>
+      </c>
+      <c r="C24">
+        <v>56</v>
+      </c>
+      <c r="D24">
+        <v>44</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>44</v>
+      </c>
+      <c r="C25">
+        <v>56</v>
+      </c>
+      <c r="D25">
+        <v>44</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>44</v>
+      </c>
+      <c r="C26">
+        <v>56</v>
+      </c>
+      <c r="D26">
+        <v>44</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>44</v>
+      </c>
+      <c r="C27">
+        <v>56</v>
+      </c>
+      <c r="D27">
+        <v>44</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>44</v>
+      </c>
+      <c r="C28">
+        <v>56</v>
+      </c>
+      <c r="D28">
+        <v>44</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>44</v>
+      </c>
+      <c r="C29">
+        <v>56</v>
+      </c>
+      <c r="D29">
+        <v>44</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>44</v>
+      </c>
+      <c r="C30">
+        <v>56</v>
+      </c>
+      <c r="D30">
+        <v>44</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>44</v>
+      </c>
+      <c r="C31">
+        <v>56</v>
+      </c>
+      <c r="D31">
+        <v>44</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>44</v>
+      </c>
+      <c r="C32">
+        <v>56</v>
+      </c>
+      <c r="D32">
+        <v>44</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>44</v>
+      </c>
+      <c r="C33">
+        <v>56</v>
+      </c>
+      <c r="D33">
+        <v>44</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>44</v>
+      </c>
+      <c r="C34">
+        <v>56</v>
+      </c>
+      <c r="D34">
+        <v>44</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>44</v>
+      </c>
+      <c r="C35">
+        <v>56</v>
+      </c>
+      <c r="D35">
+        <v>44</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>44</v>
+      </c>
+      <c r="C36">
+        <v>56</v>
+      </c>
+      <c r="D36">
+        <v>44</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>44</v>
+      </c>
+      <c r="C37">
+        <v>56</v>
+      </c>
+      <c r="D37">
+        <v>44</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>44</v>
+      </c>
+      <c r="C38">
+        <v>56</v>
+      </c>
+      <c r="D38">
+        <v>44</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>44</v>
+      </c>
+      <c r="C39">
+        <v>56</v>
+      </c>
+      <c r="D39">
+        <v>44</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>44</v>
+      </c>
+      <c r="C40">
+        <v>56</v>
+      </c>
+      <c r="D40">
+        <v>44</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>44</v>
+      </c>
+      <c r="C41">
+        <v>56</v>
+      </c>
+      <c r="D41">
+        <v>44</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>44</v>
+      </c>
+      <c r="C42">
+        <v>56</v>
+      </c>
+      <c r="D42">
+        <v>44</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>44</v>
+      </c>
+      <c r="C43">
+        <v>56</v>
+      </c>
+      <c r="D43">
+        <v>44</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>56</v>
+      </c>
+      <c r="D44">
+        <v>44</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>56</v>
+      </c>
+      <c r="D45">
+        <v>44</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <v>56</v>
+      </c>
+      <c r="D46">
+        <v>44</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>44</v>
+      </c>
+      <c r="C47">
+        <v>56</v>
+      </c>
+      <c r="D47">
+        <v>44</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>44</v>
+      </c>
+      <c r="C48">
+        <v>56</v>
+      </c>
+      <c r="D48">
+        <v>44</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>44</v>
+      </c>
+      <c r="C49">
+        <v>56</v>
+      </c>
+      <c r="D49">
+        <v>44</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50">
+        <v>44</v>
+      </c>
+      <c r="C50">
+        <v>56</v>
+      </c>
+      <c r="D50">
+        <v>44</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51">
+        <v>44</v>
+      </c>
+      <c r="C51">
+        <v>56</v>
+      </c>
+      <c r="D51">
+        <v>44</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>44</v>
+      </c>
+      <c r="C52">
+        <v>56</v>
+      </c>
+      <c r="D52">
+        <v>44</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53">
+        <v>44</v>
+      </c>
+      <c r="C53">
+        <v>56</v>
+      </c>
+      <c r="D53">
+        <v>44</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54">
+        <v>44</v>
+      </c>
+      <c r="C54">
+        <v>56</v>
+      </c>
+      <c r="D54">
+        <v>44</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55">
+        <v>44</v>
+      </c>
+      <c r="C55">
+        <v>56</v>
+      </c>
+      <c r="D55">
+        <v>44</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56">
+        <v>44</v>
+      </c>
+      <c r="C56">
+        <v>56</v>
+      </c>
+      <c r="D56">
+        <v>44</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57">
+        <v>44</v>
+      </c>
+      <c r="C57">
+        <v>56</v>
+      </c>
+      <c r="D57">
+        <v>44</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58">
+        <v>44</v>
+      </c>
+      <c r="C58">
+        <v>56</v>
+      </c>
+      <c r="D58">
+        <v>44</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59">
+        <v>44</v>
+      </c>
+      <c r="C59">
+        <v>56</v>
+      </c>
+      <c r="D59">
+        <v>44</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60">
+        <v>44</v>
+      </c>
+      <c r="C60">
+        <v>56</v>
+      </c>
+      <c r="D60">
+        <v>44</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61">
+        <v>44</v>
+      </c>
+      <c r="C61">
+        <v>56</v>
+      </c>
+      <c r="D61">
+        <v>44</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62">
+        <v>44</v>
+      </c>
+      <c r="C62">
+        <v>56</v>
+      </c>
+      <c r="D62">
+        <v>44</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63">
+        <v>44</v>
+      </c>
+      <c r="C63">
+        <v>56</v>
+      </c>
+      <c r="D63">
+        <v>44</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
         <v>0</v>
       </c>
     </row>

--- a/Solution.xlsx
+++ b/Solution.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2119" uniqueCount="113">
   <si>
     <t>Employee</t>
   </si>
@@ -260,82 +260,82 @@
     <t>Sunday</t>
   </si>
   <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
     <t>09:00</t>
   </si>
   <si>
+    <t>14:30</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>11:30</t>
+  </si>
+  <si>
     <t>12:00</t>
   </si>
   <si>
+    <t>10:30</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
     <t>13:00</t>
   </si>
   <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>17:30</t>
+  </si>
+  <si>
+    <t>12:30</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
     <t>09:30</t>
   </si>
   <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>16:30</t>
+    <t>15:00</t>
   </si>
   <si>
     <t>17:00</t>
   </si>
   <si>
-    <t>15:30</t>
-  </si>
-  <si>
-    <t>10:30</t>
-  </si>
-  <si>
-    <t>15:00</t>
-  </si>
-  <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>11:30</t>
-  </si>
-  <si>
-    <t>16:00</t>
-  </si>
-  <si>
-    <t>12:30</t>
-  </si>
-  <si>
-    <t>14:30</t>
-  </si>
-  <si>
-    <t>17:30</t>
-  </si>
-  <si>
-    <t>11:00</t>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>21:30</t>
   </si>
   <si>
     <t>18:00</t>
   </si>
   <si>
-    <t>21:00</t>
-  </si>
-  <si>
-    <t>21:30</t>
+    <t>19:30</t>
   </si>
   <si>
     <t>18:30</t>
   </si>
   <si>
-    <t>19:30</t>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>19:00</t>
   </si>
   <si>
     <t>20:30</t>
-  </si>
-  <si>
-    <t>19:00</t>
-  </si>
-  <si>
-    <t>20:00</t>
   </si>
   <si>
     <t>min_hours_per_week</t>
@@ -774,7 +774,7 @@
         <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -788,10 +788,10 @@
         <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -804,12 +804,6 @@
       <c r="C4" t="s">
         <v>76</v>
       </c>
-      <c r="D4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
@@ -822,10 +816,10 @@
         <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -839,7 +833,7 @@
         <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
         <v>100</v>
@@ -856,10 +850,10 @@
         <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -873,10 +867,10 @@
         <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -890,10 +884,10 @@
         <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -907,10 +901,10 @@
         <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -924,10 +918,10 @@
         <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -941,10 +935,10 @@
         <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -958,10 +952,10 @@
         <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -974,12 +968,6 @@
       <c r="C14" t="s">
         <v>79</v>
       </c>
-      <c r="D14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
@@ -992,10 +980,10 @@
         <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1009,10 +997,10 @@
         <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1025,12 +1013,6 @@
       <c r="C17" t="s">
         <v>75</v>
       </c>
-      <c r="D17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
@@ -1043,10 +1025,10 @@
         <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1060,10 +1042,10 @@
         <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1077,10 +1059,10 @@
         <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1094,10 +1076,10 @@
         <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1111,10 +1093,10 @@
         <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1128,10 +1110,10 @@
         <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1145,10 +1127,10 @@
         <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E24" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1162,10 +1144,10 @@
         <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1179,10 +1161,10 @@
         <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1195,6 +1177,12 @@
       <c r="C27" t="s">
         <v>78</v>
       </c>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
@@ -1207,10 +1195,10 @@
         <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1223,12 +1211,6 @@
       <c r="C29" t="s">
         <v>80</v>
       </c>
-      <c r="D29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
@@ -1244,7 +1226,7 @@
         <v>83</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1258,10 +1240,10 @@
         <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E31" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1275,10 +1257,10 @@
         <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1292,10 +1274,10 @@
         <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E33" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1309,10 +1291,10 @@
         <v>78</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1325,12 +1307,6 @@
       <c r="C35" t="s">
         <v>79</v>
       </c>
-      <c r="D35" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
@@ -1343,10 +1319,10 @@
         <v>80</v>
       </c>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E36" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1360,10 +1336,10 @@
         <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1377,10 +1353,10 @@
         <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E38" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1394,10 +1370,10 @@
         <v>76</v>
       </c>
       <c r="D39" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E39" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1410,12 +1386,6 @@
       <c r="C40" t="s">
         <v>77</v>
       </c>
-      <c r="D40" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
@@ -1428,10 +1398,10 @@
         <v>78</v>
       </c>
       <c r="D41" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E41" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1445,10 +1415,10 @@
         <v>79</v>
       </c>
       <c r="D42" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E42" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1462,10 +1432,10 @@
         <v>80</v>
       </c>
       <c r="D43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E43" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1479,10 +1449,10 @@
         <v>74</v>
       </c>
       <c r="D44" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1496,10 +1466,10 @@
         <v>75</v>
       </c>
       <c r="D45" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E45" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1513,10 +1483,10 @@
         <v>76</v>
       </c>
       <c r="D46" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E46" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1530,10 +1500,10 @@
         <v>77</v>
       </c>
       <c r="D47" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E47" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1547,10 +1517,10 @@
         <v>78</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E48" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1563,12 +1533,6 @@
       <c r="C49" t="s">
         <v>79</v>
       </c>
-      <c r="D49" t="s">
-        <v>81</v>
-      </c>
-      <c r="E49" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
@@ -1581,10 +1545,10 @@
         <v>80</v>
       </c>
       <c r="D50" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E50" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1598,10 +1562,10 @@
         <v>74</v>
       </c>
       <c r="D51" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1615,10 +1579,10 @@
         <v>75</v>
       </c>
       <c r="D52" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E52" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1632,10 +1596,10 @@
         <v>76</v>
       </c>
       <c r="D53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E53" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1649,10 +1613,10 @@
         <v>77</v>
       </c>
       <c r="D54" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E54" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1666,10 +1630,10 @@
         <v>78</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E55" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1683,10 +1647,10 @@
         <v>79</v>
       </c>
       <c r="D56" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E56" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1699,12 +1663,6 @@
       <c r="C57" t="s">
         <v>80</v>
       </c>
-      <c r="D57" t="s">
-        <v>81</v>
-      </c>
-      <c r="E57" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
@@ -1716,6 +1674,12 @@
       <c r="C58" t="s">
         <v>74</v>
       </c>
+      <c r="D58" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
@@ -1728,10 +1692,10 @@
         <v>75</v>
       </c>
       <c r="D59" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E59" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1745,10 +1709,10 @@
         <v>76</v>
       </c>
       <c r="D60" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E60" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1761,12 +1725,6 @@
       <c r="C61" t="s">
         <v>77</v>
       </c>
-      <c r="D61" t="s">
-        <v>81</v>
-      </c>
-      <c r="E61" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
@@ -1779,10 +1737,10 @@
         <v>78</v>
       </c>
       <c r="D62" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1796,10 +1754,10 @@
         <v>79</v>
       </c>
       <c r="D63" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E63" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1813,10 +1771,10 @@
         <v>80</v>
       </c>
       <c r="D64" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E64" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1833,7 +1791,7 @@
         <v>83</v>
       </c>
       <c r="E65" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1847,10 +1805,10 @@
         <v>75</v>
       </c>
       <c r="D66" t="s">
+        <v>83</v>
+      </c>
+      <c r="E66" t="s">
         <v>95</v>
-      </c>
-      <c r="E66" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1863,12 +1821,6 @@
       <c r="C67" t="s">
         <v>76</v>
       </c>
-      <c r="D67" t="s">
-        <v>81</v>
-      </c>
-      <c r="E67" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
@@ -1881,10 +1833,10 @@
         <v>77</v>
       </c>
       <c r="D68" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E68" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1898,10 +1850,10 @@
         <v>78</v>
       </c>
       <c r="D69" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E69" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1915,10 +1867,10 @@
         <v>79</v>
       </c>
       <c r="D70" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E70" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1932,10 +1884,10 @@
         <v>80</v>
       </c>
       <c r="D71" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E71" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1949,10 +1901,10 @@
         <v>74</v>
       </c>
       <c r="D72" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1966,10 +1918,10 @@
         <v>75</v>
       </c>
       <c r="D73" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E73" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1983,10 +1935,10 @@
         <v>76</v>
       </c>
       <c r="D74" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E74" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2000,10 +1952,10 @@
         <v>77</v>
       </c>
       <c r="D75" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E75" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2017,10 +1969,10 @@
         <v>78</v>
       </c>
       <c r="D76" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E76" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2034,10 +1986,10 @@
         <v>79</v>
       </c>
       <c r="D77" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E77" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2050,12 +2002,6 @@
       <c r="C78" t="s">
         <v>80</v>
       </c>
-      <c r="D78" t="s">
-        <v>87</v>
-      </c>
-      <c r="E78" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
@@ -2067,12 +2013,6 @@
       <c r="C79" t="s">
         <v>74</v>
       </c>
-      <c r="D79" t="s">
-        <v>87</v>
-      </c>
-      <c r="E79" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
@@ -2085,10 +2025,10 @@
         <v>75</v>
       </c>
       <c r="D80" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E80" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2102,10 +2042,10 @@
         <v>76</v>
       </c>
       <c r="D81" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E81" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2119,10 +2059,10 @@
         <v>77</v>
       </c>
       <c r="D82" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E82" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2136,10 +2076,10 @@
         <v>78</v>
       </c>
       <c r="D83" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E83" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2153,10 +2093,10 @@
         <v>79</v>
       </c>
       <c r="D84" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E84" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2170,10 +2110,10 @@
         <v>80</v>
       </c>
       <c r="D85" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E85" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2187,10 +2127,10 @@
         <v>74</v>
       </c>
       <c r="D86" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E86" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2204,10 +2144,10 @@
         <v>75</v>
       </c>
       <c r="D87" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E87" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2221,10 +2161,10 @@
         <v>76</v>
       </c>
       <c r="D88" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2238,10 +2178,10 @@
         <v>77</v>
       </c>
       <c r="D89" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E89" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2254,12 +2194,6 @@
       <c r="C90" t="s">
         <v>78</v>
       </c>
-      <c r="D90" t="s">
-        <v>81</v>
-      </c>
-      <c r="E90" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
@@ -2272,10 +2206,10 @@
         <v>79</v>
       </c>
       <c r="D91" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E91" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2289,10 +2223,10 @@
         <v>80</v>
       </c>
       <c r="D92" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E92" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2306,10 +2240,10 @@
         <v>74</v>
       </c>
       <c r="D93" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2322,12 +2256,6 @@
       <c r="C94" t="s">
         <v>75</v>
       </c>
-      <c r="D94" t="s">
-        <v>81</v>
-      </c>
-      <c r="E94" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
@@ -2340,10 +2268,10 @@
         <v>76</v>
       </c>
       <c r="D95" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E95" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2357,10 +2285,10 @@
         <v>77</v>
       </c>
       <c r="D96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E96" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2374,10 +2302,10 @@
         <v>78</v>
       </c>
       <c r="D97" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E97" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2391,10 +2319,10 @@
         <v>79</v>
       </c>
       <c r="D98" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2408,10 +2336,10 @@
         <v>80</v>
       </c>
       <c r="D99" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E99" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2425,10 +2353,10 @@
         <v>74</v>
       </c>
       <c r="D100" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E100" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2442,10 +2370,10 @@
         <v>75</v>
       </c>
       <c r="D101" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E101" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2459,10 +2387,10 @@
         <v>76</v>
       </c>
       <c r="D102" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E102" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2476,10 +2404,10 @@
         <v>77</v>
       </c>
       <c r="D103" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E103" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2492,12 +2420,6 @@
       <c r="C104" t="s">
         <v>78</v>
       </c>
-      <c r="D104" t="s">
-        <v>92</v>
-      </c>
-      <c r="E104" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
@@ -2510,10 +2432,10 @@
         <v>79</v>
       </c>
       <c r="D105" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E105" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2527,10 +2449,10 @@
         <v>80</v>
       </c>
       <c r="D106" t="s">
+        <v>83</v>
+      </c>
+      <c r="E106" t="s">
         <v>81</v>
-      </c>
-      <c r="E106" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2543,12 +2465,6 @@
       <c r="C107" t="s">
         <v>74</v>
       </c>
-      <c r="D107" t="s">
-        <v>81</v>
-      </c>
-      <c r="E107" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
@@ -2561,10 +2477,10 @@
         <v>75</v>
       </c>
       <c r="D108" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E108" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2578,10 +2494,10 @@
         <v>76</v>
       </c>
       <c r="D109" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E109" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2595,10 +2511,10 @@
         <v>77</v>
       </c>
       <c r="D110" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E110" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2612,10 +2528,10 @@
         <v>78</v>
       </c>
       <c r="D111" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E111" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2629,10 +2545,10 @@
         <v>79</v>
       </c>
       <c r="D112" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E112" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2646,10 +2562,10 @@
         <v>80</v>
       </c>
       <c r="D113" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E113" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2663,10 +2579,10 @@
         <v>74</v>
       </c>
       <c r="D114" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E114" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2680,10 +2596,10 @@
         <v>75</v>
       </c>
       <c r="D115" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E115" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2697,10 +2613,10 @@
         <v>76</v>
       </c>
       <c r="D116" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E116" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2714,10 +2630,10 @@
         <v>77</v>
       </c>
       <c r="D117" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E117" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2731,10 +2647,10 @@
         <v>78</v>
       </c>
       <c r="D118" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E118" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2747,12 +2663,6 @@
       <c r="C119" t="s">
         <v>79</v>
       </c>
-      <c r="D119" t="s">
-        <v>81</v>
-      </c>
-      <c r="E119" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
@@ -2765,10 +2675,10 @@
         <v>80</v>
       </c>
       <c r="D120" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E120" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2781,12 +2691,6 @@
       <c r="C121" t="s">
         <v>74</v>
       </c>
-      <c r="D121" t="s">
-        <v>81</v>
-      </c>
-      <c r="E121" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
@@ -2799,10 +2703,10 @@
         <v>75</v>
       </c>
       <c r="D122" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E122" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2816,10 +2720,10 @@
         <v>76</v>
       </c>
       <c r="D123" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E123" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2833,10 +2737,10 @@
         <v>77</v>
       </c>
       <c r="D124" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E124" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2850,10 +2754,10 @@
         <v>78</v>
       </c>
       <c r="D125" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E125" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2867,10 +2771,10 @@
         <v>79</v>
       </c>
       <c r="D126" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E126" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2884,10 +2788,10 @@
         <v>80</v>
       </c>
       <c r="D127" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E127" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2901,10 +2805,10 @@
         <v>74</v>
       </c>
       <c r="D128" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E128" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2918,10 +2822,10 @@
         <v>75</v>
       </c>
       <c r="D129" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E129" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2935,10 +2839,10 @@
         <v>76</v>
       </c>
       <c r="D130" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E130" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2952,10 +2856,10 @@
         <v>77</v>
       </c>
       <c r="D131" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E131" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2969,10 +2873,10 @@
         <v>78</v>
       </c>
       <c r="D132" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E132" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2986,10 +2890,10 @@
         <v>79</v>
       </c>
       <c r="D133" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E133" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3002,12 +2906,6 @@
       <c r="C134" t="s">
         <v>80</v>
       </c>
-      <c r="D134" t="s">
-        <v>96</v>
-      </c>
-      <c r="E134" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
@@ -3020,10 +2918,10 @@
         <v>74</v>
       </c>
       <c r="D135" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E135" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3037,7 +2935,7 @@
         <v>75</v>
       </c>
       <c r="D136" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E136" t="s">
         <v>101</v>
@@ -3053,12 +2951,6 @@
       <c r="C137" t="s">
         <v>76</v>
       </c>
-      <c r="D137" t="s">
-        <v>91</v>
-      </c>
-      <c r="E137" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
@@ -3071,10 +2963,10 @@
         <v>77</v>
       </c>
       <c r="D138" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E138" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3088,10 +2980,10 @@
         <v>78</v>
       </c>
       <c r="D139" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E139" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3104,6 +2996,12 @@
       <c r="C140" t="s">
         <v>79</v>
       </c>
+      <c r="D140" t="s">
+        <v>90</v>
+      </c>
+      <c r="E140" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
@@ -3116,10 +3014,10 @@
         <v>80</v>
       </c>
       <c r="D141" t="s">
+        <v>83</v>
+      </c>
+      <c r="E141" t="s">
         <v>81</v>
-      </c>
-      <c r="E141" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3133,10 +3031,10 @@
         <v>74</v>
       </c>
       <c r="D142" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E142" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3150,10 +3048,10 @@
         <v>75</v>
       </c>
       <c r="D143" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E143" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3166,6 +3064,12 @@
       <c r="C144" t="s">
         <v>76</v>
       </c>
+      <c r="D144" t="s">
+        <v>98</v>
+      </c>
+      <c r="E144" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
@@ -3178,10 +3082,10 @@
         <v>77</v>
       </c>
       <c r="D145" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E145" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3194,12 +3098,6 @@
       <c r="C146" t="s">
         <v>78</v>
       </c>
-      <c r="D146" t="s">
-        <v>91</v>
-      </c>
-      <c r="E146" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
@@ -3212,10 +3110,10 @@
         <v>79</v>
       </c>
       <c r="D147" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E147" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3229,10 +3127,10 @@
         <v>80</v>
       </c>
       <c r="D148" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E148" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3246,10 +3144,10 @@
         <v>74</v>
       </c>
       <c r="D149" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E149" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3263,10 +3161,10 @@
         <v>75</v>
       </c>
       <c r="D150" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E150" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3279,12 +3177,6 @@
       <c r="C151" t="s">
         <v>76</v>
       </c>
-      <c r="D151" t="s">
-        <v>86</v>
-      </c>
-      <c r="E151" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
@@ -3300,7 +3192,7 @@
         <v>83</v>
       </c>
       <c r="E152" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3314,10 +3206,10 @@
         <v>78</v>
       </c>
       <c r="D153" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E153" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3331,10 +3223,10 @@
         <v>79</v>
       </c>
       <c r="D154" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E154" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3348,10 +3240,10 @@
         <v>80</v>
       </c>
       <c r="D155" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E155" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3364,12 +3256,6 @@
       <c r="C156" t="s">
         <v>74</v>
       </c>
-      <c r="D156" t="s">
-        <v>81</v>
-      </c>
-      <c r="E156" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
@@ -3382,10 +3268,10 @@
         <v>75</v>
       </c>
       <c r="D157" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E157" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3399,10 +3285,10 @@
         <v>76</v>
       </c>
       <c r="D158" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E158" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3416,10 +3302,10 @@
         <v>77</v>
       </c>
       <c r="D159" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E159" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3433,10 +3319,10 @@
         <v>78</v>
       </c>
       <c r="D160" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E160" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3450,10 +3336,10 @@
         <v>79</v>
       </c>
       <c r="D161" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E161" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3467,10 +3353,10 @@
         <v>80</v>
       </c>
       <c r="D162" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E162" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3484,10 +3370,10 @@
         <v>74</v>
       </c>
       <c r="D163" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E163" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3501,10 +3387,10 @@
         <v>75</v>
       </c>
       <c r="D164" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E164" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3518,10 +3404,10 @@
         <v>76</v>
       </c>
       <c r="D165" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E165" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3535,10 +3421,10 @@
         <v>77</v>
       </c>
       <c r="D166" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E166" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3552,10 +3438,10 @@
         <v>78</v>
       </c>
       <c r="D167" t="s">
+        <v>83</v>
+      </c>
+      <c r="E167" t="s">
         <v>81</v>
-      </c>
-      <c r="E167" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3568,12 +3454,6 @@
       <c r="C168" t="s">
         <v>79</v>
       </c>
-      <c r="D168" t="s">
-        <v>86</v>
-      </c>
-      <c r="E168" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
@@ -3586,10 +3466,10 @@
         <v>80</v>
       </c>
       <c r="D169" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E169" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3602,12 +3482,6 @@
       <c r="C170" t="s">
         <v>74</v>
       </c>
-      <c r="D170" t="s">
-        <v>91</v>
-      </c>
-      <c r="E170" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
@@ -3620,10 +3494,10 @@
         <v>75</v>
       </c>
       <c r="D171" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E171" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3637,10 +3511,10 @@
         <v>76</v>
       </c>
       <c r="D172" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E172" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3654,10 +3528,10 @@
         <v>77</v>
       </c>
       <c r="D173" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E173" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3671,10 +3545,10 @@
         <v>78</v>
       </c>
       <c r="D174" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E174" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3691,7 +3565,7 @@
         <v>82</v>
       </c>
       <c r="E175" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3708,7 +3582,7 @@
         <v>82</v>
       </c>
       <c r="E176" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3721,12 +3595,6 @@
       <c r="C177" t="s">
         <v>74</v>
       </c>
-      <c r="D177" t="s">
-        <v>81</v>
-      </c>
-      <c r="E177" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
@@ -3739,10 +3607,10 @@
         <v>75</v>
       </c>
       <c r="D178" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E178" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3756,10 +3624,10 @@
         <v>76</v>
       </c>
       <c r="D179" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E179" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3773,10 +3641,10 @@
         <v>77</v>
       </c>
       <c r="D180" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E180" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3790,10 +3658,10 @@
         <v>78</v>
       </c>
       <c r="D181" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E181" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3807,10 +3675,10 @@
         <v>79</v>
       </c>
       <c r="D182" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E182" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3824,10 +3692,10 @@
         <v>80</v>
       </c>
       <c r="D183" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E183" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3840,12 +3708,6 @@
       <c r="C184" t="s">
         <v>74</v>
       </c>
-      <c r="D184" t="s">
-        <v>96</v>
-      </c>
-      <c r="E184" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
@@ -3858,10 +3720,10 @@
         <v>75</v>
       </c>
       <c r="D185" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E185" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3875,10 +3737,10 @@
         <v>76</v>
       </c>
       <c r="D186" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E186" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3891,6 +3753,12 @@
       <c r="C187" t="s">
         <v>77</v>
       </c>
+      <c r="D187" t="s">
+        <v>83</v>
+      </c>
+      <c r="E187" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
@@ -3906,7 +3774,7 @@
         <v>83</v>
       </c>
       <c r="E188" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3920,10 +3788,10 @@
         <v>79</v>
       </c>
       <c r="D189" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E189" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3937,10 +3805,10 @@
         <v>80</v>
       </c>
       <c r="D190" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E190" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3954,10 +3822,10 @@
         <v>74</v>
       </c>
       <c r="D191" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E191" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3970,12 +3838,6 @@
       <c r="C192" t="s">
         <v>75</v>
       </c>
-      <c r="D192" t="s">
-        <v>85</v>
-      </c>
-      <c r="E192" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
@@ -3988,10 +3850,10 @@
         <v>76</v>
       </c>
       <c r="D193" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E193" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4005,10 +3867,10 @@
         <v>77</v>
       </c>
       <c r="D194" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E194" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4021,6 +3883,12 @@
       <c r="C195" t="s">
         <v>78</v>
       </c>
+      <c r="D195" t="s">
+        <v>85</v>
+      </c>
+      <c r="E195" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
@@ -4033,10 +3901,10 @@
         <v>79</v>
       </c>
       <c r="D196" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E196" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4050,10 +3918,10 @@
         <v>80</v>
       </c>
       <c r="D197" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E197" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4066,6 +3934,12 @@
       <c r="C198" t="s">
         <v>74</v>
       </c>
+      <c r="D198" t="s">
+        <v>83</v>
+      </c>
+      <c r="E198" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
@@ -4078,10 +3952,10 @@
         <v>75</v>
       </c>
       <c r="D199" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E199" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4095,10 +3969,10 @@
         <v>76</v>
       </c>
       <c r="D200" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E200" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4112,10 +3986,10 @@
         <v>77</v>
       </c>
       <c r="D201" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E201" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4128,12 +4002,6 @@
       <c r="C202" t="s">
         <v>78</v>
       </c>
-      <c r="D202" t="s">
-        <v>81</v>
-      </c>
-      <c r="E202" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
@@ -4146,10 +4014,10 @@
         <v>79</v>
       </c>
       <c r="D203" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E203" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4163,10 +4031,10 @@
         <v>80</v>
       </c>
       <c r="D204" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E204" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4179,12 +4047,6 @@
       <c r="C205" t="s">
         <v>74</v>
       </c>
-      <c r="D205" t="s">
-        <v>81</v>
-      </c>
-      <c r="E205" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
@@ -4197,10 +4059,10 @@
         <v>75</v>
       </c>
       <c r="D206" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E206" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4217,7 +4079,7 @@
         <v>81</v>
       </c>
       <c r="E207" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4231,10 +4093,10 @@
         <v>77</v>
       </c>
       <c r="D208" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E208" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4248,10 +4110,10 @@
         <v>78</v>
       </c>
       <c r="D209" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E209" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4265,10 +4127,10 @@
         <v>79</v>
       </c>
       <c r="D210" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E210" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4282,10 +4144,10 @@
         <v>80</v>
       </c>
       <c r="D211" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E211" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4299,10 +4161,10 @@
         <v>74</v>
       </c>
       <c r="D212" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E212" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4316,10 +4178,10 @@
         <v>75</v>
       </c>
       <c r="D213" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E213" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4333,10 +4195,10 @@
         <v>76</v>
       </c>
       <c r="D214" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E214" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4350,10 +4212,10 @@
         <v>77</v>
       </c>
       <c r="D215" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E215" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4367,10 +4229,10 @@
         <v>78</v>
       </c>
       <c r="D216" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E216" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4383,12 +4245,6 @@
       <c r="C217" t="s">
         <v>79</v>
       </c>
-      <c r="D217" t="s">
-        <v>84</v>
-      </c>
-      <c r="E217" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
@@ -4401,10 +4257,10 @@
         <v>80</v>
       </c>
       <c r="D218" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E218" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4418,10 +4274,10 @@
         <v>74</v>
       </c>
       <c r="D219" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E219" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4435,10 +4291,10 @@
         <v>75</v>
       </c>
       <c r="D220" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E220" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4452,10 +4308,10 @@
         <v>76</v>
       </c>
       <c r="D221" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E221" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4469,10 +4325,10 @@
         <v>77</v>
       </c>
       <c r="D222" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="E222" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4486,10 +4342,10 @@
         <v>78</v>
       </c>
       <c r="D223" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E223" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4502,12 +4358,6 @@
       <c r="C224" t="s">
         <v>79</v>
       </c>
-      <c r="D224" t="s">
-        <v>81</v>
-      </c>
-      <c r="E224" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
@@ -4519,6 +4369,12 @@
       <c r="C225" t="s">
         <v>80</v>
       </c>
+      <c r="D225" t="s">
+        <v>83</v>
+      </c>
+      <c r="E225" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
@@ -4534,7 +4390,7 @@
         <v>81</v>
       </c>
       <c r="E226" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4548,10 +4404,10 @@
         <v>75</v>
       </c>
       <c r="D227" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E227" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4565,10 +4421,10 @@
         <v>76</v>
       </c>
       <c r="D228" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E228" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4582,10 +4438,10 @@
         <v>77</v>
       </c>
       <c r="D229" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E229" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4598,12 +4454,6 @@
       <c r="C230" t="s">
         <v>78</v>
       </c>
-      <c r="D230" t="s">
-        <v>81</v>
-      </c>
-      <c r="E230" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
@@ -4616,10 +4466,10 @@
         <v>79</v>
       </c>
       <c r="D231" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E231" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4633,10 +4483,10 @@
         <v>80</v>
       </c>
       <c r="D232" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E232" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4650,10 +4500,10 @@
         <v>74</v>
       </c>
       <c r="D233" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E233" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4667,10 +4517,10 @@
         <v>75</v>
       </c>
       <c r="D234" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E234" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4684,10 +4534,10 @@
         <v>76</v>
       </c>
       <c r="D235" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E235" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4701,10 +4551,10 @@
         <v>77</v>
       </c>
       <c r="D236" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E236" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4718,10 +4568,10 @@
         <v>78</v>
       </c>
       <c r="D237" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E237" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4735,10 +4585,10 @@
         <v>79</v>
       </c>
       <c r="D238" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E238" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4751,12 +4601,6 @@
       <c r="C239" t="s">
         <v>80</v>
       </c>
-      <c r="D239" t="s">
-        <v>82</v>
-      </c>
-      <c r="E239" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
@@ -4769,10 +4613,10 @@
         <v>74</v>
       </c>
       <c r="D240" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E240" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4786,10 +4630,10 @@
         <v>75</v>
       </c>
       <c r="D241" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E241" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4803,10 +4647,10 @@
         <v>76</v>
       </c>
       <c r="D242" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E242" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4820,10 +4664,10 @@
         <v>77</v>
       </c>
       <c r="D243" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E243" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4837,10 +4681,10 @@
         <v>78</v>
       </c>
       <c r="D244" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E244" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4853,12 +4697,6 @@
       <c r="C245" t="s">
         <v>79</v>
       </c>
-      <c r="D245" t="s">
-        <v>81</v>
-      </c>
-      <c r="E245" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" t="s">
@@ -4888,10 +4726,10 @@
         <v>74</v>
       </c>
       <c r="D247" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E247" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4905,10 +4743,10 @@
         <v>75</v>
       </c>
       <c r="D248" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E248" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4921,12 +4759,6 @@
       <c r="C249" t="s">
         <v>76</v>
       </c>
-      <c r="D249" t="s">
-        <v>89</v>
-      </c>
-      <c r="E249" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
@@ -4939,10 +4771,10 @@
         <v>77</v>
       </c>
       <c r="D250" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E250" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4959,7 +4791,7 @@
         <v>81</v>
       </c>
       <c r="E251" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4973,10 +4805,10 @@
         <v>79</v>
       </c>
       <c r="D252" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E252" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4990,10 +4822,10 @@
         <v>80</v>
       </c>
       <c r="D253" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E253" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5007,10 +4839,10 @@
         <v>74</v>
       </c>
       <c r="D254" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E254" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5024,10 +4856,10 @@
         <v>75</v>
       </c>
       <c r="D255" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E255" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5041,10 +4873,10 @@
         <v>76</v>
       </c>
       <c r="D256" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E256" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5058,10 +4890,10 @@
         <v>77</v>
       </c>
       <c r="D257" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E257" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5075,10 +4907,10 @@
         <v>78</v>
       </c>
       <c r="D258" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E258" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5103,10 +4935,10 @@
         <v>80</v>
       </c>
       <c r="D260" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E260" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5119,6 +4951,12 @@
       <c r="C261" t="s">
         <v>74</v>
       </c>
+      <c r="D261" t="s">
+        <v>93</v>
+      </c>
+      <c r="E261" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="s">
@@ -5131,10 +4969,10 @@
         <v>75</v>
       </c>
       <c r="D262" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E262" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5147,12 +4985,6 @@
       <c r="C263" t="s">
         <v>76</v>
       </c>
-      <c r="D263" t="s">
-        <v>98</v>
-      </c>
-      <c r="E263" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" t="s">
@@ -5165,10 +4997,10 @@
         <v>77</v>
       </c>
       <c r="D264" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E264" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -5182,10 +5014,10 @@
         <v>78</v>
       </c>
       <c r="D265" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E265" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -5199,10 +5031,10 @@
         <v>79</v>
       </c>
       <c r="D266" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E266" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -5216,10 +5048,10 @@
         <v>80</v>
       </c>
       <c r="D267" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E267" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5233,10 +5065,10 @@
         <v>74</v>
       </c>
       <c r="D268" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E268" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5250,10 +5082,10 @@
         <v>75</v>
       </c>
       <c r="D269" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E269" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5266,12 +5098,6 @@
       <c r="C270" t="s">
         <v>76</v>
       </c>
-      <c r="D270" t="s">
-        <v>81</v>
-      </c>
-      <c r="E270" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" t="s">
@@ -5284,10 +5110,10 @@
         <v>77</v>
       </c>
       <c r="D271" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E271" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5304,7 +5130,7 @@
         <v>83</v>
       </c>
       <c r="E272" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5318,10 +5144,10 @@
         <v>79</v>
       </c>
       <c r="D273" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E273" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5335,10 +5161,10 @@
         <v>80</v>
       </c>
       <c r="D274" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E274" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5355,7 +5181,7 @@
         <v>88</v>
       </c>
       <c r="E275" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5369,10 +5195,10 @@
         <v>75</v>
       </c>
       <c r="D276" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E276" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5386,10 +5212,10 @@
         <v>76</v>
       </c>
       <c r="D277" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E277" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5403,10 +5229,10 @@
         <v>77</v>
       </c>
       <c r="D278" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E278" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5420,10 +5246,10 @@
         <v>78</v>
       </c>
       <c r="D279" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E279" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5436,12 +5262,6 @@
       <c r="C280" t="s">
         <v>79</v>
       </c>
-      <c r="D280" t="s">
-        <v>84</v>
-      </c>
-      <c r="E280" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" t="s">
@@ -5454,10 +5274,10 @@
         <v>80</v>
       </c>
       <c r="D281" t="s">
+        <v>83</v>
+      </c>
+      <c r="E281" t="s">
         <v>81</v>
-      </c>
-      <c r="E281" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5471,10 +5291,10 @@
         <v>74</v>
       </c>
       <c r="D282" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E282" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5488,10 +5308,10 @@
         <v>75</v>
       </c>
       <c r="D283" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E283" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5504,12 +5324,6 @@
       <c r="C284" t="s">
         <v>76</v>
       </c>
-      <c r="D284" t="s">
-        <v>98</v>
-      </c>
-      <c r="E284" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" t="s">
@@ -5525,7 +5339,7 @@
         <v>81</v>
       </c>
       <c r="E285" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5539,10 +5353,10 @@
         <v>78</v>
       </c>
       <c r="D286" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E286" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5556,10 +5370,10 @@
         <v>79</v>
       </c>
       <c r="D287" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E287" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5573,10 +5387,10 @@
         <v>80</v>
       </c>
       <c r="D288" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E288" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5590,10 +5404,10 @@
         <v>74</v>
       </c>
       <c r="D289" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E289" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5607,10 +5421,10 @@
         <v>75</v>
       </c>
       <c r="D290" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E290" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5624,10 +5438,10 @@
         <v>76</v>
       </c>
       <c r="D291" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="E291" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5641,10 +5455,10 @@
         <v>77</v>
       </c>
       <c r="D292" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E292" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5658,10 +5472,10 @@
         <v>78</v>
       </c>
       <c r="D293" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E293" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5674,12 +5488,6 @@
       <c r="C294" t="s">
         <v>79</v>
       </c>
-      <c r="D294" t="s">
-        <v>81</v>
-      </c>
-      <c r="E294" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" t="s">
@@ -5691,6 +5499,12 @@
       <c r="C295" t="s">
         <v>80</v>
       </c>
+      <c r="D295" t="s">
+        <v>83</v>
+      </c>
+      <c r="E295" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" t="s">
@@ -5703,10 +5517,10 @@
         <v>74</v>
       </c>
       <c r="D296" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E296" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5720,10 +5534,10 @@
         <v>75</v>
       </c>
       <c r="D297" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E297" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5737,10 +5551,10 @@
         <v>76</v>
       </c>
       <c r="D298" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E298" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5754,10 +5568,10 @@
         <v>77</v>
       </c>
       <c r="D299" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E299" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5771,10 +5585,10 @@
         <v>78</v>
       </c>
       <c r="D300" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E300" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5788,10 +5602,10 @@
         <v>79</v>
       </c>
       <c r="D301" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E301" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5804,12 +5618,6 @@
       <c r="C302" t="s">
         <v>80</v>
       </c>
-      <c r="D302" t="s">
-        <v>82</v>
-      </c>
-      <c r="E302" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" t="s">
@@ -5822,10 +5630,10 @@
         <v>74</v>
       </c>
       <c r="D303" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E303" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5839,10 +5647,10 @@
         <v>75</v>
       </c>
       <c r="D304" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E304" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5856,10 +5664,10 @@
         <v>76</v>
       </c>
       <c r="D305" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E305" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5873,10 +5681,10 @@
         <v>77</v>
       </c>
       <c r="D306" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E306" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5890,10 +5698,10 @@
         <v>78</v>
       </c>
       <c r="D307" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E307" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5907,10 +5715,10 @@
         <v>79</v>
       </c>
       <c r="D308" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E308" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5935,10 +5743,10 @@
         <v>74</v>
       </c>
       <c r="D310" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E310" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5952,10 +5760,10 @@
         <v>75</v>
       </c>
       <c r="D311" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E311" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5969,10 +5777,10 @@
         <v>76</v>
       </c>
       <c r="D312" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E312" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5986,10 +5794,10 @@
         <v>77</v>
       </c>
       <c r="D313" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E313" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -6003,10 +5811,10 @@
         <v>78</v>
       </c>
       <c r="D314" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="E314" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -6020,10 +5828,10 @@
         <v>79</v>
       </c>
       <c r="D315" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E315" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -6036,12 +5844,6 @@
       <c r="C316" t="s">
         <v>80</v>
       </c>
-      <c r="D316" t="s">
-        <v>94</v>
-      </c>
-      <c r="E316" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="317" spans="1:5">
       <c r="A317" t="s">
@@ -6057,7 +5859,7 @@
         <v>81</v>
       </c>
       <c r="E317" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -6070,12 +5872,6 @@
       <c r="C318" t="s">
         <v>75</v>
       </c>
-      <c r="D318" t="s">
-        <v>81</v>
-      </c>
-      <c r="E318" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="319" spans="1:5">
       <c r="A319" t="s">
@@ -6088,10 +5884,10 @@
         <v>76</v>
       </c>
       <c r="D319" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E319" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -6105,10 +5901,10 @@
         <v>77</v>
       </c>
       <c r="D320" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E320" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -6122,10 +5918,10 @@
         <v>78</v>
       </c>
       <c r="D321" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E321" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -6139,10 +5935,10 @@
         <v>79</v>
       </c>
       <c r="D322" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E322" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -6159,7 +5955,7 @@
         <v>84</v>
       </c>
       <c r="E323" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -6173,10 +5969,10 @@
         <v>74</v>
       </c>
       <c r="D324" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E324" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -6190,10 +5986,10 @@
         <v>75</v>
       </c>
       <c r="D325" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E325" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -6207,10 +6003,10 @@
         <v>76</v>
       </c>
       <c r="D326" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E326" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6224,10 +6020,10 @@
         <v>77</v>
       </c>
       <c r="D327" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E327" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6241,10 +6037,10 @@
         <v>78</v>
       </c>
       <c r="D328" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E328" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6257,12 +6053,6 @@
       <c r="C329" t="s">
         <v>79</v>
       </c>
-      <c r="D329" t="s">
-        <v>81</v>
-      </c>
-      <c r="E329" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="330" spans="1:5">
       <c r="A330" t="s">
@@ -6275,10 +6065,10 @@
         <v>80</v>
       </c>
       <c r="D330" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E330" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6292,10 +6082,10 @@
         <v>74</v>
       </c>
       <c r="D331" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E331" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6309,10 +6099,10 @@
         <v>75</v>
       </c>
       <c r="D332" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E332" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6325,12 +6115,6 @@
       <c r="C333" t="s">
         <v>76</v>
       </c>
-      <c r="D333" t="s">
-        <v>81</v>
-      </c>
-      <c r="E333" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="334" spans="1:5">
       <c r="A334" t="s">
@@ -6342,6 +6126,12 @@
       <c r="C334" t="s">
         <v>77</v>
       </c>
+      <c r="D334" t="s">
+        <v>83</v>
+      </c>
+      <c r="E334" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="335" spans="1:5">
       <c r="A335" t="s">
@@ -6354,10 +6144,10 @@
         <v>78</v>
       </c>
       <c r="D335" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E335" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6371,10 +6161,10 @@
         <v>79</v>
       </c>
       <c r="D336" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E336" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6388,10 +6178,10 @@
         <v>80</v>
       </c>
       <c r="D337" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E337" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6405,10 +6195,10 @@
         <v>74</v>
       </c>
       <c r="D338" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E338" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6422,10 +6212,10 @@
         <v>75</v>
       </c>
       <c r="D339" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E339" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6439,10 +6229,10 @@
         <v>76</v>
       </c>
       <c r="D340" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E340" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6455,12 +6245,6 @@
       <c r="C341" t="s">
         <v>77</v>
       </c>
-      <c r="D341" t="s">
-        <v>81</v>
-      </c>
-      <c r="E341" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="342" spans="1:5">
       <c r="A342" t="s">
@@ -6473,7 +6257,7 @@
         <v>78</v>
       </c>
       <c r="D342" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E342" t="s">
         <v>101</v>
@@ -6490,10 +6274,10 @@
         <v>79</v>
       </c>
       <c r="D343" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E343" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6507,10 +6291,10 @@
         <v>80</v>
       </c>
       <c r="D344" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E344" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6524,10 +6308,10 @@
         <v>74</v>
       </c>
       <c r="D345" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E345" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6541,10 +6325,10 @@
         <v>75</v>
       </c>
       <c r="D346" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E346" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6558,10 +6342,10 @@
         <v>76</v>
       </c>
       <c r="D347" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E347" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6574,12 +6358,6 @@
       <c r="C348" t="s">
         <v>77</v>
       </c>
-      <c r="D348" t="s">
-        <v>81</v>
-      </c>
-      <c r="E348" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="349" spans="1:5">
       <c r="A349" t="s">
@@ -6592,7 +6370,7 @@
         <v>78</v>
       </c>
       <c r="D349" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E349" t="s">
         <v>99</v>
@@ -6609,10 +6387,10 @@
         <v>79</v>
       </c>
       <c r="D350" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E350" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6626,10 +6404,10 @@
         <v>80</v>
       </c>
       <c r="D351" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E351" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6643,10 +6421,10 @@
         <v>74</v>
       </c>
       <c r="D352" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E352" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6660,10 +6438,10 @@
         <v>75</v>
       </c>
       <c r="D353" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E353" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6677,10 +6455,10 @@
         <v>76</v>
       </c>
       <c r="D354" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E354" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6694,10 +6472,10 @@
         <v>77</v>
       </c>
       <c r="D355" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E355" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6711,10 +6489,10 @@
         <v>78</v>
       </c>
       <c r="D356" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E356" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6739,10 +6517,10 @@
         <v>80</v>
       </c>
       <c r="D358" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E358" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6756,10 +6534,10 @@
         <v>74</v>
       </c>
       <c r="D359" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E359" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6773,10 +6551,10 @@
         <v>75</v>
       </c>
       <c r="D360" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E360" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6789,12 +6567,6 @@
       <c r="C361" t="s">
         <v>76</v>
       </c>
-      <c r="D361" t="s">
-        <v>94</v>
-      </c>
-      <c r="E361" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" t="s">
@@ -6807,10 +6579,10 @@
         <v>77</v>
       </c>
       <c r="D362" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E362" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6824,10 +6596,10 @@
         <v>78</v>
       </c>
       <c r="D363" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E363" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6841,10 +6613,10 @@
         <v>79</v>
       </c>
       <c r="D364" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E364" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6858,10 +6630,10 @@
         <v>80</v>
       </c>
       <c r="D365" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E365" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6875,7 +6647,7 @@
         <v>74</v>
       </c>
       <c r="D366" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E366" t="s">
         <v>104</v>
@@ -6892,10 +6664,10 @@
         <v>75</v>
       </c>
       <c r="D367" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E367" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6908,12 +6680,6 @@
       <c r="C368" t="s">
         <v>76</v>
       </c>
-      <c r="D368" t="s">
-        <v>91</v>
-      </c>
-      <c r="E368" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="369" spans="1:5">
       <c r="A369" t="s">
@@ -6926,10 +6692,10 @@
         <v>77</v>
       </c>
       <c r="D369" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E369" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6943,10 +6709,10 @@
         <v>78</v>
       </c>
       <c r="D370" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E370" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6959,6 +6725,12 @@
       <c r="C371" t="s">
         <v>79</v>
       </c>
+      <c r="D371" t="s">
+        <v>83</v>
+      </c>
+      <c r="E371" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="372" spans="1:5">
       <c r="A372" t="s">
@@ -6971,10 +6743,10 @@
         <v>80</v>
       </c>
       <c r="D372" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E372" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6988,10 +6760,10 @@
         <v>74</v>
       </c>
       <c r="D373" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E373" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -7005,10 +6777,10 @@
         <v>75</v>
       </c>
       <c r="D374" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E374" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -7021,12 +6793,6 @@
       <c r="C375" t="s">
         <v>76</v>
       </c>
-      <c r="D375" t="s">
-        <v>94</v>
-      </c>
-      <c r="E375" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="376" spans="1:5">
       <c r="A376" t="s">
@@ -7039,10 +6805,10 @@
         <v>77</v>
       </c>
       <c r="D376" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E376" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -7059,7 +6825,7 @@
         <v>82</v>
       </c>
       <c r="E377" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -7073,10 +6839,10 @@
         <v>79</v>
       </c>
       <c r="D378" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E378" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -7090,10 +6856,10 @@
         <v>80</v>
       </c>
       <c r="D379" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E379" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -7107,10 +6873,10 @@
         <v>74</v>
       </c>
       <c r="D380" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E380" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -7123,6 +6889,12 @@
       <c r="C381" t="s">
         <v>75</v>
       </c>
+      <c r="D381" t="s">
+        <v>82</v>
+      </c>
+      <c r="E381" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="382" spans="1:5">
       <c r="A382" t="s">
@@ -7138,7 +6910,7 @@
         <v>83</v>
       </c>
       <c r="E382" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -7152,10 +6924,10 @@
         <v>77</v>
       </c>
       <c r="D383" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E383" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -7169,10 +6941,10 @@
         <v>78</v>
       </c>
       <c r="D384" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E384" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -7185,12 +6957,6 @@
       <c r="C385" t="s">
         <v>79</v>
       </c>
-      <c r="D385" t="s">
-        <v>81</v>
-      </c>
-      <c r="E385" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="386" spans="1:5">
       <c r="A386" t="s">
@@ -7203,10 +6969,10 @@
         <v>80</v>
       </c>
       <c r="D386" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E386" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -7220,10 +6986,10 @@
         <v>74</v>
       </c>
       <c r="D387" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E387" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -7237,10 +7003,10 @@
         <v>75</v>
       </c>
       <c r="D388" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E388" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -7254,10 +7020,10 @@
         <v>76</v>
       </c>
       <c r="D389" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E389" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -7271,10 +7037,10 @@
         <v>77</v>
       </c>
       <c r="D390" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E390" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -7288,10 +7054,10 @@
         <v>78</v>
       </c>
       <c r="D391" t="s">
+        <v>83</v>
+      </c>
+      <c r="E391" t="s">
         <v>81</v>
-      </c>
-      <c r="E391" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -7304,12 +7070,6 @@
       <c r="C392" t="s">
         <v>79</v>
       </c>
-      <c r="D392" t="s">
-        <v>81</v>
-      </c>
-      <c r="E392" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="393" spans="1:5">
       <c r="A393" t="s">
@@ -7322,10 +7082,10 @@
         <v>80</v>
       </c>
       <c r="D393" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E393" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -7339,10 +7099,10 @@
         <v>74</v>
       </c>
       <c r="D394" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E394" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -7355,6 +7115,12 @@
       <c r="C395" t="s">
         <v>75</v>
       </c>
+      <c r="D395" t="s">
+        <v>97</v>
+      </c>
+      <c r="E395" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="396" spans="1:5">
       <c r="A396" t="s">
@@ -7366,12 +7132,6 @@
       <c r="C396" t="s">
         <v>76</v>
       </c>
-      <c r="D396" t="s">
-        <v>81</v>
-      </c>
-      <c r="E396" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="397" spans="1:5">
       <c r="A397" t="s">
@@ -7384,10 +7144,10 @@
         <v>77</v>
       </c>
       <c r="D397" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E397" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -7404,7 +7164,7 @@
         <v>83</v>
       </c>
       <c r="E398" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -7418,10 +7178,10 @@
         <v>79</v>
       </c>
       <c r="D399" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E399" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -7438,7 +7198,7 @@
         <v>81</v>
       </c>
       <c r="E400" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7452,10 +7212,10 @@
         <v>74</v>
       </c>
       <c r="D401" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E401" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -7469,10 +7229,10 @@
         <v>75</v>
       </c>
       <c r="D402" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E402" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -7485,12 +7245,6 @@
       <c r="C403" t="s">
         <v>76</v>
       </c>
-      <c r="D403" t="s">
-        <v>95</v>
-      </c>
-      <c r="E403" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="404" spans="1:5">
       <c r="A404" t="s">
@@ -7503,10 +7257,10 @@
         <v>77</v>
       </c>
       <c r="D404" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E404" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -7520,10 +7274,10 @@
         <v>78</v>
       </c>
       <c r="D405" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E405" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -7537,10 +7291,10 @@
         <v>79</v>
       </c>
       <c r="D406" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E406" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -7554,10 +7308,10 @@
         <v>80</v>
       </c>
       <c r="D407" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E407" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -7571,10 +7325,10 @@
         <v>74</v>
       </c>
       <c r="D408" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E408" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -7587,12 +7341,6 @@
       <c r="C409" t="s">
         <v>75</v>
       </c>
-      <c r="D409" t="s">
-        <v>91</v>
-      </c>
-      <c r="E409" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="410" spans="1:5">
       <c r="A410" t="s">
@@ -7605,10 +7353,10 @@
         <v>76</v>
       </c>
       <c r="D410" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E410" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -7622,10 +7370,10 @@
         <v>77</v>
       </c>
       <c r="D411" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E411" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -7639,10 +7387,10 @@
         <v>78</v>
       </c>
       <c r="D412" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E412" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -7656,10 +7404,10 @@
         <v>79</v>
       </c>
       <c r="D413" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E413" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -7673,10 +7421,10 @@
         <v>80</v>
       </c>
       <c r="D414" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E414" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -7690,10 +7438,10 @@
         <v>74</v>
       </c>
       <c r="D415" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E415" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -7707,10 +7455,10 @@
         <v>75</v>
       </c>
       <c r="D416" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E416" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -7724,10 +7472,10 @@
         <v>76</v>
       </c>
       <c r="D417" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E417" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -7741,10 +7489,10 @@
         <v>77</v>
       </c>
       <c r="D418" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E418" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -7757,12 +7505,6 @@
       <c r="C419" t="s">
         <v>78</v>
       </c>
-      <c r="D419" t="s">
-        <v>81</v>
-      </c>
-      <c r="E419" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="420" spans="1:5">
       <c r="A420" t="s">
@@ -7775,10 +7517,10 @@
         <v>79</v>
       </c>
       <c r="D420" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E420" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -7791,6 +7533,12 @@
       <c r="C421" t="s">
         <v>80</v>
       </c>
+      <c r="D421" t="s">
+        <v>83</v>
+      </c>
+      <c r="E421" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="422" spans="1:5">
       <c r="A422" t="s">
@@ -7803,10 +7551,10 @@
         <v>74</v>
       </c>
       <c r="D422" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E422" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -7823,7 +7571,7 @@
         <v>96</v>
       </c>
       <c r="E423" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -7837,10 +7585,10 @@
         <v>76</v>
       </c>
       <c r="D424" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E424" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -7854,10 +7602,10 @@
         <v>77</v>
       </c>
       <c r="D425" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E425" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -7871,10 +7619,10 @@
         <v>78</v>
       </c>
       <c r="D426" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E426" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -7887,12 +7635,6 @@
       <c r="C427" t="s">
         <v>79</v>
       </c>
-      <c r="D427" t="s">
-        <v>88</v>
-      </c>
-      <c r="E427" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="428" spans="1:5">
       <c r="A428" t="s">
@@ -7905,10 +7647,10 @@
         <v>80</v>
       </c>
       <c r="D428" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E428" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -7925,7 +7667,7 @@
         <v>83</v>
       </c>
       <c r="E429" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -7939,10 +7681,10 @@
         <v>75</v>
       </c>
       <c r="D430" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="E430" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -7956,10 +7698,10 @@
         <v>76</v>
       </c>
       <c r="D431" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E431" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -7973,10 +7715,10 @@
         <v>77</v>
       </c>
       <c r="D432" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E432" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -7990,7 +7732,7 @@
         <v>78</v>
       </c>
       <c r="D433" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E433" t="s">
         <v>101</v>
@@ -8007,10 +7749,10 @@
         <v>79</v>
       </c>
       <c r="D434" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E434" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -8022,12 +7764,6 @@
       </c>
       <c r="C435" t="s">
         <v>80</v>
-      </c>
-      <c r="D435" t="s">
-        <v>84</v>
-      </c>
-      <c r="E435" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Solution.xlsx
+++ b/Solution.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2119" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2119" uniqueCount="112">
   <si>
     <t>Employee</t>
   </si>
@@ -260,82 +260,79 @@
     <t>Sunday</t>
   </si>
   <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>14:30</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>11:30</t>
+  </si>
+  <si>
+    <t>12:30</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>09:30</t>
+  </si>
+  <si>
+    <t>10:30</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
     <t>15:30</t>
   </si>
   <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>14:30</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>11:30</t>
-  </si>
-  <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>10:30</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>16:30</t>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>19:30</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>20:30</t>
   </si>
   <si>
     <t>17:30</t>
   </si>
   <si>
-    <t>12:30</t>
-  </si>
-  <si>
-    <t>16:00</t>
-  </si>
-  <si>
-    <t>09:30</t>
-  </si>
-  <si>
-    <t>15:00</t>
-  </si>
-  <si>
-    <t>17:00</t>
-  </si>
-  <si>
-    <t>21:00</t>
-  </si>
-  <si>
-    <t>21:30</t>
-  </si>
-  <si>
-    <t>18:00</t>
-  </si>
-  <si>
-    <t>19:30</t>
-  </si>
-  <si>
     <t>18:30</t>
-  </si>
-  <si>
-    <t>20:00</t>
-  </si>
-  <si>
-    <t>19:00</t>
-  </si>
-  <si>
-    <t>20:30</t>
   </si>
   <si>
     <t>min_hours_per_week</t>
@@ -774,7 +771,7 @@
         <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -787,12 +784,6 @@
       <c r="C3" t="s">
         <v>75</v>
       </c>
-      <c r="D3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
@@ -804,6 +795,12 @@
       <c r="C4" t="s">
         <v>76</v>
       </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
@@ -816,10 +813,10 @@
         <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -833,10 +830,10 @@
         <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -850,7 +847,7 @@
         <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
         <v>98</v>
@@ -870,7 +867,7 @@
         <v>83</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -884,10 +881,10 @@
         <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -901,10 +898,10 @@
         <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -918,10 +915,10 @@
         <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -935,10 +932,10 @@
         <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -955,7 +952,7 @@
         <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -980,10 +977,10 @@
         <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -997,10 +994,10 @@
         <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1025,10 +1022,10 @@
         <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1042,10 +1039,10 @@
         <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1059,10 +1056,10 @@
         <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1076,7 +1073,7 @@
         <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
         <v>100</v>
@@ -1093,10 +1090,10 @@
         <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1110,10 +1107,10 @@
         <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1127,10 +1124,10 @@
         <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1144,10 +1141,10 @@
         <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1161,10 +1158,10 @@
         <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E26" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1178,10 +1175,10 @@
         <v>78</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1194,12 +1191,6 @@
       <c r="C28" t="s">
         <v>79</v>
       </c>
-      <c r="D28" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
@@ -1211,6 +1202,12 @@
       <c r="C29" t="s">
         <v>80</v>
       </c>
+      <c r="D29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
@@ -1223,10 +1220,10 @@
         <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1240,10 +1237,10 @@
         <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1257,10 +1254,10 @@
         <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1274,10 +1271,10 @@
         <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1290,12 +1287,6 @@
       <c r="C34" t="s">
         <v>78</v>
       </c>
-      <c r="D34" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
@@ -1307,6 +1298,12 @@
       <c r="C35" t="s">
         <v>79</v>
       </c>
+      <c r="D35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
@@ -1319,10 +1316,10 @@
         <v>80</v>
       </c>
       <c r="D36" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1336,10 +1333,10 @@
         <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1352,12 +1349,6 @@
       <c r="C38" t="s">
         <v>75</v>
       </c>
-      <c r="D38" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
@@ -1370,10 +1361,10 @@
         <v>76</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E39" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1386,6 +1377,12 @@
       <c r="C40" t="s">
         <v>77</v>
       </c>
+      <c r="D40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
@@ -1398,7 +1395,7 @@
         <v>78</v>
       </c>
       <c r="D41" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E41" t="s">
         <v>98</v>
@@ -1415,10 +1412,10 @@
         <v>79</v>
       </c>
       <c r="D42" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1432,10 +1429,10 @@
         <v>80</v>
       </c>
       <c r="D43" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E43" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1449,10 +1446,10 @@
         <v>74</v>
       </c>
       <c r="D44" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E44" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1466,10 +1463,10 @@
         <v>75</v>
       </c>
       <c r="D45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E45" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1483,10 +1480,10 @@
         <v>76</v>
       </c>
       <c r="D46" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E46" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1500,10 +1497,10 @@
         <v>77</v>
       </c>
       <c r="D47" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E47" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1516,12 +1513,6 @@
       <c r="C48" t="s">
         <v>78</v>
       </c>
-      <c r="D48" t="s">
-        <v>83</v>
-      </c>
-      <c r="E48" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
@@ -1533,6 +1524,12 @@
       <c r="C49" t="s">
         <v>79</v>
       </c>
+      <c r="D49" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
@@ -1545,10 +1542,10 @@
         <v>80</v>
       </c>
       <c r="D50" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E50" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1562,10 +1559,10 @@
         <v>74</v>
       </c>
       <c r="D51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E51" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1579,10 +1576,10 @@
         <v>75</v>
       </c>
       <c r="D52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E52" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1596,10 +1593,10 @@
         <v>76</v>
       </c>
       <c r="D53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E53" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1613,10 +1610,10 @@
         <v>77</v>
       </c>
       <c r="D54" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E54" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1629,12 +1626,6 @@
       <c r="C55" t="s">
         <v>78</v>
       </c>
-      <c r="D55" t="s">
-        <v>84</v>
-      </c>
-      <c r="E55" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
@@ -1647,10 +1638,10 @@
         <v>79</v>
       </c>
       <c r="D56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E56" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1663,6 +1654,12 @@
       <c r="C57" t="s">
         <v>80</v>
       </c>
+      <c r="D57" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
@@ -1675,10 +1672,10 @@
         <v>74</v>
       </c>
       <c r="D58" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E58" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1692,10 +1689,10 @@
         <v>75</v>
       </c>
       <c r="D59" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E59" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1708,12 +1705,6 @@
       <c r="C60" t="s">
         <v>76</v>
       </c>
-      <c r="D60" t="s">
-        <v>88</v>
-      </c>
-      <c r="E60" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
@@ -1725,6 +1716,12 @@
       <c r="C61" t="s">
         <v>77</v>
       </c>
+      <c r="D61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
@@ -1737,10 +1734,10 @@
         <v>78</v>
       </c>
       <c r="D62" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1754,10 +1751,10 @@
         <v>79</v>
       </c>
       <c r="D63" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E63" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1771,10 +1768,10 @@
         <v>80</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E64" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1788,10 +1785,10 @@
         <v>74</v>
       </c>
       <c r="D65" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E65" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1805,10 +1802,10 @@
         <v>75</v>
       </c>
       <c r="D66" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E66" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1833,10 +1830,10 @@
         <v>77</v>
       </c>
       <c r="D68" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E68" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1850,10 +1847,10 @@
         <v>78</v>
       </c>
       <c r="D69" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E69" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1867,10 +1864,10 @@
         <v>79</v>
       </c>
       <c r="D70" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E70" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1884,10 +1881,10 @@
         <v>80</v>
       </c>
       <c r="D71" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E71" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1901,10 +1898,10 @@
         <v>74</v>
       </c>
       <c r="D72" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E72" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1918,10 +1915,10 @@
         <v>75</v>
       </c>
       <c r="D73" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E73" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1935,10 +1932,10 @@
         <v>76</v>
       </c>
       <c r="D74" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E74" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1952,10 +1949,10 @@
         <v>77</v>
       </c>
       <c r="D75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E75" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1968,12 +1965,6 @@
       <c r="C76" t="s">
         <v>78</v>
       </c>
-      <c r="D76" t="s">
-        <v>82</v>
-      </c>
-      <c r="E76" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
@@ -1986,10 +1977,10 @@
         <v>79</v>
       </c>
       <c r="D77" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E77" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2002,6 +1993,12 @@
       <c r="C78" t="s">
         <v>80</v>
       </c>
+      <c r="D78" t="s">
+        <v>81</v>
+      </c>
+      <c r="E78" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
@@ -2025,10 +2022,10 @@
         <v>75</v>
       </c>
       <c r="D80" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E80" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2042,7 +2039,7 @@
         <v>76</v>
       </c>
       <c r="D81" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E81" t="s">
         <v>99</v>
@@ -2059,7 +2056,7 @@
         <v>77</v>
       </c>
       <c r="D82" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E82" t="s">
         <v>99</v>
@@ -2076,10 +2073,10 @@
         <v>78</v>
       </c>
       <c r="D83" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E83" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2093,10 +2090,10 @@
         <v>79</v>
       </c>
       <c r="D84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E84" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2110,10 +2107,10 @@
         <v>80</v>
       </c>
       <c r="D85" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E85" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2127,10 +2124,10 @@
         <v>74</v>
       </c>
       <c r="D86" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E86" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2144,10 +2141,10 @@
         <v>75</v>
       </c>
       <c r="D87" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E87" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2161,10 +2158,10 @@
         <v>76</v>
       </c>
       <c r="D88" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E88" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2177,12 +2174,6 @@
       <c r="C89" t="s">
         <v>77</v>
       </c>
-      <c r="D89" t="s">
-        <v>83</v>
-      </c>
-      <c r="E89" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
@@ -2194,6 +2185,12 @@
       <c r="C90" t="s">
         <v>78</v>
       </c>
+      <c r="D90" t="s">
+        <v>81</v>
+      </c>
+      <c r="E90" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
@@ -2206,10 +2203,10 @@
         <v>79</v>
       </c>
       <c r="D91" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E91" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2223,10 +2220,10 @@
         <v>80</v>
       </c>
       <c r="D92" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E92" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2240,10 +2237,10 @@
         <v>74</v>
       </c>
       <c r="D93" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E93" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2268,10 +2265,10 @@
         <v>76</v>
       </c>
       <c r="D95" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E95" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2285,10 +2282,10 @@
         <v>77</v>
       </c>
       <c r="D96" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E96" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2302,10 +2299,10 @@
         <v>78</v>
       </c>
       <c r="D97" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E97" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2319,10 +2316,10 @@
         <v>79</v>
       </c>
       <c r="D98" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E98" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2336,7 +2333,7 @@
         <v>80</v>
       </c>
       <c r="D99" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E99" t="s">
         <v>98</v>
@@ -2353,10 +2350,10 @@
         <v>74</v>
       </c>
       <c r="D100" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E100" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2370,10 +2367,10 @@
         <v>75</v>
       </c>
       <c r="D101" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E101" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2386,12 +2383,6 @@
       <c r="C102" t="s">
         <v>76</v>
       </c>
-      <c r="D102" t="s">
-        <v>83</v>
-      </c>
-      <c r="E102" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
@@ -2404,10 +2395,10 @@
         <v>77</v>
       </c>
       <c r="D103" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E103" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2420,6 +2411,12 @@
       <c r="C104" t="s">
         <v>78</v>
       </c>
+      <c r="D104" t="s">
+        <v>86</v>
+      </c>
+      <c r="E104" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
@@ -2432,10 +2429,10 @@
         <v>79</v>
       </c>
       <c r="D105" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E105" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2449,10 +2446,10 @@
         <v>80</v>
       </c>
       <c r="D106" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E106" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2477,10 +2474,10 @@
         <v>75</v>
       </c>
       <c r="D108" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E108" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2494,7 +2491,7 @@
         <v>76</v>
       </c>
       <c r="D109" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E109" t="s">
         <v>100</v>
@@ -2511,7 +2508,7 @@
         <v>77</v>
       </c>
       <c r="D110" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E110" t="s">
         <v>98</v>
@@ -2528,10 +2525,10 @@
         <v>78</v>
       </c>
       <c r="D111" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E111" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2545,10 +2542,10 @@
         <v>79</v>
       </c>
       <c r="D112" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E112" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2562,10 +2559,10 @@
         <v>80</v>
       </c>
       <c r="D113" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E113" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2579,10 +2576,10 @@
         <v>74</v>
       </c>
       <c r="D114" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E114" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2596,10 +2593,10 @@
         <v>75</v>
       </c>
       <c r="D115" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E115" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2613,10 +2610,10 @@
         <v>76</v>
       </c>
       <c r="D116" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E116" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2630,10 +2627,10 @@
         <v>77</v>
       </c>
       <c r="D117" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E117" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2647,10 +2644,10 @@
         <v>78</v>
       </c>
       <c r="D118" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E118" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2675,10 +2672,10 @@
         <v>80</v>
       </c>
       <c r="D120" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E120" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2703,10 +2700,10 @@
         <v>75</v>
       </c>
       <c r="D122" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E122" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2720,10 +2717,10 @@
         <v>76</v>
       </c>
       <c r="D123" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E123" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2737,10 +2734,10 @@
         <v>77</v>
       </c>
       <c r="D124" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E124" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2754,10 +2751,10 @@
         <v>78</v>
       </c>
       <c r="D125" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E125" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2771,10 +2768,10 @@
         <v>79</v>
       </c>
       <c r="D126" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E126" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2788,10 +2785,10 @@
         <v>80</v>
       </c>
       <c r="D127" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E127" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2805,10 +2802,10 @@
         <v>74</v>
       </c>
       <c r="D128" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E128" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2822,10 +2819,10 @@
         <v>75</v>
       </c>
       <c r="D129" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E129" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2839,10 +2836,10 @@
         <v>76</v>
       </c>
       <c r="D130" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E130" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2856,10 +2853,10 @@
         <v>77</v>
       </c>
       <c r="D131" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E131" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2872,12 +2869,6 @@
       <c r="C132" t="s">
         <v>78</v>
       </c>
-      <c r="D132" t="s">
-        <v>88</v>
-      </c>
-      <c r="E132" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
@@ -2890,10 +2881,10 @@
         <v>79</v>
       </c>
       <c r="D133" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E133" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2906,6 +2897,12 @@
       <c r="C134" t="s">
         <v>80</v>
       </c>
+      <c r="D134" t="s">
+        <v>94</v>
+      </c>
+      <c r="E134" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
@@ -2917,12 +2914,6 @@
       <c r="C135" t="s">
         <v>74</v>
       </c>
-      <c r="D135" t="s">
-        <v>82</v>
-      </c>
-      <c r="E135" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
@@ -2935,10 +2926,10 @@
         <v>75</v>
       </c>
       <c r="D136" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E136" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2951,6 +2942,12 @@
       <c r="C137" t="s">
         <v>76</v>
       </c>
+      <c r="D137" t="s">
+        <v>81</v>
+      </c>
+      <c r="E137" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
@@ -2963,10 +2960,10 @@
         <v>77</v>
       </c>
       <c r="D138" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E138" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2980,10 +2977,10 @@
         <v>78</v>
       </c>
       <c r="D139" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E139" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2997,10 +2994,10 @@
         <v>79</v>
       </c>
       <c r="D140" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E140" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3014,10 +3011,10 @@
         <v>80</v>
       </c>
       <c r="D141" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E141" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3031,10 +3028,10 @@
         <v>74</v>
       </c>
       <c r="D142" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E142" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3048,10 +3045,10 @@
         <v>75</v>
       </c>
       <c r="D143" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E143" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3065,10 +3062,10 @@
         <v>76</v>
       </c>
       <c r="D144" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="E144" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3082,10 +3079,10 @@
         <v>77</v>
       </c>
       <c r="D145" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E145" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3110,10 +3107,10 @@
         <v>79</v>
       </c>
       <c r="D147" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E147" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3127,10 +3124,10 @@
         <v>80</v>
       </c>
       <c r="D148" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E148" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3144,10 +3141,10 @@
         <v>74</v>
       </c>
       <c r="D149" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E149" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3160,12 +3157,6 @@
       <c r="C150" t="s">
         <v>75</v>
       </c>
-      <c r="D150" t="s">
-        <v>84</v>
-      </c>
-      <c r="E150" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
@@ -3177,6 +3168,12 @@
       <c r="C151" t="s">
         <v>76</v>
       </c>
+      <c r="D151" t="s">
+        <v>90</v>
+      </c>
+      <c r="E151" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
@@ -3189,10 +3186,10 @@
         <v>77</v>
       </c>
       <c r="D152" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E152" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3206,10 +3203,10 @@
         <v>78</v>
       </c>
       <c r="D153" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E153" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3223,10 +3220,10 @@
         <v>79</v>
       </c>
       <c r="D154" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E154" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3240,10 +3237,10 @@
         <v>80</v>
       </c>
       <c r="D155" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E155" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3268,10 +3265,10 @@
         <v>75</v>
       </c>
       <c r="D157" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E157" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3285,10 +3282,10 @@
         <v>76</v>
       </c>
       <c r="D158" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E158" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3302,10 +3299,10 @@
         <v>77</v>
       </c>
       <c r="D159" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E159" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3319,10 +3316,10 @@
         <v>78</v>
       </c>
       <c r="D160" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E160" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3336,10 +3333,10 @@
         <v>79</v>
       </c>
       <c r="D161" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E161" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3353,10 +3350,10 @@
         <v>80</v>
       </c>
       <c r="D162" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E162" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3370,10 +3367,10 @@
         <v>74</v>
       </c>
       <c r="D163" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E163" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3387,10 +3384,10 @@
         <v>75</v>
       </c>
       <c r="D164" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E164" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3403,12 +3400,6 @@
       <c r="C165" t="s">
         <v>76</v>
       </c>
-      <c r="D165" t="s">
-        <v>87</v>
-      </c>
-      <c r="E165" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
@@ -3421,10 +3412,10 @@
         <v>77</v>
       </c>
       <c r="D166" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E166" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3438,10 +3429,10 @@
         <v>78</v>
       </c>
       <c r="D167" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E167" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3454,6 +3445,12 @@
       <c r="C168" t="s">
         <v>79</v>
       </c>
+      <c r="D168" t="s">
+        <v>86</v>
+      </c>
+      <c r="E168" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
@@ -3466,7 +3463,7 @@
         <v>80</v>
       </c>
       <c r="D169" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E169" t="s">
         <v>100</v>
@@ -3494,10 +3491,10 @@
         <v>75</v>
       </c>
       <c r="D171" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E171" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3511,10 +3508,10 @@
         <v>76</v>
       </c>
       <c r="D172" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E172" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3531,7 +3528,7 @@
         <v>83</v>
       </c>
       <c r="E173" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3545,7 +3542,7 @@
         <v>78</v>
       </c>
       <c r="D174" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E174" t="s">
         <v>99</v>
@@ -3562,10 +3559,10 @@
         <v>79</v>
       </c>
       <c r="D175" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E175" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3579,10 +3576,10 @@
         <v>80</v>
       </c>
       <c r="D176" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E176" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3607,10 +3604,10 @@
         <v>75</v>
       </c>
       <c r="D178" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E178" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3624,10 +3621,10 @@
         <v>76</v>
       </c>
       <c r="D179" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E179" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3641,10 +3638,10 @@
         <v>77</v>
       </c>
       <c r="D180" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E180" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3658,10 +3655,10 @@
         <v>78</v>
       </c>
       <c r="D181" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E181" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3675,10 +3672,10 @@
         <v>79</v>
       </c>
       <c r="D182" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E182" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3692,10 +3689,10 @@
         <v>80</v>
       </c>
       <c r="D183" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E183" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3720,10 +3717,10 @@
         <v>75</v>
       </c>
       <c r="D185" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="E185" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3737,10 +3734,10 @@
         <v>76</v>
       </c>
       <c r="D186" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E186" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3754,10 +3751,10 @@
         <v>77</v>
       </c>
       <c r="D187" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E187" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3771,10 +3768,10 @@
         <v>78</v>
       </c>
       <c r="D188" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E188" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3788,10 +3785,10 @@
         <v>79</v>
       </c>
       <c r="D189" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E189" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3805,10 +3802,10 @@
         <v>80</v>
       </c>
       <c r="D190" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E190" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3822,10 +3819,10 @@
         <v>74</v>
       </c>
       <c r="D191" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E191" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3850,7 +3847,7 @@
         <v>76</v>
       </c>
       <c r="D193" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E193" t="s">
         <v>100</v>
@@ -3867,10 +3864,10 @@
         <v>77</v>
       </c>
       <c r="D194" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E194" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3884,10 +3881,10 @@
         <v>78</v>
       </c>
       <c r="D195" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E195" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3901,10 +3898,10 @@
         <v>79</v>
       </c>
       <c r="D196" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E196" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3918,10 +3915,10 @@
         <v>80</v>
       </c>
       <c r="D197" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E197" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3935,10 +3932,10 @@
         <v>74</v>
       </c>
       <c r="D198" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E198" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3952,10 +3949,10 @@
         <v>75</v>
       </c>
       <c r="D199" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E199" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3969,10 +3966,10 @@
         <v>76</v>
       </c>
       <c r="D200" t="s">
+        <v>81</v>
+      </c>
+      <c r="E200" t="s">
         <v>95</v>
-      </c>
-      <c r="E200" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3989,7 +3986,7 @@
         <v>83</v>
       </c>
       <c r="E201" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4014,10 +4011,10 @@
         <v>79</v>
       </c>
       <c r="D203" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E203" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4031,10 +4028,10 @@
         <v>80</v>
       </c>
       <c r="D204" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E204" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4059,10 +4056,10 @@
         <v>75</v>
       </c>
       <c r="D206" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E206" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4076,10 +4073,10 @@
         <v>76</v>
       </c>
       <c r="D207" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E207" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4093,10 +4090,10 @@
         <v>77</v>
       </c>
       <c r="D208" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E208" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4110,10 +4107,10 @@
         <v>78</v>
       </c>
       <c r="D209" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E209" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4127,10 +4124,10 @@
         <v>79</v>
       </c>
       <c r="D210" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E210" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4144,10 +4141,10 @@
         <v>80</v>
       </c>
       <c r="D211" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E211" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4161,10 +4158,10 @@
         <v>74</v>
       </c>
       <c r="D212" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E212" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4181,7 +4178,7 @@
         <v>87</v>
       </c>
       <c r="E213" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4194,12 +4191,6 @@
       <c r="C214" t="s">
         <v>76</v>
       </c>
-      <c r="D214" t="s">
-        <v>97</v>
-      </c>
-      <c r="E214" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
@@ -4212,10 +4203,10 @@
         <v>77</v>
       </c>
       <c r="D215" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E215" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4229,10 +4220,10 @@
         <v>78</v>
       </c>
       <c r="D216" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E216" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4245,6 +4236,12 @@
       <c r="C217" t="s">
         <v>79</v>
       </c>
+      <c r="D217" t="s">
+        <v>81</v>
+      </c>
+      <c r="E217" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
@@ -4257,10 +4254,10 @@
         <v>80</v>
       </c>
       <c r="D218" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E218" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4274,10 +4271,10 @@
         <v>74</v>
       </c>
       <c r="D219" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E219" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4290,12 +4287,6 @@
       <c r="C220" t="s">
         <v>75</v>
       </c>
-      <c r="D220" t="s">
-        <v>86</v>
-      </c>
-      <c r="E220" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
@@ -4308,10 +4299,10 @@
         <v>76</v>
       </c>
       <c r="D221" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E221" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4325,10 +4316,10 @@
         <v>77</v>
       </c>
       <c r="D222" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E222" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4342,10 +4333,10 @@
         <v>78</v>
       </c>
       <c r="D223" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E223" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4358,6 +4349,12 @@
       <c r="C224" t="s">
         <v>79</v>
       </c>
+      <c r="D224" t="s">
+        <v>83</v>
+      </c>
+      <c r="E224" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
@@ -4370,10 +4367,10 @@
         <v>80</v>
       </c>
       <c r="D225" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E225" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4390,7 +4387,7 @@
         <v>81</v>
       </c>
       <c r="E226" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4404,10 +4401,10 @@
         <v>75</v>
       </c>
       <c r="D227" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E227" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4421,10 +4418,10 @@
         <v>76</v>
       </c>
       <c r="D228" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E228" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4438,7 +4435,7 @@
         <v>77</v>
       </c>
       <c r="D229" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E229" t="s">
         <v>100</v>
@@ -4466,10 +4463,10 @@
         <v>79</v>
       </c>
       <c r="D231" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E231" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4483,10 +4480,10 @@
         <v>80</v>
       </c>
       <c r="D232" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E232" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4500,10 +4497,10 @@
         <v>74</v>
       </c>
       <c r="D233" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E233" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4517,10 +4514,10 @@
         <v>75</v>
       </c>
       <c r="D234" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E234" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4534,10 +4531,10 @@
         <v>76</v>
       </c>
       <c r="D235" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E235" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4551,10 +4548,10 @@
         <v>77</v>
       </c>
       <c r="D236" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E236" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4567,12 +4564,6 @@
       <c r="C237" t="s">
         <v>78</v>
       </c>
-      <c r="D237" t="s">
-        <v>83</v>
-      </c>
-      <c r="E237" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
@@ -4585,7 +4576,7 @@
         <v>79</v>
       </c>
       <c r="D238" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E238" t="s">
         <v>100</v>
@@ -4601,6 +4592,12 @@
       <c r="C239" t="s">
         <v>80</v>
       </c>
+      <c r="D239" t="s">
+        <v>84</v>
+      </c>
+      <c r="E239" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
@@ -4613,10 +4610,10 @@
         <v>74</v>
       </c>
       <c r="D240" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E240" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4630,10 +4627,10 @@
         <v>75</v>
       </c>
       <c r="D241" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E241" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4647,10 +4644,10 @@
         <v>76</v>
       </c>
       <c r="D242" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E242" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4664,10 +4661,10 @@
         <v>77</v>
       </c>
       <c r="D243" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E243" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4681,10 +4678,10 @@
         <v>78</v>
       </c>
       <c r="D244" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E244" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4709,10 +4706,10 @@
         <v>80</v>
       </c>
       <c r="D246" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E246" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4726,10 +4723,10 @@
         <v>74</v>
       </c>
       <c r="D247" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E247" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4743,7 +4740,7 @@
         <v>75</v>
       </c>
       <c r="D248" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E248" t="s">
         <v>98</v>
@@ -4771,10 +4768,10 @@
         <v>77</v>
       </c>
       <c r="D250" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E250" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4791,7 +4788,7 @@
         <v>81</v>
       </c>
       <c r="E251" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4805,10 +4802,10 @@
         <v>79</v>
       </c>
       <c r="D252" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E252" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4822,10 +4819,10 @@
         <v>80</v>
       </c>
       <c r="D253" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E253" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4839,10 +4836,10 @@
         <v>74</v>
       </c>
       <c r="D254" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E254" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4856,10 +4853,10 @@
         <v>75</v>
       </c>
       <c r="D255" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E255" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4872,12 +4869,6 @@
       <c r="C256" t="s">
         <v>76</v>
       </c>
-      <c r="D256" t="s">
-        <v>91</v>
-      </c>
-      <c r="E256" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="s">
@@ -4890,10 +4881,10 @@
         <v>77</v>
       </c>
       <c r="D257" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E257" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4907,10 +4898,10 @@
         <v>78</v>
       </c>
       <c r="D258" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E258" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4923,6 +4914,12 @@
       <c r="C259" t="s">
         <v>79</v>
       </c>
+      <c r="D259" t="s">
+        <v>92</v>
+      </c>
+      <c r="E259" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" t="s">
@@ -4935,10 +4932,10 @@
         <v>80</v>
       </c>
       <c r="D260" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E260" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4952,10 +4949,10 @@
         <v>74</v>
       </c>
       <c r="D261" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E261" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4968,12 +4965,6 @@
       <c r="C262" t="s">
         <v>75</v>
       </c>
-      <c r="D262" t="s">
-        <v>82</v>
-      </c>
-      <c r="E262" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" t="s">
@@ -4985,6 +4976,12 @@
       <c r="C263" t="s">
         <v>76</v>
       </c>
+      <c r="D263" t="s">
+        <v>81</v>
+      </c>
+      <c r="E263" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" t="s">
@@ -4997,10 +4994,10 @@
         <v>77</v>
       </c>
       <c r="D264" t="s">
+        <v>81</v>
+      </c>
+      <c r="E264" t="s">
         <v>83</v>
-      </c>
-      <c r="E264" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -5014,10 +5011,10 @@
         <v>78</v>
       </c>
       <c r="D265" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E265" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -5031,10 +5028,10 @@
         <v>79</v>
       </c>
       <c r="D266" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E266" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -5048,10 +5045,10 @@
         <v>80</v>
       </c>
       <c r="D267" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E267" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5065,10 +5062,10 @@
         <v>74</v>
       </c>
       <c r="D268" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E268" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5081,12 +5078,6 @@
       <c r="C269" t="s">
         <v>75</v>
       </c>
-      <c r="D269" t="s">
-        <v>91</v>
-      </c>
-      <c r="E269" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" t="s">
@@ -5098,6 +5089,12 @@
       <c r="C270" t="s">
         <v>76</v>
       </c>
+      <c r="D270" t="s">
+        <v>81</v>
+      </c>
+      <c r="E270" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" t="s">
@@ -5110,10 +5107,10 @@
         <v>77</v>
       </c>
       <c r="D271" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E271" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5127,10 +5124,10 @@
         <v>78</v>
       </c>
       <c r="D272" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E272" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5144,10 +5141,10 @@
         <v>79</v>
       </c>
       <c r="D273" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E273" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5161,10 +5158,10 @@
         <v>80</v>
       </c>
       <c r="D274" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E274" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5178,10 +5175,10 @@
         <v>74</v>
       </c>
       <c r="D275" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E275" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5198,7 +5195,7 @@
         <v>83</v>
       </c>
       <c r="E276" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5212,10 +5209,10 @@
         <v>76</v>
       </c>
       <c r="D277" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E277" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5229,7 +5226,7 @@
         <v>77</v>
       </c>
       <c r="D278" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E278" t="s">
         <v>98</v>
@@ -5245,12 +5242,6 @@
       <c r="C279" t="s">
         <v>78</v>
       </c>
-      <c r="D279" t="s">
-        <v>83</v>
-      </c>
-      <c r="E279" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" t="s">
@@ -5262,6 +5253,12 @@
       <c r="C280" t="s">
         <v>79</v>
       </c>
+      <c r="D280" t="s">
+        <v>86</v>
+      </c>
+      <c r="E280" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" t="s">
@@ -5274,10 +5271,10 @@
         <v>80</v>
       </c>
       <c r="D281" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E281" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5291,10 +5288,10 @@
         <v>74</v>
       </c>
       <c r="D282" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E282" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5307,12 +5304,6 @@
       <c r="C283" t="s">
         <v>75</v>
       </c>
-      <c r="D283" t="s">
-        <v>83</v>
-      </c>
-      <c r="E283" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" t="s">
@@ -5324,6 +5315,12 @@
       <c r="C284" t="s">
         <v>76</v>
       </c>
+      <c r="D284" t="s">
+        <v>82</v>
+      </c>
+      <c r="E284" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" t="s">
@@ -5336,10 +5333,10 @@
         <v>77</v>
       </c>
       <c r="D285" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E285" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5353,10 +5350,10 @@
         <v>78</v>
       </c>
       <c r="D286" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E286" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5370,10 +5367,10 @@
         <v>79</v>
       </c>
       <c r="D287" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E287" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5390,7 +5387,7 @@
         <v>85</v>
       </c>
       <c r="E288" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5404,10 +5401,10 @@
         <v>74</v>
       </c>
       <c r="D289" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E289" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5421,10 +5418,10 @@
         <v>75</v>
       </c>
       <c r="D290" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E290" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5437,12 +5434,6 @@
       <c r="C291" t="s">
         <v>76</v>
       </c>
-      <c r="D291" t="s">
-        <v>98</v>
-      </c>
-      <c r="E291" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" t="s">
@@ -5455,10 +5446,10 @@
         <v>77</v>
       </c>
       <c r="D292" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E292" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5472,10 +5463,10 @@
         <v>78</v>
       </c>
       <c r="D293" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E293" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5488,6 +5479,12 @@
       <c r="C294" t="s">
         <v>79</v>
       </c>
+      <c r="D294" t="s">
+        <v>87</v>
+      </c>
+      <c r="E294" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" t="s">
@@ -5500,10 +5497,10 @@
         <v>80</v>
       </c>
       <c r="D295" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E295" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5517,10 +5514,10 @@
         <v>74</v>
       </c>
       <c r="D296" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E296" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5534,10 +5531,10 @@
         <v>75</v>
       </c>
       <c r="D297" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E297" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5550,12 +5547,6 @@
       <c r="C298" t="s">
         <v>76</v>
       </c>
-      <c r="D298" t="s">
-        <v>83</v>
-      </c>
-      <c r="E298" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" t="s">
@@ -5568,10 +5559,10 @@
         <v>77</v>
       </c>
       <c r="D299" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E299" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5585,7 +5576,7 @@
         <v>78</v>
       </c>
       <c r="D300" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E300" t="s">
         <v>98</v>
@@ -5602,10 +5593,10 @@
         <v>79</v>
       </c>
       <c r="D301" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E301" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5618,6 +5609,12 @@
       <c r="C302" t="s">
         <v>80</v>
       </c>
+      <c r="D302" t="s">
+        <v>81</v>
+      </c>
+      <c r="E302" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" t="s">
@@ -5630,10 +5627,10 @@
         <v>74</v>
       </c>
       <c r="D303" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E303" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5647,10 +5644,10 @@
         <v>75</v>
       </c>
       <c r="D304" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E304" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5664,10 +5661,10 @@
         <v>76</v>
       </c>
       <c r="D305" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E305" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5680,12 +5677,6 @@
       <c r="C306" t="s">
         <v>77</v>
       </c>
-      <c r="D306" t="s">
-        <v>83</v>
-      </c>
-      <c r="E306" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="307" spans="1:5">
       <c r="A307" t="s">
@@ -5698,10 +5689,10 @@
         <v>78</v>
       </c>
       <c r="D307" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E307" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5715,10 +5706,10 @@
         <v>79</v>
       </c>
       <c r="D308" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E308" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5731,6 +5722,12 @@
       <c r="C309" t="s">
         <v>80</v>
       </c>
+      <c r="D309" t="s">
+        <v>81</v>
+      </c>
+      <c r="E309" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="310" spans="1:5">
       <c r="A310" t="s">
@@ -5743,10 +5740,10 @@
         <v>74</v>
       </c>
       <c r="D310" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E310" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5760,10 +5757,10 @@
         <v>75</v>
       </c>
       <c r="D311" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E311" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5777,10 +5774,10 @@
         <v>76</v>
       </c>
       <c r="D312" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E312" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5797,7 +5794,7 @@
         <v>83</v>
       </c>
       <c r="E313" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5811,10 +5808,10 @@
         <v>78</v>
       </c>
       <c r="D314" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E314" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5828,10 +5825,10 @@
         <v>79</v>
       </c>
       <c r="D315" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E315" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5859,7 +5856,7 @@
         <v>81</v>
       </c>
       <c r="E317" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5884,10 +5881,10 @@
         <v>76</v>
       </c>
       <c r="D319" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E319" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5901,7 +5898,7 @@
         <v>77</v>
       </c>
       <c r="D320" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E320" t="s">
         <v>95</v>
@@ -5918,10 +5915,10 @@
         <v>78</v>
       </c>
       <c r="D321" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E321" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5935,10 +5932,10 @@
         <v>79</v>
       </c>
       <c r="D322" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E322" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5952,10 +5949,10 @@
         <v>80</v>
       </c>
       <c r="D323" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E323" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5969,10 +5966,10 @@
         <v>74</v>
       </c>
       <c r="D324" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E324" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5986,10 +5983,10 @@
         <v>75</v>
       </c>
       <c r="D325" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E325" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -6003,10 +6000,10 @@
         <v>76</v>
       </c>
       <c r="D326" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E326" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6020,10 +6017,10 @@
         <v>77</v>
       </c>
       <c r="D327" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E327" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6040,7 +6037,7 @@
         <v>85</v>
       </c>
       <c r="E328" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6065,10 +6062,10 @@
         <v>80</v>
       </c>
       <c r="D330" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E330" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6082,10 +6079,10 @@
         <v>74</v>
       </c>
       <c r="D331" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E331" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6099,10 +6096,10 @@
         <v>75</v>
       </c>
       <c r="D332" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E332" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6127,10 +6124,10 @@
         <v>77</v>
       </c>
       <c r="D334" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E334" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6144,10 +6141,10 @@
         <v>78</v>
       </c>
       <c r="D335" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E335" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6161,10 +6158,10 @@
         <v>79</v>
       </c>
       <c r="D336" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E336" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6178,10 +6175,10 @@
         <v>80</v>
       </c>
       <c r="D337" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E337" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6195,10 +6192,10 @@
         <v>74</v>
       </c>
       <c r="D338" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E338" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6212,10 +6209,10 @@
         <v>75</v>
       </c>
       <c r="D339" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E339" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6228,12 +6225,6 @@
       <c r="C340" t="s">
         <v>76</v>
       </c>
-      <c r="D340" t="s">
-        <v>82</v>
-      </c>
-      <c r="E340" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="341" spans="1:5">
       <c r="A341" t="s">
@@ -6245,6 +6236,12 @@
       <c r="C341" t="s">
         <v>77</v>
       </c>
+      <c r="D341" t="s">
+        <v>82</v>
+      </c>
+      <c r="E341" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="342" spans="1:5">
       <c r="A342" t="s">
@@ -6257,10 +6254,10 @@
         <v>78</v>
       </c>
       <c r="D342" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E342" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6274,10 +6271,10 @@
         <v>79</v>
       </c>
       <c r="D343" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E343" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6291,10 +6288,10 @@
         <v>80</v>
       </c>
       <c r="D344" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E344" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6308,10 +6305,10 @@
         <v>74</v>
       </c>
       <c r="D345" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E345" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6325,10 +6322,10 @@
         <v>75</v>
       </c>
       <c r="D346" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E346" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6341,12 +6338,6 @@
       <c r="C347" t="s">
         <v>76</v>
       </c>
-      <c r="D347" t="s">
-        <v>83</v>
-      </c>
-      <c r="E347" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="348" spans="1:5">
       <c r="A348" t="s">
@@ -6358,6 +6349,12 @@
       <c r="C348" t="s">
         <v>77</v>
       </c>
+      <c r="D348" t="s">
+        <v>81</v>
+      </c>
+      <c r="E348" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="349" spans="1:5">
       <c r="A349" t="s">
@@ -6370,10 +6367,10 @@
         <v>78</v>
       </c>
       <c r="D349" t="s">
+        <v>81</v>
+      </c>
+      <c r="E349" t="s">
         <v>91</v>
-      </c>
-      <c r="E349" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6387,10 +6384,10 @@
         <v>79</v>
       </c>
       <c r="D350" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E350" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6404,10 +6401,10 @@
         <v>80</v>
       </c>
       <c r="D351" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E351" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6421,10 +6418,10 @@
         <v>74</v>
       </c>
       <c r="D352" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E352" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6438,10 +6435,10 @@
         <v>75</v>
       </c>
       <c r="D353" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E353" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6455,10 +6452,10 @@
         <v>76</v>
       </c>
       <c r="D354" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E354" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6472,10 +6469,10 @@
         <v>77</v>
       </c>
       <c r="D355" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E355" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6488,12 +6485,6 @@
       <c r="C356" t="s">
         <v>78</v>
       </c>
-      <c r="D356" t="s">
-        <v>83</v>
-      </c>
-      <c r="E356" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="357" spans="1:5">
       <c r="A357" t="s">
@@ -6505,6 +6496,12 @@
       <c r="C357" t="s">
         <v>79</v>
       </c>
+      <c r="D357" t="s">
+        <v>81</v>
+      </c>
+      <c r="E357" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="358" spans="1:5">
       <c r="A358" t="s">
@@ -6517,10 +6514,10 @@
         <v>80</v>
       </c>
       <c r="D358" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E358" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6534,10 +6531,10 @@
         <v>74</v>
       </c>
       <c r="D359" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E359" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6551,10 +6548,10 @@
         <v>75</v>
       </c>
       <c r="D360" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E360" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6579,10 +6576,10 @@
         <v>77</v>
       </c>
       <c r="D362" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E362" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6596,10 +6593,10 @@
         <v>78</v>
       </c>
       <c r="D363" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E363" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6613,10 +6610,10 @@
         <v>79</v>
       </c>
       <c r="D364" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E364" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6630,10 +6627,10 @@
         <v>80</v>
       </c>
       <c r="D365" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E365" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6647,10 +6644,10 @@
         <v>74</v>
       </c>
       <c r="D366" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E366" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6663,12 +6660,6 @@
       <c r="C367" t="s">
         <v>75</v>
       </c>
-      <c r="D367" t="s">
-        <v>83</v>
-      </c>
-      <c r="E367" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="368" spans="1:5">
       <c r="A368" t="s">
@@ -6680,6 +6671,12 @@
       <c r="C368" t="s">
         <v>76</v>
       </c>
+      <c r="D368" t="s">
+        <v>81</v>
+      </c>
+      <c r="E368" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="369" spans="1:5">
       <c r="A369" t="s">
@@ -6692,10 +6689,10 @@
         <v>77</v>
       </c>
       <c r="D369" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E369" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6709,10 +6706,10 @@
         <v>78</v>
       </c>
       <c r="D370" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E370" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6726,10 +6723,10 @@
         <v>79</v>
       </c>
       <c r="D371" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E371" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6743,10 +6740,10 @@
         <v>80</v>
       </c>
       <c r="D372" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E372" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6760,10 +6757,10 @@
         <v>74</v>
       </c>
       <c r="D373" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E373" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6777,10 +6774,10 @@
         <v>75</v>
       </c>
       <c r="D374" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E374" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6805,10 +6802,10 @@
         <v>77</v>
       </c>
       <c r="D376" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E376" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6822,10 +6819,10 @@
         <v>78</v>
       </c>
       <c r="D377" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E377" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6839,10 +6836,10 @@
         <v>79</v>
       </c>
       <c r="D378" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E378" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6856,10 +6853,10 @@
         <v>80</v>
       </c>
       <c r="D379" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E379" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6873,10 +6870,10 @@
         <v>74</v>
       </c>
       <c r="D380" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E380" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6890,10 +6887,10 @@
         <v>75</v>
       </c>
       <c r="D381" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E381" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6907,10 +6904,10 @@
         <v>76</v>
       </c>
       <c r="D382" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E382" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6924,10 +6921,10 @@
         <v>77</v>
       </c>
       <c r="D383" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E383" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6941,10 +6938,10 @@
         <v>78</v>
       </c>
       <c r="D384" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E384" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -6972,7 +6969,7 @@
         <v>90</v>
       </c>
       <c r="E386" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -6986,10 +6983,10 @@
         <v>74</v>
       </c>
       <c r="D387" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E387" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -7003,10 +7000,10 @@
         <v>75</v>
       </c>
       <c r="D388" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E388" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -7020,10 +7017,10 @@
         <v>76</v>
       </c>
       <c r="D389" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E389" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -7037,10 +7034,10 @@
         <v>77</v>
       </c>
       <c r="D390" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E390" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -7054,10 +7051,10 @@
         <v>78</v>
       </c>
       <c r="D391" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E391" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -7082,10 +7079,10 @@
         <v>80</v>
       </c>
       <c r="D393" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E393" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -7099,10 +7096,10 @@
         <v>74</v>
       </c>
       <c r="D394" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E394" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -7116,10 +7113,10 @@
         <v>75</v>
       </c>
       <c r="D395" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E395" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -7144,10 +7141,10 @@
         <v>77</v>
       </c>
       <c r="D397" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E397" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -7161,10 +7158,10 @@
         <v>78</v>
       </c>
       <c r="D398" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E398" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -7178,10 +7175,10 @@
         <v>79</v>
       </c>
       <c r="D399" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E399" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -7198,7 +7195,7 @@
         <v>81</v>
       </c>
       <c r="E400" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7212,10 +7209,10 @@
         <v>74</v>
       </c>
       <c r="D401" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E401" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -7228,12 +7225,6 @@
       <c r="C402" t="s">
         <v>75</v>
       </c>
-      <c r="D402" t="s">
-        <v>87</v>
-      </c>
-      <c r="E402" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="403" spans="1:5">
       <c r="A403" t="s">
@@ -7245,6 +7236,12 @@
       <c r="C403" t="s">
         <v>76</v>
       </c>
+      <c r="D403" t="s">
+        <v>92</v>
+      </c>
+      <c r="E403" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="404" spans="1:5">
       <c r="A404" t="s">
@@ -7257,10 +7254,10 @@
         <v>77</v>
       </c>
       <c r="D404" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E404" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -7274,10 +7271,10 @@
         <v>78</v>
       </c>
       <c r="D405" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E405" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -7291,10 +7288,10 @@
         <v>79</v>
       </c>
       <c r="D406" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E406" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -7308,10 +7305,10 @@
         <v>80</v>
       </c>
       <c r="D407" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E407" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -7324,12 +7321,6 @@
       <c r="C408" t="s">
         <v>74</v>
       </c>
-      <c r="D408" t="s">
-        <v>94</v>
-      </c>
-      <c r="E408" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="409" spans="1:5">
       <c r="A409" t="s">
@@ -7341,6 +7332,12 @@
       <c r="C409" t="s">
         <v>75</v>
       </c>
+      <c r="D409" t="s">
+        <v>96</v>
+      </c>
+      <c r="E409" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="410" spans="1:5">
       <c r="A410" t="s">
@@ -7353,10 +7350,10 @@
         <v>76</v>
       </c>
       <c r="D410" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E410" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -7370,10 +7367,10 @@
         <v>77</v>
       </c>
       <c r="D411" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E411" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -7387,10 +7384,10 @@
         <v>78</v>
       </c>
       <c r="D412" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E412" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -7404,10 +7401,10 @@
         <v>79</v>
       </c>
       <c r="D413" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E413" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -7421,10 +7418,10 @@
         <v>80</v>
       </c>
       <c r="D414" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E414" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -7438,10 +7435,10 @@
         <v>74</v>
       </c>
       <c r="D415" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E415" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -7455,10 +7452,10 @@
         <v>75</v>
       </c>
       <c r="D416" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E416" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -7472,10 +7469,10 @@
         <v>76</v>
       </c>
       <c r="D417" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E417" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -7489,10 +7486,10 @@
         <v>77</v>
       </c>
       <c r="D418" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E418" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -7517,10 +7514,10 @@
         <v>79</v>
       </c>
       <c r="D420" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E420" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -7537,7 +7534,7 @@
         <v>83</v>
       </c>
       <c r="E421" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -7551,10 +7548,10 @@
         <v>74</v>
       </c>
       <c r="D422" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E422" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -7568,10 +7565,10 @@
         <v>75</v>
       </c>
       <c r="D423" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E423" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -7585,10 +7582,10 @@
         <v>76</v>
       </c>
       <c r="D424" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E424" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -7601,12 +7598,6 @@
       <c r="C425" t="s">
         <v>77</v>
       </c>
-      <c r="D425" t="s">
-        <v>82</v>
-      </c>
-      <c r="E425" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="426" spans="1:5">
       <c r="A426" t="s">
@@ -7619,10 +7610,10 @@
         <v>78</v>
       </c>
       <c r="D426" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E426" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -7635,6 +7626,12 @@
       <c r="C427" t="s">
         <v>79</v>
       </c>
+      <c r="D427" t="s">
+        <v>89</v>
+      </c>
+      <c r="E427" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="428" spans="1:5">
       <c r="A428" t="s">
@@ -7647,10 +7644,10 @@
         <v>80</v>
       </c>
       <c r="D428" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E428" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -7664,10 +7661,10 @@
         <v>74</v>
       </c>
       <c r="D429" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E429" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -7681,10 +7678,10 @@
         <v>75</v>
       </c>
       <c r="D430" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="E430" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -7701,7 +7698,7 @@
         <v>83</v>
       </c>
       <c r="E431" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -7714,12 +7711,6 @@
       <c r="C432" t="s">
         <v>77</v>
       </c>
-      <c r="D432" t="s">
-        <v>83</v>
-      </c>
-      <c r="E432" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="433" spans="1:5">
       <c r="A433" t="s">
@@ -7732,10 +7723,10 @@
         <v>78</v>
       </c>
       <c r="D433" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E433" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -7749,10 +7740,10 @@
         <v>79</v>
       </c>
       <c r="D434" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E434" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -7764,6 +7755,12 @@
       </c>
       <c r="C435" t="s">
         <v>80</v>
+      </c>
+      <c r="D435" t="s">
+        <v>81</v>
+      </c>
+      <c r="E435" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -7786,22 +7783,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/Solution.xlsx
+++ b/Solution.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2119" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="112">
   <si>
     <t>Employee</t>
   </si>
@@ -263,76 +263,76 @@
     <t>09:00</t>
   </si>
   <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>12:30</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>11:30</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>10:30</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
     <t>14:30</t>
   </si>
   <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>17:00</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>11:30</t>
-  </si>
-  <si>
-    <t>12:30</t>
-  </si>
-  <si>
-    <t>15:00</t>
-  </si>
-  <si>
-    <t>12:00</t>
+    <t>15:30</t>
   </si>
   <si>
     <t>09:30</t>
   </si>
   <si>
-    <t>10:30</t>
-  </si>
-  <si>
-    <t>16:30</t>
-  </si>
-  <si>
-    <t>15:30</t>
-  </si>
-  <si>
-    <t>16:00</t>
+    <t>18:30</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>17:30</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>20:30</t>
   </si>
   <si>
     <t>19:30</t>
-  </si>
-  <si>
-    <t>21:00</t>
-  </si>
-  <si>
-    <t>18:00</t>
-  </si>
-  <si>
-    <t>19:00</t>
-  </si>
-  <si>
-    <t>20:00</t>
-  </si>
-  <si>
-    <t>20:30</t>
-  </si>
-  <si>
-    <t>17:30</t>
-  </si>
-  <si>
-    <t>18:30</t>
   </si>
   <si>
     <t>min_hours_per_week</t>
@@ -771,7 +771,7 @@
         <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -796,10 +796,10 @@
         <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -816,7 +816,7 @@
         <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -833,7 +833,7 @@
         <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -847,7 +847,7 @@
         <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
         <v>98</v>
@@ -863,12 +863,6 @@
       <c r="C8" t="s">
         <v>80</v>
       </c>
-      <c r="D8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
@@ -884,7 +878,7 @@
         <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -898,10 +892,10 @@
         <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -915,10 +909,10 @@
         <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -949,10 +943,10 @@
         <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -977,10 +971,10 @@
         <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -997,7 +991,7 @@
         <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1022,10 +1016,10 @@
         <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1039,10 +1033,10 @@
         <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1056,10 +1050,10 @@
         <v>78</v>
       </c>
       <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" t="s">
         <v>89</v>
-      </c>
-      <c r="E20" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1073,10 +1067,10 @@
         <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1089,12 +1083,6 @@
       <c r="C22" t="s">
         <v>80</v>
       </c>
-      <c r="D22" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
@@ -1124,10 +1112,10 @@
         <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1141,10 +1129,10 @@
         <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E25" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1161,7 +1149,7 @@
         <v>81</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1175,10 +1163,10 @@
         <v>78</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1191,6 +1179,12 @@
       <c r="C28" t="s">
         <v>79</v>
       </c>
+      <c r="D28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
@@ -1202,12 +1196,6 @@
       <c r="C29" t="s">
         <v>80</v>
       </c>
-      <c r="D29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
@@ -1220,10 +1208,10 @@
         <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1237,10 +1225,10 @@
         <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1254,10 +1242,10 @@
         <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1271,10 +1259,10 @@
         <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E33" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1302,7 +1290,7 @@
         <v>81</v>
       </c>
       <c r="E35" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1315,12 +1303,6 @@
       <c r="C36" t="s">
         <v>80</v>
       </c>
-      <c r="D36" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
@@ -1349,6 +1331,12 @@
       <c r="C38" t="s">
         <v>75</v>
       </c>
+      <c r="D38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
@@ -1361,10 +1349,10 @@
         <v>76</v>
       </c>
       <c r="D39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E39" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1377,12 +1365,6 @@
       <c r="C40" t="s">
         <v>77</v>
       </c>
-      <c r="D40" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
@@ -1395,10 +1377,10 @@
         <v>78</v>
       </c>
       <c r="D41" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E41" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1412,10 +1394,10 @@
         <v>79</v>
       </c>
       <c r="D42" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E42" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1429,10 +1411,10 @@
         <v>80</v>
       </c>
       <c r="D43" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E43" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1446,10 +1428,10 @@
         <v>74</v>
       </c>
       <c r="D44" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E44" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1463,10 +1445,10 @@
         <v>75</v>
       </c>
       <c r="D45" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E45" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1480,10 +1462,10 @@
         <v>76</v>
       </c>
       <c r="D46" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1496,12 +1478,6 @@
       <c r="C47" t="s">
         <v>77</v>
       </c>
-      <c r="D47" t="s">
-        <v>81</v>
-      </c>
-      <c r="E47" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
@@ -1513,6 +1489,12 @@
       <c r="C48" t="s">
         <v>78</v>
       </c>
+      <c r="D48" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
@@ -1528,7 +1510,7 @@
         <v>81</v>
       </c>
       <c r="E49" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1541,12 +1523,6 @@
       <c r="C50" t="s">
         <v>80</v>
       </c>
-      <c r="D50" t="s">
-        <v>81</v>
-      </c>
-      <c r="E50" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
@@ -1559,10 +1535,10 @@
         <v>74</v>
       </c>
       <c r="D51" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E51" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1576,10 +1552,10 @@
         <v>75</v>
       </c>
       <c r="D52" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E52" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1596,7 +1572,7 @@
         <v>81</v>
       </c>
       <c r="E53" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1609,12 +1585,6 @@
       <c r="C54" t="s">
         <v>77</v>
       </c>
-      <c r="D54" t="s">
-        <v>81</v>
-      </c>
-      <c r="E54" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
@@ -1626,6 +1596,12 @@
       <c r="C55" t="s">
         <v>78</v>
       </c>
+      <c r="D55" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
@@ -1638,10 +1614,10 @@
         <v>79</v>
       </c>
       <c r="D56" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E56" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1655,7 +1631,7 @@
         <v>80</v>
       </c>
       <c r="D57" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E57" t="s">
         <v>99</v>
@@ -1672,10 +1648,10 @@
         <v>74</v>
       </c>
       <c r="D58" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E58" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1692,7 +1668,7 @@
         <v>81</v>
       </c>
       <c r="E59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1705,6 +1681,12 @@
       <c r="C60" t="s">
         <v>76</v>
       </c>
+      <c r="D60" t="s">
+        <v>92</v>
+      </c>
+      <c r="E60" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
@@ -1716,12 +1698,6 @@
       <c r="C61" t="s">
         <v>77</v>
       </c>
-      <c r="D61" t="s">
-        <v>83</v>
-      </c>
-      <c r="E61" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
@@ -1734,10 +1710,10 @@
         <v>78</v>
       </c>
       <c r="D62" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E62" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1751,10 +1727,10 @@
         <v>79</v>
       </c>
       <c r="D63" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E63" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1767,12 +1743,6 @@
       <c r="C64" t="s">
         <v>80</v>
       </c>
-      <c r="D64" t="s">
-        <v>82</v>
-      </c>
-      <c r="E64" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
@@ -1788,7 +1758,7 @@
         <v>81</v>
       </c>
       <c r="E65" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1802,10 +1772,10 @@
         <v>75</v>
       </c>
       <c r="D66" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E66" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1830,10 +1800,10 @@
         <v>77</v>
       </c>
       <c r="D68" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E68" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1847,10 +1817,10 @@
         <v>78</v>
       </c>
       <c r="D69" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E69" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1867,7 +1837,7 @@
         <v>81</v>
       </c>
       <c r="E70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1881,10 +1851,10 @@
         <v>80</v>
       </c>
       <c r="D71" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E71" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1898,10 +1868,10 @@
         <v>74</v>
       </c>
       <c r="D72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E72" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1915,10 +1885,10 @@
         <v>75</v>
       </c>
       <c r="D73" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E73" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1932,10 +1902,10 @@
         <v>76</v>
       </c>
       <c r="D74" t="s">
+        <v>81</v>
+      </c>
+      <c r="E74" t="s">
         <v>86</v>
-      </c>
-      <c r="E74" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1949,10 +1919,10 @@
         <v>77</v>
       </c>
       <c r="D75" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E75" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1965,6 +1935,12 @@
       <c r="C76" t="s">
         <v>78</v>
       </c>
+      <c r="D76" t="s">
+        <v>95</v>
+      </c>
+      <c r="E76" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
@@ -1977,10 +1953,10 @@
         <v>79</v>
       </c>
       <c r="D77" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E77" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1993,12 +1969,6 @@
       <c r="C78" t="s">
         <v>80</v>
       </c>
-      <c r="D78" t="s">
-        <v>81</v>
-      </c>
-      <c r="E78" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
@@ -2022,7 +1992,7 @@
         <v>75</v>
       </c>
       <c r="D80" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E80" t="s">
         <v>100</v>
@@ -2039,10 +2009,10 @@
         <v>76</v>
       </c>
       <c r="D81" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E81" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2056,10 +2026,10 @@
         <v>77</v>
       </c>
       <c r="D82" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2076,7 +2046,7 @@
         <v>81</v>
       </c>
       <c r="E83" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2090,10 +2060,10 @@
         <v>79</v>
       </c>
       <c r="D84" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E84" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2107,10 +2077,10 @@
         <v>80</v>
       </c>
       <c r="D85" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E85" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2124,10 +2094,10 @@
         <v>74</v>
       </c>
       <c r="D86" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E86" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2141,10 +2111,10 @@
         <v>75</v>
       </c>
       <c r="D87" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E87" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2161,7 +2131,7 @@
         <v>81</v>
       </c>
       <c r="E88" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2189,7 +2159,7 @@
         <v>81</v>
       </c>
       <c r="E90" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2203,10 +2173,10 @@
         <v>79</v>
       </c>
       <c r="D91" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E91" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2219,12 +2189,6 @@
       <c r="C92" t="s">
         <v>80</v>
       </c>
-      <c r="D92" t="s">
-        <v>84</v>
-      </c>
-      <c r="E92" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
@@ -2237,10 +2201,10 @@
         <v>74</v>
       </c>
       <c r="D93" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2268,7 +2232,7 @@
         <v>81</v>
       </c>
       <c r="E95" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2282,10 +2246,10 @@
         <v>77</v>
       </c>
       <c r="D96" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E96" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2299,10 +2263,10 @@
         <v>78</v>
       </c>
       <c r="D97" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E97" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2316,10 +2280,10 @@
         <v>79</v>
       </c>
       <c r="D98" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E98" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2333,10 +2297,10 @@
         <v>80</v>
       </c>
       <c r="D99" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E99" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2353,7 +2317,7 @@
         <v>81</v>
       </c>
       <c r="E100" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2367,10 +2331,10 @@
         <v>75</v>
       </c>
       <c r="D101" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E101" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2383,6 +2347,12 @@
       <c r="C102" t="s">
         <v>76</v>
       </c>
+      <c r="D102" t="s">
+        <v>81</v>
+      </c>
+      <c r="E102" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
@@ -2395,10 +2365,10 @@
         <v>77</v>
       </c>
       <c r="D103" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E103" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2411,12 +2381,6 @@
       <c r="C104" t="s">
         <v>78</v>
       </c>
-      <c r="D104" t="s">
-        <v>86</v>
-      </c>
-      <c r="E104" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
@@ -2429,10 +2393,10 @@
         <v>79</v>
       </c>
       <c r="D105" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E105" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2445,12 +2409,6 @@
       <c r="C106" t="s">
         <v>80</v>
       </c>
-      <c r="D106" t="s">
-        <v>87</v>
-      </c>
-      <c r="E106" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
@@ -2474,10 +2432,10 @@
         <v>75</v>
       </c>
       <c r="D108" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E108" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2491,10 +2449,10 @@
         <v>76</v>
       </c>
       <c r="D109" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E109" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2508,10 +2466,10 @@
         <v>77</v>
       </c>
       <c r="D110" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E110" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2525,10 +2483,10 @@
         <v>78</v>
       </c>
       <c r="D111" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E111" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2545,7 +2503,7 @@
         <v>81</v>
       </c>
       <c r="E112" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2559,10 +2517,10 @@
         <v>80</v>
       </c>
       <c r="D113" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E113" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2579,7 +2537,7 @@
         <v>81</v>
       </c>
       <c r="E114" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2596,7 +2554,7 @@
         <v>81</v>
       </c>
       <c r="E115" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2610,10 +2568,10 @@
         <v>76</v>
       </c>
       <c r="D116" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E116" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2626,12 +2584,6 @@
       <c r="C117" t="s">
         <v>77</v>
       </c>
-      <c r="D117" t="s">
-        <v>81</v>
-      </c>
-      <c r="E117" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
@@ -2644,10 +2596,10 @@
         <v>78</v>
       </c>
       <c r="D118" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E118" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2660,6 +2612,12 @@
       <c r="C119" t="s">
         <v>79</v>
       </c>
+      <c r="D119" t="s">
+        <v>81</v>
+      </c>
+      <c r="E119" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
@@ -2671,12 +2629,6 @@
       <c r="C120" t="s">
         <v>80</v>
       </c>
-      <c r="D120" t="s">
-        <v>88</v>
-      </c>
-      <c r="E120" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
@@ -2700,10 +2652,10 @@
         <v>75</v>
       </c>
       <c r="D122" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E122" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2717,10 +2669,10 @@
         <v>76</v>
       </c>
       <c r="D123" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E123" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2734,10 +2686,10 @@
         <v>77</v>
       </c>
       <c r="D124" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E124" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2751,10 +2703,10 @@
         <v>78</v>
       </c>
       <c r="D125" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E125" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2771,7 +2723,7 @@
         <v>81</v>
       </c>
       <c r="E126" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2785,10 +2737,10 @@
         <v>80</v>
       </c>
       <c r="D127" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E127" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2802,10 +2754,10 @@
         <v>74</v>
       </c>
       <c r="D128" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E128" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2818,12 +2770,6 @@
       <c r="C129" t="s">
         <v>75</v>
       </c>
-      <c r="D129" t="s">
-        <v>81</v>
-      </c>
-      <c r="E129" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
@@ -2836,10 +2782,10 @@
         <v>76</v>
       </c>
       <c r="D130" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E130" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2853,10 +2799,10 @@
         <v>77</v>
       </c>
       <c r="D131" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E131" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2869,6 +2815,12 @@
       <c r="C132" t="s">
         <v>78</v>
       </c>
+      <c r="D132" t="s">
+        <v>81</v>
+      </c>
+      <c r="E132" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
@@ -2884,7 +2836,7 @@
         <v>81</v>
       </c>
       <c r="E133" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2897,12 +2849,6 @@
       <c r="C134" t="s">
         <v>80</v>
       </c>
-      <c r="D134" t="s">
-        <v>94</v>
-      </c>
-      <c r="E134" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
@@ -2914,6 +2860,12 @@
       <c r="C135" t="s">
         <v>74</v>
       </c>
+      <c r="D135" t="s">
+        <v>83</v>
+      </c>
+      <c r="E135" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
@@ -2926,10 +2878,10 @@
         <v>75</v>
       </c>
       <c r="D136" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E136" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2942,12 +2894,6 @@
       <c r="C137" t="s">
         <v>76</v>
       </c>
-      <c r="D137" t="s">
-        <v>81</v>
-      </c>
-      <c r="E137" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
@@ -2963,7 +2909,7 @@
         <v>89</v>
       </c>
       <c r="E138" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2977,10 +2923,10 @@
         <v>78</v>
       </c>
       <c r="D139" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E139" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2994,10 +2940,10 @@
         <v>79</v>
       </c>
       <c r="D140" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E140" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3011,10 +2957,10 @@
         <v>80</v>
       </c>
       <c r="D141" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E141" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3028,7 +2974,7 @@
         <v>74</v>
       </c>
       <c r="D142" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E142" t="s">
         <v>100</v>
@@ -3045,10 +2991,10 @@
         <v>75</v>
       </c>
       <c r="D143" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E143" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3061,12 +3007,6 @@
       <c r="C144" t="s">
         <v>76</v>
       </c>
-      <c r="D144" t="s">
-        <v>81</v>
-      </c>
-      <c r="E144" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
@@ -3079,10 +3019,10 @@
         <v>77</v>
       </c>
       <c r="D145" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E145" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3095,6 +3035,12 @@
       <c r="C146" t="s">
         <v>78</v>
       </c>
+      <c r="D146" t="s">
+        <v>83</v>
+      </c>
+      <c r="E146" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
@@ -3110,7 +3056,7 @@
         <v>81</v>
       </c>
       <c r="E147" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3123,12 +3069,6 @@
       <c r="C148" t="s">
         <v>80</v>
       </c>
-      <c r="D148" t="s">
-        <v>86</v>
-      </c>
-      <c r="E148" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
@@ -3141,7 +3081,7 @@
         <v>74</v>
       </c>
       <c r="D149" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E149" t="s">
         <v>99</v>
@@ -3157,6 +3097,12 @@
       <c r="C150" t="s">
         <v>75</v>
       </c>
+      <c r="D150" t="s">
+        <v>87</v>
+      </c>
+      <c r="E150" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
@@ -3168,12 +3114,6 @@
       <c r="C151" t="s">
         <v>76</v>
       </c>
-      <c r="D151" t="s">
-        <v>90</v>
-      </c>
-      <c r="E151" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
@@ -3186,10 +3126,10 @@
         <v>77</v>
       </c>
       <c r="D152" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E152" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3202,12 +3142,6 @@
       <c r="C153" t="s">
         <v>78</v>
       </c>
-      <c r="D153" t="s">
-        <v>90</v>
-      </c>
-      <c r="E153" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
@@ -3220,10 +3154,10 @@
         <v>79</v>
       </c>
       <c r="D154" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E154" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3240,7 +3174,7 @@
         <v>92</v>
       </c>
       <c r="E155" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3268,7 +3202,7 @@
         <v>92</v>
       </c>
       <c r="E157" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3282,10 +3216,10 @@
         <v>76</v>
       </c>
       <c r="D158" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E158" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3299,10 +3233,10 @@
         <v>77</v>
       </c>
       <c r="D159" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E159" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3316,10 +3250,10 @@
         <v>78</v>
       </c>
       <c r="D160" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E160" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3333,10 +3267,10 @@
         <v>79</v>
       </c>
       <c r="D161" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E161" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3349,12 +3283,6 @@
       <c r="C162" t="s">
         <v>80</v>
       </c>
-      <c r="D162" t="s">
-        <v>81</v>
-      </c>
-      <c r="E162" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
@@ -3367,10 +3295,10 @@
         <v>74</v>
       </c>
       <c r="D163" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E163" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3383,12 +3311,6 @@
       <c r="C164" t="s">
         <v>75</v>
       </c>
-      <c r="D164" t="s">
-        <v>92</v>
-      </c>
-      <c r="E164" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
@@ -3400,6 +3322,12 @@
       <c r="C165" t="s">
         <v>76</v>
       </c>
+      <c r="D165" t="s">
+        <v>81</v>
+      </c>
+      <c r="E165" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
@@ -3415,7 +3343,7 @@
         <v>81</v>
       </c>
       <c r="E166" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3429,10 +3357,10 @@
         <v>78</v>
       </c>
       <c r="D167" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E167" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3446,10 +3374,10 @@
         <v>79</v>
       </c>
       <c r="D168" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E168" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3463,10 +3391,10 @@
         <v>80</v>
       </c>
       <c r="D169" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E169" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3494,7 +3422,7 @@
         <v>81</v>
       </c>
       <c r="E171" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3508,10 +3436,10 @@
         <v>76</v>
       </c>
       <c r="D172" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E172" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3525,10 +3453,10 @@
         <v>77</v>
       </c>
       <c r="D173" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E173" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3542,10 +3470,10 @@
         <v>78</v>
       </c>
       <c r="D174" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E174" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3559,10 +3487,10 @@
         <v>79</v>
       </c>
       <c r="D175" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E175" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3575,12 +3503,6 @@
       <c r="C176" t="s">
         <v>80</v>
       </c>
-      <c r="D176" t="s">
-        <v>88</v>
-      </c>
-      <c r="E176" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
@@ -3604,10 +3526,10 @@
         <v>75</v>
       </c>
       <c r="D178" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E178" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3621,7 +3543,7 @@
         <v>76</v>
       </c>
       <c r="D179" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E179" t="s">
         <v>99</v>
@@ -3638,10 +3560,10 @@
         <v>77</v>
       </c>
       <c r="D180" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E180" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3655,10 +3577,10 @@
         <v>78</v>
       </c>
       <c r="D181" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E181" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3672,10 +3594,10 @@
         <v>79</v>
       </c>
       <c r="D182" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E182" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3689,7 +3611,7 @@
         <v>80</v>
       </c>
       <c r="D183" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E183" t="s">
         <v>100</v>
@@ -3717,10 +3639,10 @@
         <v>75</v>
       </c>
       <c r="D185" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E185" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3751,10 +3673,10 @@
         <v>77</v>
       </c>
       <c r="D187" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E187" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3768,10 +3690,10 @@
         <v>78</v>
       </c>
       <c r="D188" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E188" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3785,10 +3707,10 @@
         <v>79</v>
       </c>
       <c r="D189" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E189" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3801,12 +3723,6 @@
       <c r="C190" t="s">
         <v>80</v>
       </c>
-      <c r="D190" t="s">
-        <v>81</v>
-      </c>
-      <c r="E190" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
@@ -3818,12 +3734,6 @@
       <c r="C191" t="s">
         <v>74</v>
       </c>
-      <c r="D191" t="s">
-        <v>81</v>
-      </c>
-      <c r="E191" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
@@ -3835,6 +3745,12 @@
       <c r="C192" t="s">
         <v>75</v>
       </c>
+      <c r="D192" t="s">
+        <v>97</v>
+      </c>
+      <c r="E192" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
@@ -3847,10 +3763,10 @@
         <v>76</v>
       </c>
       <c r="D193" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E193" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3864,10 +3780,10 @@
         <v>77</v>
       </c>
       <c r="D194" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E194" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3881,10 +3797,10 @@
         <v>78</v>
       </c>
       <c r="D195" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E195" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3897,12 +3813,6 @@
       <c r="C196" t="s">
         <v>79</v>
       </c>
-      <c r="D196" t="s">
-        <v>81</v>
-      </c>
-      <c r="E196" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
@@ -3915,10 +3825,10 @@
         <v>80</v>
       </c>
       <c r="D197" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E197" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3932,10 +3842,10 @@
         <v>74</v>
       </c>
       <c r="D198" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E198" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3948,12 +3858,6 @@
       <c r="C199" t="s">
         <v>75</v>
       </c>
-      <c r="D199" t="s">
-        <v>83</v>
-      </c>
-      <c r="E199" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
@@ -3966,10 +3870,10 @@
         <v>76</v>
       </c>
       <c r="D200" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E200" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3982,12 +3886,6 @@
       <c r="C201" t="s">
         <v>77</v>
       </c>
-      <c r="D201" t="s">
-        <v>83</v>
-      </c>
-      <c r="E201" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
@@ -3999,6 +3897,12 @@
       <c r="C202" t="s">
         <v>78</v>
       </c>
+      <c r="D202" t="s">
+        <v>92</v>
+      </c>
+      <c r="E202" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
@@ -4014,7 +3918,7 @@
         <v>81</v>
       </c>
       <c r="E203" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4028,10 +3932,10 @@
         <v>80</v>
       </c>
       <c r="D204" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E204" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4059,7 +3963,7 @@
         <v>81</v>
       </c>
       <c r="E206" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4073,10 +3977,10 @@
         <v>76</v>
       </c>
       <c r="D207" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E207" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4090,10 +3994,10 @@
         <v>77</v>
       </c>
       <c r="D208" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E208" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4107,10 +4011,10 @@
         <v>78</v>
       </c>
       <c r="D209" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E209" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4124,10 +4028,10 @@
         <v>79</v>
       </c>
       <c r="D210" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E210" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4141,10 +4045,10 @@
         <v>80</v>
       </c>
       <c r="D211" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E211" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4161,7 +4065,7 @@
         <v>81</v>
       </c>
       <c r="E212" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4175,10 +4079,10 @@
         <v>75</v>
       </c>
       <c r="D213" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E213" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4191,6 +4095,12 @@
       <c r="C214" t="s">
         <v>76</v>
       </c>
+      <c r="D214" t="s">
+        <v>89</v>
+      </c>
+      <c r="E214" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
@@ -4203,10 +4113,10 @@
         <v>77</v>
       </c>
       <c r="D215" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E215" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4220,10 +4130,10 @@
         <v>78</v>
       </c>
       <c r="D216" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E216" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4236,12 +4146,6 @@
       <c r="C217" t="s">
         <v>79</v>
       </c>
-      <c r="D217" t="s">
-        <v>81</v>
-      </c>
-      <c r="E217" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
@@ -4254,10 +4158,10 @@
         <v>80</v>
       </c>
       <c r="D218" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E218" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4271,10 +4175,10 @@
         <v>74</v>
       </c>
       <c r="D219" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E219" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4287,6 +4191,12 @@
       <c r="C220" t="s">
         <v>75</v>
       </c>
+      <c r="D220" t="s">
+        <v>81</v>
+      </c>
+      <c r="E220" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
@@ -4298,12 +4208,6 @@
       <c r="C221" t="s">
         <v>76</v>
       </c>
-      <c r="D221" t="s">
-        <v>81</v>
-      </c>
-      <c r="E221" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
@@ -4316,10 +4220,10 @@
         <v>77</v>
       </c>
       <c r="D222" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E222" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4333,10 +4237,10 @@
         <v>78</v>
       </c>
       <c r="D223" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E223" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4349,12 +4253,6 @@
       <c r="C224" t="s">
         <v>79</v>
       </c>
-      <c r="D224" t="s">
-        <v>83</v>
-      </c>
-      <c r="E224" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
@@ -4370,7 +4268,7 @@
         <v>81</v>
       </c>
       <c r="E225" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4384,10 +4282,10 @@
         <v>74</v>
       </c>
       <c r="D226" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E226" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4400,12 +4298,6 @@
       <c r="C227" t="s">
         <v>75</v>
       </c>
-      <c r="D227" t="s">
-        <v>86</v>
-      </c>
-      <c r="E227" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
@@ -4418,10 +4310,10 @@
         <v>76</v>
       </c>
       <c r="D228" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E228" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4435,10 +4327,10 @@
         <v>77</v>
       </c>
       <c r="D229" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E229" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4463,10 +4355,10 @@
         <v>79</v>
       </c>
       <c r="D231" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E231" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4483,7 +4375,7 @@
         <v>81</v>
       </c>
       <c r="E232" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4497,10 +4389,10 @@
         <v>74</v>
       </c>
       <c r="D233" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E233" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4517,7 +4409,7 @@
         <v>81</v>
       </c>
       <c r="E234" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4530,12 +4422,6 @@
       <c r="C235" t="s">
         <v>76</v>
       </c>
-      <c r="D235" t="s">
-        <v>81</v>
-      </c>
-      <c r="E235" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
@@ -4548,10 +4434,10 @@
         <v>77</v>
       </c>
       <c r="D236" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E236" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4576,7 +4462,7 @@
         <v>79</v>
       </c>
       <c r="D238" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E238" t="s">
         <v>100</v>
@@ -4593,10 +4479,10 @@
         <v>80</v>
       </c>
       <c r="D239" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E239" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4610,10 +4496,10 @@
         <v>74</v>
       </c>
       <c r="D240" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E240" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4627,10 +4513,10 @@
         <v>75</v>
       </c>
       <c r="D241" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E241" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4644,10 +4530,10 @@
         <v>76</v>
       </c>
       <c r="D242" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E242" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4664,7 +4550,7 @@
         <v>81</v>
       </c>
       <c r="E243" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4681,7 +4567,7 @@
         <v>81</v>
       </c>
       <c r="E244" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4706,10 +4592,10 @@
         <v>80</v>
       </c>
       <c r="D246" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E246" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4723,7 +4609,7 @@
         <v>74</v>
       </c>
       <c r="D247" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E247" t="s">
         <v>99</v>
@@ -4740,10 +4626,10 @@
         <v>75</v>
       </c>
       <c r="D248" t="s">
+        <v>81</v>
+      </c>
+      <c r="E248" t="s">
         <v>92</v>
-      </c>
-      <c r="E248" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4771,7 +4657,7 @@
         <v>81</v>
       </c>
       <c r="E250" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4788,7 +4674,7 @@
         <v>81</v>
       </c>
       <c r="E251" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4802,10 +4688,10 @@
         <v>79</v>
       </c>
       <c r="D252" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E252" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4819,10 +4705,10 @@
         <v>80</v>
       </c>
       <c r="D253" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E253" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4836,10 +4722,10 @@
         <v>74</v>
       </c>
       <c r="D254" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E254" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4853,10 +4739,10 @@
         <v>75</v>
       </c>
       <c r="D255" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E255" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4869,6 +4755,12 @@
       <c r="C256" t="s">
         <v>76</v>
       </c>
+      <c r="D256" t="s">
+        <v>81</v>
+      </c>
+      <c r="E256" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="s">
@@ -4880,12 +4772,6 @@
       <c r="C257" t="s">
         <v>77</v>
       </c>
-      <c r="D257" t="s">
-        <v>87</v>
-      </c>
-      <c r="E257" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" t="s">
@@ -4898,10 +4784,10 @@
         <v>78</v>
       </c>
       <c r="D258" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E258" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4915,10 +4801,10 @@
         <v>79</v>
       </c>
       <c r="D259" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E259" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4935,7 +4821,7 @@
         <v>81</v>
       </c>
       <c r="E260" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4949,10 +4835,10 @@
         <v>74</v>
       </c>
       <c r="D261" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E261" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4977,10 +4863,10 @@
         <v>76</v>
       </c>
       <c r="D263" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E263" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4994,10 +4880,10 @@
         <v>77</v>
       </c>
       <c r="D264" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E264" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -5011,10 +4897,10 @@
         <v>78</v>
       </c>
       <c r="D265" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E265" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -5028,10 +4914,10 @@
         <v>79</v>
       </c>
       <c r="D266" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E266" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -5045,10 +4931,10 @@
         <v>80</v>
       </c>
       <c r="D267" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E267" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5062,10 +4948,10 @@
         <v>74</v>
       </c>
       <c r="D268" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E268" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5089,12 +4975,6 @@
       <c r="C270" t="s">
         <v>76</v>
       </c>
-      <c r="D270" t="s">
-        <v>81</v>
-      </c>
-      <c r="E270" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" t="s">
@@ -5107,10 +4987,10 @@
         <v>77</v>
       </c>
       <c r="D271" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E271" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5127,7 +5007,7 @@
         <v>87</v>
       </c>
       <c r="E272" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5141,10 +5021,10 @@
         <v>79</v>
       </c>
       <c r="D273" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E273" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5158,10 +5038,10 @@
         <v>80</v>
       </c>
       <c r="D274" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E274" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5175,10 +5055,10 @@
         <v>74</v>
       </c>
       <c r="D275" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E275" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5192,10 +5072,10 @@
         <v>75</v>
       </c>
       <c r="D276" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E276" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5208,12 +5088,6 @@
       <c r="C277" t="s">
         <v>76</v>
       </c>
-      <c r="D277" t="s">
-        <v>86</v>
-      </c>
-      <c r="E277" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" t="s">
@@ -5226,10 +5100,10 @@
         <v>77</v>
       </c>
       <c r="D278" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E278" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5242,6 +5116,12 @@
       <c r="C279" t="s">
         <v>78</v>
       </c>
+      <c r="D279" t="s">
+        <v>81</v>
+      </c>
+      <c r="E279" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" t="s">
@@ -5254,10 +5134,10 @@
         <v>79</v>
       </c>
       <c r="D280" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E280" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5271,10 +5151,10 @@
         <v>80</v>
       </c>
       <c r="D281" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E281" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5291,7 +5171,7 @@
         <v>81</v>
       </c>
       <c r="E282" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5304,6 +5184,12 @@
       <c r="C283" t="s">
         <v>75</v>
       </c>
+      <c r="D283" t="s">
+        <v>81</v>
+      </c>
+      <c r="E283" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" t="s">
@@ -5315,12 +5201,6 @@
       <c r="C284" t="s">
         <v>76</v>
       </c>
-      <c r="D284" t="s">
-        <v>82</v>
-      </c>
-      <c r="E284" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" t="s">
@@ -5333,10 +5213,10 @@
         <v>77</v>
       </c>
       <c r="D285" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E285" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5350,10 +5230,10 @@
         <v>78</v>
       </c>
       <c r="D286" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E286" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5367,10 +5247,10 @@
         <v>79</v>
       </c>
       <c r="D287" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E287" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5384,10 +5264,10 @@
         <v>80</v>
       </c>
       <c r="D288" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E288" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5401,10 +5281,10 @@
         <v>74</v>
       </c>
       <c r="D289" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E289" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5418,10 +5298,10 @@
         <v>75</v>
       </c>
       <c r="D290" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E290" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5434,6 +5314,12 @@
       <c r="C291" t="s">
         <v>76</v>
       </c>
+      <c r="D291" t="s">
+        <v>81</v>
+      </c>
+      <c r="E291" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" t="s">
@@ -5463,10 +5349,10 @@
         <v>78</v>
       </c>
       <c r="D293" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E293" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5479,12 +5365,6 @@
       <c r="C294" t="s">
         <v>79</v>
       </c>
-      <c r="D294" t="s">
-        <v>87</v>
-      </c>
-      <c r="E294" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" t="s">
@@ -5497,10 +5377,10 @@
         <v>80</v>
       </c>
       <c r="D295" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E295" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5514,10 +5394,10 @@
         <v>74</v>
       </c>
       <c r="D296" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E296" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5531,10 +5411,10 @@
         <v>75</v>
       </c>
       <c r="D297" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E297" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5547,6 +5427,12 @@
       <c r="C298" t="s">
         <v>76</v>
       </c>
+      <c r="D298" t="s">
+        <v>84</v>
+      </c>
+      <c r="E298" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" t="s">
@@ -5559,10 +5445,10 @@
         <v>77</v>
       </c>
       <c r="D299" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E299" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5575,12 +5461,6 @@
       <c r="C300" t="s">
         <v>78</v>
       </c>
-      <c r="D300" t="s">
-        <v>89</v>
-      </c>
-      <c r="E300" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" t="s">
@@ -5593,10 +5473,10 @@
         <v>79</v>
       </c>
       <c r="D301" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E301" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5610,10 +5490,10 @@
         <v>80</v>
       </c>
       <c r="D302" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E302" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5627,10 +5507,10 @@
         <v>74</v>
       </c>
       <c r="D303" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E303" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5644,10 +5524,10 @@
         <v>75</v>
       </c>
       <c r="D304" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E304" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5661,10 +5541,10 @@
         <v>76</v>
       </c>
       <c r="D305" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E305" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5689,10 +5569,10 @@
         <v>78</v>
       </c>
       <c r="D307" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E307" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5706,10 +5586,10 @@
         <v>79</v>
       </c>
       <c r="D308" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E308" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5723,10 +5603,10 @@
         <v>80</v>
       </c>
       <c r="D309" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E309" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5740,10 +5620,10 @@
         <v>74</v>
       </c>
       <c r="D310" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E310" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5757,10 +5637,10 @@
         <v>75</v>
       </c>
       <c r="D311" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E311" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5774,10 +5654,10 @@
         <v>76</v>
       </c>
       <c r="D312" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E312" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5791,10 +5671,10 @@
         <v>77</v>
       </c>
       <c r="D313" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E313" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5808,10 +5688,10 @@
         <v>78</v>
       </c>
       <c r="D314" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E314" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5825,10 +5705,10 @@
         <v>79</v>
       </c>
       <c r="D315" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E315" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5856,7 +5736,7 @@
         <v>81</v>
       </c>
       <c r="E317" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5881,10 +5761,10 @@
         <v>76</v>
       </c>
       <c r="D319" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E319" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5901,7 +5781,7 @@
         <v>81</v>
       </c>
       <c r="E320" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5914,12 +5794,6 @@
       <c r="C321" t="s">
         <v>78</v>
       </c>
-      <c r="D321" t="s">
-        <v>93</v>
-      </c>
-      <c r="E321" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="322" spans="1:5">
       <c r="A322" t="s">
@@ -5932,7 +5806,7 @@
         <v>79</v>
       </c>
       <c r="D322" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E322" t="s">
         <v>99</v>
@@ -5949,10 +5823,10 @@
         <v>80</v>
       </c>
       <c r="D323" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E323" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5966,10 +5840,10 @@
         <v>74</v>
       </c>
       <c r="D324" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E324" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5983,7 +5857,7 @@
         <v>75</v>
       </c>
       <c r="D325" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E325" t="s">
         <v>99</v>
@@ -6003,7 +5877,7 @@
         <v>81</v>
       </c>
       <c r="E326" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6017,10 +5891,10 @@
         <v>77</v>
       </c>
       <c r="D327" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E327" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6034,10 +5908,10 @@
         <v>78</v>
       </c>
       <c r="D328" t="s">
+        <v>81</v>
+      </c>
+      <c r="E328" t="s">
         <v>85</v>
-      </c>
-      <c r="E328" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6065,7 +5939,7 @@
         <v>81</v>
       </c>
       <c r="E330" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6079,10 +5953,10 @@
         <v>74</v>
       </c>
       <c r="D331" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E331" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6095,12 +5969,6 @@
       <c r="C332" t="s">
         <v>75</v>
       </c>
-      <c r="D332" t="s">
-        <v>89</v>
-      </c>
-      <c r="E332" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="333" spans="1:5">
       <c r="A333" t="s">
@@ -6112,6 +5980,12 @@
       <c r="C333" t="s">
         <v>76</v>
       </c>
+      <c r="D333" t="s">
+        <v>84</v>
+      </c>
+      <c r="E333" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="334" spans="1:5">
       <c r="A334" t="s">
@@ -6124,10 +5998,10 @@
         <v>77</v>
       </c>
       <c r="D334" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E334" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6141,10 +6015,10 @@
         <v>78</v>
       </c>
       <c r="D335" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E335" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6158,10 +6032,10 @@
         <v>79</v>
       </c>
       <c r="D336" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E336" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6175,10 +6049,10 @@
         <v>80</v>
       </c>
       <c r="D337" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E337" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6192,10 +6066,10 @@
         <v>74</v>
       </c>
       <c r="D338" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E338" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6208,12 +6082,6 @@
       <c r="C339" t="s">
         <v>75</v>
       </c>
-      <c r="D339" t="s">
-        <v>81</v>
-      </c>
-      <c r="E339" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="340" spans="1:5">
       <c r="A340" t="s">
@@ -6225,6 +6093,12 @@
       <c r="C340" t="s">
         <v>76</v>
       </c>
+      <c r="D340" t="s">
+        <v>96</v>
+      </c>
+      <c r="E340" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="341" spans="1:5">
       <c r="A341" t="s">
@@ -6237,7 +6111,7 @@
         <v>77</v>
       </c>
       <c r="D341" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E341" t="s">
         <v>99</v>
@@ -6271,10 +6145,10 @@
         <v>79</v>
       </c>
       <c r="D343" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E343" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6291,7 +6165,7 @@
         <v>81</v>
       </c>
       <c r="E344" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6305,10 +6179,10 @@
         <v>74</v>
       </c>
       <c r="D345" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E345" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6325,7 +6199,7 @@
         <v>81</v>
       </c>
       <c r="E346" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6338,6 +6212,12 @@
       <c r="C347" t="s">
         <v>76</v>
       </c>
+      <c r="D347" t="s">
+        <v>81</v>
+      </c>
+      <c r="E347" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="348" spans="1:5">
       <c r="A348" t="s">
@@ -6349,12 +6229,6 @@
       <c r="C348" t="s">
         <v>77</v>
       </c>
-      <c r="D348" t="s">
-        <v>81</v>
-      </c>
-      <c r="E348" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="349" spans="1:5">
       <c r="A349" t="s">
@@ -6370,7 +6244,7 @@
         <v>81</v>
       </c>
       <c r="E349" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6384,10 +6258,10 @@
         <v>79</v>
       </c>
       <c r="D350" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E350" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6404,7 +6278,7 @@
         <v>81</v>
       </c>
       <c r="E351" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6418,10 +6292,10 @@
         <v>74</v>
       </c>
       <c r="D352" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E352" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6435,10 +6309,10 @@
         <v>75</v>
       </c>
       <c r="D353" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E353" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6452,10 +6326,10 @@
         <v>76</v>
       </c>
       <c r="D354" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E354" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6469,10 +6343,10 @@
         <v>77</v>
       </c>
       <c r="D355" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E355" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6497,10 +6371,10 @@
         <v>79</v>
       </c>
       <c r="D357" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E357" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6514,10 +6388,10 @@
         <v>80</v>
       </c>
       <c r="D358" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E358" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6531,10 +6405,10 @@
         <v>74</v>
       </c>
       <c r="D359" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E359" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6551,7 +6425,7 @@
         <v>81</v>
       </c>
       <c r="E360" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6576,10 +6450,10 @@
         <v>77</v>
       </c>
       <c r="D362" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E362" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6593,10 +6467,10 @@
         <v>78</v>
       </c>
       <c r="D363" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E363" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6613,7 +6487,7 @@
         <v>90</v>
       </c>
       <c r="E364" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6627,10 +6501,10 @@
         <v>80</v>
       </c>
       <c r="D365" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E365" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6647,7 +6521,7 @@
         <v>81</v>
       </c>
       <c r="E366" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6671,12 +6545,6 @@
       <c r="C368" t="s">
         <v>76</v>
       </c>
-      <c r="D368" t="s">
-        <v>81</v>
-      </c>
-      <c r="E368" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="369" spans="1:5">
       <c r="A369" t="s">
@@ -6689,10 +6557,10 @@
         <v>77</v>
       </c>
       <c r="D369" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E369" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6706,10 +6574,10 @@
         <v>78</v>
       </c>
       <c r="D370" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E370" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6723,10 +6591,10 @@
         <v>79</v>
       </c>
       <c r="D371" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E371" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6740,10 +6608,10 @@
         <v>80</v>
       </c>
       <c r="D372" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E372" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6760,7 +6628,7 @@
         <v>81</v>
       </c>
       <c r="E373" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6773,12 +6641,6 @@
       <c r="C374" t="s">
         <v>75</v>
       </c>
-      <c r="D374" t="s">
-        <v>81</v>
-      </c>
-      <c r="E374" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="375" spans="1:5">
       <c r="A375" t="s">
@@ -6790,6 +6652,12 @@
       <c r="C375" t="s">
         <v>76</v>
       </c>
+      <c r="D375" t="s">
+        <v>87</v>
+      </c>
+      <c r="E375" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="376" spans="1:5">
       <c r="A376" t="s">
@@ -6802,10 +6670,10 @@
         <v>77</v>
       </c>
       <c r="D376" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="E376" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6818,12 +6686,6 @@
       <c r="C377" t="s">
         <v>78</v>
       </c>
-      <c r="D377" t="s">
-        <v>85</v>
-      </c>
-      <c r="E377" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="378" spans="1:5">
       <c r="A378" t="s">
@@ -6836,10 +6698,10 @@
         <v>79</v>
       </c>
       <c r="D378" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E378" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6856,7 +6718,7 @@
         <v>81</v>
       </c>
       <c r="E379" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6873,7 +6735,7 @@
         <v>81</v>
       </c>
       <c r="E380" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6887,10 +6749,10 @@
         <v>75</v>
       </c>
       <c r="D381" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E381" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6904,10 +6766,10 @@
         <v>76</v>
       </c>
       <c r="D382" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E382" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6921,10 +6783,10 @@
         <v>77</v>
       </c>
       <c r="D383" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E383" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6938,10 +6800,10 @@
         <v>78</v>
       </c>
       <c r="D384" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E384" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -6969,7 +6831,7 @@
         <v>90</v>
       </c>
       <c r="E386" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -6983,10 +6845,10 @@
         <v>74</v>
       </c>
       <c r="D387" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E387" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -7003,7 +6865,7 @@
         <v>81</v>
       </c>
       <c r="E388" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -7017,10 +6879,10 @@
         <v>76</v>
       </c>
       <c r="D389" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E389" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -7033,12 +6895,6 @@
       <c r="C390" t="s">
         <v>77</v>
       </c>
-      <c r="D390" t="s">
-        <v>81</v>
-      </c>
-      <c r="E390" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="391" spans="1:5">
       <c r="A391" t="s">
@@ -7051,10 +6907,10 @@
         <v>78</v>
       </c>
       <c r="D391" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E391" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -7067,6 +6923,12 @@
       <c r="C392" t="s">
         <v>79</v>
       </c>
+      <c r="D392" t="s">
+        <v>97</v>
+      </c>
+      <c r="E392" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="393" spans="1:5">
       <c r="A393" t="s">
@@ -7079,10 +6941,10 @@
         <v>80</v>
       </c>
       <c r="D393" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E393" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -7096,10 +6958,10 @@
         <v>74</v>
       </c>
       <c r="D394" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E394" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -7112,12 +6974,6 @@
       <c r="C395" t="s">
         <v>75</v>
       </c>
-      <c r="D395" t="s">
-        <v>81</v>
-      </c>
-      <c r="E395" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="396" spans="1:5">
       <c r="A396" t="s">
@@ -7129,6 +6985,12 @@
       <c r="C396" t="s">
         <v>76</v>
       </c>
+      <c r="D396" t="s">
+        <v>92</v>
+      </c>
+      <c r="E396" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="397" spans="1:5">
       <c r="A397" t="s">
@@ -7144,7 +7006,7 @@
         <v>81</v>
       </c>
       <c r="E397" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -7158,10 +7020,10 @@
         <v>78</v>
       </c>
       <c r="D398" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E398" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -7178,7 +7040,7 @@
         <v>81</v>
       </c>
       <c r="E399" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -7195,7 +7057,7 @@
         <v>81</v>
       </c>
       <c r="E400" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7212,7 +7074,7 @@
         <v>81</v>
       </c>
       <c r="E401" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -7236,12 +7098,6 @@
       <c r="C403" t="s">
         <v>76</v>
       </c>
-      <c r="D403" t="s">
-        <v>92</v>
-      </c>
-      <c r="E403" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="404" spans="1:5">
       <c r="A404" t="s">
@@ -7254,10 +7110,10 @@
         <v>77</v>
       </c>
       <c r="D404" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E404" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -7271,10 +7127,10 @@
         <v>78</v>
       </c>
       <c r="D405" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E405" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -7288,10 +7144,10 @@
         <v>79</v>
       </c>
       <c r="D406" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E406" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -7305,10 +7161,10 @@
         <v>80</v>
       </c>
       <c r="D407" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E407" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -7321,6 +7177,12 @@
       <c r="C408" t="s">
         <v>74</v>
       </c>
+      <c r="D408" t="s">
+        <v>81</v>
+      </c>
+      <c r="E408" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="409" spans="1:5">
       <c r="A409" t="s">
@@ -7332,12 +7194,6 @@
       <c r="C409" t="s">
         <v>75</v>
       </c>
-      <c r="D409" t="s">
-        <v>96</v>
-      </c>
-      <c r="E409" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="410" spans="1:5">
       <c r="A410" t="s">
@@ -7353,7 +7209,7 @@
         <v>81</v>
       </c>
       <c r="E410" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -7370,7 +7226,7 @@
         <v>81</v>
       </c>
       <c r="E411" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -7384,10 +7240,10 @@
         <v>78</v>
       </c>
       <c r="D412" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E412" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -7401,10 +7257,10 @@
         <v>79</v>
       </c>
       <c r="D413" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E413" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -7418,10 +7274,10 @@
         <v>80</v>
       </c>
       <c r="D414" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E414" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -7435,10 +7291,10 @@
         <v>74</v>
       </c>
       <c r="D415" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E415" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -7452,10 +7308,10 @@
         <v>75</v>
       </c>
       <c r="D416" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E416" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -7469,7 +7325,7 @@
         <v>76</v>
       </c>
       <c r="D417" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E417" t="s">
         <v>99</v>
@@ -7485,12 +7341,6 @@
       <c r="C418" t="s">
         <v>77</v>
       </c>
-      <c r="D418" t="s">
-        <v>81</v>
-      </c>
-      <c r="E418" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="419" spans="1:5">
       <c r="A419" t="s">
@@ -7502,6 +7352,12 @@
       <c r="C419" t="s">
         <v>78</v>
       </c>
+      <c r="D419" t="s">
+        <v>83</v>
+      </c>
+      <c r="E419" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="420" spans="1:5">
       <c r="A420" t="s">
@@ -7514,10 +7370,10 @@
         <v>79</v>
       </c>
       <c r="D420" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E420" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -7531,10 +7387,10 @@
         <v>80</v>
       </c>
       <c r="D421" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E421" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -7565,10 +7421,10 @@
         <v>75</v>
       </c>
       <c r="D423" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E423" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -7581,12 +7437,6 @@
       <c r="C424" t="s">
         <v>76</v>
       </c>
-      <c r="D424" t="s">
-        <v>81</v>
-      </c>
-      <c r="E424" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="425" spans="1:5">
       <c r="A425" t="s">
@@ -7598,6 +7448,12 @@
       <c r="C425" t="s">
         <v>77</v>
       </c>
+      <c r="D425" t="s">
+        <v>87</v>
+      </c>
+      <c r="E425" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="426" spans="1:5">
       <c r="A426" t="s">
@@ -7610,10 +7466,10 @@
         <v>78</v>
       </c>
       <c r="D426" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E426" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -7627,10 +7483,10 @@
         <v>79</v>
       </c>
       <c r="D427" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E427" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -7644,10 +7500,10 @@
         <v>80</v>
       </c>
       <c r="D428" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E428" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -7681,7 +7537,7 @@
         <v>81</v>
       </c>
       <c r="E430" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -7695,10 +7551,10 @@
         <v>76</v>
       </c>
       <c r="D431" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E431" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -7723,10 +7579,10 @@
         <v>78</v>
       </c>
       <c r="D433" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E433" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -7740,10 +7596,10 @@
         <v>79</v>
       </c>
       <c r="D434" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E434" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -7757,10 +7613,10 @@
         <v>80</v>
       </c>
       <c r="D435" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E435" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -7806,13 +7662,13 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>56</v>
       </c>
       <c r="D2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -7826,13 +7682,13 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>56</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -7846,13 +7702,13 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>56</v>
       </c>
       <c r="D4">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -7866,13 +7722,13 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>56</v>
       </c>
       <c r="D5">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7886,13 +7742,13 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>56</v>
       </c>
       <c r="D6">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -7906,13 +7762,13 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>56</v>
       </c>
       <c r="D7">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7926,13 +7782,13 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <v>56</v>
       </c>
       <c r="D8">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7946,13 +7802,13 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>56</v>
       </c>
       <c r="D9">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -7966,13 +7822,13 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>56</v>
       </c>
       <c r="D10">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -7986,13 +7842,13 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>56</v>
       </c>
       <c r="D11">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -8006,13 +7862,13 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C12">
         <v>56</v>
       </c>
       <c r="D12">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -8026,13 +7882,13 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C13">
         <v>56</v>
       </c>
       <c r="D13">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -8046,13 +7902,13 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C14">
         <v>56</v>
       </c>
       <c r="D14">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -8066,13 +7922,13 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>56</v>
       </c>
       <c r="D15">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -8086,13 +7942,13 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C16">
         <v>56</v>
       </c>
       <c r="D16">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -8106,13 +7962,13 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C17">
         <v>56</v>
       </c>
       <c r="D17">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -8126,13 +7982,13 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>56</v>
       </c>
       <c r="D18">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -8146,13 +8002,13 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>56</v>
       </c>
       <c r="D19">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -8166,13 +8022,13 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>56</v>
       </c>
       <c r="D20">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -8186,13 +8042,13 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>56</v>
       </c>
       <c r="D21">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -8206,13 +8062,13 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>56</v>
       </c>
       <c r="D22">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -8226,13 +8082,13 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>56</v>
       </c>
       <c r="D23">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -8246,13 +8102,13 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <v>56</v>
       </c>
       <c r="D24">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -8266,13 +8122,13 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C25">
         <v>56</v>
       </c>
       <c r="D25">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -8286,13 +8142,13 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C26">
         <v>56</v>
       </c>
       <c r="D26">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -8306,13 +8162,13 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C27">
         <v>56</v>
       </c>
       <c r="D27">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -8326,13 +8182,13 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C28">
         <v>56</v>
       </c>
       <c r="D28">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -8346,13 +8202,13 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C29">
         <v>56</v>
       </c>
       <c r="D29">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -8366,13 +8222,13 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C30">
         <v>56</v>
       </c>
       <c r="D30">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -8386,13 +8242,13 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C31">
         <v>56</v>
       </c>
       <c r="D31">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -8406,13 +8262,13 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C32">
         <v>56</v>
       </c>
       <c r="D32">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -8426,13 +8282,13 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C33">
         <v>56</v>
       </c>
       <c r="D33">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -8446,13 +8302,13 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C34">
         <v>56</v>
       </c>
       <c r="D34">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -8466,13 +8322,13 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C35">
         <v>56</v>
       </c>
       <c r="D35">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -8486,13 +8342,13 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C36">
         <v>56</v>
       </c>
       <c r="D36">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -8506,13 +8362,13 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C37">
         <v>56</v>
       </c>
       <c r="D37">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -8526,13 +8382,13 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C38">
         <v>56</v>
       </c>
       <c r="D38">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -8546,13 +8402,13 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C39">
         <v>56</v>
       </c>
       <c r="D39">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -8566,13 +8422,13 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C40">
         <v>56</v>
       </c>
       <c r="D40">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -8586,13 +8442,13 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C41">
         <v>56</v>
       </c>
       <c r="D41">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -8606,13 +8462,13 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C42">
         <v>56</v>
       </c>
       <c r="D42">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -8626,13 +8482,13 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C43">
         <v>56</v>
       </c>
       <c r="D43">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -8646,13 +8502,13 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C44">
         <v>56</v>
       </c>
       <c r="D44">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -8666,13 +8522,13 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C45">
         <v>56</v>
       </c>
       <c r="D45">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -8686,13 +8542,13 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C46">
         <v>56</v>
       </c>
       <c r="D46">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -8706,13 +8562,13 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C47">
         <v>56</v>
       </c>
       <c r="D47">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -8726,13 +8582,13 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C48">
         <v>56</v>
       </c>
       <c r="D48">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -8746,13 +8602,13 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C49">
         <v>56</v>
       </c>
       <c r="D49">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -8766,13 +8622,13 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C50">
         <v>56</v>
       </c>
       <c r="D50">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -8786,13 +8642,13 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C51">
         <v>56</v>
       </c>
       <c r="D51">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -8806,13 +8662,13 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C52">
         <v>56</v>
       </c>
       <c r="D52">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -8826,13 +8682,13 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C53">
         <v>56</v>
       </c>
       <c r="D53">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -8846,13 +8702,13 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C54">
         <v>56</v>
       </c>
       <c r="D54">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -8866,13 +8722,13 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C55">
         <v>56</v>
       </c>
       <c r="D55">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -8886,13 +8742,13 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C56">
         <v>56</v>
       </c>
       <c r="D56">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -8906,13 +8762,13 @@
         <v>60</v>
       </c>
       <c r="B57">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C57">
         <v>56</v>
       </c>
       <c r="D57">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -8926,13 +8782,13 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C58">
         <v>56</v>
       </c>
       <c r="D58">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -8946,13 +8802,13 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C59">
         <v>56</v>
       </c>
       <c r="D59">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -8966,13 +8822,13 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C60">
         <v>56</v>
       </c>
       <c r="D60">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -8986,13 +8842,13 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C61">
         <v>56</v>
       </c>
       <c r="D61">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -9006,13 +8862,13 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C62">
         <v>56</v>
       </c>
       <c r="D62">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -9026,13 +8882,13 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C63">
         <v>56</v>
       </c>
       <c r="D63">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E63">
         <v>0</v>

--- a/Solution.xlsx
+++ b/Solution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="135">
   <si>
     <t>Employee</t>
   </si>
@@ -264,79 +264,73 @@
     <t>Sunday</t>
   </si>
   <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>19:30</t>
+  </si>
+  <si>
     <t>13:00</t>
   </si>
   <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>18:30</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>17:30</t>
+  </si>
+  <si>
+    <t>10:30</t>
+  </si>
+  <si>
     <t>14:30</t>
   </si>
   <si>
-    <t>09:30</t>
-  </si>
-  <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>15:00</t>
-  </si>
-  <si>
-    <t>17:30</t>
-  </si>
-  <si>
-    <t>10:30</t>
-  </si>
-  <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>15:30</t>
-  </si>
-  <si>
-    <t>18:30</t>
-  </si>
-  <si>
-    <t>16:30</t>
-  </si>
-  <si>
     <t>11:30</t>
   </si>
   <si>
-    <t>19:30</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>17:00</t>
-  </si>
-  <si>
     <t>12:30</t>
   </si>
   <si>
-    <t>16:00</t>
-  </si>
-  <si>
-    <t>19:00</t>
-  </si>
-  <si>
-    <t>20:00</t>
-  </si>
-  <si>
     <t>21:00</t>
   </si>
   <si>
     <t>18:00</t>
-  </si>
-  <si>
-    <t>20:30</t>
   </si>
   <si>
     <t>min_hours_per_week</t>
@@ -846,6 +840,12 @@
       <c r="C2" t="s">
         <v>75</v>
       </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
+        <v>103</v>
+      </c>
       <c r="F2">
         <v>0</v>
       </c>
@@ -861,10 +861,10 @@
         <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -880,12 +880,6 @@
       <c r="C4" t="s">
         <v>77</v>
       </c>
-      <c r="D4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" t="s">
-        <v>104</v>
-      </c>
       <c r="F4">
         <v>0</v>
       </c>
@@ -904,7 +898,7 @@
         <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -944,7 +938,7 @@
         <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -975,10 +969,10 @@
         <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -998,7 +992,7 @@
         <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1015,10 +1009,10 @@
         <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1034,12 +1028,6 @@
       <c r="C12" t="s">
         <v>78</v>
       </c>
-      <c r="D12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" t="s">
-        <v>94</v>
-      </c>
       <c r="F12">
         <v>0</v>
       </c>
@@ -1054,6 +1042,12 @@
       <c r="C13" t="s">
         <v>79</v>
       </c>
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" t="s">
+        <v>103</v>
+      </c>
       <c r="F13">
         <v>0</v>
       </c>
@@ -1069,10 +1063,10 @@
         <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1089,10 +1083,10 @@
         <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1108,6 +1102,12 @@
       <c r="C16" t="s">
         <v>75</v>
       </c>
+      <c r="D16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" t="s">
+        <v>87</v>
+      </c>
       <c r="F16">
         <v>0</v>
       </c>
@@ -1122,12 +1122,6 @@
       <c r="C17" t="s">
         <v>76</v>
       </c>
-      <c r="D17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" t="s">
-        <v>93</v>
-      </c>
       <c r="F17">
         <v>0</v>
       </c>
@@ -1143,10 +1137,10 @@
         <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1163,10 +1157,10 @@
         <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1183,10 +1177,10 @@
         <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1203,10 +1197,10 @@
         <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1237,7 +1231,7 @@
         <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
         <v>104</v>
@@ -1276,12 +1270,6 @@
       <c r="C25" t="s">
         <v>77</v>
       </c>
-      <c r="D25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" t="s">
-        <v>104</v>
-      </c>
       <c r="F25">
         <v>0</v>
       </c>
@@ -1297,10 +1285,10 @@
         <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1317,10 +1305,10 @@
         <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1337,10 +1325,10 @@
         <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1356,6 +1344,12 @@
       <c r="C29" t="s">
         <v>81</v>
       </c>
+      <c r="D29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" t="s">
+        <v>103</v>
+      </c>
       <c r="F29">
         <v>0</v>
       </c>
@@ -1371,10 +1365,10 @@
         <v>75</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1390,6 +1384,12 @@
       <c r="C31" t="s">
         <v>76</v>
       </c>
+      <c r="D31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" t="s">
+        <v>103</v>
+      </c>
       <c r="F31">
         <v>0</v>
       </c>
@@ -1405,10 +1405,10 @@
         <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E32" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>78</v>
       </c>
       <c r="D33" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1445,10 +1445,10 @@
         <v>79</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E34" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1464,12 +1464,6 @@
       <c r="C35" t="s">
         <v>80</v>
       </c>
-      <c r="D35" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" t="s">
-        <v>99</v>
-      </c>
       <c r="F35">
         <v>0</v>
       </c>
@@ -1502,7 +1496,7 @@
         <v>85</v>
       </c>
       <c r="E37" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1522,7 +1516,7 @@
         <v>85</v>
       </c>
       <c r="E38" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1553,10 +1547,10 @@
         <v>78</v>
       </c>
       <c r="D40" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E40" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1573,10 +1567,10 @@
         <v>79</v>
       </c>
       <c r="D41" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1593,10 +1587,10 @@
         <v>80</v>
       </c>
       <c r="D42" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E42" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1613,10 +1607,10 @@
         <v>81</v>
       </c>
       <c r="D43" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E43" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1633,10 +1627,10 @@
         <v>75</v>
       </c>
       <c r="D44" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E44" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1653,10 +1647,10 @@
         <v>76</v>
       </c>
       <c r="D45" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E45" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1673,10 +1667,10 @@
         <v>77</v>
       </c>
       <c r="D46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E46" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1692,6 +1686,12 @@
       <c r="C47" t="s">
         <v>78</v>
       </c>
+      <c r="D47" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" t="s">
+        <v>92</v>
+      </c>
       <c r="F47">
         <v>0</v>
       </c>
@@ -1706,12 +1706,6 @@
       <c r="C48" t="s">
         <v>79</v>
       </c>
-      <c r="D48" t="s">
-        <v>85</v>
-      </c>
-      <c r="E48" t="s">
-        <v>99</v>
-      </c>
       <c r="F48">
         <v>0</v>
       </c>
@@ -1727,10 +1721,10 @@
         <v>80</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1761,10 +1755,10 @@
         <v>75</v>
       </c>
       <c r="D51" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E51" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1781,10 +1775,10 @@
         <v>76</v>
       </c>
       <c r="D52" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1804,7 +1798,7 @@
         <v>84</v>
       </c>
       <c r="E53" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -1824,7 +1818,7 @@
         <v>85</v>
       </c>
       <c r="E54" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1840,12 +1834,6 @@
       <c r="C55" t="s">
         <v>79</v>
       </c>
-      <c r="D55" t="s">
-        <v>89</v>
-      </c>
-      <c r="E55" t="s">
-        <v>102</v>
-      </c>
       <c r="F55">
         <v>0</v>
       </c>
@@ -1860,6 +1848,12 @@
       <c r="C56" t="s">
         <v>80</v>
       </c>
+      <c r="D56" t="s">
+        <v>89</v>
+      </c>
+      <c r="E56" t="s">
+        <v>103</v>
+      </c>
       <c r="F56">
         <v>0</v>
       </c>
@@ -1875,10 +1869,10 @@
         <v>81</v>
       </c>
       <c r="D57" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E57" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -1895,10 +1889,10 @@
         <v>75</v>
       </c>
       <c r="D58" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E58" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -1914,12 +1908,6 @@
       <c r="C59" t="s">
         <v>76</v>
       </c>
-      <c r="D59" t="s">
-        <v>85</v>
-      </c>
-      <c r="E59" t="s">
-        <v>99</v>
-      </c>
       <c r="F59">
         <v>0</v>
       </c>
@@ -1938,7 +1926,7 @@
         <v>85</v>
       </c>
       <c r="E60" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -1954,6 +1942,12 @@
       <c r="C61" t="s">
         <v>78</v>
       </c>
+      <c r="D61" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" t="s">
+        <v>99</v>
+      </c>
       <c r="F61">
         <v>0</v>
       </c>
@@ -1969,10 +1963,10 @@
         <v>79</v>
       </c>
       <c r="D62" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E62" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1989,10 +1983,10 @@
         <v>80</v>
       </c>
       <c r="D63" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E63" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2023,10 +2017,10 @@
         <v>75</v>
       </c>
       <c r="D65" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2060,7 +2054,7 @@
         <v>85</v>
       </c>
       <c r="E67" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2077,10 +2071,10 @@
         <v>78</v>
       </c>
       <c r="D68" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E68" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2096,6 +2090,12 @@
       <c r="C69" t="s">
         <v>79</v>
       </c>
+      <c r="D69" t="s">
+        <v>85</v>
+      </c>
+      <c r="E69" t="s">
+        <v>102</v>
+      </c>
       <c r="F69">
         <v>0</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>85</v>
       </c>
       <c r="E70" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>81</v>
       </c>
       <c r="D71" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="E71" t="s">
         <v>104</v>
@@ -2151,10 +2151,10 @@
         <v>75</v>
       </c>
       <c r="D72" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E72" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2171,10 +2171,10 @@
         <v>76</v>
       </c>
       <c r="D73" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E73" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -2191,10 +2191,10 @@
         <v>77</v>
       </c>
       <c r="D74" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E74" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -2211,10 +2211,10 @@
         <v>78</v>
       </c>
       <c r="D75" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E75" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -2230,12 +2230,6 @@
       <c r="C76" t="s">
         <v>79</v>
       </c>
-      <c r="D76" t="s">
-        <v>85</v>
-      </c>
-      <c r="E76" t="s">
-        <v>101</v>
-      </c>
       <c r="F76">
         <v>0</v>
       </c>
@@ -2250,12 +2244,6 @@
       <c r="C77" t="s">
         <v>80</v>
       </c>
-      <c r="D77" t="s">
-        <v>99</v>
-      </c>
-      <c r="E77" t="s">
-        <v>104</v>
-      </c>
       <c r="F77">
         <v>0</v>
       </c>
@@ -2299,10 +2287,10 @@
         <v>76</v>
       </c>
       <c r="D80" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E80" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2318,12 +2306,6 @@
       <c r="C81" t="s">
         <v>77</v>
       </c>
-      <c r="D81" t="s">
-        <v>85</v>
-      </c>
-      <c r="E81" t="s">
-        <v>99</v>
-      </c>
       <c r="F81">
         <v>0</v>
       </c>
@@ -2339,10 +2321,10 @@
         <v>78</v>
       </c>
       <c r="D82" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E82" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2359,10 +2341,10 @@
         <v>79</v>
       </c>
       <c r="D83" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E83" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -2379,10 +2361,10 @@
         <v>80</v>
       </c>
       <c r="D84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -2402,7 +2384,7 @@
         <v>85</v>
       </c>
       <c r="E85" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2419,10 +2401,10 @@
         <v>75</v>
       </c>
       <c r="D86" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2439,7 +2421,7 @@
         <v>76</v>
       </c>
       <c r="D87" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E87" t="s">
         <v>103</v>
@@ -2458,12 +2440,6 @@
       <c r="C88" t="s">
         <v>77</v>
       </c>
-      <c r="D88" t="s">
-        <v>91</v>
-      </c>
-      <c r="E88" t="s">
-        <v>104</v>
-      </c>
       <c r="F88">
         <v>0</v>
       </c>
@@ -2479,10 +2455,10 @@
         <v>78</v>
       </c>
       <c r="D89" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E89" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2498,6 +2474,12 @@
       <c r="C90" t="s">
         <v>79</v>
       </c>
+      <c r="D90" t="s">
+        <v>83</v>
+      </c>
+      <c r="E90" t="s">
+        <v>93</v>
+      </c>
       <c r="F90">
         <v>0</v>
       </c>
@@ -2513,10 +2495,10 @@
         <v>80</v>
       </c>
       <c r="D91" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E91" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2546,6 +2528,12 @@
       <c r="C93" t="s">
         <v>75</v>
       </c>
+      <c r="D93" t="s">
+        <v>84</v>
+      </c>
+      <c r="E93" t="s">
+        <v>103</v>
+      </c>
       <c r="F93">
         <v>0</v>
       </c>
@@ -2560,12 +2548,6 @@
       <c r="C94" t="s">
         <v>76</v>
       </c>
-      <c r="D94" t="s">
-        <v>89</v>
-      </c>
-      <c r="E94" t="s">
-        <v>97</v>
-      </c>
       <c r="F94">
         <v>0</v>
       </c>
@@ -2581,10 +2563,10 @@
         <v>77</v>
       </c>
       <c r="D95" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E95" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -2601,10 +2583,10 @@
         <v>78</v>
       </c>
       <c r="D96" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E96" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -2621,10 +2603,10 @@
         <v>79</v>
       </c>
       <c r="D97" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E97" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2641,10 +2623,10 @@
         <v>80</v>
       </c>
       <c r="D98" t="s">
+        <v>85</v>
+      </c>
+      <c r="E98" t="s">
         <v>84</v>
-      </c>
-      <c r="E98" t="s">
-        <v>87</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2661,10 +2643,10 @@
         <v>81</v>
       </c>
       <c r="D99" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E99" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -2684,7 +2666,7 @@
         <v>85</v>
       </c>
       <c r="E100" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -2701,10 +2683,10 @@
         <v>76</v>
       </c>
       <c r="D101" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E101" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -2720,12 +2702,6 @@
       <c r="C102" t="s">
         <v>77</v>
       </c>
-      <c r="D102" t="s">
-        <v>85</v>
-      </c>
-      <c r="E102" t="s">
-        <v>95</v>
-      </c>
       <c r="F102">
         <v>0</v>
       </c>
@@ -2754,12 +2730,6 @@
       <c r="C104" t="s">
         <v>79</v>
       </c>
-      <c r="D104" t="s">
-        <v>82</v>
-      </c>
-      <c r="E104" t="s">
-        <v>104</v>
-      </c>
       <c r="F104">
         <v>0</v>
       </c>
@@ -2774,12 +2744,6 @@
       <c r="C105" t="s">
         <v>80</v>
       </c>
-      <c r="D105" t="s">
-        <v>89</v>
-      </c>
-      <c r="E105" t="s">
-        <v>94</v>
-      </c>
       <c r="F105">
         <v>0</v>
       </c>
@@ -2826,7 +2790,7 @@
         <v>85</v>
       </c>
       <c r="E108" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -2843,10 +2807,10 @@
         <v>77</v>
       </c>
       <c r="D109" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E109" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -2863,10 +2827,10 @@
         <v>78</v>
       </c>
       <c r="D110" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E110" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -2886,7 +2850,7 @@
         <v>85</v>
       </c>
       <c r="E111" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -2902,12 +2866,6 @@
       <c r="C112" t="s">
         <v>80</v>
       </c>
-      <c r="D112" t="s">
-        <v>85</v>
-      </c>
-      <c r="E112" t="s">
-        <v>101</v>
-      </c>
       <c r="F112">
         <v>0</v>
       </c>
@@ -2923,10 +2881,10 @@
         <v>81</v>
       </c>
       <c r="D113" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E113" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -2942,12 +2900,6 @@
       <c r="C114" t="s">
         <v>75</v>
       </c>
-      <c r="D114" t="s">
-        <v>84</v>
-      </c>
-      <c r="E114" t="s">
-        <v>87</v>
-      </c>
       <c r="F114">
         <v>0</v>
       </c>
@@ -2963,10 +2915,10 @@
         <v>76</v>
       </c>
       <c r="D115" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E115" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -2983,10 +2935,10 @@
         <v>77</v>
       </c>
       <c r="D116" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E116" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -3003,7 +2955,7 @@
         <v>78</v>
       </c>
       <c r="D117" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E117" t="s">
         <v>104</v>
@@ -3022,12 +2974,6 @@
       <c r="C118" t="s">
         <v>79</v>
       </c>
-      <c r="D118" t="s">
-        <v>85</v>
-      </c>
-      <c r="E118" t="s">
-        <v>99</v>
-      </c>
       <c r="F118">
         <v>0</v>
       </c>
@@ -3042,6 +2988,12 @@
       <c r="C119" t="s">
         <v>80</v>
       </c>
+      <c r="D119" t="s">
+        <v>84</v>
+      </c>
+      <c r="E119" t="s">
+        <v>104</v>
+      </c>
       <c r="F119">
         <v>0</v>
       </c>
@@ -3085,10 +3037,10 @@
         <v>76</v>
       </c>
       <c r="D122" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E122" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -3105,10 +3057,10 @@
         <v>77</v>
       </c>
       <c r="D123" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E123" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -3128,7 +3080,7 @@
         <v>85</v>
       </c>
       <c r="E124" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -3144,12 +3096,6 @@
       <c r="C125" t="s">
         <v>79</v>
       </c>
-      <c r="D125" t="s">
-        <v>93</v>
-      </c>
-      <c r="E125" t="s">
-        <v>103</v>
-      </c>
       <c r="F125">
         <v>0</v>
       </c>
@@ -3165,10 +3111,10 @@
         <v>80</v>
       </c>
       <c r="D126" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E126" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -3185,10 +3131,10 @@
         <v>81</v>
       </c>
       <c r="D127" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E127" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -3208,7 +3154,7 @@
         <v>85</v>
       </c>
       <c r="E128" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -3225,10 +3171,10 @@
         <v>76</v>
       </c>
       <c r="D129" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E129" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -3248,7 +3194,7 @@
         <v>85</v>
       </c>
       <c r="E130" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -3265,10 +3211,10 @@
         <v>78</v>
       </c>
       <c r="D131" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E131" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -3285,10 +3231,10 @@
         <v>79</v>
       </c>
       <c r="D132" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E132" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -3305,10 +3251,10 @@
         <v>80</v>
       </c>
       <c r="D133" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E133" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -3339,10 +3285,10 @@
         <v>75</v>
       </c>
       <c r="D135" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E135" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -3358,12 +3304,6 @@
       <c r="C136" t="s">
         <v>76</v>
       </c>
-      <c r="D136" t="s">
-        <v>85</v>
-      </c>
-      <c r="E136" t="s">
-        <v>95</v>
-      </c>
       <c r="F136">
         <v>0</v>
       </c>
@@ -3378,6 +3318,12 @@
       <c r="C137" t="s">
         <v>77</v>
       </c>
+      <c r="D137" t="s">
+        <v>98</v>
+      </c>
+      <c r="E137" t="s">
+        <v>103</v>
+      </c>
       <c r="F137">
         <v>0</v>
       </c>
@@ -3392,12 +3338,6 @@
       <c r="C138" t="s">
         <v>78</v>
       </c>
-      <c r="D138" t="s">
-        <v>84</v>
-      </c>
-      <c r="E138" t="s">
-        <v>87</v>
-      </c>
       <c r="F138">
         <v>0</v>
       </c>
@@ -3412,6 +3352,12 @@
       <c r="C139" t="s">
         <v>79</v>
       </c>
+      <c r="D139" t="s">
+        <v>90</v>
+      </c>
+      <c r="E139" t="s">
+        <v>104</v>
+      </c>
       <c r="F139">
         <v>0</v>
       </c>
@@ -3427,10 +3373,10 @@
         <v>80</v>
       </c>
       <c r="D140" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E140" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -3447,10 +3393,10 @@
         <v>81</v>
       </c>
       <c r="D141" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E141" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -3470,7 +3416,7 @@
         <v>85</v>
       </c>
       <c r="E142" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -3486,6 +3432,12 @@
       <c r="C143" t="s">
         <v>76</v>
       </c>
+      <c r="D143" t="s">
+        <v>99</v>
+      </c>
+      <c r="E143" t="s">
+        <v>98</v>
+      </c>
       <c r="F143">
         <v>0</v>
       </c>
@@ -3501,10 +3453,10 @@
         <v>77</v>
       </c>
       <c r="D144" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E144" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -3520,12 +3472,6 @@
       <c r="C145" t="s">
         <v>78</v>
       </c>
-      <c r="D145" t="s">
-        <v>85</v>
-      </c>
-      <c r="E145" t="s">
-        <v>99</v>
-      </c>
       <c r="F145">
         <v>0</v>
       </c>
@@ -3541,7 +3487,7 @@
         <v>79</v>
       </c>
       <c r="D146" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E146" t="s">
         <v>104</v>
@@ -3561,10 +3507,10 @@
         <v>80</v>
       </c>
       <c r="D147" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E147" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -3595,10 +3541,10 @@
         <v>75</v>
       </c>
       <c r="D149" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E149" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -3614,6 +3560,12 @@
       <c r="C150" t="s">
         <v>76</v>
       </c>
+      <c r="D150" t="s">
+        <v>85</v>
+      </c>
+      <c r="E150" t="s">
+        <v>84</v>
+      </c>
       <c r="F150">
         <v>0</v>
       </c>
@@ -3628,12 +3580,6 @@
       <c r="C151" t="s">
         <v>77</v>
       </c>
-      <c r="D151" t="s">
-        <v>98</v>
-      </c>
-      <c r="E151" t="s">
-        <v>94</v>
-      </c>
       <c r="F151">
         <v>0</v>
       </c>
@@ -3649,10 +3595,10 @@
         <v>78</v>
       </c>
       <c r="D152" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E152" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -3669,10 +3615,10 @@
         <v>79</v>
       </c>
       <c r="D153" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E153" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -3688,6 +3634,12 @@
       <c r="C154" t="s">
         <v>80</v>
       </c>
+      <c r="D154" t="s">
+        <v>85</v>
+      </c>
+      <c r="E154" t="s">
+        <v>84</v>
+      </c>
       <c r="F154">
         <v>0</v>
       </c>
@@ -3703,10 +3655,10 @@
         <v>81</v>
       </c>
       <c r="D155" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E155" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -3737,10 +3689,10 @@
         <v>76</v>
       </c>
       <c r="D157" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="E157" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -3757,7 +3709,7 @@
         <v>77</v>
       </c>
       <c r="D158" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E158" t="s">
         <v>103</v>
@@ -3777,10 +3729,10 @@
         <v>78</v>
       </c>
       <c r="D159" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E159" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -3797,10 +3749,10 @@
         <v>79</v>
       </c>
       <c r="D160" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E160" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -3817,10 +3769,10 @@
         <v>80</v>
       </c>
       <c r="D161" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E161" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -3851,10 +3803,10 @@
         <v>75</v>
       </c>
       <c r="D163" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E163" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -3871,10 +3823,10 @@
         <v>76</v>
       </c>
       <c r="D164" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E164" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -3891,10 +3843,10 @@
         <v>77</v>
       </c>
       <c r="D165" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E165" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -3910,12 +3862,6 @@
       <c r="C166" t="s">
         <v>78</v>
       </c>
-      <c r="D166" t="s">
-        <v>99</v>
-      </c>
-      <c r="E166" t="s">
-        <v>104</v>
-      </c>
       <c r="F166">
         <v>0</v>
       </c>
@@ -3930,6 +3876,12 @@
       <c r="C167" t="s">
         <v>79</v>
       </c>
+      <c r="D167" t="s">
+        <v>100</v>
+      </c>
+      <c r="E167" t="s">
+        <v>103</v>
+      </c>
       <c r="F167">
         <v>0</v>
       </c>
@@ -3945,10 +3897,10 @@
         <v>80</v>
       </c>
       <c r="D168" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="E168" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -3965,10 +3917,10 @@
         <v>81</v>
       </c>
       <c r="D169" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E169" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -3999,10 +3951,10 @@
         <v>76</v>
       </c>
       <c r="D171" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E171" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -4019,10 +3971,10 @@
         <v>77</v>
       </c>
       <c r="D172" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E172" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -4039,10 +3991,10 @@
         <v>78</v>
       </c>
       <c r="D173" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E173" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -4059,10 +4011,10 @@
         <v>79</v>
       </c>
       <c r="D174" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E174" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -4082,7 +4034,7 @@
         <v>85</v>
       </c>
       <c r="E175" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -4126,12 +4078,6 @@
       <c r="C178" t="s">
         <v>76</v>
       </c>
-      <c r="D178" t="s">
-        <v>85</v>
-      </c>
-      <c r="E178" t="s">
-        <v>99</v>
-      </c>
       <c r="F178">
         <v>0</v>
       </c>
@@ -4146,12 +4092,6 @@
       <c r="C179" t="s">
         <v>77</v>
       </c>
-      <c r="D179" t="s">
-        <v>82</v>
-      </c>
-      <c r="E179" t="s">
-        <v>104</v>
-      </c>
       <c r="F179">
         <v>0</v>
       </c>
@@ -4166,12 +4106,6 @@
       <c r="C180" t="s">
         <v>78</v>
       </c>
-      <c r="D180" t="s">
-        <v>85</v>
-      </c>
-      <c r="E180" t="s">
-        <v>83</v>
-      </c>
       <c r="F180">
         <v>0</v>
       </c>
@@ -4187,10 +4121,10 @@
         <v>79</v>
       </c>
       <c r="D181" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E181" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -4207,10 +4141,10 @@
         <v>80</v>
       </c>
       <c r="D182" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E182" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -4227,10 +4161,10 @@
         <v>81</v>
       </c>
       <c r="D183" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E183" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -4261,10 +4195,10 @@
         <v>76</v>
       </c>
       <c r="D185" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E185" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -4281,10 +4215,10 @@
         <v>77</v>
       </c>
       <c r="D186" t="s">
+        <v>85</v>
+      </c>
+      <c r="E186" t="s">
         <v>89</v>
-      </c>
-      <c r="E186" t="s">
-        <v>103</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -4300,12 +4234,6 @@
       <c r="C187" t="s">
         <v>78</v>
       </c>
-      <c r="D187" t="s">
-        <v>85</v>
-      </c>
-      <c r="E187" t="s">
-        <v>91</v>
-      </c>
       <c r="F187">
         <v>0</v>
       </c>
@@ -4321,10 +4249,10 @@
         <v>79</v>
       </c>
       <c r="D188" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E188" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -4341,10 +4269,10 @@
         <v>80</v>
       </c>
       <c r="D189" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E189" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -4389,10 +4317,10 @@
         <v>76</v>
       </c>
       <c r="D192" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E192" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -4409,7 +4337,7 @@
         <v>77</v>
       </c>
       <c r="D193" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E193" t="s">
         <v>104</v>
@@ -4429,10 +4357,10 @@
         <v>78</v>
       </c>
       <c r="D194" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E194" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -4449,10 +4377,10 @@
         <v>79</v>
       </c>
       <c r="D195" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="E195" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -4469,10 +4397,10 @@
         <v>80</v>
       </c>
       <c r="D196" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E196" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -4492,7 +4420,7 @@
         <v>85</v>
       </c>
       <c r="E197" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -4509,10 +4437,10 @@
         <v>75</v>
       </c>
       <c r="D198" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E198" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -4529,10 +4457,10 @@
         <v>76</v>
       </c>
       <c r="D199" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E199" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -4549,10 +4477,10 @@
         <v>77</v>
       </c>
       <c r="D200" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E200" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -4568,12 +4496,6 @@
       <c r="C201" t="s">
         <v>78</v>
       </c>
-      <c r="D201" t="s">
-        <v>82</v>
-      </c>
-      <c r="E201" t="s">
-        <v>105</v>
-      </c>
       <c r="F201">
         <v>0</v>
       </c>
@@ -4588,6 +4510,12 @@
       <c r="C202" t="s">
         <v>79</v>
       </c>
+      <c r="D202" t="s">
+        <v>86</v>
+      </c>
+      <c r="E202" t="s">
+        <v>103</v>
+      </c>
       <c r="F202">
         <v>0</v>
       </c>
@@ -4602,6 +4530,12 @@
       <c r="C203" t="s">
         <v>80</v>
       </c>
+      <c r="D203" t="s">
+        <v>95</v>
+      </c>
+      <c r="E203" t="s">
+        <v>103</v>
+      </c>
       <c r="F203">
         <v>0</v>
       </c>
@@ -4617,10 +4551,10 @@
         <v>81</v>
       </c>
       <c r="D204" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E204" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -4651,10 +4585,10 @@
         <v>76</v>
       </c>
       <c r="D206" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E206" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -4671,7 +4605,7 @@
         <v>77</v>
       </c>
       <c r="D207" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E207" t="s">
         <v>103</v>
@@ -4691,10 +4625,10 @@
         <v>78</v>
       </c>
       <c r="D208" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E208" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="F208">
         <v>0</v>
@@ -4711,10 +4645,10 @@
         <v>79</v>
       </c>
       <c r="D209" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E209" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -4731,10 +4665,10 @@
         <v>80</v>
       </c>
       <c r="D210" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E210" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -4750,12 +4684,6 @@
       <c r="C211" t="s">
         <v>81</v>
       </c>
-      <c r="D211" t="s">
-        <v>99</v>
-      </c>
-      <c r="E211" t="s">
-        <v>104</v>
-      </c>
       <c r="F211">
         <v>0</v>
       </c>
@@ -4771,10 +4699,10 @@
         <v>75</v>
       </c>
       <c r="D212" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E212" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -4790,12 +4718,6 @@
       <c r="C213" t="s">
         <v>76</v>
       </c>
-      <c r="D213" t="s">
-        <v>85</v>
-      </c>
-      <c r="E213" t="s">
-        <v>83</v>
-      </c>
       <c r="F213">
         <v>0</v>
       </c>
@@ -4811,7 +4733,7 @@
         <v>77</v>
       </c>
       <c r="D214" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E214" t="s">
         <v>104</v>
@@ -4831,10 +4753,10 @@
         <v>78</v>
       </c>
       <c r="D215" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E215" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -4868,7 +4790,7 @@
         <v>82</v>
       </c>
       <c r="E217" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -4888,7 +4810,7 @@
         <v>85</v>
       </c>
       <c r="E218" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -4904,12 +4826,6 @@
       <c r="C219" t="s">
         <v>75</v>
       </c>
-      <c r="D219" t="s">
-        <v>91</v>
-      </c>
-      <c r="E219" t="s">
-        <v>106</v>
-      </c>
       <c r="F219">
         <v>0</v>
       </c>
@@ -4925,10 +4841,10 @@
         <v>76</v>
       </c>
       <c r="D220" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E220" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F220">
         <v>0</v>
@@ -4945,10 +4861,10 @@
         <v>77</v>
       </c>
       <c r="D221" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E221" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F221">
         <v>0</v>
@@ -4964,6 +4880,12 @@
       <c r="C222" t="s">
         <v>78</v>
       </c>
+      <c r="D222" t="s">
+        <v>82</v>
+      </c>
+      <c r="E222" t="s">
+        <v>103</v>
+      </c>
       <c r="F222">
         <v>0</v>
       </c>
@@ -4979,10 +4901,10 @@
         <v>79</v>
       </c>
       <c r="D223" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E223" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -4999,10 +4921,10 @@
         <v>80</v>
       </c>
       <c r="D224" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E224" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -5019,10 +4941,10 @@
         <v>81</v>
       </c>
       <c r="D225" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E225" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -5039,10 +4961,10 @@
         <v>75</v>
       </c>
       <c r="D226" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E226" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -5059,10 +4981,10 @@
         <v>76</v>
       </c>
       <c r="D227" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E227" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -5079,10 +5001,10 @@
         <v>77</v>
       </c>
       <c r="D228" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E228" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -5098,6 +5020,12 @@
       <c r="C229" t="s">
         <v>78</v>
       </c>
+      <c r="D229" t="s">
+        <v>87</v>
+      </c>
+      <c r="E229" t="s">
+        <v>103</v>
+      </c>
       <c r="F229">
         <v>0</v>
       </c>
@@ -5112,12 +5040,6 @@
       <c r="C230" t="s">
         <v>79</v>
       </c>
-      <c r="D230" t="s">
-        <v>93</v>
-      </c>
-      <c r="E230" t="s">
-        <v>95</v>
-      </c>
       <c r="F230">
         <v>0</v>
       </c>
@@ -5133,10 +5055,10 @@
         <v>80</v>
       </c>
       <c r="D231" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E231" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -5153,10 +5075,10 @@
         <v>81</v>
       </c>
       <c r="D232" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E232" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -5173,10 +5095,10 @@
         <v>75</v>
       </c>
       <c r="D233" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="E233" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F233">
         <v>0</v>
@@ -5207,10 +5129,10 @@
         <v>77</v>
       </c>
       <c r="D235" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E235" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -5227,10 +5149,10 @@
         <v>78</v>
       </c>
       <c r="D236" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E236" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -5247,10 +5169,10 @@
         <v>79</v>
       </c>
       <c r="D237" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E237" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -5267,10 +5189,10 @@
         <v>80</v>
       </c>
       <c r="D238" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E238" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F238">
         <v>0</v>
@@ -5286,12 +5208,6 @@
       <c r="C239" t="s">
         <v>81</v>
       </c>
-      <c r="D239" t="s">
-        <v>91</v>
-      </c>
-      <c r="E239" t="s">
-        <v>104</v>
-      </c>
       <c r="F239">
         <v>0</v>
       </c>
@@ -5307,7 +5223,7 @@
         <v>75</v>
       </c>
       <c r="D240" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E240" t="s">
         <v>104</v>
@@ -5327,10 +5243,10 @@
         <v>76</v>
       </c>
       <c r="D241" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E241" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -5350,7 +5266,7 @@
         <v>85</v>
       </c>
       <c r="E242" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F242">
         <v>0</v>
@@ -5381,10 +5297,10 @@
         <v>79</v>
       </c>
       <c r="D244" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E244" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -5401,10 +5317,10 @@
         <v>80</v>
       </c>
       <c r="D245" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="E245" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -5421,10 +5337,10 @@
         <v>81</v>
       </c>
       <c r="D246" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E246" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F246">
         <v>0</v>
@@ -5440,12 +5356,6 @@
       <c r="C247" t="s">
         <v>75</v>
       </c>
-      <c r="D247" t="s">
-        <v>91</v>
-      </c>
-      <c r="E247" t="s">
-        <v>104</v>
-      </c>
       <c r="F247">
         <v>0</v>
       </c>
@@ -5460,6 +5370,12 @@
       <c r="C248" t="s">
         <v>76</v>
       </c>
+      <c r="D248" t="s">
+        <v>85</v>
+      </c>
+      <c r="E248" t="s">
+        <v>84</v>
+      </c>
       <c r="F248">
         <v>0</v>
       </c>
@@ -5475,10 +5391,10 @@
         <v>77</v>
       </c>
       <c r="D249" t="s">
+        <v>85</v>
+      </c>
+      <c r="E249" t="s">
         <v>100</v>
-      </c>
-      <c r="E249" t="s">
-        <v>103</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -5495,7 +5411,7 @@
         <v>78</v>
       </c>
       <c r="D250" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E250" t="s">
         <v>104</v>
@@ -5514,12 +5430,6 @@
       <c r="C251" t="s">
         <v>79</v>
       </c>
-      <c r="D251" t="s">
-        <v>90</v>
-      </c>
-      <c r="E251" t="s">
-        <v>104</v>
-      </c>
       <c r="F251">
         <v>0</v>
       </c>
@@ -5538,7 +5448,7 @@
         <v>85</v>
       </c>
       <c r="E252" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F252">
         <v>0</v>
@@ -5555,10 +5465,10 @@
         <v>81</v>
       </c>
       <c r="D253" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E253" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F253">
         <v>0</v>
@@ -5578,7 +5488,7 @@
         <v>85</v>
       </c>
       <c r="E254" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F254">
         <v>0</v>
@@ -5595,10 +5505,10 @@
         <v>76</v>
       </c>
       <c r="D255" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E255" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F255">
         <v>0</v>
@@ -5615,10 +5525,10 @@
         <v>77</v>
       </c>
       <c r="D256" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E256" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F256">
         <v>0</v>
@@ -5634,6 +5544,12 @@
       <c r="C257" t="s">
         <v>78</v>
       </c>
+      <c r="D257" t="s">
+        <v>83</v>
+      </c>
+      <c r="E257" t="s">
+        <v>97</v>
+      </c>
       <c r="F257">
         <v>0</v>
       </c>
@@ -5648,6 +5564,12 @@
       <c r="C258" t="s">
         <v>79</v>
       </c>
+      <c r="D258" t="s">
+        <v>95</v>
+      </c>
+      <c r="E258" t="s">
+        <v>103</v>
+      </c>
       <c r="F258">
         <v>0</v>
       </c>
@@ -5662,12 +5584,6 @@
       <c r="C259" t="s">
         <v>80</v>
       </c>
-      <c r="D259" t="s">
-        <v>83</v>
-      </c>
-      <c r="E259" t="s">
-        <v>104</v>
-      </c>
       <c r="F259">
         <v>0</v>
       </c>
@@ -5683,10 +5599,10 @@
         <v>81</v>
       </c>
       <c r="D260" t="s">
+        <v>85</v>
+      </c>
+      <c r="E260" t="s">
         <v>90</v>
-      </c>
-      <c r="E260" t="s">
-        <v>104</v>
       </c>
       <c r="F260">
         <v>0</v>
@@ -5702,12 +5618,6 @@
       <c r="C261" t="s">
         <v>75</v>
       </c>
-      <c r="D261" t="s">
-        <v>99</v>
-      </c>
-      <c r="E261" t="s">
-        <v>104</v>
-      </c>
       <c r="F261">
         <v>0</v>
       </c>
@@ -5723,10 +5633,10 @@
         <v>76</v>
       </c>
       <c r="D262" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E262" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -5742,6 +5652,12 @@
       <c r="C263" t="s">
         <v>77</v>
       </c>
+      <c r="D263" t="s">
+        <v>83</v>
+      </c>
+      <c r="E263" t="s">
+        <v>104</v>
+      </c>
       <c r="F263">
         <v>0</v>
       </c>
@@ -5757,10 +5673,10 @@
         <v>78</v>
       </c>
       <c r="D264" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E264" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F264">
         <v>0</v>
@@ -5777,10 +5693,10 @@
         <v>79</v>
       </c>
       <c r="D265" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E265" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F265">
         <v>0</v>
@@ -5797,10 +5713,10 @@
         <v>80</v>
       </c>
       <c r="D266" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E266" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F266">
         <v>0</v>
@@ -5817,10 +5733,10 @@
         <v>81</v>
       </c>
       <c r="D267" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E267" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F267">
         <v>0</v>
@@ -5837,10 +5753,10 @@
         <v>75</v>
       </c>
       <c r="D268" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E268" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F268">
         <v>0</v>
@@ -5856,12 +5772,6 @@
       <c r="C269" t="s">
         <v>76</v>
       </c>
-      <c r="D269" t="s">
-        <v>85</v>
-      </c>
-      <c r="E269" t="s">
-        <v>99</v>
-      </c>
       <c r="F269">
         <v>0</v>
       </c>
@@ -5876,6 +5786,12 @@
       <c r="C270" t="s">
         <v>77</v>
       </c>
+      <c r="D270" t="s">
+        <v>100</v>
+      </c>
+      <c r="E270" t="s">
+        <v>103</v>
+      </c>
       <c r="F270">
         <v>0</v>
       </c>
@@ -5890,6 +5806,12 @@
       <c r="C271" t="s">
         <v>78</v>
       </c>
+      <c r="D271" t="s">
+        <v>94</v>
+      </c>
+      <c r="E271" t="s">
+        <v>103</v>
+      </c>
       <c r="F271">
         <v>0</v>
       </c>
@@ -5905,10 +5827,10 @@
         <v>79</v>
       </c>
       <c r="D272" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E272" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F272">
         <v>0</v>
@@ -5925,10 +5847,10 @@
         <v>80</v>
       </c>
       <c r="D273" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E273" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F273">
         <v>0</v>
@@ -5945,10 +5867,10 @@
         <v>81</v>
       </c>
       <c r="D274" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E274" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F274">
         <v>0</v>
@@ -5965,10 +5887,10 @@
         <v>75</v>
       </c>
       <c r="D275" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E275" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F275">
         <v>0</v>
@@ -5985,10 +5907,10 @@
         <v>76</v>
       </c>
       <c r="D276" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E276" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F276">
         <v>0</v>
@@ -6004,6 +5926,12 @@
       <c r="C277" t="s">
         <v>77</v>
       </c>
+      <c r="D277" t="s">
+        <v>83</v>
+      </c>
+      <c r="E277" t="s">
+        <v>86</v>
+      </c>
       <c r="F277">
         <v>0</v>
       </c>
@@ -6019,10 +5947,10 @@
         <v>78</v>
       </c>
       <c r="D278" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E278" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F278">
         <v>0</v>
@@ -6039,10 +5967,10 @@
         <v>79</v>
       </c>
       <c r="D279" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E279" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F279">
         <v>0</v>
@@ -6058,12 +5986,6 @@
       <c r="C280" t="s">
         <v>80</v>
       </c>
-      <c r="D280" t="s">
-        <v>85</v>
-      </c>
-      <c r="E280" t="s">
-        <v>93</v>
-      </c>
       <c r="F280">
         <v>0</v>
       </c>
@@ -6079,7 +6001,7 @@
         <v>81</v>
       </c>
       <c r="D281" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E281" t="s">
         <v>103</v>
@@ -6118,6 +6040,12 @@
       <c r="C283" t="s">
         <v>76</v>
       </c>
+      <c r="D283" t="s">
+        <v>97</v>
+      </c>
+      <c r="E283" t="s">
+        <v>103</v>
+      </c>
       <c r="F283">
         <v>0</v>
       </c>
@@ -6132,12 +6060,6 @@
       <c r="C284" t="s">
         <v>77</v>
       </c>
-      <c r="D284" t="s">
-        <v>85</v>
-      </c>
-      <c r="E284" t="s">
-        <v>95</v>
-      </c>
       <c r="F284">
         <v>0</v>
       </c>
@@ -6153,10 +6075,10 @@
         <v>78</v>
       </c>
       <c r="D285" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E285" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F285">
         <v>0</v>
@@ -6172,12 +6094,6 @@
       <c r="C286" t="s">
         <v>79</v>
       </c>
-      <c r="D286" t="s">
-        <v>92</v>
-      </c>
-      <c r="E286" t="s">
-        <v>105</v>
-      </c>
       <c r="F286">
         <v>0</v>
       </c>
@@ -6192,12 +6108,6 @@
       <c r="C287" t="s">
         <v>80</v>
       </c>
-      <c r="D287" t="s">
-        <v>98</v>
-      </c>
-      <c r="E287" t="s">
-        <v>101</v>
-      </c>
       <c r="F287">
         <v>0</v>
       </c>
@@ -6216,7 +6126,7 @@
         <v>85</v>
       </c>
       <c r="E288" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F288">
         <v>0</v>
@@ -6233,10 +6143,10 @@
         <v>75</v>
       </c>
       <c r="D289" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E289" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F289">
         <v>0</v>
@@ -6252,6 +6162,12 @@
       <c r="C290" t="s">
         <v>76</v>
       </c>
+      <c r="D290" t="s">
+        <v>94</v>
+      </c>
+      <c r="E290" t="s">
+        <v>103</v>
+      </c>
       <c r="F290">
         <v>0</v>
       </c>
@@ -6267,10 +6183,10 @@
         <v>77</v>
       </c>
       <c r="D291" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E291" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F291">
         <v>0</v>
@@ -6286,12 +6202,6 @@
       <c r="C292" t="s">
         <v>78</v>
       </c>
-      <c r="D292" t="s">
-        <v>96</v>
-      </c>
-      <c r="E292" t="s">
-        <v>105</v>
-      </c>
       <c r="F292">
         <v>0</v>
       </c>
@@ -6306,12 +6216,6 @@
       <c r="C293" t="s">
         <v>79</v>
       </c>
-      <c r="D293" t="s">
-        <v>88</v>
-      </c>
-      <c r="E293" t="s">
-        <v>99</v>
-      </c>
       <c r="F293">
         <v>0</v>
       </c>
@@ -6327,10 +6231,10 @@
         <v>80</v>
       </c>
       <c r="D294" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E294" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F294">
         <v>0</v>
@@ -6347,10 +6251,10 @@
         <v>81</v>
       </c>
       <c r="D295" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E295" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="F295">
         <v>0</v>
@@ -6367,10 +6271,10 @@
         <v>75</v>
       </c>
       <c r="D296" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E296" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F296">
         <v>0</v>
@@ -6387,10 +6291,10 @@
         <v>76</v>
       </c>
       <c r="D297" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E297" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F297">
         <v>0</v>
@@ -6406,12 +6310,6 @@
       <c r="C298" t="s">
         <v>77</v>
       </c>
-      <c r="D298" t="s">
-        <v>85</v>
-      </c>
-      <c r="E298" t="s">
-        <v>99</v>
-      </c>
       <c r="F298">
         <v>0</v>
       </c>
@@ -6441,10 +6339,10 @@
         <v>79</v>
       </c>
       <c r="D300" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E300" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F300">
         <v>0</v>
@@ -6461,10 +6359,10 @@
         <v>80</v>
       </c>
       <c r="D301" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E301" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="F301">
         <v>0</v>
@@ -6481,10 +6379,10 @@
         <v>81</v>
       </c>
       <c r="D302" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E302" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F302">
         <v>0</v>
@@ -6500,12 +6398,6 @@
       <c r="C303" t="s">
         <v>75</v>
       </c>
-      <c r="D303" t="s">
-        <v>85</v>
-      </c>
-      <c r="E303" t="s">
-        <v>99</v>
-      </c>
       <c r="F303">
         <v>0</v>
       </c>
@@ -6521,10 +6413,10 @@
         <v>76</v>
       </c>
       <c r="D304" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E304" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F304">
         <v>0</v>
@@ -6541,10 +6433,10 @@
         <v>77</v>
       </c>
       <c r="D305" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E305" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F305">
         <v>0</v>
@@ -6561,10 +6453,10 @@
         <v>78</v>
       </c>
       <c r="D306" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E306" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F306">
         <v>0</v>
@@ -6581,10 +6473,10 @@
         <v>79</v>
       </c>
       <c r="D307" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E307" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F307">
         <v>0</v>
@@ -6600,6 +6492,12 @@
       <c r="C308" t="s">
         <v>80</v>
       </c>
+      <c r="D308" t="s">
+        <v>87</v>
+      </c>
+      <c r="E308" t="s">
+        <v>103</v>
+      </c>
       <c r="F308">
         <v>0</v>
       </c>
@@ -6615,10 +6513,10 @@
         <v>81</v>
       </c>
       <c r="D309" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E309" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F309">
         <v>0</v>
@@ -6635,10 +6533,10 @@
         <v>75</v>
       </c>
       <c r="D310" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E310" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F310">
         <v>0</v>
@@ -6655,10 +6553,10 @@
         <v>76</v>
       </c>
       <c r="D311" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E311" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F311">
         <v>0</v>
@@ -6674,12 +6572,6 @@
       <c r="C312" t="s">
         <v>77</v>
       </c>
-      <c r="D312" t="s">
-        <v>99</v>
-      </c>
-      <c r="E312" t="s">
-        <v>104</v>
-      </c>
       <c r="F312">
         <v>0</v>
       </c>
@@ -6695,10 +6587,10 @@
         <v>78</v>
       </c>
       <c r="D313" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E313" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F313">
         <v>0</v>
@@ -6715,10 +6607,10 @@
         <v>79</v>
       </c>
       <c r="D314" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E314" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F314">
         <v>0</v>
@@ -6734,6 +6626,12 @@
       <c r="C315" t="s">
         <v>80</v>
       </c>
+      <c r="D315" t="s">
+        <v>85</v>
+      </c>
+      <c r="E315" t="s">
+        <v>89</v>
+      </c>
       <c r="F315">
         <v>0</v>
       </c>
@@ -6749,10 +6647,10 @@
         <v>81</v>
       </c>
       <c r="D316" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E316" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F316">
         <v>0</v>
@@ -6768,6 +6666,12 @@
       <c r="C317" t="s">
         <v>75</v>
       </c>
+      <c r="D317" t="s">
+        <v>83</v>
+      </c>
+      <c r="E317" t="s">
+        <v>104</v>
+      </c>
       <c r="F317">
         <v>0</v>
       </c>
@@ -6782,12 +6686,6 @@
       <c r="C318" t="s">
         <v>76</v>
       </c>
-      <c r="D318" t="s">
-        <v>82</v>
-      </c>
-      <c r="E318" t="s">
-        <v>104</v>
-      </c>
       <c r="F318">
         <v>0</v>
       </c>
@@ -6803,10 +6701,10 @@
         <v>77</v>
       </c>
       <c r="D319" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E319" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F319">
         <v>0</v>
@@ -6823,10 +6721,10 @@
         <v>78</v>
       </c>
       <c r="D320" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E320" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F320">
         <v>0</v>
@@ -6843,10 +6741,10 @@
         <v>79</v>
       </c>
       <c r="D321" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E321" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F321">
         <v>0</v>
@@ -6862,12 +6760,6 @@
       <c r="C322" t="s">
         <v>80</v>
       </c>
-      <c r="D322" t="s">
-        <v>85</v>
-      </c>
-      <c r="E322" t="s">
-        <v>99</v>
-      </c>
       <c r="F322">
         <v>0</v>
       </c>
@@ -6883,10 +6775,10 @@
         <v>81</v>
       </c>
       <c r="D323" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E323" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F323">
         <v>0</v>
@@ -6903,10 +6795,10 @@
         <v>75</v>
       </c>
       <c r="D324" t="s">
+        <v>97</v>
+      </c>
+      <c r="E324" t="s">
         <v>103</v>
-      </c>
-      <c r="E324" t="s">
-        <v>104</v>
       </c>
       <c r="F324">
         <v>0</v>
@@ -6923,10 +6815,10 @@
         <v>76</v>
       </c>
       <c r="D325" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E325" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F325">
         <v>0</v>
@@ -6946,7 +6838,7 @@
         <v>85</v>
       </c>
       <c r="E326" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F326">
         <v>0</v>
@@ -6977,10 +6869,10 @@
         <v>79</v>
       </c>
       <c r="D328" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E328" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F328">
         <v>0</v>
@@ -7000,7 +6892,7 @@
         <v>99</v>
       </c>
       <c r="E329" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F329">
         <v>0</v>
@@ -7017,10 +6909,10 @@
         <v>81</v>
       </c>
       <c r="D330" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E330" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F330">
         <v>0</v>
@@ -7036,12 +6928,6 @@
       <c r="C331" t="s">
         <v>75</v>
       </c>
-      <c r="D331" t="s">
-        <v>82</v>
-      </c>
-      <c r="E331" t="s">
-        <v>104</v>
-      </c>
       <c r="F331">
         <v>0</v>
       </c>
@@ -7056,6 +6942,12 @@
       <c r="C332" t="s">
         <v>76</v>
       </c>
+      <c r="D332" t="s">
+        <v>84</v>
+      </c>
+      <c r="E332" t="s">
+        <v>103</v>
+      </c>
       <c r="F332">
         <v>0</v>
       </c>
@@ -7074,7 +6966,7 @@
         <v>85</v>
       </c>
       <c r="E333" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F333">
         <v>0</v>
@@ -7090,12 +6982,6 @@
       <c r="C334" t="s">
         <v>78</v>
       </c>
-      <c r="D334" t="s">
-        <v>90</v>
-      </c>
-      <c r="E334" t="s">
-        <v>104</v>
-      </c>
       <c r="F334">
         <v>0</v>
       </c>
@@ -7130,12 +7016,6 @@
       <c r="C336" t="s">
         <v>80</v>
       </c>
-      <c r="D336" t="s">
-        <v>91</v>
-      </c>
-      <c r="E336" t="s">
-        <v>99</v>
-      </c>
       <c r="F336">
         <v>0</v>
       </c>
@@ -7150,12 +7030,6 @@
       <c r="C337" t="s">
         <v>81</v>
       </c>
-      <c r="D337" t="s">
-        <v>94</v>
-      </c>
-      <c r="E337" t="s">
-        <v>104</v>
-      </c>
       <c r="F337">
         <v>0</v>
       </c>
@@ -7174,7 +7048,7 @@
         <v>85</v>
       </c>
       <c r="E338" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F338">
         <v>0</v>
@@ -7191,10 +7065,10 @@
         <v>76</v>
       </c>
       <c r="D339" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E339" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F339">
         <v>0</v>
@@ -7225,10 +7099,10 @@
         <v>78</v>
       </c>
       <c r="D341" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E341" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F341">
         <v>0</v>
@@ -7265,10 +7139,10 @@
         <v>80</v>
       </c>
       <c r="D343" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E343" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="F343">
         <v>0</v>
@@ -7285,10 +7159,10 @@
         <v>81</v>
       </c>
       <c r="D344" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E344" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F344">
         <v>0</v>
@@ -7308,7 +7182,7 @@
         <v>85</v>
       </c>
       <c r="E345" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F345">
         <v>0</v>
@@ -7324,12 +7198,6 @@
       <c r="C346" t="s">
         <v>76</v>
       </c>
-      <c r="D346" t="s">
-        <v>87</v>
-      </c>
-      <c r="E346" t="s">
-        <v>104</v>
-      </c>
       <c r="F346">
         <v>0</v>
       </c>
@@ -7344,6 +7212,12 @@
       <c r="C347" t="s">
         <v>77</v>
       </c>
+      <c r="D347" t="s">
+        <v>85</v>
+      </c>
+      <c r="E347" t="s">
+        <v>100</v>
+      </c>
       <c r="F347">
         <v>0</v>
       </c>
@@ -7359,10 +7233,10 @@
         <v>78</v>
       </c>
       <c r="D348" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E348" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F348">
         <v>0</v>
@@ -7378,12 +7252,6 @@
       <c r="C349" t="s">
         <v>79</v>
       </c>
-      <c r="D349" t="s">
-        <v>85</v>
-      </c>
-      <c r="E349" t="s">
-        <v>90</v>
-      </c>
       <c r="F349">
         <v>0</v>
       </c>
@@ -7402,7 +7270,7 @@
         <v>85</v>
       </c>
       <c r="E350" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F350">
         <v>0</v>
@@ -7419,10 +7287,10 @@
         <v>81</v>
       </c>
       <c r="D351" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E351" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F351">
         <v>0</v>
@@ -7438,12 +7306,6 @@
       <c r="C352" t="s">
         <v>75</v>
       </c>
-      <c r="D352" t="s">
-        <v>83</v>
-      </c>
-      <c r="E352" t="s">
-        <v>104</v>
-      </c>
       <c r="F352">
         <v>0</v>
       </c>
@@ -7459,10 +7321,10 @@
         <v>76</v>
       </c>
       <c r="D353" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E353" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="F353">
         <v>0</v>
@@ -7478,12 +7340,6 @@
       <c r="C354" t="s">
         <v>77</v>
       </c>
-      <c r="D354" t="s">
-        <v>85</v>
-      </c>
-      <c r="E354" t="s">
-        <v>90</v>
-      </c>
       <c r="F354">
         <v>0</v>
       </c>
@@ -7498,6 +7354,12 @@
       <c r="C355" t="s">
         <v>78</v>
       </c>
+      <c r="D355" t="s">
+        <v>83</v>
+      </c>
+      <c r="E355" t="s">
+        <v>104</v>
+      </c>
       <c r="F355">
         <v>0</v>
       </c>
@@ -7513,10 +7375,10 @@
         <v>79</v>
       </c>
       <c r="D356" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E356" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F356">
         <v>0</v>
@@ -7532,12 +7394,6 @@
       <c r="C357" t="s">
         <v>80</v>
       </c>
-      <c r="D357" t="s">
-        <v>91</v>
-      </c>
-      <c r="E357" t="s">
-        <v>97</v>
-      </c>
       <c r="F357">
         <v>0</v>
       </c>
@@ -7553,10 +7409,10 @@
         <v>81</v>
       </c>
       <c r="D358" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E358" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="F358">
         <v>0</v>
@@ -7573,10 +7429,10 @@
         <v>75</v>
       </c>
       <c r="D359" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E359" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F359">
         <v>0</v>
@@ -7593,10 +7449,10 @@
         <v>76</v>
       </c>
       <c r="D360" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E360" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="F360">
         <v>0</v>
@@ -7627,10 +7483,10 @@
         <v>78</v>
       </c>
       <c r="D362" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E362" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F362">
         <v>0</v>
@@ -7647,10 +7503,10 @@
         <v>79</v>
       </c>
       <c r="D363" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E363" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F363">
         <v>0</v>
@@ -7670,7 +7526,7 @@
         <v>99</v>
       </c>
       <c r="E364" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F364">
         <v>0</v>
@@ -7687,10 +7543,10 @@
         <v>81</v>
       </c>
       <c r="D365" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E365" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F365">
         <v>0</v>
@@ -7706,12 +7562,6 @@
       <c r="C366" t="s">
         <v>75</v>
       </c>
-      <c r="D366" t="s">
-        <v>85</v>
-      </c>
-      <c r="E366" t="s">
-        <v>99</v>
-      </c>
       <c r="F366">
         <v>0</v>
       </c>
@@ -7726,6 +7576,12 @@
       <c r="C367" t="s">
         <v>76</v>
       </c>
+      <c r="D367" t="s">
+        <v>95</v>
+      </c>
+      <c r="E367" t="s">
+        <v>103</v>
+      </c>
       <c r="F367">
         <v>0</v>
       </c>
@@ -7741,7 +7597,7 @@
         <v>77</v>
       </c>
       <c r="D368" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E368" t="s">
         <v>104</v>
@@ -7761,10 +7617,10 @@
         <v>78</v>
       </c>
       <c r="D369" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E369" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="F369">
         <v>0</v>
@@ -7781,10 +7637,10 @@
         <v>79</v>
       </c>
       <c r="D370" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E370" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F370">
         <v>0</v>
@@ -7801,10 +7657,10 @@
         <v>80</v>
       </c>
       <c r="D371" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E371" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F371">
         <v>0</v>
@@ -7821,10 +7677,10 @@
         <v>81</v>
       </c>
       <c r="D372" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E372" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F372">
         <v>0</v>
@@ -7841,10 +7697,10 @@
         <v>75</v>
       </c>
       <c r="D373" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E373" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F373">
         <v>0</v>
@@ -7860,6 +7716,12 @@
       <c r="C374" t="s">
         <v>76</v>
       </c>
+      <c r="D374" t="s">
+        <v>85</v>
+      </c>
+      <c r="E374" t="s">
+        <v>94</v>
+      </c>
       <c r="F374">
         <v>0</v>
       </c>
@@ -7874,12 +7736,6 @@
       <c r="C375" t="s">
         <v>77</v>
       </c>
-      <c r="D375" t="s">
-        <v>84</v>
-      </c>
-      <c r="E375" t="s">
-        <v>87</v>
-      </c>
       <c r="F375">
         <v>0</v>
       </c>
@@ -7894,12 +7750,6 @@
       <c r="C376" t="s">
         <v>78</v>
       </c>
-      <c r="D376" t="s">
-        <v>99</v>
-      </c>
-      <c r="E376" t="s">
-        <v>104</v>
-      </c>
       <c r="F376">
         <v>0</v>
       </c>
@@ -7915,10 +7765,10 @@
         <v>79</v>
       </c>
       <c r="D377" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E377" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F377">
         <v>0</v>
@@ -7935,10 +7785,10 @@
         <v>80</v>
       </c>
       <c r="D378" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E378" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F378">
         <v>0</v>
@@ -7955,10 +7805,10 @@
         <v>81</v>
       </c>
       <c r="D379" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E379" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F379">
         <v>0</v>
@@ -7978,7 +7828,7 @@
         <v>85</v>
       </c>
       <c r="E380" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F380">
         <v>0</v>
@@ -7995,10 +7845,10 @@
         <v>76</v>
       </c>
       <c r="D381" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E381" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F381">
         <v>0</v>
@@ -8015,10 +7865,10 @@
         <v>77</v>
       </c>
       <c r="D382" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E382" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F382">
         <v>0</v>
@@ -8034,12 +7884,6 @@
       <c r="C383" t="s">
         <v>78</v>
       </c>
-      <c r="D383" t="s">
-        <v>82</v>
-      </c>
-      <c r="E383" t="s">
-        <v>104</v>
-      </c>
       <c r="F383">
         <v>0</v>
       </c>
@@ -8054,6 +7898,12 @@
       <c r="C384" t="s">
         <v>79</v>
       </c>
+      <c r="D384" t="s">
+        <v>83</v>
+      </c>
+      <c r="E384" t="s">
+        <v>86</v>
+      </c>
       <c r="F384">
         <v>0</v>
       </c>
@@ -8069,10 +7919,10 @@
         <v>80</v>
       </c>
       <c r="D385" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E385" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F385">
         <v>0</v>
@@ -8089,10 +7939,10 @@
         <v>81</v>
       </c>
       <c r="D386" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E386" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F386">
         <v>0</v>
@@ -8108,12 +7958,6 @@
       <c r="C387" t="s">
         <v>75</v>
       </c>
-      <c r="D387" t="s">
-        <v>101</v>
-      </c>
-      <c r="E387" t="s">
-        <v>104</v>
-      </c>
       <c r="F387">
         <v>0</v>
       </c>
@@ -8129,10 +7973,10 @@
         <v>76</v>
       </c>
       <c r="D388" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E388" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F388">
         <v>0</v>
@@ -8149,10 +7993,10 @@
         <v>77</v>
       </c>
       <c r="D389" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E389" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F389">
         <v>0</v>
@@ -8169,7 +8013,7 @@
         <v>78</v>
       </c>
       <c r="D390" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="E390" t="s">
         <v>103</v>
@@ -8192,7 +8036,7 @@
         <v>85</v>
       </c>
       <c r="E391" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F391">
         <v>0</v>
@@ -8208,6 +8052,12 @@
       <c r="C392" t="s">
         <v>80</v>
       </c>
+      <c r="D392" t="s">
+        <v>101</v>
+      </c>
+      <c r="E392" t="s">
+        <v>93</v>
+      </c>
       <c r="F392">
         <v>0</v>
       </c>
@@ -8223,7 +8073,7 @@
         <v>81</v>
       </c>
       <c r="D393" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E393" t="s">
         <v>104</v>
@@ -8243,7 +8093,7 @@
         <v>75</v>
       </c>
       <c r="D394" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E394" t="s">
         <v>104</v>
@@ -8280,7 +8130,7 @@
         <v>85</v>
       </c>
       <c r="E396" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F396">
         <v>0</v>
@@ -8300,7 +8150,7 @@
         <v>85</v>
       </c>
       <c r="E397" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F397">
         <v>0</v>
@@ -8336,12 +8186,6 @@
       <c r="C399" t="s">
         <v>80</v>
       </c>
-      <c r="D399" t="s">
-        <v>86</v>
-      </c>
-      <c r="E399" t="s">
-        <v>104</v>
-      </c>
       <c r="F399">
         <v>0</v>
       </c>
@@ -8357,10 +8201,10 @@
         <v>81</v>
       </c>
       <c r="D400" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E400" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F400">
         <v>0</v>
@@ -8376,12 +8220,6 @@
       <c r="C401" t="s">
         <v>75</v>
       </c>
-      <c r="D401" t="s">
-        <v>98</v>
-      </c>
-      <c r="E401" t="s">
-        <v>102</v>
-      </c>
       <c r="F401">
         <v>0</v>
       </c>
@@ -8397,10 +8235,10 @@
         <v>76</v>
       </c>
       <c r="D402" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E402" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F402">
         <v>0</v>
@@ -8416,6 +8254,12 @@
       <c r="C403" t="s">
         <v>77</v>
       </c>
+      <c r="D403" t="s">
+        <v>86</v>
+      </c>
+      <c r="E403" t="s">
+        <v>103</v>
+      </c>
       <c r="F403">
         <v>0</v>
       </c>
@@ -8431,10 +8275,10 @@
         <v>78</v>
       </c>
       <c r="D404" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E404" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F404">
         <v>0</v>
@@ -8471,10 +8315,10 @@
         <v>80</v>
       </c>
       <c r="D406" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E406" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F406">
         <v>0</v>
@@ -8491,10 +8335,10 @@
         <v>81</v>
       </c>
       <c r="D407" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E407" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F407">
         <v>0</v>
@@ -8510,6 +8354,12 @@
       <c r="C408" t="s">
         <v>75</v>
       </c>
+      <c r="D408" t="s">
+        <v>85</v>
+      </c>
+      <c r="E408" t="s">
+        <v>84</v>
+      </c>
       <c r="F408">
         <v>0</v>
       </c>
@@ -8524,12 +8374,6 @@
       <c r="C409" t="s">
         <v>76</v>
       </c>
-      <c r="D409" t="s">
-        <v>85</v>
-      </c>
-      <c r="E409" t="s">
-        <v>99</v>
-      </c>
       <c r="F409">
         <v>0</v>
       </c>
@@ -8545,10 +8389,10 @@
         <v>77</v>
       </c>
       <c r="D410" t="s">
+        <v>85</v>
+      </c>
+      <c r="E410" t="s">
         <v>92</v>
-      </c>
-      <c r="E410" t="s">
-        <v>105</v>
       </c>
       <c r="F410">
         <v>0</v>
@@ -8565,10 +8409,10 @@
         <v>78</v>
       </c>
       <c r="D411" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E411" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F411">
         <v>0</v>
@@ -8584,12 +8428,6 @@
       <c r="C412" t="s">
         <v>79</v>
       </c>
-      <c r="D412" t="s">
-        <v>85</v>
-      </c>
-      <c r="E412" t="s">
-        <v>99</v>
-      </c>
       <c r="F412">
         <v>0</v>
       </c>
@@ -8605,10 +8443,10 @@
         <v>80</v>
       </c>
       <c r="D413" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="E413" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F413">
         <v>0</v>
@@ -8625,10 +8463,10 @@
         <v>81</v>
       </c>
       <c r="D414" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E414" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F414">
         <v>0</v>
@@ -8645,10 +8483,10 @@
         <v>75</v>
       </c>
       <c r="D415" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E415" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="F415">
         <v>0</v>
@@ -8679,10 +8517,10 @@
         <v>77</v>
       </c>
       <c r="D417" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E417" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F417">
         <v>0</v>
@@ -8702,7 +8540,7 @@
         <v>85</v>
       </c>
       <c r="E418" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F418">
         <v>0</v>
@@ -8719,10 +8557,10 @@
         <v>79</v>
       </c>
       <c r="D419" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E419" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F419">
         <v>0</v>
@@ -8739,10 +8577,10 @@
         <v>80</v>
       </c>
       <c r="D420" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E420" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F420">
         <v>0</v>
@@ -8759,10 +8597,10 @@
         <v>81</v>
       </c>
       <c r="D421" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E421" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F421">
         <v>0</v>
@@ -8779,10 +8617,10 @@
         <v>75</v>
       </c>
       <c r="D422" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E422" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F422">
         <v>0</v>
@@ -8802,7 +8640,7 @@
         <v>85</v>
       </c>
       <c r="E423" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F423">
         <v>0</v>
@@ -8818,12 +8656,6 @@
       <c r="C424" t="s">
         <v>77</v>
       </c>
-      <c r="D424" t="s">
-        <v>102</v>
-      </c>
-      <c r="E424" t="s">
-        <v>104</v>
-      </c>
       <c r="F424">
         <v>0</v>
       </c>
@@ -8842,7 +8674,7 @@
         <v>85</v>
       </c>
       <c r="E425" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F425">
         <v>0</v>
@@ -8858,6 +8690,12 @@
       <c r="C426" t="s">
         <v>79</v>
       </c>
+      <c r="D426" t="s">
+        <v>85</v>
+      </c>
+      <c r="E426" t="s">
+        <v>92</v>
+      </c>
       <c r="F426">
         <v>0</v>
       </c>
@@ -8873,10 +8711,10 @@
         <v>80</v>
       </c>
       <c r="D427" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E427" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F427">
         <v>0</v>
@@ -8893,10 +8731,10 @@
         <v>81</v>
       </c>
       <c r="D428" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E428" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F428">
         <v>0</v>
@@ -8913,10 +8751,10 @@
         <v>75</v>
       </c>
       <c r="D429" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E429" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F429">
         <v>0</v>
@@ -8932,12 +8770,6 @@
       <c r="C430" t="s">
         <v>76</v>
       </c>
-      <c r="D430" t="s">
-        <v>85</v>
-      </c>
-      <c r="E430" t="s">
-        <v>92</v>
-      </c>
       <c r="F430">
         <v>0</v>
       </c>
@@ -8956,7 +8788,7 @@
         <v>85</v>
       </c>
       <c r="E431" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F431">
         <v>0</v>
@@ -8973,10 +8805,10 @@
         <v>78</v>
       </c>
       <c r="D432" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E432" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F432">
         <v>0</v>
@@ -9007,10 +8839,10 @@
         <v>80</v>
       </c>
       <c r="D434" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E434" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F434">
         <v>0</v>
@@ -9030,7 +8862,7 @@
         <v>85</v>
       </c>
       <c r="E435" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F435">
         <v>0</v>
@@ -9056,22 +8888,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -9079,13 +8911,13 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>56</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -9099,13 +8931,13 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>56</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -9119,13 +8951,13 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>56</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -9139,13 +8971,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>56</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9159,13 +8991,13 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>56</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -9179,13 +9011,13 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>56</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9199,13 +9031,13 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>56</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9219,13 +9051,13 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>56</v>
       </c>
       <c r="D9">
-        <v>36</v>
+        <v>32.5</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -9239,13 +9071,13 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>56</v>
       </c>
       <c r="D10">
-        <v>36</v>
+        <v>20.5</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -9259,13 +9091,13 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>56</v>
       </c>
       <c r="D11">
-        <v>36</v>
+        <v>25.5</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -9279,13 +9111,13 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>56</v>
       </c>
       <c r="D12">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -9299,13 +9131,13 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>56</v>
       </c>
       <c r="D13">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -9319,13 +9151,13 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>56</v>
       </c>
       <c r="D14">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -9339,13 +9171,13 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>56</v>
       </c>
       <c r="D15">
-        <v>36</v>
+        <v>30.5</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -9359,13 +9191,13 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>56</v>
       </c>
       <c r="D16">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -9379,13 +9211,13 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>56</v>
       </c>
       <c r="D17">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -9399,13 +9231,13 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>56</v>
       </c>
       <c r="D18">
-        <v>36</v>
+        <v>20.5</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -9419,13 +9251,13 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>56</v>
       </c>
       <c r="D19">
-        <v>36</v>
+        <v>32.5</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -9439,13 +9271,13 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>56</v>
       </c>
       <c r="D20">
-        <v>36</v>
+        <v>25.5</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -9459,13 +9291,13 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>56</v>
       </c>
       <c r="D21">
-        <v>36</v>
+        <v>26.5</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -9479,13 +9311,13 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>56</v>
       </c>
       <c r="D22">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -9499,13 +9331,13 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>56</v>
       </c>
       <c r="D23">
-        <v>36</v>
+        <v>42.5</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -9519,13 +9351,13 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>56</v>
       </c>
       <c r="D24">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -9539,13 +9371,13 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>56</v>
       </c>
       <c r="D25">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -9559,13 +9391,13 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>56</v>
       </c>
       <c r="D26">
-        <v>36</v>
+        <v>26.5</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -9579,13 +9411,13 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>56</v>
       </c>
       <c r="D27">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -9599,13 +9431,13 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>56</v>
       </c>
       <c r="D28">
-        <v>36</v>
+        <v>28.5</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -9619,13 +9451,13 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>56</v>
       </c>
       <c r="D29">
-        <v>36</v>
+        <v>28.5</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -9639,13 +9471,13 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>56</v>
       </c>
       <c r="D30">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -9659,13 +9491,13 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>56</v>
       </c>
       <c r="D31">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -9679,13 +9511,13 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>56</v>
       </c>
       <c r="D32">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -9699,13 +9531,13 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>56</v>
       </c>
       <c r="D33">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -9719,13 +9551,13 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <v>56</v>
       </c>
       <c r="D34">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -9739,13 +9571,13 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>56</v>
       </c>
       <c r="D35">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -9759,13 +9591,13 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>56</v>
       </c>
       <c r="D36">
-        <v>36</v>
+        <v>25.5</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -9779,13 +9611,13 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <v>56</v>
       </c>
       <c r="D37">
-        <v>36</v>
+        <v>28.5</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -9799,13 +9631,13 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>56</v>
       </c>
       <c r="D38">
-        <v>36</v>
+        <v>32.5</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -9819,13 +9651,13 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>56</v>
       </c>
       <c r="D39">
-        <v>36</v>
+        <v>27.5</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -9839,13 +9671,13 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>56</v>
       </c>
       <c r="D40">
-        <v>36</v>
+        <v>39.5</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -9859,13 +9691,13 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>56</v>
       </c>
       <c r="D41">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -9879,13 +9711,13 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>56</v>
       </c>
       <c r="D42">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -9899,13 +9731,13 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>56</v>
       </c>
       <c r="D43">
-        <v>36</v>
+        <v>25.5</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -9919,13 +9751,13 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <v>56</v>
       </c>
       <c r="D44">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -9939,13 +9771,13 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C45">
         <v>56</v>
       </c>
       <c r="D45">
-        <v>36</v>
+        <v>33.5</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -9959,13 +9791,13 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C46">
         <v>56</v>
       </c>
       <c r="D46">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -9979,13 +9811,13 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <v>56</v>
       </c>
       <c r="D47">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -9999,13 +9831,13 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <v>56</v>
       </c>
       <c r="D48">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -10019,13 +9851,13 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C49">
         <v>56</v>
       </c>
       <c r="D49">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -10039,13 +9871,13 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <v>56</v>
       </c>
       <c r="D50">
-        <v>36</v>
+        <v>29.5</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -10059,13 +9891,13 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C51">
         <v>56</v>
       </c>
       <c r="D51">
-        <v>36</v>
+        <v>29.5</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -10079,13 +9911,13 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C52">
         <v>56</v>
       </c>
       <c r="D52">
-        <v>36</v>
+        <v>23.5</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -10099,13 +9931,13 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C53">
         <v>56</v>
       </c>
       <c r="D53">
-        <v>36</v>
+        <v>35.5</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -10119,13 +9951,13 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C54">
         <v>56</v>
       </c>
       <c r="D54">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -10139,13 +9971,13 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C55">
         <v>56</v>
       </c>
       <c r="D55">
-        <v>36</v>
+        <v>14.5</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -10159,13 +9991,13 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C56">
         <v>56</v>
       </c>
       <c r="D56">
-        <v>36</v>
+        <v>26.5</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -10179,13 +10011,13 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>56</v>
       </c>
       <c r="D57">
-        <v>36</v>
+        <v>24.5</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -10199,13 +10031,13 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C58">
         <v>56</v>
       </c>
       <c r="D58">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -10219,13 +10051,13 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C59">
         <v>56</v>
       </c>
       <c r="D59">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -10239,13 +10071,13 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>56</v>
       </c>
       <c r="D60">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -10259,13 +10091,13 @@
         <v>65</v>
       </c>
       <c r="B61">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C61">
         <v>56</v>
       </c>
       <c r="D61">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -10279,13 +10111,13 @@
         <v>66</v>
       </c>
       <c r="B62">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C62">
         <v>56</v>
       </c>
       <c r="D62">
-        <v>36</v>
+        <v>25.5</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -10299,13 +10131,13 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C63">
         <v>56</v>
       </c>
       <c r="D63">
-        <v>36</v>
+        <v>31.5</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -10342,76 +10174,76 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -10419,73 +10251,73 @@
         <v>75</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2">
         <v>25</v>
       </c>
-      <c r="G2">
-        <v>26</v>
-      </c>
-      <c r="H2">
-        <v>27</v>
-      </c>
       <c r="I2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K2">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L2">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M2">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N2">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="O2">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="P2">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="Q2">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="R2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S2">
         <v>25</v>
       </c>
       <c r="T2">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="U2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="V2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W2">
         <v>15</v>
       </c>
       <c r="X2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y2">
         <v>15</v>
@@ -10499,67 +10331,67 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H3">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I3">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J3">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K3">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L3">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="N3">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="O3">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="P3">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="Q3">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="R3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T3">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="U3">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="V3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X3">
         <v>15</v>
@@ -10573,73 +10405,73 @@
         <v>77</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G4">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H4">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I4">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="J4">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L4">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="N4">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="O4">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="P4">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="Q4">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="R4">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="S4">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T4">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="U4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V4">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="W4">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="X4">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Y4">
         <v>15</v>
@@ -10650,73 +10482,73 @@
         <v>78</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H5">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I5">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J5">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="L5">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N5">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="O5">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="P5">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="Q5">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="R5">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="S5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T5">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="U5">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V5">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="W5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="X5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y5">
         <v>15</v>
@@ -10727,73 +10559,73 @@
         <v>79</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G6">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H6">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I6">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J6">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="L6">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M6">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N6">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="O6">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="P6">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="Q6">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="R6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S6">
         <v>25</v>
       </c>
       <c r="T6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="U6">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="V6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y6">
         <v>15</v>
@@ -10804,64 +10636,64 @@
         <v>80</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7">
         <v>25</v>
       </c>
-      <c r="D7">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>27</v>
-      </c>
-      <c r="F7">
-        <v>31</v>
-      </c>
-      <c r="G7">
-        <v>32</v>
-      </c>
-      <c r="H7">
-        <v>33</v>
-      </c>
       <c r="I7">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="J7">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M7">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N7">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="O7">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="P7">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="Q7">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="R7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S7">
         <v>25</v>
       </c>
       <c r="T7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="U7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V7">
         <v>15</v>
@@ -10881,73 +10713,73 @@
         <v>81</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E8">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F8">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J8">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K8">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N8">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="O8">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="P8">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="Q8">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="R8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S8">
         <v>25</v>
       </c>
       <c r="T8">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="U8">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="V8">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="W8">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y8">
         <v>15</v>

--- a/Solution.xlsx
+++ b/Solution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="135">
   <si>
     <t>Employee</t>
   </si>
@@ -264,73 +264,73 @@
     <t>Sunday</t>
   </si>
   <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>18:30</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
     <t>15:30</t>
   </si>
   <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>17:00</t>
-  </si>
-  <si>
-    <t>09:00</t>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>11:30</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>14:30</t>
+  </si>
+  <si>
+    <t>12:30</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>10:30</t>
   </si>
   <si>
     <t>19:30</t>
   </si>
   <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>16:00</t>
-  </si>
-  <si>
-    <t>16:30</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>20:00</t>
-  </si>
-  <si>
-    <t>15:00</t>
-  </si>
-  <si>
-    <t>18:30</t>
-  </si>
-  <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
     <t>11:00</t>
   </si>
   <si>
-    <t>19:00</t>
-  </si>
-  <si>
     <t>17:30</t>
   </si>
   <si>
-    <t>10:30</t>
-  </si>
-  <si>
-    <t>14:30</t>
-  </si>
-  <si>
-    <t>11:30</t>
-  </si>
-  <si>
-    <t>12:30</t>
-  </si>
-  <si>
     <t>21:00</t>
-  </si>
-  <si>
-    <t>18:00</t>
   </si>
   <si>
     <t>min_hours_per_week</t>
@@ -844,7 +844,7 @@
         <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -894,12 +894,6 @@
       <c r="C5" t="s">
         <v>78</v>
       </c>
-      <c r="D5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" t="s">
-        <v>104</v>
-      </c>
       <c r="F5">
         <v>0</v>
       </c>
@@ -915,10 +909,10 @@
         <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -935,10 +929,10 @@
         <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -969,7 +963,7 @@
         <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
         <v>104</v>
@@ -989,10 +983,10 @@
         <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1008,12 +1002,6 @@
       <c r="C11" t="s">
         <v>77</v>
       </c>
-      <c r="D11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" t="s">
-        <v>103</v>
-      </c>
       <c r="F11">
         <v>0</v>
       </c>
@@ -1028,6 +1016,12 @@
       <c r="C12" t="s">
         <v>78</v>
       </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" t="s">
+        <v>87</v>
+      </c>
       <c r="F12">
         <v>0</v>
       </c>
@@ -1043,10 +1037,10 @@
         <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1063,10 +1057,10 @@
         <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1086,7 +1080,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1102,12 +1096,6 @@
       <c r="C16" t="s">
         <v>75</v>
       </c>
-      <c r="D16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" t="s">
-        <v>87</v>
-      </c>
       <c r="F16">
         <v>0</v>
       </c>
@@ -1122,6 +1110,12 @@
       <c r="C17" t="s">
         <v>76</v>
       </c>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" t="s">
+        <v>104</v>
+      </c>
       <c r="F17">
         <v>0</v>
       </c>
@@ -1137,10 +1131,10 @@
         <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1160,7 +1154,7 @@
         <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1177,10 +1171,10 @@
         <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1197,10 +1191,10 @@
         <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1231,7 +1225,7 @@
         <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
         <v>104</v>
@@ -1251,10 +1245,10 @@
         <v>76</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1270,6 +1264,12 @@
       <c r="C25" t="s">
         <v>77</v>
       </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" t="s">
+        <v>99</v>
+      </c>
       <c r="F25">
         <v>0</v>
       </c>
@@ -1285,10 +1285,10 @@
         <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1304,12 +1304,6 @@
       <c r="C27" t="s">
         <v>79</v>
       </c>
-      <c r="D27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" t="s">
-        <v>90</v>
-      </c>
       <c r="F27">
         <v>0</v>
       </c>
@@ -1328,7 +1322,7 @@
         <v>83</v>
       </c>
       <c r="E28" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1345,10 +1339,10 @@
         <v>81</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1365,10 +1359,10 @@
         <v>75</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E30" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1385,10 +1379,10 @@
         <v>76</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E31" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1405,10 +1399,10 @@
         <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E32" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1428,7 +1422,7 @@
         <v>82</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1444,12 +1438,6 @@
       <c r="C34" t="s">
         <v>79</v>
       </c>
-      <c r="D34" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" t="s">
-        <v>82</v>
-      </c>
       <c r="F34">
         <v>0</v>
       </c>
@@ -1464,6 +1452,12 @@
       <c r="C35" t="s">
         <v>80</v>
       </c>
+      <c r="D35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" t="s">
+        <v>87</v>
+      </c>
       <c r="F35">
         <v>0</v>
       </c>
@@ -1493,10 +1487,10 @@
         <v>75</v>
       </c>
       <c r="D37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E37" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1512,12 +1506,6 @@
       <c r="C38" t="s">
         <v>76</v>
       </c>
-      <c r="D38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E38" t="s">
-        <v>92</v>
-      </c>
       <c r="F38">
         <v>0</v>
       </c>
@@ -1532,6 +1520,12 @@
       <c r="C39" t="s">
         <v>77</v>
       </c>
+      <c r="D39" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" t="s">
+        <v>104</v>
+      </c>
       <c r="F39">
         <v>0</v>
       </c>
@@ -1547,10 +1541,10 @@
         <v>78</v>
       </c>
       <c r="D40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E40" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1567,10 +1561,10 @@
         <v>79</v>
       </c>
       <c r="D41" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E41" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1586,12 +1580,6 @@
       <c r="C42" t="s">
         <v>80</v>
       </c>
-      <c r="D42" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" t="s">
-        <v>104</v>
-      </c>
       <c r="F42">
         <v>0</v>
       </c>
@@ -1607,10 +1595,10 @@
         <v>81</v>
       </c>
       <c r="D43" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1627,10 +1615,10 @@
         <v>75</v>
       </c>
       <c r="D44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1647,10 +1635,10 @@
         <v>76</v>
       </c>
       <c r="D45" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E45" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1667,10 +1655,10 @@
         <v>77</v>
       </c>
       <c r="D46" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1686,12 +1674,6 @@
       <c r="C47" t="s">
         <v>78</v>
       </c>
-      <c r="D47" t="s">
-        <v>83</v>
-      </c>
-      <c r="E47" t="s">
-        <v>92</v>
-      </c>
       <c r="F47">
         <v>0</v>
       </c>
@@ -1706,6 +1688,12 @@
       <c r="C48" t="s">
         <v>79</v>
       </c>
+      <c r="D48" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" t="s">
+        <v>104</v>
+      </c>
       <c r="F48">
         <v>0</v>
       </c>
@@ -1721,10 +1709,10 @@
         <v>80</v>
       </c>
       <c r="D49" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E49" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1755,10 +1743,10 @@
         <v>75</v>
       </c>
       <c r="D51" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E51" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1774,12 +1762,6 @@
       <c r="C52" t="s">
         <v>76</v>
       </c>
-      <c r="D52" t="s">
-        <v>94</v>
-      </c>
-      <c r="E52" t="s">
-        <v>103</v>
-      </c>
       <c r="F52">
         <v>0</v>
       </c>
@@ -1795,10 +1777,10 @@
         <v>77</v>
       </c>
       <c r="D53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -1815,10 +1797,10 @@
         <v>78</v>
       </c>
       <c r="D54" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E54" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1834,6 +1816,12 @@
       <c r="C55" t="s">
         <v>79</v>
       </c>
+      <c r="D55" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" t="s">
+        <v>94</v>
+      </c>
       <c r="F55">
         <v>0</v>
       </c>
@@ -1849,10 +1837,10 @@
         <v>80</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E56" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -1869,10 +1857,10 @@
         <v>81</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E57" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -1888,12 +1876,6 @@
       <c r="C58" t="s">
         <v>75</v>
       </c>
-      <c r="D58" t="s">
-        <v>83</v>
-      </c>
-      <c r="E58" t="s">
-        <v>104</v>
-      </c>
       <c r="F58">
         <v>0</v>
       </c>
@@ -1908,6 +1890,12 @@
       <c r="C59" t="s">
         <v>76</v>
       </c>
+      <c r="D59" t="s">
+        <v>83</v>
+      </c>
+      <c r="E59" t="s">
+        <v>82</v>
+      </c>
       <c r="F59">
         <v>0</v>
       </c>
@@ -1923,10 +1911,10 @@
         <v>77</v>
       </c>
       <c r="D60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E60" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -1943,10 +1931,10 @@
         <v>78</v>
       </c>
       <c r="D61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E61" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -1963,10 +1951,10 @@
         <v>79</v>
       </c>
       <c r="D62" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E62" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1982,12 +1970,6 @@
       <c r="C63" t="s">
         <v>80</v>
       </c>
-      <c r="D63" t="s">
-        <v>87</v>
-      </c>
-      <c r="E63" t="s">
-        <v>103</v>
-      </c>
       <c r="F63">
         <v>0</v>
       </c>
@@ -2016,12 +1998,6 @@
       <c r="C65" t="s">
         <v>75</v>
       </c>
-      <c r="D65" t="s">
-        <v>95</v>
-      </c>
-      <c r="E65" t="s">
-        <v>103</v>
-      </c>
       <c r="F65">
         <v>0</v>
       </c>
@@ -2036,6 +2012,12 @@
       <c r="C66" t="s">
         <v>76</v>
       </c>
+      <c r="D66" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" t="s">
+        <v>99</v>
+      </c>
       <c r="F66">
         <v>0</v>
       </c>
@@ -2051,10 +2033,10 @@
         <v>77</v>
       </c>
       <c r="D67" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E67" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2071,10 +2053,10 @@
         <v>78</v>
       </c>
       <c r="D68" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E68" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2091,10 +2073,10 @@
         <v>79</v>
       </c>
       <c r="D69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E69" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2111,10 +2093,10 @@
         <v>80</v>
       </c>
       <c r="D70" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E70" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2131,7 +2113,7 @@
         <v>81</v>
       </c>
       <c r="D71" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E71" t="s">
         <v>104</v>
@@ -2151,10 +2133,10 @@
         <v>75</v>
       </c>
       <c r="D72" t="s">
+        <v>83</v>
+      </c>
+      <c r="E72" t="s">
         <v>86</v>
-      </c>
-      <c r="E72" t="s">
-        <v>103</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2171,10 +2153,10 @@
         <v>76</v>
       </c>
       <c r="D73" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E73" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -2191,10 +2173,10 @@
         <v>77</v>
       </c>
       <c r="D74" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E74" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -2211,10 +2193,10 @@
         <v>78</v>
       </c>
       <c r="D75" t="s">
+        <v>83</v>
+      </c>
+      <c r="E75" t="s">
         <v>97</v>
-      </c>
-      <c r="E75" t="s">
-        <v>103</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -2230,6 +2212,12 @@
       <c r="C76" t="s">
         <v>79</v>
       </c>
+      <c r="D76" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" t="s">
+        <v>104</v>
+      </c>
       <c r="F76">
         <v>0</v>
       </c>
@@ -2244,6 +2232,12 @@
       <c r="C77" t="s">
         <v>80</v>
       </c>
+      <c r="D77" t="s">
+        <v>96</v>
+      </c>
+      <c r="E77" t="s">
+        <v>104</v>
+      </c>
       <c r="F77">
         <v>0</v>
       </c>
@@ -2287,10 +2281,10 @@
         <v>76</v>
       </c>
       <c r="D80" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E80" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2306,6 +2300,12 @@
       <c r="C81" t="s">
         <v>77</v>
       </c>
+      <c r="D81" t="s">
+        <v>88</v>
+      </c>
+      <c r="E81" t="s">
+        <v>104</v>
+      </c>
       <c r="F81">
         <v>0</v>
       </c>
@@ -2321,10 +2321,10 @@
         <v>78</v>
       </c>
       <c r="D82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E82" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2340,12 +2340,6 @@
       <c r="C83" t="s">
         <v>79</v>
       </c>
-      <c r="D83" t="s">
-        <v>91</v>
-      </c>
-      <c r="E83" t="s">
-        <v>103</v>
-      </c>
       <c r="F83">
         <v>0</v>
       </c>
@@ -2364,7 +2358,7 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -2381,10 +2375,10 @@
         <v>81</v>
       </c>
       <c r="D85" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E85" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2401,10 +2395,10 @@
         <v>75</v>
       </c>
       <c r="D86" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E86" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2421,10 +2415,10 @@
         <v>76</v>
       </c>
       <c r="D87" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E87" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2455,10 +2449,10 @@
         <v>78</v>
       </c>
       <c r="D89" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E89" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2478,7 +2472,7 @@
         <v>83</v>
       </c>
       <c r="E90" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2495,10 +2489,10 @@
         <v>80</v>
       </c>
       <c r="D91" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E91" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2529,10 +2523,10 @@
         <v>75</v>
       </c>
       <c r="D93" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E93" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2563,10 +2557,10 @@
         <v>77</v>
       </c>
       <c r="D95" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E95" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -2583,10 +2577,10 @@
         <v>78</v>
       </c>
       <c r="D96" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E96" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -2603,10 +2597,10 @@
         <v>79</v>
       </c>
       <c r="D97" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E97" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2623,10 +2617,10 @@
         <v>80</v>
       </c>
       <c r="D98" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E98" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2643,10 +2637,10 @@
         <v>81</v>
       </c>
       <c r="D99" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E99" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -2662,12 +2656,6 @@
       <c r="C100" t="s">
         <v>75</v>
       </c>
-      <c r="D100" t="s">
-        <v>85</v>
-      </c>
-      <c r="E100" t="s">
-        <v>96</v>
-      </c>
       <c r="F100">
         <v>0</v>
       </c>
@@ -2683,10 +2671,10 @@
         <v>76</v>
       </c>
       <c r="D101" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E101" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -2702,6 +2690,12 @@
       <c r="C102" t="s">
         <v>77</v>
       </c>
+      <c r="D102" t="s">
+        <v>83</v>
+      </c>
+      <c r="E102" t="s">
+        <v>84</v>
+      </c>
       <c r="F102">
         <v>0</v>
       </c>
@@ -2716,6 +2710,12 @@
       <c r="C103" t="s">
         <v>78</v>
       </c>
+      <c r="D103" t="s">
+        <v>94</v>
+      </c>
+      <c r="E103" t="s">
+        <v>103</v>
+      </c>
       <c r="F103">
         <v>0</v>
       </c>
@@ -2730,6 +2730,12 @@
       <c r="C104" t="s">
         <v>79</v>
       </c>
+      <c r="D104" t="s">
+        <v>83</v>
+      </c>
+      <c r="E104" t="s">
+        <v>86</v>
+      </c>
       <c r="F104">
         <v>0</v>
       </c>
@@ -2787,10 +2793,10 @@
         <v>76</v>
       </c>
       <c r="D108" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E108" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -2807,10 +2813,10 @@
         <v>77</v>
       </c>
       <c r="D109" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E109" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -2827,10 +2833,10 @@
         <v>78</v>
       </c>
       <c r="D110" t="s">
+        <v>86</v>
+      </c>
+      <c r="E110" t="s">
         <v>99</v>
-      </c>
-      <c r="E110" t="s">
-        <v>104</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -2847,10 +2853,10 @@
         <v>79</v>
       </c>
       <c r="D111" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E111" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -2866,6 +2872,12 @@
       <c r="C112" t="s">
         <v>80</v>
       </c>
+      <c r="D112" t="s">
+        <v>83</v>
+      </c>
+      <c r="E112" t="s">
+        <v>95</v>
+      </c>
       <c r="F112">
         <v>0</v>
       </c>
@@ -2881,10 +2893,10 @@
         <v>81</v>
       </c>
       <c r="D113" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E113" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -2900,6 +2912,12 @@
       <c r="C114" t="s">
         <v>75</v>
       </c>
+      <c r="D114" t="s">
+        <v>83</v>
+      </c>
+      <c r="E114" t="s">
+        <v>91</v>
+      </c>
       <c r="F114">
         <v>0</v>
       </c>
@@ -2915,10 +2933,10 @@
         <v>76</v>
       </c>
       <c r="D115" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E115" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -2935,10 +2953,10 @@
         <v>77</v>
       </c>
       <c r="D116" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E116" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -2955,10 +2973,10 @@
         <v>78</v>
       </c>
       <c r="D117" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E117" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -2989,10 +3007,10 @@
         <v>80</v>
       </c>
       <c r="D119" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E119" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -3037,10 +3055,10 @@
         <v>76</v>
       </c>
       <c r="D122" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="E122" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -3057,10 +3075,10 @@
         <v>77</v>
       </c>
       <c r="D123" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E123" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -3077,10 +3095,10 @@
         <v>78</v>
       </c>
       <c r="D124" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E124" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -3096,6 +3114,12 @@
       <c r="C125" t="s">
         <v>79</v>
       </c>
+      <c r="D125" t="s">
+        <v>83</v>
+      </c>
+      <c r="E125" t="s">
+        <v>90</v>
+      </c>
       <c r="F125">
         <v>0</v>
       </c>
@@ -3110,12 +3134,6 @@
       <c r="C126" t="s">
         <v>80</v>
       </c>
-      <c r="D126" t="s">
-        <v>96</v>
-      </c>
-      <c r="E126" t="s">
-        <v>97</v>
-      </c>
       <c r="F126">
         <v>0</v>
       </c>
@@ -3131,10 +3149,10 @@
         <v>81</v>
       </c>
       <c r="D127" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E127" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -3151,10 +3169,10 @@
         <v>75</v>
       </c>
       <c r="D128" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E128" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -3170,12 +3188,6 @@
       <c r="C129" t="s">
         <v>76</v>
       </c>
-      <c r="D129" t="s">
-        <v>83</v>
-      </c>
-      <c r="E129" t="s">
-        <v>97</v>
-      </c>
       <c r="F129">
         <v>0</v>
       </c>
@@ -3191,10 +3203,10 @@
         <v>77</v>
       </c>
       <c r="D130" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E130" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -3210,12 +3222,6 @@
       <c r="C131" t="s">
         <v>78</v>
       </c>
-      <c r="D131" t="s">
-        <v>84</v>
-      </c>
-      <c r="E131" t="s">
-        <v>103</v>
-      </c>
       <c r="F131">
         <v>0</v>
       </c>
@@ -3230,12 +3236,6 @@
       <c r="C132" t="s">
         <v>79</v>
       </c>
-      <c r="D132" t="s">
-        <v>85</v>
-      </c>
-      <c r="E132" t="s">
-        <v>92</v>
-      </c>
       <c r="F132">
         <v>0</v>
       </c>
@@ -3251,10 +3251,10 @@
         <v>80</v>
       </c>
       <c r="D133" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E133" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -3284,12 +3284,6 @@
       <c r="C135" t="s">
         <v>75</v>
       </c>
-      <c r="D135" t="s">
-        <v>83</v>
-      </c>
-      <c r="E135" t="s">
-        <v>104</v>
-      </c>
       <c r="F135">
         <v>0</v>
       </c>
@@ -3304,6 +3298,12 @@
       <c r="C136" t="s">
         <v>76</v>
       </c>
+      <c r="D136" t="s">
+        <v>83</v>
+      </c>
+      <c r="E136" t="s">
+        <v>88</v>
+      </c>
       <c r="F136">
         <v>0</v>
       </c>
@@ -3319,10 +3319,10 @@
         <v>77</v>
       </c>
       <c r="D137" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E137" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -3338,6 +3338,12 @@
       <c r="C138" t="s">
         <v>78</v>
       </c>
+      <c r="D138" t="s">
+        <v>87</v>
+      </c>
+      <c r="E138" t="s">
+        <v>104</v>
+      </c>
       <c r="F138">
         <v>0</v>
       </c>
@@ -3352,12 +3358,6 @@
       <c r="C139" t="s">
         <v>79</v>
       </c>
-      <c r="D139" t="s">
-        <v>90</v>
-      </c>
-      <c r="E139" t="s">
-        <v>104</v>
-      </c>
       <c r="F139">
         <v>0</v>
       </c>
@@ -3373,10 +3373,10 @@
         <v>80</v>
       </c>
       <c r="D140" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E140" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -3393,10 +3393,10 @@
         <v>81</v>
       </c>
       <c r="D141" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E141" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -3413,10 +3413,10 @@
         <v>75</v>
       </c>
       <c r="D142" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E142" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>76</v>
       </c>
       <c r="D143" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E143" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -3452,12 +3452,6 @@
       <c r="C144" t="s">
         <v>77</v>
       </c>
-      <c r="D144" t="s">
-        <v>87</v>
-      </c>
-      <c r="E144" t="s">
-        <v>103</v>
-      </c>
       <c r="F144">
         <v>0</v>
       </c>
@@ -3472,6 +3466,12 @@
       <c r="C145" t="s">
         <v>78</v>
       </c>
+      <c r="D145" t="s">
+        <v>82</v>
+      </c>
+      <c r="E145" t="s">
+        <v>99</v>
+      </c>
       <c r="F145">
         <v>0</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>79</v>
       </c>
       <c r="D146" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E146" t="s">
         <v>104</v>
@@ -3507,10 +3507,10 @@
         <v>80</v>
       </c>
       <c r="D147" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E147" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -3540,12 +3540,6 @@
       <c r="C149" t="s">
         <v>75</v>
       </c>
-      <c r="D149" t="s">
-        <v>83</v>
-      </c>
-      <c r="E149" t="s">
-        <v>97</v>
-      </c>
       <c r="F149">
         <v>0</v>
       </c>
@@ -3561,10 +3555,10 @@
         <v>76</v>
       </c>
       <c r="D150" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E150" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -3580,6 +3574,12 @@
       <c r="C151" t="s">
         <v>77</v>
       </c>
+      <c r="D151" t="s">
+        <v>94</v>
+      </c>
+      <c r="E151" t="s">
+        <v>99</v>
+      </c>
       <c r="F151">
         <v>0</v>
       </c>
@@ -3594,12 +3594,6 @@
       <c r="C152" t="s">
         <v>78</v>
       </c>
-      <c r="D152" t="s">
-        <v>95</v>
-      </c>
-      <c r="E152" t="s">
-        <v>104</v>
-      </c>
       <c r="F152">
         <v>0</v>
       </c>
@@ -3634,12 +3628,6 @@
       <c r="C154" t="s">
         <v>80</v>
       </c>
-      <c r="D154" t="s">
-        <v>85</v>
-      </c>
-      <c r="E154" t="s">
-        <v>84</v>
-      </c>
       <c r="F154">
         <v>0</v>
       </c>
@@ -3655,10 +3643,10 @@
         <v>81</v>
       </c>
       <c r="D155" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E155" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -3689,10 +3677,10 @@
         <v>76</v>
       </c>
       <c r="D157" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E157" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -3709,10 +3697,10 @@
         <v>77</v>
       </c>
       <c r="D158" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E158" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -3728,12 +3716,6 @@
       <c r="C159" t="s">
         <v>78</v>
       </c>
-      <c r="D159" t="s">
-        <v>91</v>
-      </c>
-      <c r="E159" t="s">
-        <v>103</v>
-      </c>
       <c r="F159">
         <v>0</v>
       </c>
@@ -3748,12 +3730,6 @@
       <c r="C160" t="s">
         <v>79</v>
       </c>
-      <c r="D160" t="s">
-        <v>93</v>
-      </c>
-      <c r="E160" t="s">
-        <v>103</v>
-      </c>
       <c r="F160">
         <v>0</v>
       </c>
@@ -3769,10 +3745,10 @@
         <v>80</v>
       </c>
       <c r="D161" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E161" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -3803,7 +3779,7 @@
         <v>75</v>
       </c>
       <c r="D163" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E163" t="s">
         <v>104</v>
@@ -3823,7 +3799,7 @@
         <v>76</v>
       </c>
       <c r="D164" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E164" t="s">
         <v>104</v>
@@ -3843,10 +3819,10 @@
         <v>77</v>
       </c>
       <c r="D165" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E165" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -3877,10 +3853,10 @@
         <v>79</v>
       </c>
       <c r="D167" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E167" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -3897,7 +3873,7 @@
         <v>80</v>
       </c>
       <c r="D168" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E168" t="s">
         <v>104</v>
@@ -3917,10 +3893,10 @@
         <v>81</v>
       </c>
       <c r="D169" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E169" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -3951,7 +3927,7 @@
         <v>76</v>
       </c>
       <c r="D171" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E171" t="s">
         <v>104</v>
@@ -3971,10 +3947,10 @@
         <v>77</v>
       </c>
       <c r="D172" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="E172" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -3991,10 +3967,10 @@
         <v>78</v>
       </c>
       <c r="D173" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E173" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -4010,12 +3986,6 @@
       <c r="C174" t="s">
         <v>79</v>
       </c>
-      <c r="D174" t="s">
-        <v>83</v>
-      </c>
-      <c r="E174" t="s">
-        <v>104</v>
-      </c>
       <c r="F174">
         <v>0</v>
       </c>
@@ -4031,10 +4001,10 @@
         <v>80</v>
       </c>
       <c r="D175" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E175" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -4078,6 +4048,12 @@
       <c r="C178" t="s">
         <v>76</v>
       </c>
+      <c r="D178" t="s">
+        <v>87</v>
+      </c>
+      <c r="E178" t="s">
+        <v>104</v>
+      </c>
       <c r="F178">
         <v>0</v>
       </c>
@@ -4092,6 +4068,12 @@
       <c r="C179" t="s">
         <v>77</v>
       </c>
+      <c r="D179" t="s">
+        <v>83</v>
+      </c>
+      <c r="E179" t="s">
+        <v>86</v>
+      </c>
       <c r="F179">
         <v>0</v>
       </c>
@@ -4106,6 +4088,12 @@
       <c r="C180" t="s">
         <v>78</v>
       </c>
+      <c r="D180" t="s">
+        <v>82</v>
+      </c>
+      <c r="E180" t="s">
+        <v>85</v>
+      </c>
       <c r="F180">
         <v>0</v>
       </c>
@@ -4121,10 +4109,10 @@
         <v>79</v>
       </c>
       <c r="D181" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E181" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -4141,10 +4129,10 @@
         <v>80</v>
       </c>
       <c r="D182" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E182" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -4161,10 +4149,10 @@
         <v>81</v>
       </c>
       <c r="D183" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E183" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -4195,10 +4183,10 @@
         <v>76</v>
       </c>
       <c r="D185" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E185" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -4215,10 +4203,10 @@
         <v>77</v>
       </c>
       <c r="D186" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E186" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -4234,6 +4222,12 @@
       <c r="C187" t="s">
         <v>78</v>
       </c>
+      <c r="D187" t="s">
+        <v>82</v>
+      </c>
+      <c r="E187" t="s">
+        <v>87</v>
+      </c>
       <c r="F187">
         <v>0</v>
       </c>
@@ -4249,10 +4243,10 @@
         <v>79</v>
       </c>
       <c r="D188" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E188" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -4269,10 +4263,10 @@
         <v>80</v>
       </c>
       <c r="D189" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E189" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -4317,10 +4311,10 @@
         <v>76</v>
       </c>
       <c r="D192" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="E192" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -4337,7 +4331,7 @@
         <v>77</v>
       </c>
       <c r="D193" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E193" t="s">
         <v>104</v>
@@ -4357,10 +4351,10 @@
         <v>78</v>
       </c>
       <c r="D194" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E194" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -4377,10 +4371,10 @@
         <v>79</v>
       </c>
       <c r="D195" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E195" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -4397,10 +4391,10 @@
         <v>80</v>
       </c>
       <c r="D196" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E196" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -4416,12 +4410,6 @@
       <c r="C197" t="s">
         <v>81</v>
       </c>
-      <c r="D197" t="s">
-        <v>85</v>
-      </c>
-      <c r="E197" t="s">
-        <v>96</v>
-      </c>
       <c r="F197">
         <v>0</v>
       </c>
@@ -4437,10 +4425,10 @@
         <v>75</v>
       </c>
       <c r="D198" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E198" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -4456,12 +4444,6 @@
       <c r="C199" t="s">
         <v>76</v>
       </c>
-      <c r="D199" t="s">
-        <v>90</v>
-      </c>
-      <c r="E199" t="s">
-        <v>104</v>
-      </c>
       <c r="F199">
         <v>0</v>
       </c>
@@ -4477,7 +4459,7 @@
         <v>77</v>
       </c>
       <c r="D200" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E200" t="s">
         <v>104</v>
@@ -4510,12 +4492,6 @@
       <c r="C202" t="s">
         <v>79</v>
       </c>
-      <c r="D202" t="s">
-        <v>86</v>
-      </c>
-      <c r="E202" t="s">
-        <v>103</v>
-      </c>
       <c r="F202">
         <v>0</v>
       </c>
@@ -4530,12 +4506,6 @@
       <c r="C203" t="s">
         <v>80</v>
       </c>
-      <c r="D203" t="s">
-        <v>95</v>
-      </c>
-      <c r="E203" t="s">
-        <v>103</v>
-      </c>
       <c r="F203">
         <v>0</v>
       </c>
@@ -4550,12 +4520,6 @@
       <c r="C204" t="s">
         <v>81</v>
       </c>
-      <c r="D204" t="s">
-        <v>87</v>
-      </c>
-      <c r="E204" t="s">
-        <v>103</v>
-      </c>
       <c r="F204">
         <v>0</v>
       </c>
@@ -4584,12 +4548,6 @@
       <c r="C206" t="s">
         <v>76</v>
       </c>
-      <c r="D206" t="s">
-        <v>84</v>
-      </c>
-      <c r="E206" t="s">
-        <v>103</v>
-      </c>
       <c r="F206">
         <v>0</v>
       </c>
@@ -4605,10 +4563,10 @@
         <v>77</v>
       </c>
       <c r="D207" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E207" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -4624,12 +4582,6 @@
       <c r="C208" t="s">
         <v>78</v>
       </c>
-      <c r="D208" t="s">
-        <v>101</v>
-      </c>
-      <c r="E208" t="s">
-        <v>82</v>
-      </c>
       <c r="F208">
         <v>0</v>
       </c>
@@ -4644,12 +4596,6 @@
       <c r="C209" t="s">
         <v>79</v>
       </c>
-      <c r="D209" t="s">
-        <v>86</v>
-      </c>
-      <c r="E209" t="s">
-        <v>103</v>
-      </c>
       <c r="F209">
         <v>0</v>
       </c>
@@ -4665,10 +4611,10 @@
         <v>80</v>
       </c>
       <c r="D210" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E210" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -4684,6 +4630,12 @@
       <c r="C211" t="s">
         <v>81</v>
       </c>
+      <c r="D211" t="s">
+        <v>83</v>
+      </c>
+      <c r="E211" t="s">
+        <v>89</v>
+      </c>
       <c r="F211">
         <v>0</v>
       </c>
@@ -4699,10 +4651,10 @@
         <v>75</v>
       </c>
       <c r="D212" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E212" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -4718,6 +4670,12 @@
       <c r="C213" t="s">
         <v>76</v>
       </c>
+      <c r="D213" t="s">
+        <v>83</v>
+      </c>
+      <c r="E213" t="s">
+        <v>86</v>
+      </c>
       <c r="F213">
         <v>0</v>
       </c>
@@ -4736,7 +4694,7 @@
         <v>83</v>
       </c>
       <c r="E214" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -4753,10 +4711,10 @@
         <v>78</v>
       </c>
       <c r="D215" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E215" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -4787,10 +4745,10 @@
         <v>80</v>
       </c>
       <c r="D217" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E217" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -4807,10 +4765,10 @@
         <v>81</v>
       </c>
       <c r="D218" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E218" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -4826,6 +4784,12 @@
       <c r="C219" t="s">
         <v>75</v>
       </c>
+      <c r="D219" t="s">
+        <v>88</v>
+      </c>
+      <c r="E219" t="s">
+        <v>104</v>
+      </c>
       <c r="F219">
         <v>0</v>
       </c>
@@ -4841,10 +4805,10 @@
         <v>76</v>
       </c>
       <c r="D220" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E220" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F220">
         <v>0</v>
@@ -4861,7 +4825,7 @@
         <v>77</v>
       </c>
       <c r="D221" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E221" t="s">
         <v>104</v>
@@ -4881,10 +4845,10 @@
         <v>78</v>
       </c>
       <c r="D222" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E222" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -4900,12 +4864,6 @@
       <c r="C223" t="s">
         <v>79</v>
       </c>
-      <c r="D223" t="s">
-        <v>90</v>
-      </c>
-      <c r="E223" t="s">
-        <v>104</v>
-      </c>
       <c r="F223">
         <v>0</v>
       </c>
@@ -4920,12 +4878,6 @@
       <c r="C224" t="s">
         <v>80</v>
       </c>
-      <c r="D224" t="s">
-        <v>84</v>
-      </c>
-      <c r="E224" t="s">
-        <v>104</v>
-      </c>
       <c r="F224">
         <v>0</v>
       </c>
@@ -4941,10 +4893,10 @@
         <v>81</v>
       </c>
       <c r="D225" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E225" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -4961,10 +4913,10 @@
         <v>75</v>
       </c>
       <c r="D226" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E226" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -4981,7 +4933,7 @@
         <v>76</v>
       </c>
       <c r="D227" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E227" t="s">
         <v>104</v>
@@ -5001,10 +4953,10 @@
         <v>77</v>
       </c>
       <c r="D228" t="s">
+        <v>82</v>
+      </c>
+      <c r="E228" t="s">
         <v>90</v>
-      </c>
-      <c r="E228" t="s">
-        <v>104</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -5021,10 +4973,10 @@
         <v>78</v>
       </c>
       <c r="D229" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E229" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -5058,7 +5010,7 @@
         <v>83</v>
       </c>
       <c r="E231" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -5075,10 +5027,10 @@
         <v>81</v>
       </c>
       <c r="D232" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E232" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -5095,10 +5047,10 @@
         <v>75</v>
       </c>
       <c r="D233" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E233" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F233">
         <v>0</v>
@@ -5114,6 +5066,12 @@
       <c r="C234" t="s">
         <v>76</v>
       </c>
+      <c r="D234" t="s">
+        <v>82</v>
+      </c>
+      <c r="E234" t="s">
+        <v>87</v>
+      </c>
       <c r="F234">
         <v>0</v>
       </c>
@@ -5128,12 +5086,6 @@
       <c r="C235" t="s">
         <v>77</v>
       </c>
-      <c r="D235" t="s">
-        <v>90</v>
-      </c>
-      <c r="E235" t="s">
-        <v>104</v>
-      </c>
       <c r="F235">
         <v>0</v>
       </c>
@@ -5152,7 +5104,7 @@
         <v>83</v>
       </c>
       <c r="E236" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -5169,7 +5121,7 @@
         <v>79</v>
       </c>
       <c r="D237" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E237" t="s">
         <v>104</v>
@@ -5189,10 +5141,10 @@
         <v>80</v>
       </c>
       <c r="D238" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E238" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F238">
         <v>0</v>
@@ -5208,6 +5160,12 @@
       <c r="C239" t="s">
         <v>81</v>
       </c>
+      <c r="D239" t="s">
+        <v>83</v>
+      </c>
+      <c r="E239" t="s">
+        <v>88</v>
+      </c>
       <c r="F239">
         <v>0</v>
       </c>
@@ -5223,7 +5181,7 @@
         <v>75</v>
       </c>
       <c r="D240" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E240" t="s">
         <v>104</v>
@@ -5243,10 +5201,10 @@
         <v>76</v>
       </c>
       <c r="D241" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E241" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -5262,12 +5220,6 @@
       <c r="C242" t="s">
         <v>77</v>
       </c>
-      <c r="D242" t="s">
-        <v>85</v>
-      </c>
-      <c r="E242" t="s">
-        <v>90</v>
-      </c>
       <c r="F242">
         <v>0</v>
       </c>
@@ -5282,6 +5234,12 @@
       <c r="C243" t="s">
         <v>78</v>
       </c>
+      <c r="D243" t="s">
+        <v>92</v>
+      </c>
+      <c r="E243" t="s">
+        <v>104</v>
+      </c>
       <c r="F243">
         <v>0</v>
       </c>
@@ -5297,10 +5255,10 @@
         <v>79</v>
       </c>
       <c r="D244" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E244" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -5320,7 +5278,7 @@
         <v>98</v>
       </c>
       <c r="E245" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -5337,10 +5295,10 @@
         <v>81</v>
       </c>
       <c r="D246" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E246" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F246">
         <v>0</v>
@@ -5356,6 +5314,12 @@
       <c r="C247" t="s">
         <v>75</v>
       </c>
+      <c r="D247" t="s">
+        <v>82</v>
+      </c>
+      <c r="E247" t="s">
+        <v>99</v>
+      </c>
       <c r="F247">
         <v>0</v>
       </c>
@@ -5371,10 +5335,10 @@
         <v>76</v>
       </c>
       <c r="D248" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E248" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F248">
         <v>0</v>
@@ -5390,12 +5354,6 @@
       <c r="C249" t="s">
         <v>77</v>
       </c>
-      <c r="D249" t="s">
-        <v>85</v>
-      </c>
-      <c r="E249" t="s">
-        <v>100</v>
-      </c>
       <c r="F249">
         <v>0</v>
       </c>
@@ -5414,7 +5372,7 @@
         <v>83</v>
       </c>
       <c r="E250" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F250">
         <v>0</v>
@@ -5444,12 +5402,6 @@
       <c r="C252" t="s">
         <v>80</v>
       </c>
-      <c r="D252" t="s">
-        <v>85</v>
-      </c>
-      <c r="E252" t="s">
-        <v>82</v>
-      </c>
       <c r="F252">
         <v>0</v>
       </c>
@@ -5465,10 +5417,10 @@
         <v>81</v>
       </c>
       <c r="D253" t="s">
+        <v>83</v>
+      </c>
+      <c r="E253" t="s">
         <v>93</v>
-      </c>
-      <c r="E253" t="s">
-        <v>103</v>
       </c>
       <c r="F253">
         <v>0</v>
@@ -5485,10 +5437,10 @@
         <v>75</v>
       </c>
       <c r="D254" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E254" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="F254">
         <v>0</v>
@@ -5508,7 +5460,7 @@
         <v>83</v>
       </c>
       <c r="E255" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F255">
         <v>0</v>
@@ -5524,12 +5476,6 @@
       <c r="C256" t="s">
         <v>77</v>
       </c>
-      <c r="D256" t="s">
-        <v>85</v>
-      </c>
-      <c r="E256" t="s">
-        <v>84</v>
-      </c>
       <c r="F256">
         <v>0</v>
       </c>
@@ -5548,7 +5494,7 @@
         <v>83</v>
       </c>
       <c r="E257" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F257">
         <v>0</v>
@@ -5565,10 +5511,10 @@
         <v>79</v>
       </c>
       <c r="D258" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E258" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F258">
         <v>0</v>
@@ -5584,6 +5530,12 @@
       <c r="C259" t="s">
         <v>80</v>
       </c>
+      <c r="D259" t="s">
+        <v>86</v>
+      </c>
+      <c r="E259" t="s">
+        <v>99</v>
+      </c>
       <c r="F259">
         <v>0</v>
       </c>
@@ -5599,10 +5551,10 @@
         <v>81</v>
       </c>
       <c r="D260" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E260" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F260">
         <v>0</v>
@@ -5618,6 +5570,12 @@
       <c r="C261" t="s">
         <v>75</v>
       </c>
+      <c r="D261" t="s">
+        <v>82</v>
+      </c>
+      <c r="E261" t="s">
+        <v>101</v>
+      </c>
       <c r="F261">
         <v>0</v>
       </c>
@@ -5632,12 +5590,6 @@
       <c r="C262" t="s">
         <v>76</v>
       </c>
-      <c r="D262" t="s">
-        <v>85</v>
-      </c>
-      <c r="E262" t="s">
-        <v>101</v>
-      </c>
       <c r="F262">
         <v>0</v>
       </c>
@@ -5653,10 +5605,10 @@
         <v>77</v>
       </c>
       <c r="D263" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E263" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="F263">
         <v>0</v>
@@ -5673,10 +5625,10 @@
         <v>78</v>
       </c>
       <c r="D264" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E264" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F264">
         <v>0</v>
@@ -5693,10 +5645,10 @@
         <v>79</v>
       </c>
       <c r="D265" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E265" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F265">
         <v>0</v>
@@ -5712,12 +5664,6 @@
       <c r="C266" t="s">
         <v>80</v>
       </c>
-      <c r="D266" t="s">
-        <v>83</v>
-      </c>
-      <c r="E266" t="s">
-        <v>98</v>
-      </c>
       <c r="F266">
         <v>0</v>
       </c>
@@ -5733,10 +5679,10 @@
         <v>81</v>
       </c>
       <c r="D267" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E267" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F267">
         <v>0</v>
@@ -5753,10 +5699,10 @@
         <v>75</v>
       </c>
       <c r="D268" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E268" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F268">
         <v>0</v>
@@ -5786,12 +5732,6 @@
       <c r="C270" t="s">
         <v>77</v>
       </c>
-      <c r="D270" t="s">
-        <v>100</v>
-      </c>
-      <c r="E270" t="s">
-        <v>103</v>
-      </c>
       <c r="F270">
         <v>0</v>
       </c>
@@ -5806,12 +5746,6 @@
       <c r="C271" t="s">
         <v>78</v>
       </c>
-      <c r="D271" t="s">
-        <v>94</v>
-      </c>
-      <c r="E271" t="s">
-        <v>103</v>
-      </c>
       <c r="F271">
         <v>0</v>
       </c>
@@ -5827,10 +5761,10 @@
         <v>79</v>
       </c>
       <c r="D272" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E272" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F272">
         <v>0</v>
@@ -5847,7 +5781,7 @@
         <v>80</v>
       </c>
       <c r="D273" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E273" t="s">
         <v>103</v>
@@ -5867,7 +5801,7 @@
         <v>81</v>
       </c>
       <c r="D274" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E274" t="s">
         <v>104</v>
@@ -5887,10 +5821,10 @@
         <v>75</v>
       </c>
       <c r="D275" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E275" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F275">
         <v>0</v>
@@ -5907,10 +5841,10 @@
         <v>76</v>
       </c>
       <c r="D276" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E276" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F276">
         <v>0</v>
@@ -5930,7 +5864,7 @@
         <v>83</v>
       </c>
       <c r="E277" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="F277">
         <v>0</v>
@@ -5947,10 +5881,10 @@
         <v>78</v>
       </c>
       <c r="D278" t="s">
+        <v>83</v>
+      </c>
+      <c r="E278" t="s">
         <v>92</v>
-      </c>
-      <c r="E278" t="s">
-        <v>104</v>
       </c>
       <c r="F278">
         <v>0</v>
@@ -5966,12 +5900,6 @@
       <c r="C279" t="s">
         <v>79</v>
       </c>
-      <c r="D279" t="s">
-        <v>95</v>
-      </c>
-      <c r="E279" t="s">
-        <v>103</v>
-      </c>
       <c r="F279">
         <v>0</v>
       </c>
@@ -6001,10 +5929,10 @@
         <v>81</v>
       </c>
       <c r="D281" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E281" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F281">
         <v>0</v>
@@ -6021,7 +5949,7 @@
         <v>75</v>
       </c>
       <c r="D282" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E282" t="s">
         <v>104</v>
@@ -6041,10 +5969,10 @@
         <v>76</v>
       </c>
       <c r="D283" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E283" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F283">
         <v>0</v>
@@ -6075,10 +6003,10 @@
         <v>78</v>
       </c>
       <c r="D285" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E285" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F285">
         <v>0</v>
@@ -6094,6 +6022,12 @@
       <c r="C286" t="s">
         <v>79</v>
       </c>
+      <c r="D286" t="s">
+        <v>83</v>
+      </c>
+      <c r="E286" t="s">
+        <v>88</v>
+      </c>
       <c r="F286">
         <v>0</v>
       </c>
@@ -6108,6 +6042,12 @@
       <c r="C287" t="s">
         <v>80</v>
       </c>
+      <c r="D287" t="s">
+        <v>82</v>
+      </c>
+      <c r="E287" t="s">
+        <v>99</v>
+      </c>
       <c r="F287">
         <v>0</v>
       </c>
@@ -6123,10 +6063,10 @@
         <v>81</v>
       </c>
       <c r="D288" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E288" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F288">
         <v>0</v>
@@ -6143,10 +6083,10 @@
         <v>75</v>
       </c>
       <c r="D289" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="E289" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F289">
         <v>0</v>
@@ -6163,10 +6103,10 @@
         <v>76</v>
       </c>
       <c r="D290" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E290" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F290">
         <v>0</v>
@@ -6183,10 +6123,10 @@
         <v>77</v>
       </c>
       <c r="D291" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E291" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="F291">
         <v>0</v>
@@ -6216,6 +6156,12 @@
       <c r="C293" t="s">
         <v>79</v>
       </c>
+      <c r="D293" t="s">
+        <v>93</v>
+      </c>
+      <c r="E293" t="s">
+        <v>99</v>
+      </c>
       <c r="F293">
         <v>0</v>
       </c>
@@ -6231,10 +6177,10 @@
         <v>80</v>
       </c>
       <c r="D294" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E294" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F294">
         <v>0</v>
@@ -6251,10 +6197,10 @@
         <v>81</v>
       </c>
       <c r="D295" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="E295" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="F295">
         <v>0</v>
@@ -6274,7 +6220,7 @@
         <v>83</v>
       </c>
       <c r="E296" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F296">
         <v>0</v>
@@ -6291,10 +6237,10 @@
         <v>76</v>
       </c>
       <c r="D297" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E297" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F297">
         <v>0</v>
@@ -6310,6 +6256,12 @@
       <c r="C298" t="s">
         <v>77</v>
       </c>
+      <c r="D298" t="s">
+        <v>98</v>
+      </c>
+      <c r="E298" t="s">
+        <v>104</v>
+      </c>
       <c r="F298">
         <v>0</v>
       </c>
@@ -6324,6 +6276,12 @@
       <c r="C299" t="s">
         <v>78</v>
       </c>
+      <c r="D299" t="s">
+        <v>85</v>
+      </c>
+      <c r="E299" t="s">
+        <v>104</v>
+      </c>
       <c r="F299">
         <v>0</v>
       </c>
@@ -6339,10 +6297,10 @@
         <v>79</v>
       </c>
       <c r="D300" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E300" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F300">
         <v>0</v>
@@ -6358,12 +6316,6 @@
       <c r="C301" t="s">
         <v>80</v>
       </c>
-      <c r="D301" t="s">
-        <v>85</v>
-      </c>
-      <c r="E301" t="s">
-        <v>83</v>
-      </c>
       <c r="F301">
         <v>0</v>
       </c>
@@ -6379,10 +6331,10 @@
         <v>81</v>
       </c>
       <c r="D302" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E302" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F302">
         <v>0</v>
@@ -6398,6 +6350,12 @@
       <c r="C303" t="s">
         <v>75</v>
       </c>
+      <c r="D303" t="s">
+        <v>83</v>
+      </c>
+      <c r="E303" t="s">
+        <v>90</v>
+      </c>
       <c r="F303">
         <v>0</v>
       </c>
@@ -6413,10 +6371,10 @@
         <v>76</v>
       </c>
       <c r="D304" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E304" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F304">
         <v>0</v>
@@ -6432,12 +6390,6 @@
       <c r="C305" t="s">
         <v>77</v>
       </c>
-      <c r="D305" t="s">
-        <v>83</v>
-      </c>
-      <c r="E305" t="s">
-        <v>104</v>
-      </c>
       <c r="F305">
         <v>0</v>
       </c>
@@ -6456,7 +6408,7 @@
         <v>83</v>
       </c>
       <c r="E306" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F306">
         <v>0</v>
@@ -6473,10 +6425,10 @@
         <v>79</v>
       </c>
       <c r="D307" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E307" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F307">
         <v>0</v>
@@ -6493,10 +6445,10 @@
         <v>80</v>
       </c>
       <c r="D308" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E308" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F308">
         <v>0</v>
@@ -6516,7 +6468,7 @@
         <v>83</v>
       </c>
       <c r="E309" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F309">
         <v>0</v>
@@ -6533,10 +6485,10 @@
         <v>75</v>
       </c>
       <c r="D310" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E310" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F310">
         <v>0</v>
@@ -6553,10 +6505,10 @@
         <v>76</v>
       </c>
       <c r="D311" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E311" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F311">
         <v>0</v>
@@ -6587,10 +6539,10 @@
         <v>78</v>
       </c>
       <c r="D313" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E313" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F313">
         <v>0</v>
@@ -6606,12 +6558,6 @@
       <c r="C314" t="s">
         <v>79</v>
       </c>
-      <c r="D314" t="s">
-        <v>86</v>
-      </c>
-      <c r="E314" t="s">
-        <v>103</v>
-      </c>
       <c r="F314">
         <v>0</v>
       </c>
@@ -6627,10 +6573,10 @@
         <v>80</v>
       </c>
       <c r="D315" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E315" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F315">
         <v>0</v>
@@ -6650,7 +6596,7 @@
         <v>83</v>
       </c>
       <c r="E316" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F316">
         <v>0</v>
@@ -6667,10 +6613,10 @@
         <v>75</v>
       </c>
       <c r="D317" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E317" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F317">
         <v>0</v>
@@ -6700,12 +6646,6 @@
       <c r="C319" t="s">
         <v>77</v>
       </c>
-      <c r="D319" t="s">
-        <v>83</v>
-      </c>
-      <c r="E319" t="s">
-        <v>86</v>
-      </c>
       <c r="F319">
         <v>0</v>
       </c>
@@ -6721,10 +6661,10 @@
         <v>78</v>
       </c>
       <c r="D320" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E320" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F320">
         <v>0</v>
@@ -6741,10 +6681,10 @@
         <v>79</v>
       </c>
       <c r="D321" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="E321" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F321">
         <v>0</v>
@@ -6760,6 +6700,12 @@
       <c r="C322" t="s">
         <v>80</v>
       </c>
+      <c r="D322" t="s">
+        <v>103</v>
+      </c>
+      <c r="E322" t="s">
+        <v>104</v>
+      </c>
       <c r="F322">
         <v>0</v>
       </c>
@@ -6775,7 +6721,7 @@
         <v>81</v>
       </c>
       <c r="D323" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E323" t="s">
         <v>84</v>
@@ -6795,10 +6741,10 @@
         <v>75</v>
       </c>
       <c r="D324" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E324" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F324">
         <v>0</v>
@@ -6815,10 +6761,10 @@
         <v>76</v>
       </c>
       <c r="D325" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E325" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F325">
         <v>0</v>
@@ -6835,10 +6781,10 @@
         <v>77</v>
       </c>
       <c r="D326" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E326" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="F326">
         <v>0</v>
@@ -6869,10 +6815,10 @@
         <v>79</v>
       </c>
       <c r="D328" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E328" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F328">
         <v>0</v>
@@ -6889,10 +6835,10 @@
         <v>80</v>
       </c>
       <c r="D329" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E329" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F329">
         <v>0</v>
@@ -6912,7 +6858,7 @@
         <v>83</v>
       </c>
       <c r="E330" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F330">
         <v>0</v>
@@ -6928,6 +6874,12 @@
       <c r="C331" t="s">
         <v>75</v>
       </c>
+      <c r="D331" t="s">
+        <v>83</v>
+      </c>
+      <c r="E331" t="s">
+        <v>92</v>
+      </c>
       <c r="F331">
         <v>0</v>
       </c>
@@ -6943,10 +6895,10 @@
         <v>76</v>
       </c>
       <c r="D332" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E332" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F332">
         <v>0</v>
@@ -6962,12 +6914,6 @@
       <c r="C333" t="s">
         <v>77</v>
       </c>
-      <c r="D333" t="s">
-        <v>85</v>
-      </c>
-      <c r="E333" t="s">
-        <v>92</v>
-      </c>
       <c r="F333">
         <v>0</v>
       </c>
@@ -6982,6 +6928,12 @@
       <c r="C334" t="s">
         <v>78</v>
       </c>
+      <c r="D334" t="s">
+        <v>86</v>
+      </c>
+      <c r="E334" t="s">
+        <v>99</v>
+      </c>
       <c r="F334">
         <v>0</v>
       </c>
@@ -6997,10 +6949,10 @@
         <v>79</v>
       </c>
       <c r="D335" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E335" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F335">
         <v>0</v>
@@ -7016,6 +6968,12 @@
       <c r="C336" t="s">
         <v>80</v>
       </c>
+      <c r="D336" t="s">
+        <v>87</v>
+      </c>
+      <c r="E336" t="s">
+        <v>104</v>
+      </c>
       <c r="F336">
         <v>0</v>
       </c>
@@ -7045,10 +7003,10 @@
         <v>75</v>
       </c>
       <c r="D338" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E338" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F338">
         <v>0</v>
@@ -7064,12 +7022,6 @@
       <c r="C339" t="s">
         <v>76</v>
       </c>
-      <c r="D339" t="s">
-        <v>84</v>
-      </c>
-      <c r="E339" t="s">
-        <v>103</v>
-      </c>
       <c r="F339">
         <v>0</v>
       </c>
@@ -7084,6 +7036,12 @@
       <c r="C340" t="s">
         <v>77</v>
       </c>
+      <c r="D340" t="s">
+        <v>83</v>
+      </c>
+      <c r="E340" t="s">
+        <v>92</v>
+      </c>
       <c r="F340">
         <v>0</v>
       </c>
@@ -7099,10 +7057,10 @@
         <v>78</v>
       </c>
       <c r="D341" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E341" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="F341">
         <v>0</v>
@@ -7119,10 +7077,10 @@
         <v>79</v>
       </c>
       <c r="D342" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E342" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F342">
         <v>0</v>
@@ -7139,10 +7097,10 @@
         <v>80</v>
       </c>
       <c r="D343" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E343" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F343">
         <v>0</v>
@@ -7159,10 +7117,10 @@
         <v>81</v>
       </c>
       <c r="D344" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E344" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F344">
         <v>0</v>
@@ -7179,10 +7137,10 @@
         <v>75</v>
       </c>
       <c r="D345" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E345" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F345">
         <v>0</v>
@@ -7213,10 +7171,10 @@
         <v>77</v>
       </c>
       <c r="D347" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E347" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F347">
         <v>0</v>
@@ -7233,10 +7191,10 @@
         <v>78</v>
       </c>
       <c r="D348" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E348" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F348">
         <v>0</v>
@@ -7252,6 +7210,12 @@
       <c r="C349" t="s">
         <v>79</v>
       </c>
+      <c r="D349" t="s">
+        <v>86</v>
+      </c>
+      <c r="E349" t="s">
+        <v>104</v>
+      </c>
       <c r="F349">
         <v>0</v>
       </c>
@@ -7267,10 +7231,10 @@
         <v>80</v>
       </c>
       <c r="D350" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E350" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F350">
         <v>0</v>
@@ -7287,10 +7251,10 @@
         <v>81</v>
       </c>
       <c r="D351" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E351" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F351">
         <v>0</v>
@@ -7306,6 +7270,12 @@
       <c r="C352" t="s">
         <v>75</v>
       </c>
+      <c r="D352" t="s">
+        <v>87</v>
+      </c>
+      <c r="E352" t="s">
+        <v>104</v>
+      </c>
       <c r="F352">
         <v>0</v>
       </c>
@@ -7321,10 +7291,10 @@
         <v>76</v>
       </c>
       <c r="D353" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E353" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F353">
         <v>0</v>
@@ -7340,6 +7310,12 @@
       <c r="C354" t="s">
         <v>77</v>
       </c>
+      <c r="D354" t="s">
+        <v>82</v>
+      </c>
+      <c r="E354" t="s">
+        <v>87</v>
+      </c>
       <c r="F354">
         <v>0</v>
       </c>
@@ -7358,7 +7334,7 @@
         <v>83</v>
       </c>
       <c r="E355" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F355">
         <v>0</v>
@@ -7374,12 +7350,6 @@
       <c r="C356" t="s">
         <v>79</v>
       </c>
-      <c r="D356" t="s">
-        <v>92</v>
-      </c>
-      <c r="E356" t="s">
-        <v>103</v>
-      </c>
       <c r="F356">
         <v>0</v>
       </c>
@@ -7394,6 +7364,12 @@
       <c r="C357" t="s">
         <v>80</v>
       </c>
+      <c r="D357" t="s">
+        <v>99</v>
+      </c>
+      <c r="E357" t="s">
+        <v>104</v>
+      </c>
       <c r="F357">
         <v>0</v>
       </c>
@@ -7409,10 +7385,10 @@
         <v>81</v>
       </c>
       <c r="D358" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E358" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F358">
         <v>0</v>
@@ -7428,12 +7404,6 @@
       <c r="C359" t="s">
         <v>75</v>
       </c>
-      <c r="D359" t="s">
-        <v>85</v>
-      </c>
-      <c r="E359" t="s">
-        <v>89</v>
-      </c>
       <c r="F359">
         <v>0</v>
       </c>
@@ -7449,10 +7419,10 @@
         <v>76</v>
       </c>
       <c r="D360" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E360" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="F360">
         <v>0</v>
@@ -7468,6 +7438,12 @@
       <c r="C361" t="s">
         <v>77</v>
       </c>
+      <c r="D361" t="s">
+        <v>95</v>
+      </c>
+      <c r="E361" t="s">
+        <v>104</v>
+      </c>
       <c r="F361">
         <v>0</v>
       </c>
@@ -7483,10 +7459,10 @@
         <v>78</v>
       </c>
       <c r="D362" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E362" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F362">
         <v>0</v>
@@ -7503,10 +7479,10 @@
         <v>79</v>
       </c>
       <c r="D363" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E363" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F363">
         <v>0</v>
@@ -7523,10 +7499,10 @@
         <v>80</v>
       </c>
       <c r="D364" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E364" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F364">
         <v>0</v>
@@ -7543,10 +7519,10 @@
         <v>81</v>
       </c>
       <c r="D365" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E365" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F365">
         <v>0</v>
@@ -7562,6 +7538,12 @@
       <c r="C366" t="s">
         <v>75</v>
       </c>
+      <c r="D366" t="s">
+        <v>82</v>
+      </c>
+      <c r="E366" t="s">
+        <v>99</v>
+      </c>
       <c r="F366">
         <v>0</v>
       </c>
@@ -7576,12 +7558,6 @@
       <c r="C367" t="s">
         <v>76</v>
       </c>
-      <c r="D367" t="s">
-        <v>95</v>
-      </c>
-      <c r="E367" t="s">
-        <v>103</v>
-      </c>
       <c r="F367">
         <v>0</v>
       </c>
@@ -7600,7 +7576,7 @@
         <v>83</v>
       </c>
       <c r="E368" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F368">
         <v>0</v>
@@ -7617,10 +7593,10 @@
         <v>78</v>
       </c>
       <c r="D369" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E369" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="F369">
         <v>0</v>
@@ -7637,10 +7613,10 @@
         <v>79</v>
       </c>
       <c r="D370" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E370" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F370">
         <v>0</v>
@@ -7657,10 +7633,10 @@
         <v>80</v>
       </c>
       <c r="D371" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E371" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F371">
         <v>0</v>
@@ -7676,12 +7652,6 @@
       <c r="C372" t="s">
         <v>81</v>
       </c>
-      <c r="D372" t="s">
-        <v>90</v>
-      </c>
-      <c r="E372" t="s">
-        <v>104</v>
-      </c>
       <c r="F372">
         <v>0</v>
       </c>
@@ -7697,10 +7667,10 @@
         <v>75</v>
       </c>
       <c r="D373" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E373" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F373">
         <v>0</v>
@@ -7716,12 +7686,6 @@
       <c r="C374" t="s">
         <v>76</v>
       </c>
-      <c r="D374" t="s">
-        <v>85</v>
-      </c>
-      <c r="E374" t="s">
-        <v>94</v>
-      </c>
       <c r="F374">
         <v>0</v>
       </c>
@@ -7736,6 +7700,12 @@
       <c r="C375" t="s">
         <v>77</v>
       </c>
+      <c r="D375" t="s">
+        <v>83</v>
+      </c>
+      <c r="E375" t="s">
+        <v>88</v>
+      </c>
       <c r="F375">
         <v>0</v>
       </c>
@@ -7750,6 +7720,12 @@
       <c r="C376" t="s">
         <v>78</v>
       </c>
+      <c r="D376" t="s">
+        <v>93</v>
+      </c>
+      <c r="E376" t="s">
+        <v>99</v>
+      </c>
       <c r="F376">
         <v>0</v>
       </c>
@@ -7765,10 +7741,10 @@
         <v>79</v>
       </c>
       <c r="D377" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E377" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F377">
         <v>0</v>
@@ -7784,12 +7760,6 @@
       <c r="C378" t="s">
         <v>80</v>
       </c>
-      <c r="D378" t="s">
-        <v>97</v>
-      </c>
-      <c r="E378" t="s">
-        <v>103</v>
-      </c>
       <c r="F378">
         <v>0</v>
       </c>
@@ -7805,10 +7775,10 @@
         <v>81</v>
       </c>
       <c r="D379" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E379" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F379">
         <v>0</v>
@@ -7824,12 +7794,6 @@
       <c r="C380" t="s">
         <v>75</v>
       </c>
-      <c r="D380" t="s">
-        <v>85</v>
-      </c>
-      <c r="E380" t="s">
-        <v>92</v>
-      </c>
       <c r="F380">
         <v>0</v>
       </c>
@@ -7845,10 +7809,10 @@
         <v>76</v>
       </c>
       <c r="D381" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E381" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F381">
         <v>0</v>
@@ -7865,10 +7829,10 @@
         <v>77</v>
       </c>
       <c r="D382" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E382" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F382">
         <v>0</v>
@@ -7884,6 +7848,12 @@
       <c r="C383" t="s">
         <v>78</v>
       </c>
+      <c r="D383" t="s">
+        <v>83</v>
+      </c>
+      <c r="E383" t="s">
+        <v>94</v>
+      </c>
       <c r="F383">
         <v>0</v>
       </c>
@@ -7899,10 +7869,10 @@
         <v>79</v>
       </c>
       <c r="D384" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E384" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F384">
         <v>0</v>
@@ -7922,7 +7892,7 @@
         <v>83</v>
       </c>
       <c r="E385" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F385">
         <v>0</v>
@@ -7942,7 +7912,7 @@
         <v>83</v>
       </c>
       <c r="E386" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F386">
         <v>0</v>
@@ -7958,6 +7928,12 @@
       <c r="C387" t="s">
         <v>75</v>
       </c>
+      <c r="D387" t="s">
+        <v>82</v>
+      </c>
+      <c r="E387" t="s">
+        <v>87</v>
+      </c>
       <c r="F387">
         <v>0</v>
       </c>
@@ -7973,10 +7949,10 @@
         <v>76</v>
       </c>
       <c r="D388" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E388" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F388">
         <v>0</v>
@@ -7993,10 +7969,10 @@
         <v>77</v>
       </c>
       <c r="D389" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E389" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F389">
         <v>0</v>
@@ -8012,12 +7988,6 @@
       <c r="C390" t="s">
         <v>78</v>
       </c>
-      <c r="D390" t="s">
-        <v>98</v>
-      </c>
-      <c r="E390" t="s">
-        <v>103</v>
-      </c>
       <c r="F390">
         <v>0</v>
       </c>
@@ -8033,10 +8003,10 @@
         <v>79</v>
       </c>
       <c r="D391" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E391" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F391">
         <v>0</v>
@@ -8053,10 +8023,10 @@
         <v>80</v>
       </c>
       <c r="D392" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="E392" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F392">
         <v>0</v>
@@ -8073,10 +8043,10 @@
         <v>81</v>
       </c>
       <c r="D393" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E393" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F393">
         <v>0</v>
@@ -8096,7 +8066,7 @@
         <v>83</v>
       </c>
       <c r="E394" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F394">
         <v>0</v>
@@ -8112,6 +8082,12 @@
       <c r="C395" t="s">
         <v>76</v>
       </c>
+      <c r="D395" t="s">
+        <v>93</v>
+      </c>
+      <c r="E395" t="s">
+        <v>99</v>
+      </c>
       <c r="F395">
         <v>0</v>
       </c>
@@ -8126,12 +8102,6 @@
       <c r="C396" t="s">
         <v>77</v>
       </c>
-      <c r="D396" t="s">
-        <v>85</v>
-      </c>
-      <c r="E396" t="s">
-        <v>99</v>
-      </c>
       <c r="F396">
         <v>0</v>
       </c>
@@ -8147,10 +8117,10 @@
         <v>78</v>
       </c>
       <c r="D397" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E397" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F397">
         <v>0</v>
@@ -8167,10 +8137,10 @@
         <v>79</v>
       </c>
       <c r="D398" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E398" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F398">
         <v>0</v>
@@ -8186,6 +8156,12 @@
       <c r="C399" t="s">
         <v>80</v>
       </c>
+      <c r="D399" t="s">
+        <v>92</v>
+      </c>
+      <c r="E399" t="s">
+        <v>104</v>
+      </c>
       <c r="F399">
         <v>0</v>
       </c>
@@ -8201,7 +8177,7 @@
         <v>81</v>
       </c>
       <c r="D400" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E400" t="s">
         <v>104</v>
@@ -8235,7 +8211,7 @@
         <v>76</v>
       </c>
       <c r="D402" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E402" t="s">
         <v>104</v>
@@ -8255,10 +8231,10 @@
         <v>77</v>
       </c>
       <c r="D403" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E403" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F403">
         <v>0</v>
@@ -8275,10 +8251,10 @@
         <v>78</v>
       </c>
       <c r="D404" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="E404" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="F404">
         <v>0</v>
@@ -8295,10 +8271,10 @@
         <v>79</v>
       </c>
       <c r="D405" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E405" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F405">
         <v>0</v>
@@ -8315,10 +8291,10 @@
         <v>80</v>
       </c>
       <c r="D406" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E406" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F406">
         <v>0</v>
@@ -8335,10 +8311,10 @@
         <v>81</v>
       </c>
       <c r="D407" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E407" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F407">
         <v>0</v>
@@ -8355,10 +8331,10 @@
         <v>75</v>
       </c>
       <c r="D408" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E408" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="F408">
         <v>0</v>
@@ -8389,10 +8365,10 @@
         <v>77</v>
       </c>
       <c r="D410" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E410" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F410">
         <v>0</v>
@@ -8409,10 +8385,10 @@
         <v>78</v>
       </c>
       <c r="D411" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E411" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F411">
         <v>0</v>
@@ -8428,6 +8404,12 @@
       <c r="C412" t="s">
         <v>79</v>
       </c>
+      <c r="D412" t="s">
+        <v>82</v>
+      </c>
+      <c r="E412" t="s">
+        <v>87</v>
+      </c>
       <c r="F412">
         <v>0</v>
       </c>
@@ -8443,10 +8425,10 @@
         <v>80</v>
       </c>
       <c r="D413" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E413" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F413">
         <v>0</v>
@@ -8463,7 +8445,7 @@
         <v>81</v>
       </c>
       <c r="D414" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E414" t="s">
         <v>103</v>
@@ -8483,10 +8465,10 @@
         <v>75</v>
       </c>
       <c r="D415" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E415" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F415">
         <v>0</v>
@@ -8502,6 +8484,12 @@
       <c r="C416" t="s">
         <v>76</v>
       </c>
+      <c r="D416" t="s">
+        <v>87</v>
+      </c>
+      <c r="E416" t="s">
+        <v>104</v>
+      </c>
       <c r="F416">
         <v>0</v>
       </c>
@@ -8517,10 +8505,10 @@
         <v>77</v>
       </c>
       <c r="D417" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E417" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F417">
         <v>0</v>
@@ -8536,12 +8524,6 @@
       <c r="C418" t="s">
         <v>78</v>
       </c>
-      <c r="D418" t="s">
-        <v>85</v>
-      </c>
-      <c r="E418" t="s">
-        <v>87</v>
-      </c>
       <c r="F418">
         <v>0</v>
       </c>
@@ -8557,10 +8539,10 @@
         <v>79</v>
       </c>
       <c r="D419" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E419" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F419">
         <v>0</v>
@@ -8577,10 +8559,10 @@
         <v>80</v>
       </c>
       <c r="D420" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E420" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F420">
         <v>0</v>
@@ -8597,10 +8579,10 @@
         <v>81</v>
       </c>
       <c r="D421" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E421" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F421">
         <v>0</v>
@@ -8617,10 +8599,10 @@
         <v>75</v>
       </c>
       <c r="D422" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E422" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F422">
         <v>0</v>
@@ -8637,7 +8619,7 @@
         <v>76</v>
       </c>
       <c r="D423" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E423" t="s">
         <v>99</v>
@@ -8656,6 +8638,12 @@
       <c r="C424" t="s">
         <v>77</v>
       </c>
+      <c r="D424" t="s">
+        <v>83</v>
+      </c>
+      <c r="E424" t="s">
+        <v>86</v>
+      </c>
       <c r="F424">
         <v>0</v>
       </c>
@@ -8671,10 +8659,10 @@
         <v>78</v>
       </c>
       <c r="D425" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E425" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F425">
         <v>0</v>
@@ -8691,10 +8679,10 @@
         <v>79</v>
       </c>
       <c r="D426" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E426" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F426">
         <v>0</v>
@@ -8710,12 +8698,6 @@
       <c r="C427" t="s">
         <v>80</v>
       </c>
-      <c r="D427" t="s">
-        <v>85</v>
-      </c>
-      <c r="E427" t="s">
-        <v>101</v>
-      </c>
       <c r="F427">
         <v>0</v>
       </c>
@@ -8731,10 +8713,10 @@
         <v>81</v>
       </c>
       <c r="D428" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E428" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F428">
         <v>0</v>
@@ -8751,10 +8733,10 @@
         <v>75</v>
       </c>
       <c r="D429" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E429" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F429">
         <v>0</v>
@@ -8770,6 +8752,12 @@
       <c r="C430" t="s">
         <v>76</v>
       </c>
+      <c r="D430" t="s">
+        <v>83</v>
+      </c>
+      <c r="E430" t="s">
+        <v>102</v>
+      </c>
       <c r="F430">
         <v>0</v>
       </c>
@@ -8788,7 +8776,7 @@
         <v>85</v>
       </c>
       <c r="E431" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="F431">
         <v>0</v>
@@ -8804,12 +8792,6 @@
       <c r="C432" t="s">
         <v>78</v>
       </c>
-      <c r="D432" t="s">
-        <v>90</v>
-      </c>
-      <c r="E432" t="s">
-        <v>104</v>
-      </c>
       <c r="F432">
         <v>0</v>
       </c>
@@ -8824,6 +8806,12 @@
       <c r="C433" t="s">
         <v>79</v>
       </c>
+      <c r="D433" t="s">
+        <v>82</v>
+      </c>
+      <c r="E433" t="s">
+        <v>92</v>
+      </c>
       <c r="F433">
         <v>0</v>
       </c>
@@ -8842,7 +8830,7 @@
         <v>83</v>
       </c>
       <c r="E434" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F434">
         <v>0</v>
@@ -8859,10 +8847,10 @@
         <v>81</v>
       </c>
       <c r="D435" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E435" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F435">
         <v>0</v>
@@ -8917,7 +8905,7 @@
         <v>56</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -8937,7 +8925,7 @@
         <v>56</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>32.5</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -8957,7 +8945,7 @@
         <v>56</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>26.5</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -8977,7 +8965,7 @@
         <v>56</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>40.5</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8997,7 +8985,7 @@
         <v>56</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>36.5</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -9017,7 +9005,7 @@
         <v>56</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>30.5</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -9037,7 +9025,7 @@
         <v>56</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>19.5</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -9057,7 +9045,7 @@
         <v>56</v>
       </c>
       <c r="D9">
-        <v>32.5</v>
+        <v>34.5</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -9077,7 +9065,7 @@
         <v>56</v>
       </c>
       <c r="D10">
-        <v>20.5</v>
+        <v>16.5</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -9117,7 +9105,7 @@
         <v>56</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -9137,7 +9125,7 @@
         <v>56</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -9157,7 +9145,7 @@
         <v>56</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>24.5</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -9177,7 +9165,7 @@
         <v>56</v>
       </c>
       <c r="D15">
-        <v>30.5</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -9197,7 +9185,7 @@
         <v>56</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>22.5</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -9217,7 +9205,7 @@
         <v>56</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>32.5</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -9237,7 +9225,7 @@
         <v>56</v>
       </c>
       <c r="D18">
-        <v>20.5</v>
+        <v>21.5</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -9257,7 +9245,7 @@
         <v>56</v>
       </c>
       <c r="D19">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -9277,7 +9265,7 @@
         <v>56</v>
       </c>
       <c r="D20">
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -9297,7 +9285,7 @@
         <v>56</v>
       </c>
       <c r="D21">
-        <v>26.5</v>
+        <v>28.5</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -9317,7 +9305,7 @@
         <v>56</v>
       </c>
       <c r="D22">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -9337,7 +9325,7 @@
         <v>56</v>
       </c>
       <c r="D23">
-        <v>42.5</v>
+        <v>28.5</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -9357,7 +9345,7 @@
         <v>56</v>
       </c>
       <c r="D24">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -9377,7 +9365,7 @@
         <v>56</v>
       </c>
       <c r="D25">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -9397,7 +9385,7 @@
         <v>56</v>
       </c>
       <c r="D26">
-        <v>26.5</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -9417,7 +9405,7 @@
         <v>56</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -9437,7 +9425,7 @@
         <v>56</v>
       </c>
       <c r="D28">
-        <v>28.5</v>
+        <v>30</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -9457,7 +9445,7 @@
         <v>56</v>
       </c>
       <c r="D29">
-        <v>28.5</v>
+        <v>28</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -9477,7 +9465,7 @@
         <v>56</v>
       </c>
       <c r="D30">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -9497,7 +9485,7 @@
         <v>56</v>
       </c>
       <c r="D31">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -9517,7 +9505,7 @@
         <v>56</v>
       </c>
       <c r="D32">
-        <v>35</v>
+        <v>41.5</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -9537,7 +9525,7 @@
         <v>56</v>
       </c>
       <c r="D33">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -9557,7 +9545,7 @@
         <v>56</v>
       </c>
       <c r="D34">
-        <v>41</v>
+        <v>25.5</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -9577,7 +9565,7 @@
         <v>56</v>
       </c>
       <c r="D35">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -9597,7 +9585,7 @@
         <v>56</v>
       </c>
       <c r="D36">
-        <v>25.5</v>
+        <v>33.5</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -9617,7 +9605,7 @@
         <v>56</v>
       </c>
       <c r="D37">
-        <v>28.5</v>
+        <v>18.5</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -9637,7 +9625,7 @@
         <v>56</v>
       </c>
       <c r="D38">
-        <v>32.5</v>
+        <v>22.5</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -9657,7 +9645,7 @@
         <v>56</v>
       </c>
       <c r="D39">
-        <v>27.5</v>
+        <v>33</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -9677,7 +9665,7 @@
         <v>56</v>
       </c>
       <c r="D40">
-        <v>39.5</v>
+        <v>21.5</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -9697,7 +9685,7 @@
         <v>56</v>
       </c>
       <c r="D41">
-        <v>32</v>
+        <v>23.5</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -9717,7 +9705,7 @@
         <v>56</v>
       </c>
       <c r="D42">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -9737,7 +9725,7 @@
         <v>56</v>
       </c>
       <c r="D43">
-        <v>25.5</v>
+        <v>41</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -9757,7 +9745,7 @@
         <v>56</v>
       </c>
       <c r="D44">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -9777,7 +9765,7 @@
         <v>56</v>
       </c>
       <c r="D45">
-        <v>33.5</v>
+        <v>26.5</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -9797,7 +9785,7 @@
         <v>56</v>
       </c>
       <c r="D46">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -9817,7 +9805,7 @@
         <v>56</v>
       </c>
       <c r="D47">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -9837,7 +9825,7 @@
         <v>56</v>
       </c>
       <c r="D48">
-        <v>37</v>
+        <v>26.5</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -9857,7 +9845,7 @@
         <v>56</v>
       </c>
       <c r="D49">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -9877,7 +9865,7 @@
         <v>56</v>
       </c>
       <c r="D50">
-        <v>29.5</v>
+        <v>34.5</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -9897,7 +9885,7 @@
         <v>56</v>
       </c>
       <c r="D51">
-        <v>29.5</v>
+        <v>29</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -9917,7 +9905,7 @@
         <v>56</v>
       </c>
       <c r="D52">
-        <v>23.5</v>
+        <v>30.5</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -9937,7 +9925,7 @@
         <v>56</v>
       </c>
       <c r="D53">
-        <v>35.5</v>
+        <v>32</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -9957,7 +9945,7 @@
         <v>56</v>
       </c>
       <c r="D54">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -9977,7 +9965,7 @@
         <v>56</v>
       </c>
       <c r="D55">
-        <v>14.5</v>
+        <v>27.5</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -9997,7 +9985,7 @@
         <v>56</v>
       </c>
       <c r="D56">
-        <v>26.5</v>
+        <v>31</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -10017,7 +10005,7 @@
         <v>56</v>
       </c>
       <c r="D57">
-        <v>24.5</v>
+        <v>32.5</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -10037,7 +10025,7 @@
         <v>56</v>
       </c>
       <c r="D58">
-        <v>21</v>
+        <v>41.5</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -10057,7 +10045,7 @@
         <v>56</v>
       </c>
       <c r="D59">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -10077,7 +10065,7 @@
         <v>56</v>
       </c>
       <c r="D60">
-        <v>18</v>
+        <v>30.5</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -10097,7 +10085,7 @@
         <v>56</v>
       </c>
       <c r="D61">
-        <v>25</v>
+        <v>26.5</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -10117,7 +10105,7 @@
         <v>56</v>
       </c>
       <c r="D62">
-        <v>25.5</v>
+        <v>33.5</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -10137,7 +10125,7 @@
         <v>56</v>
       </c>
       <c r="D63">
-        <v>31.5</v>
+        <v>21</v>
       </c>
       <c r="E63">
         <v>0</v>
